--- a/GBM Lifetime Predictions.xlsx
+++ b/GBM Lifetime Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B905B0-B0CE-4D93-80B6-12220BB26690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F1FCF3-DA52-4BDC-BFB4-FD005610BC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="-195" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -875,7 +875,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45283.469662615738" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="30" xr:uid="{827BC2B5-8CB2-43F7-9795-87FC66DF261C}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45284.036375810188" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="30" xr:uid="{827BC2B5-8CB2-43F7-9795-87FC66DF261C}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A42:I1000" sheet="Predictions"/>
   </cacheSource>
@@ -905,7 +905,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Model" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
     </cacheField>
     <cacheField name="Category" numFmtId="0">
       <sharedItems containsBlank="1" count="3">
@@ -934,7 +934,7 @@
     <s v="Anaheim Ducks"/>
     <n v="0.31176999999999999"/>
     <s v="Playing At:  Anaheim Ducks   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="0"/>
   </r>
   <r>
@@ -945,7 +945,7 @@
     <s v="San Jose Sharks"/>
     <n v="0.32399"/>
     <s v="Playing At:  Vancouver Canucks   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="0"/>
   </r>
   <r>
@@ -956,7 +956,7 @@
     <s v="Chicago Blackhawks"/>
     <n v="0.36226999999999998"/>
     <s v="Playing At:  St. Louis Blues   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="0"/>
   </r>
   <r>
@@ -967,7 +967,7 @@
     <s v="New York Islanders"/>
     <n v="0.36620000000000003"/>
     <s v="Playing At:  Carolina Hurricanes   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="0"/>
   </r>
   <r>
@@ -978,7 +978,7 @@
     <s v="Arizona Coyotes"/>
     <n v="0.38196000000000002"/>
     <s v="Playing At:  Colorado Avalanche   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="0"/>
   </r>
   <r>
@@ -989,7 +989,7 @@
     <s v="Vegas Golden Knights"/>
     <n v="0.38696000000000003"/>
     <s v="Playing At:  Florida Panthers   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="0"/>
   </r>
   <r>
@@ -1000,7 +1000,7 @@
     <s v="Buffalo Sabres"/>
     <n v="0.42875999999999997"/>
     <s v="Playing At:  New York Rangers   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="1"/>
   </r>
   <r>
@@ -1011,7 +1011,7 @@
     <s v="Columbus Blue Jackets"/>
     <n v="0.45823999999999998"/>
     <s v="Playing At:  Columbus Blue Jackets   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="1"/>
   </r>
   <r>
@@ -1022,7 +1022,7 @@
     <s v="Calgary Flames"/>
     <n v="0.46451999999999999"/>
     <s v="Playing At:  Los Angeles Kings   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="1"/>
   </r>
   <r>
@@ -1033,7 +1033,7 @@
     <s v="Dallas Stars"/>
     <n v="0.46477000000000002"/>
     <s v="Playing At:  Nashville Predators   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="1"/>
   </r>
   <r>
@@ -1044,7 +1044,7 @@
     <s v="Minnesota Wild"/>
     <n v="0.48823"/>
     <s v="Playing At:  Minnesota Wild   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="1"/>
   </r>
   <r>
@@ -1055,7 +1055,7 @@
     <s v="Pittsburgh Penguins"/>
     <n v="0.49253999999999998"/>
     <s v="Playing At:  Ottawa Senators   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="1"/>
   </r>
   <r>
@@ -1066,7 +1066,7 @@
     <s v="Washington Capitals"/>
     <n v="0.49664999999999998"/>
     <s v="Playing At:  Washington Capitals   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="1"/>
   </r>
   <r>
@@ -1077,7 +1077,7 @@
     <s v="Detroit Red Wings"/>
     <n v="0.49801000000000001"/>
     <s v="Playing At:  New Jersey Devils   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="1"/>
   </r>
   <r>
@@ -1631,7 +1631,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1675,10 +1675,12 @@
       <c r="B4" s="7">
         <v>6</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="7">
+        <v>5</v>
+      </c>
       <c r="D4" s="6">
         <f>C4/B4</f>
-        <v>0</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="F4">
         <f>SUM(B4:B6)</f>
@@ -1692,14 +1694,16 @@
       <c r="B5" s="7">
         <v>8</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="7">
+        <v>6</v>
+      </c>
       <c r="D5" s="6">
         <f t="shared" ref="D5:D9" si="0">C5/B5</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F5">
         <f>SUM(C4:C6)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1709,14 +1713,16 @@
       <c r="B6" s="7">
         <v>14</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="7">
+        <v>11</v>
+      </c>
       <c r="D6" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>C6/B6</f>
+        <v>0.7857142857142857</v>
       </c>
       <c r="F6" s="6">
         <f>F5/F4</f>
-        <v>0</v>
+        <v>0.7857142857142857</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1764,8 +1770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3064,6 +3070,9 @@
       <c r="G43" t="s">
         <v>71</v>
       </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
       <c r="I43" t="str" cm="1">
         <f t="array" ref="I43">_xlfn.IFS(D43 &gt;= 0.85, "85  &lt;", AND(D43 &gt;=0.8, D43 &lt; 0.85), "80-85", AND(D43 &gt;= 0.7, D43 &lt; 0.8), "70-80", AND(D43 &gt;= 0.6, D43 &lt; 0.7),  "60-70", AND(D43 &gt;= 0.5, D43 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
@@ -3091,6 +3100,9 @@
       <c r="G44" t="s">
         <v>76</v>
       </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
       <c r="I44" t="str" cm="1">
         <f t="array" ref="I44">_xlfn.IFS(D44 &gt;= 0.85, "85  &lt;", AND(D44 &gt;=0.8, D44 &lt; 0.85), "80-85", AND(D44 &gt;= 0.7, D44 &lt; 0.8), "70-80", AND(D44 &gt;= 0.6, D44 &lt; 0.7),  "60-70", AND(D44 &gt;= 0.5, D44 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
@@ -3118,6 +3130,9 @@
       <c r="G45" t="s">
         <v>77</v>
       </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
       <c r="I45" t="str" cm="1">
         <f t="array" ref="I45">_xlfn.IFS(D45 &gt;= 0.85, "85  &lt;", AND(D45 &gt;=0.8, D45 &lt; 0.85), "80-85", AND(D45 &gt;= 0.7, D45 &lt; 0.8), "70-80", AND(D45 &gt;= 0.6, D45 &lt; 0.7),  "60-70", AND(D45 &gt;= 0.5, D45 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
@@ -3145,6 +3160,9 @@
       <c r="G46" t="s">
         <v>21</v>
       </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
       <c r="I46" t="str" cm="1">
         <f t="array" ref="I46">_xlfn.IFS(D46 &gt;= 0.85, "85  &lt;", AND(D46 &gt;=0.8, D46 &lt; 0.85), "80-85", AND(D46 &gt;= 0.7, D46 &lt; 0.8), "70-80", AND(D46 &gt;= 0.6, D46 &lt; 0.7),  "60-70", AND(D46 &gt;= 0.5, D46 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
@@ -3172,6 +3190,9 @@
       <c r="G47" t="s">
         <v>18</v>
       </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
       <c r="I47" t="str" cm="1">
         <f t="array" ref="I47">_xlfn.IFS(D47 &gt;= 0.85, "85  &lt;", AND(D47 &gt;=0.8, D47 &lt; 0.85), "80-85", AND(D47 &gt;= 0.7, D47 &lt; 0.8), "70-80", AND(D47 &gt;= 0.6, D47 &lt; 0.7),  "60-70", AND(D47 &gt;= 0.5, D47 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
@@ -3199,6 +3220,9 @@
       <c r="G48" t="s">
         <v>70</v>
       </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
       <c r="I48" t="str" cm="1">
         <f t="array" ref="I48">_xlfn.IFS(D48 &gt;= 0.85, "85  &lt;", AND(D48 &gt;=0.8, D48 &lt; 0.85), "80-85", AND(D48 &gt;= 0.7, D48 &lt; 0.8), "70-80", AND(D48 &gt;= 0.6, D48 &lt; 0.7),  "60-70", AND(D48 &gt;= 0.5, D48 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
@@ -3226,6 +3250,9 @@
       <c r="G49" t="s">
         <v>74</v>
       </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
       <c r="I49" t="str" cm="1">
         <f t="array" ref="I49">_xlfn.IFS(D49 &gt;= 0.85, "85  &lt;", AND(D49 &gt;=0.8, D49 &lt; 0.85), "80-85", AND(D49 &gt;= 0.7, D49 &lt; 0.8), "70-80", AND(D49 &gt;= 0.6, D49 &lt; 0.7),  "60-70", AND(D49 &gt;= 0.5, D49 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
@@ -3253,6 +3280,9 @@
       <c r="G50" t="s">
         <v>72</v>
       </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
       <c r="I50" t="str" cm="1">
         <f t="array" ref="I50">_xlfn.IFS(D50 &gt;= 0.85, "85  &lt;", AND(D50 &gt;=0.8, D50 &lt; 0.85), "80-85", AND(D50 &gt;= 0.7, D50 &lt; 0.8), "70-80", AND(D50 &gt;= 0.6, D50 &lt; 0.7),  "60-70", AND(D50 &gt;= 0.5, D50 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
@@ -3280,6 +3310,9 @@
       <c r="G51" t="s">
         <v>67</v>
       </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
       <c r="I51" t="str" cm="1">
         <f t="array" ref="I51">_xlfn.IFS(D51 &gt;= 0.85, "85  &lt;", AND(D51 &gt;=0.8, D51 &lt; 0.85), "80-85", AND(D51 &gt;= 0.7, D51 &lt; 0.8), "70-80", AND(D51 &gt;= 0.6, D51 &lt; 0.7),  "60-70", AND(D51 &gt;= 0.5, D51 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
@@ -3307,6 +3340,9 @@
       <c r="G52" t="s">
         <v>63</v>
       </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
       <c r="I52" t="str" cm="1">
         <f t="array" ref="I52">_xlfn.IFS(D52 &gt;= 0.85, "85  &lt;", AND(D52 &gt;=0.8, D52 &lt; 0.85), "80-85", AND(D52 &gt;= 0.7, D52 &lt; 0.8), "70-80", AND(D52 &gt;= 0.6, D52 &lt; 0.7),  "60-70", AND(D52 &gt;= 0.5, D52 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
@@ -3334,6 +3370,9 @@
       <c r="G53" t="s">
         <v>69</v>
       </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
       <c r="I53" t="str" cm="1">
         <f t="array" ref="I53">_xlfn.IFS(D53 &gt;= 0.85, "85  &lt;", AND(D53 &gt;=0.8, D53 &lt; 0.85), "80-85", AND(D53 &gt;= 0.7, D53 &lt; 0.8), "70-80", AND(D53 &gt;= 0.6, D53 &lt; 0.7),  "60-70", AND(D53 &gt;= 0.5, D53 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
@@ -3361,6 +3400,9 @@
       <c r="G54" t="s">
         <v>78</v>
       </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
       <c r="I54" t="str" cm="1">
         <f t="array" ref="I54">_xlfn.IFS(D54 &gt;= 0.85, "85  &lt;", AND(D54 &gt;=0.8, D54 &lt; 0.85), "80-85", AND(D54 &gt;= 0.7, D54 &lt; 0.8), "70-80", AND(D54 &gt;= 0.6, D54 &lt; 0.7),  "60-70", AND(D54 &gt;= 0.5, D54 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
@@ -3388,6 +3430,9 @@
       <c r="G55" t="s">
         <v>68</v>
       </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
       <c r="I55" t="str" cm="1">
         <f t="array" ref="I55">_xlfn.IFS(D55 &gt;= 0.85, "85  &lt;", AND(D55 &gt;=0.8, D55 &lt; 0.85), "80-85", AND(D55 &gt;= 0.7, D55 &lt; 0.8), "70-80", AND(D55 &gt;= 0.6, D55 &lt; 0.7),  "60-70", AND(D55 &gt;= 0.5, D55 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
@@ -3414,6 +3459,9 @@
       </c>
       <c r="G56" t="s">
         <v>24</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
       </c>
       <c r="I56" t="str" cm="1">
         <f t="array" ref="I56">_xlfn.IFS(D56 &gt;= 0.85, "85  &lt;", AND(D56 &gt;=0.8, D56 &lt; 0.85), "80-85", AND(D56 &gt;= 0.7, D56 &lt; 0.8), "70-80", AND(D56 &gt;= 0.6, D56 &lt; 0.7),  "60-70", AND(D56 &gt;= 0.5, D56 &lt; 0.6), "50-60")</f>

--- a/GBM Lifetime Predictions.xlsx
+++ b/GBM Lifetime Predictions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F1FCF3-DA52-4BDC-BFB4-FD005610BC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBF659B-76B7-458C-B50B-D26EE0F52867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="10" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="84">
   <si>
     <t>Date</t>
   </si>
@@ -875,7 +875,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45284.036375810188" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="30" xr:uid="{827BC2B5-8CB2-43F7-9795-87FC66DF261C}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45287.398487152779" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="30" xr:uid="{827BC2B5-8CB2-43F7-9795-87FC66DF261C}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A42:I1000" sheet="Predictions"/>
   </cacheSource>
@@ -887,7 +887,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-23T00:00:00" maxDate="2023-12-24T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-23T00:00:00" maxDate="2023-12-28T00:00:00"/>
     </cacheField>
     <cacheField name="Winner" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -1081,158 +1081,158 @@
     <x v="1"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="0"/>
+    <d v="2023-12-27T00:00:00"/>
+    <s v="Los Angeles Kings"/>
+    <n v="0.67949999999999999"/>
+    <s v="San Jose Sharks"/>
+    <n v="0.32050000000000001"/>
+    <s v="Playing At:  Los Angeles Kings   Home"/>
     <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="0"/>
+    <d v="2023-12-27T00:00:00"/>
+    <s v="Vegas Golden Knights"/>
+    <n v="0.67679999999999996"/>
+    <s v="Anaheim Ducks"/>
+    <n v="0.32319999999999999"/>
+    <s v="Playing At:  Anaheim Ducks   Home"/>
     <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="0"/>
+    <d v="2023-12-27T00:00:00"/>
+    <s v="Minnesota Wild"/>
+    <n v="0.6452"/>
+    <s v="Detroit Red Wings"/>
+    <n v="0.3548"/>
+    <s v="Playing At:  Minnesota Wild   Home"/>
     <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="0"/>
+    <d v="2023-12-27T00:00:00"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="0.64129999999999998"/>
+    <s v="Florida Panthers"/>
+    <n v="0.35870000000000002"/>
+    <s v="Playing At:  Tampa Bay Lightning   Home"/>
     <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="0"/>
+    <d v="2023-12-27T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="0.63419999999999999"/>
+    <s v="Ottawa Senators"/>
+    <n v="0.36580000000000001"/>
+    <s v="Playing At:  Toronto Maple Leafs   Home"/>
     <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="0"/>
+    <d v="2023-12-27T00:00:00"/>
+    <s v="New Jersey Devils"/>
+    <n v="0.62170000000000003"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="0.37830000000000003"/>
+    <s v="Playing At:  New Jersey Devils   Home"/>
     <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="0"/>
+    <d v="2023-12-27T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <n v="0.61970000000000003"/>
+    <s v="Buffalo Sabres"/>
+    <n v="0.38030000000000003"/>
+    <s v="Playing At:  Buffalo Sabres   Home"/>
     <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="0"/>
+    <d v="2023-12-27T00:00:00"/>
+    <s v="New York Rangers"/>
+    <n v="0.61080000000000001"/>
+    <s v="Washington Capitals"/>
+    <n v="0.38919999999999999"/>
+    <s v="Playing At:  New York Rangers   Home"/>
     <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="0"/>
+    <d v="2023-12-27T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <n v="0.60209999999999997"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="0.39789999999999998"/>
+    <s v="Playing At:  Chicago Blackhawks   Home"/>
     <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
+    <x v="0"/>
+    <d v="2023-12-27T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <n v="0.56010000000000004"/>
+    <s v="Arizona Coyotes"/>
+    <n v="0.43990000000000001"/>
+    <s v="Playing At:  Arizona Coyotes   Home"/>
+    <m/>
     <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
   </r>
   <r>
+    <x v="0"/>
+    <d v="2023-12-27T00:00:00"/>
+    <s v="St. Louis Blues"/>
+    <n v="0.5534"/>
+    <s v="Dallas Stars"/>
+    <n v="0.4466"/>
+    <s v="Playing At:  St. Louis Blues   Home"/>
+    <m/>
     <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
   </r>
   <r>
+    <x v="0"/>
+    <d v="2023-12-27T00:00:00"/>
+    <s v="New York Islanders"/>
+    <n v="0.52669999999999995"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="0.4733"/>
+    <s v="Playing At:  New York Islanders   Home"/>
+    <m/>
     <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
   </r>
   <r>
+    <x v="0"/>
+    <d v="2023-12-27T00:00:00"/>
+    <s v="Calgary Flames"/>
+    <n v="0.52259999999999995"/>
+    <s v="Seattle Kraken"/>
+    <n v="0.47739999999999999"/>
+    <s v="Playing At:  Calgary Flames   Home"/>
+    <m/>
     <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
   </r>
   <r>
+    <x v="0"/>
+    <d v="2023-12-27T00:00:00"/>
+    <s v="Nashville Predators"/>
+    <n v="0.50729999999999997"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="0.49270000000000003"/>
+    <s v="Playing At:  Nashville Predators   Home"/>
+    <m/>
     <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
   </r>
   <r>
     <x v="1"/>
@@ -1260,7 +1260,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A609C84-6A20-4E13-867B-B610F7CD9750}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A609C84-6A20-4E13-867B-B610F7CD9750}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisPage" showAll="0">
@@ -1631,7 +1631,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,18 +1673,18 @@
         <v>8</v>
       </c>
       <c r="B4" s="7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C4" s="7">
         <v>5</v>
       </c>
       <c r="D4" s="6">
         <f>C4/B4</f>
-        <v>0.83333333333333337</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F4">
         <f>SUM(B4:B6)</f>
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1692,14 +1692,14 @@
         <v>45</v>
       </c>
       <c r="B5" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C5" s="7">
         <v>6</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" ref="D5:D9" si="0">C5/B5</f>
-        <v>0.75</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="F5">
         <f>SUM(C4:C6)</f>
@@ -1711,18 +1711,18 @@
         <v>10</v>
       </c>
       <c r="B6" s="7">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
         <v>11</v>
       </c>
       <c r="D6" s="6">
         <f>C6/B6</f>
-        <v>0.7857142857142857</v>
+        <v>0.39285714285714285</v>
       </c>
       <c r="F6" s="6">
         <f>F5/F4</f>
-        <v>0.7857142857142857</v>
+        <v>0.39285714285714285</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1771,7 +1771,7 @@
   <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+      <selection activeCell="I56" sqref="I56:I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3469,76 +3469,384 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="1"/>
-      <c r="D57" s="2"/>
-      <c r="F57" s="2"/>
+      <c r="A57" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57" s="1">
+        <v>45287</v>
+      </c>
+      <c r="C57" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0.67949999999999999</v>
+      </c>
+      <c r="E57" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0.32050000000000001</v>
+      </c>
+      <c r="G57" t="s">
+        <v>67</v>
+      </c>
+      <c r="I57" t="str" cm="1">
+        <f t="array" ref="I57">_xlfn.IFS(D57 &gt;= 0.85, "85  &lt;", AND(D57 &gt;=0.8, D57 &lt; 0.85), "80-85", AND(D57 &gt;= 0.7, D57 &lt; 0.8), "70-80", AND(D57 &gt;= 0.6, D57 &lt; 0.7),  "60-70", AND(D57 &gt;= 0.5, D57 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="1"/>
-      <c r="D58" s="2"/>
-      <c r="F58" s="2"/>
+      <c r="A58" t="s">
+        <v>82</v>
+      </c>
+      <c r="B58" s="1">
+        <v>45287</v>
+      </c>
+      <c r="C58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0.67679999999999996</v>
+      </c>
+      <c r="E58" t="s">
+        <v>23</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0.32319999999999999</v>
+      </c>
+      <c r="G58" t="s">
+        <v>71</v>
+      </c>
+      <c r="I58" t="str" cm="1">
+        <f t="array" ref="I58">_xlfn.IFS(D58 &gt;= 0.85, "85  &lt;", AND(D58 &gt;=0.8, D58 &lt; 0.85), "80-85", AND(D58 &gt;= 0.7, D58 &lt; 0.8), "70-80", AND(D58 &gt;= 0.6, D58 &lt; 0.7),  "60-70", AND(D58 &gt;= 0.5, D58 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="1"/>
-      <c r="D59" s="2"/>
-      <c r="F59" s="2"/>
+      <c r="A59" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" s="1">
+        <v>45287</v>
+      </c>
+      <c r="C59" t="s">
+        <v>43</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0.6452</v>
+      </c>
+      <c r="E59" t="s">
+        <v>37</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0.3548</v>
+      </c>
+      <c r="G59" t="s">
+        <v>69</v>
+      </c>
+      <c r="I59" t="str" cm="1">
+        <f t="array" ref="I59">_xlfn.IFS(D59 &gt;= 0.85, "85  &lt;", AND(D59 &gt;=0.8, D59 &lt; 0.85), "80-85", AND(D59 &gt;= 0.7, D59 &lt; 0.8), "70-80", AND(D59 &gt;= 0.6, D59 &lt; 0.7),  "60-70", AND(D59 &gt;= 0.5, D59 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="1"/>
-      <c r="D60" s="2"/>
-      <c r="F60" s="2"/>
+      <c r="A60" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60" s="1">
+        <v>45287</v>
+      </c>
+      <c r="C60" t="s">
+        <v>46</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0.64129999999999998</v>
+      </c>
+      <c r="E60" t="s">
+        <v>39</v>
+      </c>
+      <c r="F60" s="2">
+        <v>0.35870000000000002</v>
+      </c>
+      <c r="G60" t="s">
+        <v>48</v>
+      </c>
+      <c r="I60" t="str" cm="1">
+        <f t="array" ref="I60">_xlfn.IFS(D60 &gt;= 0.85, "85  &lt;", AND(D60 &gt;=0.8, D60 &lt; 0.85), "80-85", AND(D60 &gt;= 0.7, D60 &lt; 0.8), "70-80", AND(D60 &gt;= 0.6, D60 &lt; 0.7),  "60-70", AND(D60 &gt;= 0.5, D60 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="1"/>
-      <c r="D61" s="2"/>
-      <c r="F61" s="2"/>
+      <c r="A61" t="s">
+        <v>82</v>
+      </c>
+      <c r="B61" s="1">
+        <v>45287</v>
+      </c>
+      <c r="C61" t="s">
+        <v>64</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0.63419999999999999</v>
+      </c>
+      <c r="E61" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" s="2">
+        <v>0.36580000000000001</v>
+      </c>
+      <c r="G61" t="s">
+        <v>66</v>
+      </c>
+      <c r="I61" t="str" cm="1">
+        <f t="array" ref="I61">_xlfn.IFS(D61 &gt;= 0.85, "85  &lt;", AND(D61 &gt;=0.8, D61 &lt; 0.85), "80-85", AND(D61 &gt;= 0.7, D61 &lt; 0.8), "70-80", AND(D61 &gt;= 0.6, D61 &lt; 0.7),  "60-70", AND(D61 &gt;= 0.5, D61 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="1"/>
-      <c r="D62" s="2"/>
-      <c r="F62" s="2"/>
+      <c r="A62" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62" s="1">
+        <v>45287</v>
+      </c>
+      <c r="C62" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0.62170000000000003</v>
+      </c>
+      <c r="E62" t="s">
+        <v>54</v>
+      </c>
+      <c r="F62" s="2">
+        <v>0.37830000000000003</v>
+      </c>
+      <c r="G62" t="s">
+        <v>24</v>
+      </c>
+      <c r="I62" t="str" cm="1">
+        <f t="array" ref="I62">_xlfn.IFS(D62 &gt;= 0.85, "85  &lt;", AND(D62 &gt;=0.8, D62 &lt; 0.85), "80-85", AND(D62 &gt;= 0.7, D62 &lt; 0.8), "70-80", AND(D62 &gt;= 0.6, D62 &lt; 0.7),  "60-70", AND(D62 &gt;= 0.5, D62 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="1"/>
-      <c r="D63" s="2"/>
-      <c r="F63" s="2"/>
+      <c r="A63" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63" s="1">
+        <v>45287</v>
+      </c>
+      <c r="C63" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63" s="2">
+        <v>0.61970000000000003</v>
+      </c>
+      <c r="E63" t="s">
+        <v>53</v>
+      </c>
+      <c r="F63" s="2">
+        <v>0.38030000000000003</v>
+      </c>
+      <c r="G63" t="s">
+        <v>55</v>
+      </c>
+      <c r="I63" t="str" cm="1">
+        <f t="array" ref="I63">_xlfn.IFS(D63 &gt;= 0.85, "85  &lt;", AND(D63 &gt;=0.8, D63 &lt; 0.85), "80-85", AND(D63 &gt;= 0.7, D63 &lt; 0.8), "70-80", AND(D63 &gt;= 0.6, D63 &lt; 0.7),  "60-70", AND(D63 &gt;= 0.5, D63 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="1"/>
-      <c r="D64" s="2"/>
-      <c r="F64" s="2"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="1"/>
-      <c r="D65" s="2"/>
-      <c r="F65" s="2"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="1"/>
-      <c r="D66" s="2"/>
-      <c r="F66" s="2"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67" s="1"/>
-      <c r="D67" s="2"/>
-      <c r="F67" s="2"/>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="1"/>
-      <c r="D68" s="2"/>
-      <c r="F68" s="2"/>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B69" s="1"/>
-      <c r="D69" s="2"/>
-      <c r="F69" s="2"/>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B70" s="1"/>
-      <c r="D70" s="2"/>
-      <c r="F70" s="2"/>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" s="1">
+        <v>45287</v>
+      </c>
+      <c r="C64" t="s">
+        <v>65</v>
+      </c>
+      <c r="D64" s="2">
+        <v>0.61080000000000001</v>
+      </c>
+      <c r="E64" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" s="2">
+        <v>0.38919999999999999</v>
+      </c>
+      <c r="G64" t="s">
+        <v>74</v>
+      </c>
+      <c r="I64" t="str" cm="1">
+        <f t="array" ref="I64">_xlfn.IFS(D64 &gt;= 0.85, "85  &lt;", AND(D64 &gt;=0.8, D64 &lt; 0.85), "80-85", AND(D64 &gt;= 0.7, D64 &lt; 0.8), "70-80", AND(D64 &gt;= 0.6, D64 &lt; 0.7),  "60-70", AND(D64 &gt;= 0.5, D64 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" s="1">
+        <v>45287</v>
+      </c>
+      <c r="C65" t="s">
+        <v>31</v>
+      </c>
+      <c r="D65" s="2">
+        <v>0.60209999999999997</v>
+      </c>
+      <c r="E65" t="s">
+        <v>26</v>
+      </c>
+      <c r="F65" s="2">
+        <v>0.39789999999999998</v>
+      </c>
+      <c r="G65" t="s">
+        <v>27</v>
+      </c>
+      <c r="I65" t="str" cm="1">
+        <f t="array" ref="I65">_xlfn.IFS(D65 &gt;= 0.85, "85  &lt;", AND(D65 &gt;=0.8, D65 &lt; 0.85), "80-85", AND(D65 &gt;= 0.7, D65 &lt; 0.8), "70-80", AND(D65 &gt;= 0.6, D65 &lt; 0.7),  "60-70", AND(D65 &gt;= 0.5, D65 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" s="1">
+        <v>45287</v>
+      </c>
+      <c r="C66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="2">
+        <v>0.56010000000000004</v>
+      </c>
+      <c r="E66" t="s">
+        <v>60</v>
+      </c>
+      <c r="F66" s="2">
+        <v>0.43990000000000001</v>
+      </c>
+      <c r="G66" t="s">
+        <v>61</v>
+      </c>
+      <c r="I66" t="str" cm="1">
+        <f t="array" ref="I66">_xlfn.IFS(D66 &gt;= 0.85, "85  &lt;", AND(D66 &gt;=0.8, D66 &lt; 0.85), "80-85", AND(D66 &gt;= 0.7, D66 &lt; 0.8), "70-80", AND(D66 &gt;= 0.6, D66 &lt; 0.7),  "60-70", AND(D66 &gt;= 0.5, D66 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>82</v>
+      </c>
+      <c r="B67" s="1">
+        <v>45287</v>
+      </c>
+      <c r="C67" t="s">
+        <v>47</v>
+      </c>
+      <c r="D67" s="2">
+        <v>0.5534</v>
+      </c>
+      <c r="E67" t="s">
+        <v>34</v>
+      </c>
+      <c r="F67" s="2">
+        <v>0.4466</v>
+      </c>
+      <c r="G67" t="s">
+        <v>77</v>
+      </c>
+      <c r="I67" t="str" cm="1">
+        <f t="array" ref="I67">_xlfn.IFS(D67 &gt;= 0.85, "85  &lt;", AND(D67 &gt;=0.8, D67 &lt; 0.85), "80-85", AND(D67 &gt;= 0.7, D67 &lt; 0.8), "70-80", AND(D67 &gt;= 0.6, D67 &lt; 0.7),  "60-70", AND(D67 &gt;= 0.5, D67 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" s="1">
+        <v>45287</v>
+      </c>
+      <c r="C68" t="s">
+        <v>58</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0.52669999999999995</v>
+      </c>
+      <c r="E68" t="s">
+        <v>42</v>
+      </c>
+      <c r="F68" s="2">
+        <v>0.4733</v>
+      </c>
+      <c r="G68" t="s">
+        <v>59</v>
+      </c>
+      <c r="I68" t="str" cm="1">
+        <f t="array" ref="I68">_xlfn.IFS(D68 &gt;= 0.85, "85  &lt;", AND(D68 &gt;=0.8, D68 &lt; 0.85), "80-85", AND(D68 &gt;= 0.7, D68 &lt; 0.8), "70-80", AND(D68 &gt;= 0.6, D68 &lt; 0.7),  "60-70", AND(D68 &gt;= 0.5, D68 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>82</v>
+      </c>
+      <c r="B69" s="1">
+        <v>45287</v>
+      </c>
+      <c r="C69" t="s">
+        <v>40</v>
+      </c>
+      <c r="D69" s="2">
+        <v>0.52259999999999995</v>
+      </c>
+      <c r="E69" t="s">
+        <v>35</v>
+      </c>
+      <c r="F69" s="2">
+        <v>0.47739999999999999</v>
+      </c>
+      <c r="G69" t="s">
+        <v>41</v>
+      </c>
+      <c r="I69" t="str" cm="1">
+        <f t="array" ref="I69">_xlfn.IFS(D69 &gt;= 0.85, "85  &lt;", AND(D69 &gt;=0.8, D69 &lt; 0.85), "80-85", AND(D69 &gt;= 0.7, D69 &lt; 0.8), "70-80", AND(D69 &gt;= 0.6, D69 &lt; 0.7),  "60-70", AND(D69 &gt;= 0.5, D69 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>82</v>
+      </c>
+      <c r="B70" s="1">
+        <v>45287</v>
+      </c>
+      <c r="C70" t="s">
+        <v>62</v>
+      </c>
+      <c r="D70" s="2">
+        <v>0.50729999999999997</v>
+      </c>
+      <c r="E70" t="s">
+        <v>19</v>
+      </c>
+      <c r="F70" s="2">
+        <v>0.49270000000000003</v>
+      </c>
+      <c r="G70" t="s">
+        <v>63</v>
+      </c>
+      <c r="I70" t="str" cm="1">
+        <f t="array" ref="I70">_xlfn.IFS(D70 &gt;= 0.85, "85  &lt;", AND(D70 &gt;=0.8, D70 &lt; 0.85), "80-85", AND(D70 &gt;= 0.7, D70 &lt; 0.8), "70-80", AND(D70 &gt;= 0.6, D70 &lt; 0.7),  "60-70", AND(D70 &gt;= 0.5, D70 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="D71" s="2"/>
       <c r="F71" s="2"/>

--- a/GBM Lifetime Predictions.xlsx
+++ b/GBM Lifetime Predictions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBF659B-76B7-458C-B50B-D26EE0F52867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BA31F5-1F7D-4D92-BB18-8657E2701392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId3"/>
+    <pivotCache cacheId="14" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="85">
   <si>
     <t>Date</t>
   </si>
@@ -311,6 +311,9 @@
   </si>
   <si>
     <t>(All)</t>
+  </si>
+  <si>
+    <t>Playing At:  Seattle Kraken   Home</t>
   </si>
 </sst>
 </file>
@@ -875,7 +878,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45287.398487152779" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="30" xr:uid="{827BC2B5-8CB2-43F7-9795-87FC66DF261C}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45289.373195370368" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="42" xr:uid="{827BC2B5-8CB2-43F7-9795-87FC66DF261C}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A42:I1000" sheet="Predictions"/>
   </cacheSource>
@@ -887,7 +890,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-23T00:00:00" maxDate="2023-12-28T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-23T00:00:00" maxDate="2023-12-30T00:00:00"/>
     </cacheField>
     <cacheField name="Winner" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -925,7 +928,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="30">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="42">
   <r>
     <x v="0"/>
     <d v="2023-12-23T00:00:00"/>
@@ -1088,7 +1091,7 @@
     <s v="San Jose Sharks"/>
     <n v="0.32050000000000001"/>
     <s v="Playing At:  Los Angeles Kings   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="0"/>
   </r>
   <r>
@@ -1099,7 +1102,7 @@
     <s v="Anaheim Ducks"/>
     <n v="0.32319999999999999"/>
     <s v="Playing At:  Anaheim Ducks   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="0"/>
   </r>
   <r>
@@ -1110,7 +1113,7 @@
     <s v="Detroit Red Wings"/>
     <n v="0.3548"/>
     <s v="Playing At:  Minnesota Wild   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="0"/>
   </r>
   <r>
@@ -1121,7 +1124,7 @@
     <s v="Florida Panthers"/>
     <n v="0.35870000000000002"/>
     <s v="Playing At:  Tampa Bay Lightning   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="0"/>
   </r>
   <r>
@@ -1132,7 +1135,7 @@
     <s v="Ottawa Senators"/>
     <n v="0.36580000000000001"/>
     <s v="Playing At:  Toronto Maple Leafs   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="0"/>
   </r>
   <r>
@@ -1143,7 +1146,7 @@
     <s v="Columbus Blue Jackets"/>
     <n v="0.37830000000000003"/>
     <s v="Playing At:  New Jersey Devils   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="0"/>
   </r>
   <r>
@@ -1154,7 +1157,7 @@
     <s v="Buffalo Sabres"/>
     <n v="0.38030000000000003"/>
     <s v="Playing At:  Buffalo Sabres   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="0"/>
   </r>
   <r>
@@ -1165,7 +1168,7 @@
     <s v="Washington Capitals"/>
     <n v="0.38919999999999999"/>
     <s v="Playing At:  New York Rangers   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="0"/>
   </r>
   <r>
@@ -1176,7 +1179,7 @@
     <s v="Chicago Blackhawks"/>
     <n v="0.39789999999999998"/>
     <s v="Playing At:  Chicago Blackhawks   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="0"/>
   </r>
   <r>
@@ -1187,7 +1190,7 @@
     <s v="Arizona Coyotes"/>
     <n v="0.43990000000000001"/>
     <s v="Playing At:  Arizona Coyotes   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="1"/>
   </r>
   <r>
@@ -1198,7 +1201,7 @@
     <s v="Dallas Stars"/>
     <n v="0.4466"/>
     <s v="Playing At:  St. Louis Blues   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="1"/>
   </r>
   <r>
@@ -1209,7 +1212,7 @@
     <s v="Pittsburgh Penguins"/>
     <n v="0.4733"/>
     <s v="Playing At:  New York Islanders   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="1"/>
   </r>
   <r>
@@ -1220,7 +1223,7 @@
     <s v="Seattle Kraken"/>
     <n v="0.47739999999999999"/>
     <s v="Playing At:  Calgary Flames   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="1"/>
   </r>
   <r>
@@ -1231,19 +1234,151 @@
     <s v="Carolina Hurricanes"/>
     <n v="0.49270000000000003"/>
     <s v="Playing At:  Nashville Predators   Home"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-28T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <n v="0.67559999999999998"/>
+    <s v="San Jose Sharks"/>
+    <n v="0.32440000000000002"/>
+    <s v="Playing At:  San Jose Sharks   Home"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-28T00:00:00"/>
+    <s v="Vancouver Canucks"/>
+    <n v="0.60760000000000003"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="0.39240000000000003"/>
+    <s v="Playing At:  Vancouver Canucks   Home"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-28T00:00:00"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="0.6048"/>
+    <s v="Montreal Canadiens"/>
+    <n v="0.3952"/>
+    <s v="Playing At:  Carolina Hurricanes   Home"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-28T00:00:00"/>
+    <s v="Vegas Golden Knights"/>
+    <n v="0.58509999999999995"/>
+    <s v="Los Angeles Kings"/>
+    <n v="0.41489999999999999"/>
+    <s v="Playing At:  Vegas Golden Knights   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-29T00:00:00"/>
+    <s v="Arizona Coyotes"/>
+    <n v="0.65480000000000005"/>
+    <s v="Anaheim Ducks"/>
+    <n v="0.34520000000000001"/>
+    <s v="Playing At:  Anaheim Ducks   Home"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-29T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <n v="0.62270000000000003"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="0.37730000000000002"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-29T00:00:00"/>
+    <s v="Florida Panthers"/>
+    <n v="0.5847"/>
+    <s v="New York Rangers"/>
+    <n v="0.4153"/>
+    <s v="Playing At:  Florida Panthers   Home"/>
     <m/>
     <x v="1"/>
   </r>
   <r>
+    <x v="0"/>
+    <d v="2023-12-29T00:00:00"/>
+    <s v="Ottawa Senators"/>
+    <n v="0.57899999999999996"/>
+    <s v="New Jersey Devils"/>
+    <n v="0.42099999999999999"/>
+    <s v="Playing At:  Ottawa Senators   Home"/>
+    <m/>
     <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-29T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="0.57379999999999998"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="0.42620000000000002"/>
+    <s v="Playing At:  Columbus Blue Jackets   Home"/>
     <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-29T00:00:00"/>
+    <s v="St. Louis Blues"/>
+    <n v="0.5343"/>
+    <s v="Colorado Avalanche"/>
+    <n v="0.4657"/>
+    <s v="Playing At:  St. Louis Blues   Home"/>
     <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-29T00:00:00"/>
+    <s v="Seattle Kraken"/>
+    <n v="0.52559999999999996"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="0.47439999999999999"/>
+    <s v="Playing At:  Seattle Kraken   Home"/>
     <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-29T00:00:00"/>
+    <s v="New York Islanders"/>
+    <n v="0.52070000000000005"/>
+    <s v="Washington Capitals"/>
+    <n v="0.4793"/>
+    <s v="Playing At:  New York Islanders   Home"/>
     <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-29T00:00:00"/>
+    <s v="Detroit Red Wings"/>
+    <n v="0.50990000000000002"/>
+    <s v="Nashville Predators"/>
+    <n v="0.49009999999999998"/>
+    <s v="Playing At:  Detroit Red Wings   Home"/>
     <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="1"/>
@@ -1260,7 +1395,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A609C84-6A20-4E13-867B-B610F7CD9750}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A609C84-6A20-4E13-867B-B610F7CD9750}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisPage" showAll="0">
@@ -1631,7 +1766,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,18 +1808,18 @@
         <v>8</v>
       </c>
       <c r="B4" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D4" s="6">
         <f>C4/B4</f>
-        <v>0.33333333333333331</v>
+        <v>0.6</v>
       </c>
       <c r="F4">
         <f>SUM(B4:B6)</f>
-        <v>56</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1692,18 +1827,18 @@
         <v>45</v>
       </c>
       <c r="B5" s="7">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" ref="D5:D9" si="0">C5/B5</f>
-        <v>0.46153846153846156</v>
+        <v>0.38095238095238093</v>
       </c>
       <c r="F5">
         <f>SUM(C4:C6)</f>
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1711,18 +1846,18 @@
         <v>10</v>
       </c>
       <c r="B6" s="7">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C6" s="7">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D6" s="6">
         <f>C6/B6</f>
-        <v>0.39285714285714285</v>
+        <v>0.48780487804878048</v>
       </c>
       <c r="F6" s="6">
         <f>F5/F4</f>
-        <v>0.39285714285714285</v>
+        <v>0.48780487804878048</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1768,10 +1903,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J71"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
     <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56:I70"/>
+      <selection activeCell="I74" sqref="I74:I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3490,6 +3625,9 @@
       <c r="G57" t="s">
         <v>67</v>
       </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
       <c r="I57" t="str" cm="1">
         <f t="array" ref="I57">_xlfn.IFS(D57 &gt;= 0.85, "85  &lt;", AND(D57 &gt;=0.8, D57 &lt; 0.85), "80-85", AND(D57 &gt;= 0.7, D57 &lt; 0.8), "70-80", AND(D57 &gt;= 0.6, D57 &lt; 0.7),  "60-70", AND(D57 &gt;= 0.5, D57 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
@@ -3517,6 +3655,9 @@
       <c r="G58" t="s">
         <v>71</v>
       </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
       <c r="I58" t="str" cm="1">
         <f t="array" ref="I58">_xlfn.IFS(D58 &gt;= 0.85, "85  &lt;", AND(D58 &gt;=0.8, D58 &lt; 0.85), "80-85", AND(D58 &gt;= 0.7, D58 &lt; 0.8), "70-80", AND(D58 &gt;= 0.6, D58 &lt; 0.7),  "60-70", AND(D58 &gt;= 0.5, D58 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
@@ -3544,6 +3685,9 @@
       <c r="G59" t="s">
         <v>69</v>
       </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
       <c r="I59" t="str" cm="1">
         <f t="array" ref="I59">_xlfn.IFS(D59 &gt;= 0.85, "85  &lt;", AND(D59 &gt;=0.8, D59 &lt; 0.85), "80-85", AND(D59 &gt;= 0.7, D59 &lt; 0.8), "70-80", AND(D59 &gt;= 0.6, D59 &lt; 0.7),  "60-70", AND(D59 &gt;= 0.5, D59 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
@@ -3571,6 +3715,9 @@
       <c r="G60" t="s">
         <v>48</v>
       </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
       <c r="I60" t="str" cm="1">
         <f t="array" ref="I60">_xlfn.IFS(D60 &gt;= 0.85, "85  &lt;", AND(D60 &gt;=0.8, D60 &lt; 0.85), "80-85", AND(D60 &gt;= 0.7, D60 &lt; 0.8), "70-80", AND(D60 &gt;= 0.6, D60 &lt; 0.7),  "60-70", AND(D60 &gt;= 0.5, D60 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
@@ -3598,6 +3745,9 @@
       <c r="G61" t="s">
         <v>66</v>
       </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
       <c r="I61" t="str" cm="1">
         <f t="array" ref="I61">_xlfn.IFS(D61 &gt;= 0.85, "85  &lt;", AND(D61 &gt;=0.8, D61 &lt; 0.85), "80-85", AND(D61 &gt;= 0.7, D61 &lt; 0.8), "70-80", AND(D61 &gt;= 0.6, D61 &lt; 0.7),  "60-70", AND(D61 &gt;= 0.5, D61 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
@@ -3625,6 +3775,9 @@
       <c r="G62" t="s">
         <v>24</v>
       </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
       <c r="I62" t="str" cm="1">
         <f t="array" ref="I62">_xlfn.IFS(D62 &gt;= 0.85, "85  &lt;", AND(D62 &gt;=0.8, D62 &lt; 0.85), "80-85", AND(D62 &gt;= 0.7, D62 &lt; 0.8), "70-80", AND(D62 &gt;= 0.6, D62 &lt; 0.7),  "60-70", AND(D62 &gt;= 0.5, D62 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
@@ -3652,6 +3805,9 @@
       <c r="G63" t="s">
         <v>55</v>
       </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
       <c r="I63" t="str" cm="1">
         <f t="array" ref="I63">_xlfn.IFS(D63 &gt;= 0.85, "85  &lt;", AND(D63 &gt;=0.8, D63 &lt; 0.85), "80-85", AND(D63 &gt;= 0.7, D63 &lt; 0.8), "70-80", AND(D63 &gt;= 0.6, D63 &lt; 0.7),  "60-70", AND(D63 &gt;= 0.5, D63 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
@@ -3679,6 +3835,9 @@
       <c r="G64" t="s">
         <v>74</v>
       </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
       <c r="I64" t="str" cm="1">
         <f t="array" ref="I64">_xlfn.IFS(D64 &gt;= 0.85, "85  &lt;", AND(D64 &gt;=0.8, D64 &lt; 0.85), "80-85", AND(D64 &gt;= 0.7, D64 &lt; 0.8), "70-80", AND(D64 &gt;= 0.6, D64 &lt; 0.7),  "60-70", AND(D64 &gt;= 0.5, D64 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
@@ -3706,6 +3865,9 @@
       <c r="G65" t="s">
         <v>27</v>
       </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
       <c r="I65" t="str" cm="1">
         <f t="array" ref="I65">_xlfn.IFS(D65 &gt;= 0.85, "85  &lt;", AND(D65 &gt;=0.8, D65 &lt; 0.85), "80-85", AND(D65 &gt;= 0.7, D65 &lt; 0.8), "70-80", AND(D65 &gt;= 0.6, D65 &lt; 0.7),  "60-70", AND(D65 &gt;= 0.5, D65 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
@@ -3733,6 +3895,9 @@
       <c r="G66" t="s">
         <v>61</v>
       </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
       <c r="I66" t="str" cm="1">
         <f t="array" ref="I66">_xlfn.IFS(D66 &gt;= 0.85, "85  &lt;", AND(D66 &gt;=0.8, D66 &lt; 0.85), "80-85", AND(D66 &gt;= 0.7, D66 &lt; 0.8), "70-80", AND(D66 &gt;= 0.6, D66 &lt; 0.7),  "60-70", AND(D66 &gt;= 0.5, D66 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
@@ -3760,6 +3925,9 @@
       <c r="G67" t="s">
         <v>77</v>
       </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
       <c r="I67" t="str" cm="1">
         <f t="array" ref="I67">_xlfn.IFS(D67 &gt;= 0.85, "85  &lt;", AND(D67 &gt;=0.8, D67 &lt; 0.85), "80-85", AND(D67 &gt;= 0.7, D67 &lt; 0.8), "70-80", AND(D67 &gt;= 0.6, D67 &lt; 0.7),  "60-70", AND(D67 &gt;= 0.5, D67 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
@@ -3787,6 +3955,9 @@
       <c r="G68" t="s">
         <v>59</v>
       </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
       <c r="I68" t="str" cm="1">
         <f t="array" ref="I68">_xlfn.IFS(D68 &gt;= 0.85, "85  &lt;", AND(D68 &gt;=0.8, D68 &lt; 0.85), "80-85", AND(D68 &gt;= 0.7, D68 &lt; 0.8), "70-80", AND(D68 &gt;= 0.6, D68 &lt; 0.7),  "60-70", AND(D68 &gt;= 0.5, D68 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
@@ -3814,6 +3985,9 @@
       <c r="G69" t="s">
         <v>41</v>
       </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
       <c r="I69" t="str" cm="1">
         <f t="array" ref="I69">_xlfn.IFS(D69 &gt;= 0.85, "85  &lt;", AND(D69 &gt;=0.8, D69 &lt; 0.85), "80-85", AND(D69 &gt;= 0.7, D69 &lt; 0.8), "70-80", AND(D69 &gt;= 0.6, D69 &lt; 0.7),  "60-70", AND(D69 &gt;= 0.5, D69 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
@@ -3841,15 +4015,376 @@
       <c r="G70" t="s">
         <v>63</v>
       </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
       <c r="I70" t="str" cm="1">
         <f t="array" ref="I70">_xlfn.IFS(D70 &gt;= 0.85, "85  &lt;", AND(D70 &gt;=0.8, D70 &lt; 0.85), "80-85", AND(D70 &gt;= 0.7, D70 &lt; 0.8), "70-80", AND(D70 &gt;= 0.6, D70 &lt; 0.7),  "60-70", AND(D70 &gt;= 0.5, D70 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="1"/>
-      <c r="D71" s="2"/>
-      <c r="F71" s="2"/>
+      <c r="A71" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71" s="1">
+        <v>45288</v>
+      </c>
+      <c r="C71" t="s">
+        <v>57</v>
+      </c>
+      <c r="D71" s="2">
+        <v>0.67559999999999998</v>
+      </c>
+      <c r="E71" t="s">
+        <v>17</v>
+      </c>
+      <c r="F71" s="2">
+        <v>0.32440000000000002</v>
+      </c>
+      <c r="G71" t="s">
+        <v>52</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71" t="str" cm="1">
+        <f t="array" ref="I71">_xlfn.IFS(D71 &gt;= 0.85, "85  &lt;", AND(D71 &gt;=0.8, D71 &lt; 0.85), "80-85", AND(D71 &gt;= 0.7, D71 &lt; 0.8), "70-80", AND(D71 &gt;= 0.6, D71 &lt; 0.7),  "60-70", AND(D71 &gt;= 0.5, D71 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>82</v>
+      </c>
+      <c r="B72" s="1">
+        <v>45288</v>
+      </c>
+      <c r="C72" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" s="2">
+        <v>0.60760000000000003</v>
+      </c>
+      <c r="E72" t="s">
+        <v>56</v>
+      </c>
+      <c r="F72" s="2">
+        <v>0.39240000000000003</v>
+      </c>
+      <c r="G72" t="s">
+        <v>76</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72" t="str" cm="1">
+        <f t="array" ref="I72">_xlfn.IFS(D72 &gt;= 0.85, "85  &lt;", AND(D72 &gt;=0.8, D72 &lt; 0.85), "80-85", AND(D72 &gt;= 0.7, D72 &lt; 0.8), "70-80", AND(D72 &gt;= 0.6, D72 &lt; 0.7),  "60-70", AND(D72 &gt;= 0.5, D72 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>82</v>
+      </c>
+      <c r="B73" s="1">
+        <v>45288</v>
+      </c>
+      <c r="C73" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" s="2">
+        <v>0.6048</v>
+      </c>
+      <c r="E73" t="s">
+        <v>32</v>
+      </c>
+      <c r="F73" s="2">
+        <v>0.3952</v>
+      </c>
+      <c r="G73" t="s">
+        <v>21</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73" t="str" cm="1">
+        <f t="array" ref="I73">_xlfn.IFS(D73 &gt;= 0.85, "85  &lt;", AND(D73 &gt;=0.8, D73 &lt; 0.85), "80-85", AND(D73 &gt;= 0.7, D73 &lt; 0.8), "70-80", AND(D73 &gt;= 0.6, D73 &lt; 0.7),  "60-70", AND(D73 &gt;= 0.5, D73 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74" s="1">
+        <v>45288</v>
+      </c>
+      <c r="C74" t="s">
+        <v>28</v>
+      </c>
+      <c r="D74" s="2">
+        <v>0.58509999999999995</v>
+      </c>
+      <c r="E74" t="s">
+        <v>51</v>
+      </c>
+      <c r="F74" s="2">
+        <v>0.41489999999999999</v>
+      </c>
+      <c r="G74" t="s">
+        <v>30</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74" t="str" cm="1">
+        <f t="array" ref="I74">_xlfn.IFS(D74 &gt;= 0.85, "85  &lt;", AND(D74 &gt;=0.8, D74 &lt; 0.85), "80-85", AND(D74 &gt;= 0.7, D74 &lt; 0.8), "70-80", AND(D74 &gt;= 0.6, D74 &lt; 0.7),  "60-70", AND(D74 &gt;= 0.5, D74 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75" s="1">
+        <v>45289</v>
+      </c>
+      <c r="C75" t="s">
+        <v>60</v>
+      </c>
+      <c r="D75" s="2">
+        <v>0.65480000000000005</v>
+      </c>
+      <c r="E75" t="s">
+        <v>23</v>
+      </c>
+      <c r="F75" s="2">
+        <v>0.34520000000000001</v>
+      </c>
+      <c r="G75" t="s">
+        <v>71</v>
+      </c>
+      <c r="I75" t="str" cm="1">
+        <f t="array" ref="I75">_xlfn.IFS(D75 &gt;= 0.85, "85  &lt;", AND(D75 &gt;=0.8, D75 &lt; 0.85), "80-85", AND(D75 &gt;= 0.7, D75 &lt; 0.8), "70-80", AND(D75 &gt;= 0.6, D75 &lt; 0.7),  "60-70", AND(D75 &gt;= 0.5, D75 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76" s="1">
+        <v>45289</v>
+      </c>
+      <c r="C76" t="s">
+        <v>34</v>
+      </c>
+      <c r="D76" s="2">
+        <v>0.62270000000000003</v>
+      </c>
+      <c r="E76" t="s">
+        <v>26</v>
+      </c>
+      <c r="F76" s="2">
+        <v>0.37730000000000002</v>
+      </c>
+      <c r="G76" t="s">
+        <v>36</v>
+      </c>
+      <c r="I76" t="str" cm="1">
+        <f t="array" ref="I76">_xlfn.IFS(D76 &gt;= 0.85, "85  &lt;", AND(D76 &gt;=0.8, D76 &lt; 0.85), "80-85", AND(D76 &gt;= 0.7, D76 &lt; 0.8), "70-80", AND(D76 &gt;= 0.6, D76 &lt; 0.7),  "60-70", AND(D76 &gt;= 0.5, D76 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" s="1">
+        <v>45289</v>
+      </c>
+      <c r="C77" t="s">
+        <v>39</v>
+      </c>
+      <c r="D77" s="2">
+        <v>0.5847</v>
+      </c>
+      <c r="E77" t="s">
+        <v>65</v>
+      </c>
+      <c r="F77" s="2">
+        <v>0.4153</v>
+      </c>
+      <c r="G77" t="s">
+        <v>70</v>
+      </c>
+      <c r="I77" t="str" cm="1">
+        <f t="array" ref="I77">_xlfn.IFS(D77 &gt;= 0.85, "85  &lt;", AND(D77 &gt;=0.8, D77 &lt; 0.85), "80-85", AND(D77 &gt;= 0.7, D77 &lt; 0.8), "70-80", AND(D77 &gt;= 0.6, D77 &lt; 0.7),  "60-70", AND(D77 &gt;= 0.5, D77 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" s="1">
+        <v>45289</v>
+      </c>
+      <c r="C78" t="s">
+        <v>29</v>
+      </c>
+      <c r="D78" s="2">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E78" t="s">
+        <v>22</v>
+      </c>
+      <c r="F78" s="2">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="G78" t="s">
+        <v>78</v>
+      </c>
+      <c r="I78" t="str" cm="1">
+        <f t="array" ref="I78">_xlfn.IFS(D78 &gt;= 0.85, "85  &lt;", AND(D78 &gt;=0.8, D78 &lt; 0.85), "80-85", AND(D78 &gt;= 0.7, D78 &lt; 0.8), "70-80", AND(D78 &gt;= 0.6, D78 &lt; 0.7),  "60-70", AND(D78 &gt;= 0.5, D78 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" s="1">
+        <v>45289</v>
+      </c>
+      <c r="C79" t="s">
+        <v>64</v>
+      </c>
+      <c r="D79" s="2">
+        <v>0.57379999999999998</v>
+      </c>
+      <c r="E79" t="s">
+        <v>54</v>
+      </c>
+      <c r="F79" s="2">
+        <v>0.42620000000000002</v>
+      </c>
+      <c r="G79" t="s">
+        <v>72</v>
+      </c>
+      <c r="I79" t="str" cm="1">
+        <f t="array" ref="I79">_xlfn.IFS(D79 &gt;= 0.85, "85  &lt;", AND(D79 &gt;=0.8, D79 &lt; 0.85), "80-85", AND(D79 &gt;= 0.7, D79 &lt; 0.8), "70-80", AND(D79 &gt;= 0.6, D79 &lt; 0.7),  "60-70", AND(D79 &gt;= 0.5, D79 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" s="1">
+        <v>45289</v>
+      </c>
+      <c r="C80" t="s">
+        <v>47</v>
+      </c>
+      <c r="D80" s="2">
+        <v>0.5343</v>
+      </c>
+      <c r="E80" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80" s="2">
+        <v>0.4657</v>
+      </c>
+      <c r="G80" t="s">
+        <v>77</v>
+      </c>
+      <c r="I80" t="str" cm="1">
+        <f t="array" ref="I80">_xlfn.IFS(D80 &gt;= 0.85, "85  &lt;", AND(D80 &gt;=0.8, D80 &lt; 0.85), "80-85", AND(D80 &gt;= 0.7, D80 &lt; 0.8), "70-80", AND(D80 &gt;= 0.6, D80 &lt; 0.7),  "60-70", AND(D80 &gt;= 0.5, D80 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" s="1">
+        <v>45289</v>
+      </c>
+      <c r="C81" t="s">
+        <v>35</v>
+      </c>
+      <c r="D81" s="2">
+        <v>0.52559999999999996</v>
+      </c>
+      <c r="E81" t="s">
+        <v>56</v>
+      </c>
+      <c r="F81" s="2">
+        <v>0.47439999999999999</v>
+      </c>
+      <c r="G81" t="s">
+        <v>84</v>
+      </c>
+      <c r="I81" t="str" cm="1">
+        <f t="array" ref="I81">_xlfn.IFS(D81 &gt;= 0.85, "85  &lt;", AND(D81 &gt;=0.8, D81 &lt; 0.85), "80-85", AND(D81 &gt;= 0.7, D81 &lt; 0.8), "70-80", AND(D81 &gt;= 0.6, D81 &lt; 0.7),  "60-70", AND(D81 &gt;= 0.5, D81 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" s="1">
+        <v>45289</v>
+      </c>
+      <c r="C82" t="s">
+        <v>58</v>
+      </c>
+      <c r="D82" s="2">
+        <v>0.52070000000000005</v>
+      </c>
+      <c r="E82" t="s">
+        <v>20</v>
+      </c>
+      <c r="F82" s="2">
+        <v>0.4793</v>
+      </c>
+      <c r="G82" t="s">
+        <v>59</v>
+      </c>
+      <c r="I82" t="str" cm="1">
+        <f t="array" ref="I82">_xlfn.IFS(D82 &gt;= 0.85, "85  &lt;", AND(D82 &gt;=0.8, D82 &lt; 0.85), "80-85", AND(D82 &gt;= 0.7, D82 &lt; 0.8), "70-80", AND(D82 &gt;= 0.6, D82 &lt; 0.7),  "60-70", AND(D82 &gt;= 0.5, D82 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1">
+        <v>45289</v>
+      </c>
+      <c r="C83" t="s">
+        <v>37</v>
+      </c>
+      <c r="D83" s="2">
+        <v>0.50990000000000002</v>
+      </c>
+      <c r="E83" t="s">
+        <v>62</v>
+      </c>
+      <c r="F83" s="2">
+        <v>0.49009999999999998</v>
+      </c>
+      <c r="G83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I83" t="str" cm="1">
+        <f t="array" ref="I83">_xlfn.IFS(D83 &gt;= 0.85, "85  &lt;", AND(D83 &gt;=0.8, D83 &lt; 0.85), "80-85", AND(D83 &gt;= 0.7, D83 &lt; 0.8), "70-80", AND(D83 &gt;= 0.6, D83 &lt; 0.7),  "60-70", AND(D83 &gt;= 0.5, D83 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/GBM Lifetime Predictions.xlsx
+++ b/GBM Lifetime Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BA31F5-1F7D-4D92-BB18-8657E2701392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FE1BB0-2B46-4855-9D30-1626EE23B8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId3"/>
+    <pivotCache cacheId="4" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="85">
   <si>
     <t>Date</t>
   </si>
@@ -878,7 +878,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45289.373195370368" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="42" xr:uid="{827BC2B5-8CB2-43F7-9795-87FC66DF261C}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45290.441500231478" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="51" xr:uid="{827BC2B5-8CB2-43F7-9795-87FC66DF261C}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A42:I1000" sheet="Predictions"/>
   </cacheSource>
@@ -890,7 +890,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-23T00:00:00" maxDate="2023-12-30T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-23T00:00:00" maxDate="2023-12-31T00:00:00"/>
     </cacheField>
     <cacheField name="Winner" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -928,7 +928,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="42">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="51">
   <r>
     <x v="0"/>
     <d v="2023-12-23T00:00:00"/>
@@ -1289,7 +1289,7 @@
     <s v="Anaheim Ducks"/>
     <n v="0.34520000000000001"/>
     <s v="Playing At:  Anaheim Ducks   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="0"/>
   </r>
   <r>
@@ -1300,7 +1300,7 @@
     <s v="Chicago Blackhawks"/>
     <n v="0.37730000000000002"/>
     <s v="Playing At:  Dallas Stars   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="0"/>
   </r>
   <r>
@@ -1311,7 +1311,7 @@
     <s v="New York Rangers"/>
     <n v="0.4153"/>
     <s v="Playing At:  Florida Panthers   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="1"/>
   </r>
   <r>
@@ -1322,7 +1322,7 @@
     <s v="New Jersey Devils"/>
     <n v="0.42099999999999999"/>
     <s v="Playing At:  Ottawa Senators   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="1"/>
   </r>
   <r>
@@ -1333,7 +1333,7 @@
     <s v="Columbus Blue Jackets"/>
     <n v="0.42620000000000002"/>
     <s v="Playing At:  Columbus Blue Jackets   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="1"/>
   </r>
   <r>
@@ -1344,7 +1344,7 @@
     <s v="Colorado Avalanche"/>
     <n v="0.4657"/>
     <s v="Playing At:  St. Louis Blues   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="1"/>
   </r>
   <r>
@@ -1355,7 +1355,7 @@
     <s v="Philadelphia Flyers"/>
     <n v="0.47439999999999999"/>
     <s v="Playing At:  Seattle Kraken   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="1"/>
   </r>
   <r>
@@ -1366,7 +1366,7 @@
     <s v="Washington Capitals"/>
     <n v="0.4793"/>
     <s v="Playing At:  New York Islanders   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="1"/>
   </r>
   <r>
@@ -1377,6 +1377,105 @@
     <s v="Nashville Predators"/>
     <n v="0.49009999999999998"/>
     <s v="Playing At:  Detroit Red Wings   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-30T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <n v="0.67649999999999999"/>
+    <s v="New Jersey Devils"/>
+    <n v="0.32350000000000001"/>
+    <s v="Playing At:  Boston Bruins   Home"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-30T00:00:00"/>
+    <s v="Florida Panthers"/>
+    <n v="0.67059999999999997"/>
+    <s v="Montreal Canadiens"/>
+    <n v="0.32940000000000003"/>
+    <s v="Playing At:  Florida Panthers   Home"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-30T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <n v="0.61990000000000001"/>
+    <s v="Minnesota Wild"/>
+    <n v="0.38009999999999999"/>
+    <s v="Playing At:  Winnipeg Jets   Home"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-30T00:00:00"/>
+    <s v="Los Angeles Kings"/>
+    <n v="0.61580000000000001"/>
+    <s v="Edmonton Oilers"/>
+    <n v="0.38419999999999999"/>
+    <s v="Playing At:  Los Angeles Kings   Home"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-30T00:00:00"/>
+    <s v="Buffalo Sabres"/>
+    <n v="0.5927"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="0.4073"/>
+    <s v="Playing At:  Buffalo Sabres   Home"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-30T00:00:00"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="0.58240000000000003"/>
+    <s v="New York Rangers"/>
+    <n v="0.41760000000000003"/>
+    <s v="Playing At:  Tampa Bay Lightning   Home"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-30T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="0.54769999999999996"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="0.45229999999999998"/>
+    <s v="Playing At:  Toronto Maple Leafs   Home"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-30T00:00:00"/>
+    <s v="Nashville Predators"/>
+    <n v="0.53320000000000001"/>
+    <s v="Washington Capitals"/>
+    <n v="0.46679999999999999"/>
+    <s v="Playing At:  Washington Capitals   Home"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-30T00:00:00"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="0.52129999999999999"/>
+    <s v="St. Louis Blues"/>
+    <n v="0.47870000000000001"/>
+    <s v="Playing At:  Pittsburgh Penguins   Home"/>
     <m/>
     <x v="1"/>
   </r>
@@ -1395,7 +1494,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A609C84-6A20-4E13-867B-B610F7CD9750}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A609C84-6A20-4E13-867B-B610F7CD9750}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisPage" showAll="0">
@@ -1766,19 +1865,19 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>79</v>
       </c>
@@ -1786,7 +1885,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1803,64 +1902,64 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="7">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C4" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" s="6">
         <f>C4/B4</f>
-        <v>0.6</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F4">
         <f>SUM(B4:B6)</f>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B5" s="7">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C5" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" ref="D5:D9" si="0">C5/B5</f>
-        <v>0.38095238095238093</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="F5">
         <f>SUM(C4:C6)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="7">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C6" s="7">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D6" s="6">
         <f>C6/B6</f>
-        <v>0.48780487804878048</v>
+        <v>0.52</v>
       </c>
       <c r="F6" s="6">
         <f>F5/F4</f>
-        <v>0.48780487804878048</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D7" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1869,7 +1968,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D8" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1879,7 +1978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D9" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1889,7 +1988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D10" s="5"/>
       <c r="F10" s="6" t="e">
         <f>F9/F8</f>
@@ -1903,26 +2002,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J83"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="I74" sqref="I74:I83"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -1951,7 +2050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -1981,7 +2080,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -2011,7 +2110,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -2041,7 +2140,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -2071,7 +2170,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -2101,7 +2200,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -2131,7 +2230,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -2161,7 +2260,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -2191,7 +2290,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>80</v>
       </c>
@@ -2221,7 +2320,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -2251,7 +2350,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -2281,7 +2380,7 @@
         <v>80-85</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>81</v>
       </c>
@@ -2311,7 +2410,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>81</v>
       </c>
@@ -2341,7 +2440,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -2371,7 +2470,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -2401,7 +2500,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>81</v>
       </c>
@@ -2431,7 +2530,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>81</v>
       </c>
@@ -2461,7 +2560,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -2491,7 +2590,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -2521,7 +2620,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -2551,7 +2650,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -2581,7 +2680,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -2611,7 +2710,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -2641,7 +2740,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -2671,7 +2770,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -2701,7 +2800,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -2731,7 +2830,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>81</v>
       </c>
@@ -2761,7 +2860,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -2791,7 +2890,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -2821,7 +2920,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -2851,7 +2950,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>81</v>
       </c>
@@ -2881,7 +2980,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -2911,7 +3010,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>81</v>
       </c>
@@ -2941,7 +3040,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -2971,7 +3070,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>81</v>
       </c>
@@ -3001,7 +3100,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -3031,7 +3130,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -3061,7 +3160,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -3091,7 +3190,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>81</v>
       </c>
@@ -3121,7 +3220,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -3151,7 +3250,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -3183,7 +3282,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -3213,7 +3312,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>82</v>
       </c>
@@ -3243,7 +3342,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>82</v>
       </c>
@@ -3273,7 +3372,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>82</v>
       </c>
@@ -3303,7 +3402,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>82</v>
       </c>
@@ -3333,7 +3432,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>82</v>
       </c>
@@ -3363,7 +3462,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>82</v>
       </c>
@@ -3393,7 +3492,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>82</v>
       </c>
@@ -3423,7 +3522,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>82</v>
       </c>
@@ -3453,7 +3552,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>82</v>
       </c>
@@ -3483,7 +3582,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>82</v>
       </c>
@@ -3513,7 +3612,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>82</v>
       </c>
@@ -3543,7 +3642,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>82</v>
       </c>
@@ -3573,7 +3672,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>82</v>
       </c>
@@ -3603,7 +3702,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>82</v>
       </c>
@@ -3633,7 +3732,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>82</v>
       </c>
@@ -3663,7 +3762,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>82</v>
       </c>
@@ -3693,7 +3792,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>82</v>
       </c>
@@ -3723,7 +3822,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>82</v>
       </c>
@@ -3753,7 +3852,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>82</v>
       </c>
@@ -3783,7 +3882,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>82</v>
       </c>
@@ -3813,7 +3912,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>82</v>
       </c>
@@ -3843,7 +3942,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -3873,7 +3972,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>82</v>
       </c>
@@ -3903,7 +4002,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>82</v>
       </c>
@@ -3933,7 +4032,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>82</v>
       </c>
@@ -3963,7 +4062,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -3993,7 +4092,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>82</v>
       </c>
@@ -4023,7 +4122,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -4053,7 +4152,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>82</v>
       </c>
@@ -4083,7 +4182,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>82</v>
       </c>
@@ -4113,7 +4212,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>82</v>
       </c>
@@ -4143,7 +4242,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>82</v>
       </c>
@@ -4164,13 +4263,16 @@
       </c>
       <c r="G75" t="s">
         <v>71</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
       </c>
       <c r="I75" t="str" cm="1">
         <f t="array" ref="I75">_xlfn.IFS(D75 &gt;= 0.85, "85  &lt;", AND(D75 &gt;=0.8, D75 &lt; 0.85), "80-85", AND(D75 &gt;= 0.7, D75 &lt; 0.8), "70-80", AND(D75 &gt;= 0.6, D75 &lt; 0.7),  "60-70", AND(D75 &gt;= 0.5, D75 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -4191,13 +4293,16 @@
       </c>
       <c r="G76" t="s">
         <v>36</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
       </c>
       <c r="I76" t="str" cm="1">
         <f t="array" ref="I76">_xlfn.IFS(D76 &gt;= 0.85, "85  &lt;", AND(D76 &gt;=0.8, D76 &lt; 0.85), "80-85", AND(D76 &gt;= 0.7, D76 &lt; 0.8), "70-80", AND(D76 &gt;= 0.6, D76 &lt; 0.7),  "60-70", AND(D76 &gt;= 0.5, D76 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>82</v>
       </c>
@@ -4218,13 +4323,16 @@
       </c>
       <c r="G77" t="s">
         <v>70</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
       </c>
       <c r="I77" t="str" cm="1">
         <f t="array" ref="I77">_xlfn.IFS(D77 &gt;= 0.85, "85  &lt;", AND(D77 &gt;=0.8, D77 &lt; 0.85), "80-85", AND(D77 &gt;= 0.7, D77 &lt; 0.8), "70-80", AND(D77 &gt;= 0.6, D77 &lt; 0.7),  "60-70", AND(D77 &gt;= 0.5, D77 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -4245,13 +4353,16 @@
       </c>
       <c r="G78" t="s">
         <v>78</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
       </c>
       <c r="I78" t="str" cm="1">
         <f t="array" ref="I78">_xlfn.IFS(D78 &gt;= 0.85, "85  &lt;", AND(D78 &gt;=0.8, D78 &lt; 0.85), "80-85", AND(D78 &gt;= 0.7, D78 &lt; 0.8), "70-80", AND(D78 &gt;= 0.6, D78 &lt; 0.7),  "60-70", AND(D78 &gt;= 0.5, D78 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -4272,13 +4383,16 @@
       </c>
       <c r="G79" t="s">
         <v>72</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
       </c>
       <c r="I79" t="str" cm="1">
         <f t="array" ref="I79">_xlfn.IFS(D79 &gt;= 0.85, "85  &lt;", AND(D79 &gt;=0.8, D79 &lt; 0.85), "80-85", AND(D79 &gt;= 0.7, D79 &lt; 0.8), "70-80", AND(D79 &gt;= 0.6, D79 &lt; 0.7),  "60-70", AND(D79 &gt;= 0.5, D79 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -4299,13 +4413,16 @@
       </c>
       <c r="G80" t="s">
         <v>77</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
       </c>
       <c r="I80" t="str" cm="1">
         <f t="array" ref="I80">_xlfn.IFS(D80 &gt;= 0.85, "85  &lt;", AND(D80 &gt;=0.8, D80 &lt; 0.85), "80-85", AND(D80 &gt;= 0.7, D80 &lt; 0.8), "70-80", AND(D80 &gt;= 0.6, D80 &lt; 0.7),  "60-70", AND(D80 &gt;= 0.5, D80 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -4326,13 +4443,16 @@
       </c>
       <c r="G81" t="s">
         <v>84</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
       </c>
       <c r="I81" t="str" cm="1">
         <f t="array" ref="I81">_xlfn.IFS(D81 &gt;= 0.85, "85  &lt;", AND(D81 &gt;=0.8, D81 &lt; 0.85), "80-85", AND(D81 &gt;= 0.7, D81 &lt; 0.8), "70-80", AND(D81 &gt;= 0.6, D81 &lt; 0.7),  "60-70", AND(D81 &gt;= 0.5, D81 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -4353,13 +4473,16 @@
       </c>
       <c r="G82" t="s">
         <v>59</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
       </c>
       <c r="I82" t="str" cm="1">
         <f t="array" ref="I82">_xlfn.IFS(D82 &gt;= 0.85, "85  &lt;", AND(D82 &gt;=0.8, D82 &lt; 0.85), "80-85", AND(D82 &gt;= 0.7, D82 &lt; 0.8), "70-80", AND(D82 &gt;= 0.6, D82 &lt; 0.7),  "60-70", AND(D82 &gt;= 0.5, D82 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -4381,8 +4504,254 @@
       <c r="G83" t="s">
         <v>38</v>
       </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
       <c r="I83" t="str" cm="1">
         <f t="array" ref="I83">_xlfn.IFS(D83 &gt;= 0.85, "85  &lt;", AND(D83 &gt;=0.8, D83 &lt; 0.85), "80-85", AND(D83 &gt;= 0.7, D83 &lt; 0.8), "70-80", AND(D83 &gt;= 0.6, D83 &lt; 0.7),  "60-70", AND(D83 &gt;= 0.5, D83 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1">
+        <v>45290</v>
+      </c>
+      <c r="C84" t="s">
+        <v>49</v>
+      </c>
+      <c r="D84" s="2">
+        <v>0.67649999999999999</v>
+      </c>
+      <c r="E84" t="s">
+        <v>22</v>
+      </c>
+      <c r="F84" s="2">
+        <v>0.32350000000000001</v>
+      </c>
+      <c r="G84" t="s">
+        <v>50</v>
+      </c>
+      <c r="I84" t="str" cm="1">
+        <f t="array" ref="I84">_xlfn.IFS(D84 &gt;= 0.85, "85  &lt;", AND(D84 &gt;=0.8, D84 &lt; 0.85), "80-85", AND(D84 &gt;= 0.7, D84 &lt; 0.8), "70-80", AND(D84 &gt;= 0.6, D84 &lt; 0.7),  "60-70", AND(D84 &gt;= 0.5, D84 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>82</v>
+      </c>
+      <c r="B85" s="1">
+        <v>45290</v>
+      </c>
+      <c r="C85" t="s">
+        <v>39</v>
+      </c>
+      <c r="D85" s="2">
+        <v>0.67059999999999997</v>
+      </c>
+      <c r="E85" t="s">
+        <v>32</v>
+      </c>
+      <c r="F85" s="2">
+        <v>0.32940000000000003</v>
+      </c>
+      <c r="G85" t="s">
+        <v>70</v>
+      </c>
+      <c r="I85" t="str" cm="1">
+        <f t="array" ref="I85">_xlfn.IFS(D85 &gt;= 0.85, "85  &lt;", AND(D85 &gt;=0.8, D85 &lt; 0.85), "80-85", AND(D85 &gt;= 0.7, D85 &lt; 0.8), "70-80", AND(D85 &gt;= 0.6, D85 &lt; 0.7),  "60-70", AND(D85 &gt;= 0.5, D85 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>82</v>
+      </c>
+      <c r="B86" s="1">
+        <v>45290</v>
+      </c>
+      <c r="C86" t="s">
+        <v>31</v>
+      </c>
+      <c r="D86" s="2">
+        <v>0.61990000000000001</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" s="2">
+        <v>0.38009999999999999</v>
+      </c>
+      <c r="G86" t="s">
+        <v>33</v>
+      </c>
+      <c r="I86" t="str" cm="1">
+        <f t="array" ref="I86">_xlfn.IFS(D86 &gt;= 0.85, "85  &lt;", AND(D86 &gt;=0.8, D86 &lt; 0.85), "80-85", AND(D86 &gt;= 0.7, D86 &lt; 0.8), "70-80", AND(D86 &gt;= 0.6, D86 &lt; 0.7),  "60-70", AND(D86 &gt;= 0.5, D86 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>82</v>
+      </c>
+      <c r="B87" s="1">
+        <v>45290</v>
+      </c>
+      <c r="C87" t="s">
+        <v>51</v>
+      </c>
+      <c r="D87" s="2">
+        <v>0.61580000000000001</v>
+      </c>
+      <c r="E87" t="s">
+        <v>57</v>
+      </c>
+      <c r="F87" s="2">
+        <v>0.38419999999999999</v>
+      </c>
+      <c r="G87" t="s">
+        <v>67</v>
+      </c>
+      <c r="I87" t="str" cm="1">
+        <f t="array" ref="I87">_xlfn.IFS(D87 &gt;= 0.85, "85  &lt;", AND(D87 &gt;=0.8, D87 &lt; 0.85), "80-85", AND(D87 &gt;= 0.7, D87 &lt; 0.8), "70-80", AND(D87 &gt;= 0.6, D87 &lt; 0.7),  "60-70", AND(D87 &gt;= 0.5, D87 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>82</v>
+      </c>
+      <c r="B88" s="1">
+        <v>45290</v>
+      </c>
+      <c r="C88" t="s">
+        <v>53</v>
+      </c>
+      <c r="D88" s="2">
+        <v>0.5927</v>
+      </c>
+      <c r="E88" t="s">
+        <v>54</v>
+      </c>
+      <c r="F88" s="2">
+        <v>0.4073</v>
+      </c>
+      <c r="G88" t="s">
+        <v>55</v>
+      </c>
+      <c r="I88" t="str" cm="1">
+        <f t="array" ref="I88">_xlfn.IFS(D88 &gt;= 0.85, "85  &lt;", AND(D88 &gt;=0.8, D88 &lt; 0.85), "80-85", AND(D88 &gt;= 0.7, D88 &lt; 0.8), "70-80", AND(D88 &gt;= 0.6, D88 &lt; 0.7),  "60-70", AND(D88 &gt;= 0.5, D88 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>82</v>
+      </c>
+      <c r="B89" s="1">
+        <v>45290</v>
+      </c>
+      <c r="C89" t="s">
+        <v>46</v>
+      </c>
+      <c r="D89" s="2">
+        <v>0.58240000000000003</v>
+      </c>
+      <c r="E89" t="s">
+        <v>65</v>
+      </c>
+      <c r="F89" s="2">
+        <v>0.41760000000000003</v>
+      </c>
+      <c r="G89" t="s">
+        <v>48</v>
+      </c>
+      <c r="I89" t="str" cm="1">
+        <f t="array" ref="I89">_xlfn.IFS(D89 &gt;= 0.85, "85  &lt;", AND(D89 &gt;=0.8, D89 &lt; 0.85), "80-85", AND(D89 &gt;= 0.7, D89 &lt; 0.8), "70-80", AND(D89 &gt;= 0.6, D89 &lt; 0.7),  "60-70", AND(D89 &gt;= 0.5, D89 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>82</v>
+      </c>
+      <c r="B90" s="1">
+        <v>45290</v>
+      </c>
+      <c r="C90" t="s">
+        <v>64</v>
+      </c>
+      <c r="D90" s="2">
+        <v>0.54769999999999996</v>
+      </c>
+      <c r="E90" t="s">
+        <v>19</v>
+      </c>
+      <c r="F90" s="2">
+        <v>0.45229999999999998</v>
+      </c>
+      <c r="G90" t="s">
+        <v>66</v>
+      </c>
+      <c r="I90" t="str" cm="1">
+        <f t="array" ref="I90">_xlfn.IFS(D90 &gt;= 0.85, "85  &lt;", AND(D90 &gt;=0.8, D90 &lt; 0.85), "80-85", AND(D90 &gt;= 0.7, D90 &lt; 0.8), "70-80", AND(D90 &gt;= 0.6, D90 &lt; 0.7),  "60-70", AND(D90 &gt;= 0.5, D90 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>82</v>
+      </c>
+      <c r="B91" s="1">
+        <v>45290</v>
+      </c>
+      <c r="C91" t="s">
+        <v>62</v>
+      </c>
+      <c r="D91" s="2">
+        <v>0.53320000000000001</v>
+      </c>
+      <c r="E91" t="s">
+        <v>20</v>
+      </c>
+      <c r="F91" s="2">
+        <v>0.46679999999999999</v>
+      </c>
+      <c r="G91" t="s">
+        <v>68</v>
+      </c>
+      <c r="I91" t="str" cm="1">
+        <f t="array" ref="I91">_xlfn.IFS(D91 &gt;= 0.85, "85  &lt;", AND(D91 &gt;=0.8, D91 &lt; 0.85), "80-85", AND(D91 &gt;= 0.7, D91 &lt; 0.8), "70-80", AND(D91 &gt;= 0.6, D91 &lt; 0.7),  "60-70", AND(D91 &gt;= 0.5, D91 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>82</v>
+      </c>
+      <c r="B92" s="1">
+        <v>45290</v>
+      </c>
+      <c r="C92" t="s">
+        <v>42</v>
+      </c>
+      <c r="D92" s="2">
+        <v>0.52129999999999999</v>
+      </c>
+      <c r="E92" t="s">
+        <v>47</v>
+      </c>
+      <c r="F92" s="2">
+        <v>0.47870000000000001</v>
+      </c>
+      <c r="G92" t="s">
+        <v>44</v>
+      </c>
+      <c r="I92" t="str" cm="1">
+        <f t="array" ref="I92">_xlfn.IFS(D92 &gt;= 0.85, "85  &lt;", AND(D92 &gt;=0.8, D92 &lt; 0.85), "80-85", AND(D92 &gt;= 0.7, D92 &lt; 0.8), "70-80", AND(D92 &gt;= 0.6, D92 &lt; 0.7),  "60-70", AND(D92 &gt;= 0.5, D92 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>

--- a/GBM Lifetime Predictions.xlsx
+++ b/GBM Lifetime Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FE1BB0-2B46-4855-9D30-1626EE23B8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21B8B71-8071-49D5-8D49-13505A39C364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="88">
   <si>
     <t>Date</t>
   </si>
@@ -314,6 +314,15 @@
   </si>
   <si>
     <t>Playing At:  Seattle Kraken   Home</t>
+  </si>
+  <si>
+    <t>GBM2</t>
+  </si>
+  <si>
+    <t>80-85</t>
+  </si>
+  <si>
+    <t>70-80</t>
   </si>
 </sst>
 </file>
@@ -878,31 +887,32 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45290.441500231478" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="51" xr:uid="{827BC2B5-8CB2-43F7-9795-87FC66DF261C}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45291.357700694447" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="60" xr:uid="{827BC2B5-8CB2-43F7-9795-87FC66DF261C}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A42:I1000" sheet="Predictions"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="Model Used" numFmtId="0">
-      <sharedItems containsBlank="1" count="2">
+      <sharedItems containsBlank="1" count="3">
         <s v="GBM1"/>
+        <s v="GBM2"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-23T00:00:00" maxDate="2023-12-31T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-23T00:00:00" maxDate="2024-01-01T00:00:00"/>
     </cacheField>
     <cacheField name="Winner" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Winner Probability" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.50199000000000005" maxValue="0.68823000000000001"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.50199000000000005" maxValue="0.80030000000000001"/>
     </cacheField>
     <cacheField name="Loser" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Loser Probability" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.31176999999999999" maxValue="0.49801000000000001"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.19969999999999999" maxValue="0.49801000000000001"/>
     </cacheField>
     <cacheField name="Site" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -911,9 +921,11 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
     </cacheField>
     <cacheField name="Category" numFmtId="0">
-      <sharedItems containsBlank="1" count="3">
+      <sharedItems containsBlank="1" count="5">
         <s v="60-70"/>
         <s v="50-60"/>
+        <s v="80-85"/>
+        <s v="70-80"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -928,7 +940,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="51">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="60">
   <r>
     <x v="0"/>
     <d v="2023-12-23T00:00:00"/>
@@ -1388,7 +1400,7 @@
     <s v="New Jersey Devils"/>
     <n v="0.32350000000000001"/>
     <s v="Playing At:  Boston Bruins   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="0"/>
   </r>
   <r>
@@ -1399,7 +1411,7 @@
     <s v="Montreal Canadiens"/>
     <n v="0.32940000000000003"/>
     <s v="Playing At:  Florida Panthers   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="0"/>
   </r>
   <r>
@@ -1410,7 +1422,7 @@
     <s v="Minnesota Wild"/>
     <n v="0.38009999999999999"/>
     <s v="Playing At:  Winnipeg Jets   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="0"/>
   </r>
   <r>
@@ -1421,7 +1433,7 @@
     <s v="Edmonton Oilers"/>
     <n v="0.38419999999999999"/>
     <s v="Playing At:  Los Angeles Kings   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="0"/>
   </r>
   <r>
@@ -1432,7 +1444,7 @@
     <s v="Columbus Blue Jackets"/>
     <n v="0.4073"/>
     <s v="Playing At:  Buffalo Sabres   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="1"/>
   </r>
   <r>
@@ -1443,7 +1455,7 @@
     <s v="New York Rangers"/>
     <n v="0.41760000000000003"/>
     <s v="Playing At:  Tampa Bay Lightning   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="1"/>
   </r>
   <r>
@@ -1454,7 +1466,7 @@
     <s v="Carolina Hurricanes"/>
     <n v="0.45229999999999998"/>
     <s v="Playing At:  Toronto Maple Leafs   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="1"/>
   </r>
   <r>
@@ -1465,7 +1477,7 @@
     <s v="Washington Capitals"/>
     <n v="0.46679999999999999"/>
     <s v="Playing At:  Washington Capitals   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="1"/>
   </r>
   <r>
@@ -1476,11 +1488,110 @@
     <s v="St. Louis Blues"/>
     <n v="0.47870000000000001"/>
     <s v="Playing At:  Pittsburgh Penguins   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-31T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <n v="0.80030000000000001"/>
+    <s v="San Jose Sharks"/>
+    <n v="0.19969999999999999"/>
+    <s v="Playing At:  Colorado Avalanche   Home"/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-31T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <n v="0.77249999999999996"/>
+    <s v="Anaheim Ducks"/>
+    <n v="0.22750000000000001"/>
+    <s v="Playing At:  Anaheim Ducks   Home"/>
+    <m/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-31T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <n v="0.68659999999999999"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="0.31340000000000001"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-31T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <n v="0.66520000000000001"/>
+    <s v="Detroit Red Wings"/>
+    <n v="0.33479999999999999"/>
+    <s v="Playing At:  Detroit Red Wings   Home"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-31T00:00:00"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="0.60340000000000005"/>
+    <s v="New York Islanders"/>
+    <n v="0.39660000000000001"/>
+    <s v="Playing At:  Pittsburgh Penguins   Home"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-31T00:00:00"/>
+    <s v="Minnesota Wild"/>
+    <n v="0.59240000000000004"/>
+    <s v="Winnipeg Jets"/>
+    <n v="0.40760000000000002"/>
+    <s v="Playing At:  Minnesota Wild   Home"/>
     <m/>
     <x v="1"/>
   </r>
   <r>
     <x v="1"/>
+    <d v="2023-12-31T00:00:00"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="0.56240000000000001"/>
+    <s v="Montreal Canadiens"/>
+    <n v="0.43759999999999999"/>
+    <s v="Playing At:  Tampa Bay Lightning   Home"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-31T00:00:00"/>
+    <s v="Ottawa Senators"/>
+    <n v="0.55610000000000004"/>
+    <s v="Buffalo Sabres"/>
+    <n v="0.44390000000000002"/>
+    <s v="Playing At:  Ottawa Senators   Home"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-31T00:00:00"/>
+    <s v="Calgary Flames"/>
+    <n v="0.5544"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="0.4456"/>
+    <s v="Playing At:  Calgary Flames   Home"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
     <m/>
     <m/>
     <m/>
@@ -1488,18 +1599,19 @@
     <m/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="4"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A609C84-6A20-4E13-867B-B610F7CD9750}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="A3:C8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisPage" showAll="0">
-      <items count="3">
+      <items count="4">
         <item x="0"/>
+        <item x="2"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -1512,8 +1624,10 @@
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="4">
-        <item h="1" x="2"/>
+      <items count="6">
+        <item h="1" x="4"/>
+        <item x="2"/>
+        <item x="3"/>
         <item x="0"/>
         <item x="1"/>
         <item t="default"/>
@@ -1524,12 +1638,18 @@
   <rowFields count="1">
     <field x="8"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="5">
     <i>
       <x v="1"/>
     </i>
     <i>
       <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
     </i>
     <i t="grand">
       <x/>
@@ -1865,19 +1985,19 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>79</v>
       </c>
@@ -1885,7 +2005,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1902,97 +2022,111 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="B4" s="7">
-        <v>24</v>
-      </c>
-      <c r="C4" s="7">
-        <v>14</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C4" s="7"/>
       <c r="D4" s="6">
         <f>C4/B4</f>
-        <v>0.58333333333333337</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <f>SUM(B4:B6)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <f>SUM(B4:B5)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="B5" s="7">
-        <v>26</v>
-      </c>
-      <c r="C5" s="7">
-        <v>12</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C5" s="7"/>
       <c r="D5" s="6">
         <f t="shared" ref="D5:D9" si="0">C5/B5</f>
-        <v>0.46153846153846156</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <f>SUM(C4:C6)</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <f>SUM(C4:C5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="7">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C6" s="7">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D6" s="6">
         <f>C6/B6</f>
-        <v>0.52</v>
+        <v>0.62962962962962965</v>
       </c>
       <c r="F6" s="6">
         <f>F5/F4</f>
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D7" s="6" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="7">
+        <v>30</v>
+      </c>
+      <c r="C7" s="7">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.5</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D8" s="6" t="e">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7">
+        <v>59</v>
+      </c>
+      <c r="C8" s="7">
+        <v>32</v>
+      </c>
+      <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="F8">
-        <f>SUM(B7:B8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <f>SUM(B6:B7)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F9">
-        <f>SUM(C7:C8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <f>SUM(C6:C7)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" s="5"/>
-      <c r="F10" s="6" t="e">
+      <c r="F10" s="6">
         <f>F9/F8</f>
-        <v>#DIV/0!</v>
+        <v>0.56140350877192979</v>
       </c>
     </row>
   </sheetData>
@@ -2002,26 +2136,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J92"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="G91" sqref="G91"/>
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -2050,7 +2184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -2080,7 +2214,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -2110,7 +2244,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -2140,7 +2274,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -2170,7 +2304,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -2200,7 +2334,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -2230,7 +2364,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -2260,7 +2394,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -2290,7 +2424,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>80</v>
       </c>
@@ -2320,7 +2454,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -2350,7 +2484,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -2380,7 +2514,7 @@
         <v>80-85</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>81</v>
       </c>
@@ -2410,7 +2544,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>81</v>
       </c>
@@ -2440,7 +2574,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -2470,7 +2604,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -2500,7 +2634,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>81</v>
       </c>
@@ -2530,7 +2664,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>81</v>
       </c>
@@ -2560,7 +2694,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -2590,7 +2724,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -2620,7 +2754,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -2650,7 +2784,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -2680,7 +2814,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -2710,7 +2844,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -2740,7 +2874,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -2770,7 +2904,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -2800,7 +2934,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -2830,7 +2964,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>81</v>
       </c>
@@ -2860,7 +2994,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -2890,7 +3024,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -2920,7 +3054,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -2950,7 +3084,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>81</v>
       </c>
@@ -2980,7 +3114,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -3010,7 +3144,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>81</v>
       </c>
@@ -3040,7 +3174,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -3070,7 +3204,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>81</v>
       </c>
@@ -3100,7 +3234,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -3130,7 +3264,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -3160,7 +3294,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -3190,7 +3324,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>81</v>
       </c>
@@ -3220,7 +3354,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -3250,7 +3384,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -3282,7 +3416,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -3312,7 +3446,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>82</v>
       </c>
@@ -3342,7 +3476,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>82</v>
       </c>
@@ -3372,7 +3506,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>82</v>
       </c>
@@ -3402,7 +3536,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>82</v>
       </c>
@@ -3432,7 +3566,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>82</v>
       </c>
@@ -3462,7 +3596,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>82</v>
       </c>
@@ -3492,7 +3626,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>82</v>
       </c>
@@ -3522,7 +3656,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>82</v>
       </c>
@@ -3552,7 +3686,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>82</v>
       </c>
@@ -3582,7 +3716,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>82</v>
       </c>
@@ -3612,7 +3746,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>82</v>
       </c>
@@ -3642,7 +3776,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>82</v>
       </c>
@@ -3672,7 +3806,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>82</v>
       </c>
@@ -3702,7 +3836,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>82</v>
       </c>
@@ -3732,7 +3866,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>82</v>
       </c>
@@ -3762,7 +3896,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>82</v>
       </c>
@@ -3792,7 +3926,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>82</v>
       </c>
@@ -3822,7 +3956,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>82</v>
       </c>
@@ -3852,7 +3986,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>82</v>
       </c>
@@ -3882,7 +4016,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>82</v>
       </c>
@@ -3912,7 +4046,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>82</v>
       </c>
@@ -3942,7 +4076,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -3972,7 +4106,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>82</v>
       </c>
@@ -4002,7 +4136,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>82</v>
       </c>
@@ -4032,7 +4166,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>82</v>
       </c>
@@ -4062,7 +4196,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -4092,7 +4226,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>82</v>
       </c>
@@ -4122,7 +4256,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -4152,7 +4286,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>82</v>
       </c>
@@ -4182,7 +4316,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>82</v>
       </c>
@@ -4212,7 +4346,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>82</v>
       </c>
@@ -4242,7 +4376,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>82</v>
       </c>
@@ -4272,7 +4406,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -4302,7 +4436,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>82</v>
       </c>
@@ -4332,7 +4466,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -4362,7 +4496,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -4392,7 +4526,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -4422,7 +4556,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -4452,7 +4586,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -4482,7 +4616,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -4512,7 +4646,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -4533,13 +4667,16 @@
       </c>
       <c r="G84" t="s">
         <v>50</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
       </c>
       <c r="I84" t="str" cm="1">
         <f t="array" ref="I84">_xlfn.IFS(D84 &gt;= 0.85, "85  &lt;", AND(D84 &gt;=0.8, D84 &lt; 0.85), "80-85", AND(D84 &gt;= 0.7, D84 &lt; 0.8), "70-80", AND(D84 &gt;= 0.6, D84 &lt; 0.7),  "60-70", AND(D84 &gt;= 0.5, D84 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -4560,13 +4697,16 @@
       </c>
       <c r="G85" t="s">
         <v>70</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
       </c>
       <c r="I85" t="str" cm="1">
         <f t="array" ref="I85">_xlfn.IFS(D85 &gt;= 0.85, "85  &lt;", AND(D85 &gt;=0.8, D85 &lt; 0.85), "80-85", AND(D85 &gt;= 0.7, D85 &lt; 0.8), "70-80", AND(D85 &gt;= 0.6, D85 &lt; 0.7),  "60-70", AND(D85 &gt;= 0.5, D85 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>82</v>
       </c>
@@ -4587,13 +4727,16 @@
       </c>
       <c r="G86" t="s">
         <v>33</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
       </c>
       <c r="I86" t="str" cm="1">
         <f t="array" ref="I86">_xlfn.IFS(D86 &gt;= 0.85, "85  &lt;", AND(D86 &gt;=0.8, D86 &lt; 0.85), "80-85", AND(D86 &gt;= 0.7, D86 &lt; 0.8), "70-80", AND(D86 &gt;= 0.6, D86 &lt; 0.7),  "60-70", AND(D86 &gt;= 0.5, D86 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>82</v>
       </c>
@@ -4614,13 +4757,16 @@
       </c>
       <c r="G87" t="s">
         <v>67</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
       </c>
       <c r="I87" t="str" cm="1">
         <f t="array" ref="I87">_xlfn.IFS(D87 &gt;= 0.85, "85  &lt;", AND(D87 &gt;=0.8, D87 &lt; 0.85), "80-85", AND(D87 &gt;= 0.7, D87 &lt; 0.8), "70-80", AND(D87 &gt;= 0.6, D87 &lt; 0.7),  "60-70", AND(D87 &gt;= 0.5, D87 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>82</v>
       </c>
@@ -4641,13 +4787,16 @@
       </c>
       <c r="G88" t="s">
         <v>55</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
       </c>
       <c r="I88" t="str" cm="1">
         <f t="array" ref="I88">_xlfn.IFS(D88 &gt;= 0.85, "85  &lt;", AND(D88 &gt;=0.8, D88 &lt; 0.85), "80-85", AND(D88 &gt;= 0.7, D88 &lt; 0.8), "70-80", AND(D88 &gt;= 0.6, D88 &lt; 0.7),  "60-70", AND(D88 &gt;= 0.5, D88 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>82</v>
       </c>
@@ -4668,13 +4817,16 @@
       </c>
       <c r="G89" t="s">
         <v>48</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
       </c>
       <c r="I89" t="str" cm="1">
         <f t="array" ref="I89">_xlfn.IFS(D89 &gt;= 0.85, "85  &lt;", AND(D89 &gt;=0.8, D89 &lt; 0.85), "80-85", AND(D89 &gt;= 0.7, D89 &lt; 0.8), "70-80", AND(D89 &gt;= 0.6, D89 &lt; 0.7),  "60-70", AND(D89 &gt;= 0.5, D89 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>82</v>
       </c>
@@ -4695,13 +4847,16 @@
       </c>
       <c r="G90" t="s">
         <v>66</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
       </c>
       <c r="I90" t="str" cm="1">
         <f t="array" ref="I90">_xlfn.IFS(D90 &gt;= 0.85, "85  &lt;", AND(D90 &gt;=0.8, D90 &lt; 0.85), "80-85", AND(D90 &gt;= 0.7, D90 &lt; 0.8), "70-80", AND(D90 &gt;= 0.6, D90 &lt; 0.7),  "60-70", AND(D90 &gt;= 0.5, D90 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>82</v>
       </c>
@@ -4722,13 +4877,16 @@
       </c>
       <c r="G91" t="s">
         <v>68</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
       </c>
       <c r="I91" t="str" cm="1">
         <f t="array" ref="I91">_xlfn.IFS(D91 &gt;= 0.85, "85  &lt;", AND(D91 &gt;=0.8, D91 &lt; 0.85), "80-85", AND(D91 &gt;= 0.7, D91 &lt; 0.8), "70-80", AND(D91 &gt;= 0.6, D91 &lt; 0.7),  "60-70", AND(D91 &gt;= 0.5, D91 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>82</v>
       </c>
@@ -4750,8 +4908,254 @@
       <c r="G92" t="s">
         <v>44</v>
       </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
       <c r="I92" t="str" cm="1">
         <f t="array" ref="I92">_xlfn.IFS(D92 &gt;= 0.85, "85  &lt;", AND(D92 &gt;=0.8, D92 &lt; 0.85), "80-85", AND(D92 &gt;= 0.7, D92 &lt; 0.8), "70-80", AND(D92 &gt;= 0.6, D92 &lt; 0.7),  "60-70", AND(D92 &gt;= 0.5, D92 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>85</v>
+      </c>
+      <c r="B93" s="1">
+        <v>45291</v>
+      </c>
+      <c r="C93" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" s="2">
+        <v>0.80030000000000001</v>
+      </c>
+      <c r="E93" t="s">
+        <v>17</v>
+      </c>
+      <c r="F93" s="2">
+        <v>0.19969999999999999</v>
+      </c>
+      <c r="G93" t="s">
+        <v>18</v>
+      </c>
+      <c r="I93" t="str" cm="1">
+        <f t="array" ref="I93">_xlfn.IFS(D93 &gt;= 0.85, "85  &lt;", AND(D93 &gt;=0.8, D93 &lt; 0.85), "80-85", AND(D93 &gt;= 0.7, D93 &lt; 0.8), "70-80", AND(D93 &gt;= 0.6, D93 &lt; 0.7),  "60-70", AND(D93 &gt;= 0.5, D93 &lt; 0.6), "50-60")</f>
+        <v>80-85</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>85</v>
+      </c>
+      <c r="B94" s="1">
+        <v>45291</v>
+      </c>
+      <c r="C94" t="s">
+        <v>57</v>
+      </c>
+      <c r="D94" s="2">
+        <v>0.77249999999999996</v>
+      </c>
+      <c r="E94" t="s">
+        <v>23</v>
+      </c>
+      <c r="F94" s="2">
+        <v>0.22750000000000001</v>
+      </c>
+      <c r="G94" t="s">
+        <v>71</v>
+      </c>
+      <c r="I94" t="str" cm="1">
+        <f t="array" ref="I94">_xlfn.IFS(D94 &gt;= 0.85, "85  &lt;", AND(D94 &gt;=0.8, D94 &lt; 0.85), "80-85", AND(D94 &gt;= 0.7, D94 &lt; 0.8), "70-80", AND(D94 &gt;= 0.6, D94 &lt; 0.7),  "60-70", AND(D94 &gt;= 0.5, D94 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>85</v>
+      </c>
+      <c r="B95" s="1">
+        <v>45291</v>
+      </c>
+      <c r="C95" t="s">
+        <v>34</v>
+      </c>
+      <c r="D95" s="2">
+        <v>0.68659999999999999</v>
+      </c>
+      <c r="E95" t="s">
+        <v>26</v>
+      </c>
+      <c r="F95" s="2">
+        <v>0.31340000000000001</v>
+      </c>
+      <c r="G95" t="s">
+        <v>36</v>
+      </c>
+      <c r="I95" t="str" cm="1">
+        <f t="array" ref="I95">_xlfn.IFS(D95 &gt;= 0.85, "85  &lt;", AND(D95 &gt;=0.8, D95 &lt; 0.85), "80-85", AND(D95 &gt;= 0.7, D95 &lt; 0.8), "70-80", AND(D95 &gt;= 0.6, D95 &lt; 0.7),  "60-70", AND(D95 &gt;= 0.5, D95 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>85</v>
+      </c>
+      <c r="B96" s="1">
+        <v>45291</v>
+      </c>
+      <c r="C96" t="s">
+        <v>49</v>
+      </c>
+      <c r="D96" s="2">
+        <v>0.66520000000000001</v>
+      </c>
+      <c r="E96" t="s">
+        <v>37</v>
+      </c>
+      <c r="F96" s="2">
+        <v>0.33479999999999999</v>
+      </c>
+      <c r="G96" t="s">
+        <v>38</v>
+      </c>
+      <c r="I96" t="str" cm="1">
+        <f t="array" ref="I96">_xlfn.IFS(D96 &gt;= 0.85, "85  &lt;", AND(D96 &gt;=0.8, D96 &lt; 0.85), "80-85", AND(D96 &gt;= 0.7, D96 &lt; 0.8), "70-80", AND(D96 &gt;= 0.6, D96 &lt; 0.7),  "60-70", AND(D96 &gt;= 0.5, D96 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>85</v>
+      </c>
+      <c r="B97" s="1">
+        <v>45291</v>
+      </c>
+      <c r="C97" t="s">
+        <v>42</v>
+      </c>
+      <c r="D97" s="2">
+        <v>0.60340000000000005</v>
+      </c>
+      <c r="E97" t="s">
+        <v>58</v>
+      </c>
+      <c r="F97" s="2">
+        <v>0.39660000000000001</v>
+      </c>
+      <c r="G97" t="s">
+        <v>44</v>
+      </c>
+      <c r="I97" t="str" cm="1">
+        <f t="array" ref="I97">_xlfn.IFS(D97 &gt;= 0.85, "85  &lt;", AND(D97 &gt;=0.8, D97 &lt; 0.85), "80-85", AND(D97 &gt;= 0.7, D97 &lt; 0.8), "70-80", AND(D97 &gt;= 0.6, D97 &lt; 0.7),  "60-70", AND(D97 &gt;= 0.5, D97 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>85</v>
+      </c>
+      <c r="B98" s="1">
+        <v>45291</v>
+      </c>
+      <c r="C98" t="s">
+        <v>43</v>
+      </c>
+      <c r="D98" s="2">
+        <v>0.59240000000000004</v>
+      </c>
+      <c r="E98" t="s">
+        <v>31</v>
+      </c>
+      <c r="F98" s="2">
+        <v>0.40760000000000002</v>
+      </c>
+      <c r="G98" t="s">
+        <v>69</v>
+      </c>
+      <c r="I98" t="str" cm="1">
+        <f t="array" ref="I98">_xlfn.IFS(D98 &gt;= 0.85, "85  &lt;", AND(D98 &gt;=0.8, D98 &lt; 0.85), "80-85", AND(D98 &gt;= 0.7, D98 &lt; 0.8), "70-80", AND(D98 &gt;= 0.6, D98 &lt; 0.7),  "60-70", AND(D98 &gt;= 0.5, D98 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>85</v>
+      </c>
+      <c r="B99" s="1">
+        <v>45291</v>
+      </c>
+      <c r="C99" t="s">
+        <v>46</v>
+      </c>
+      <c r="D99" s="2">
+        <v>0.56240000000000001</v>
+      </c>
+      <c r="E99" t="s">
+        <v>32</v>
+      </c>
+      <c r="F99" s="2">
+        <v>0.43759999999999999</v>
+      </c>
+      <c r="G99" t="s">
+        <v>48</v>
+      </c>
+      <c r="I99" t="str" cm="1">
+        <f t="array" ref="I99">_xlfn.IFS(D99 &gt;= 0.85, "85  &lt;", AND(D99 &gt;=0.8, D99 &lt; 0.85), "80-85", AND(D99 &gt;= 0.7, D99 &lt; 0.8), "70-80", AND(D99 &gt;= 0.6, D99 &lt; 0.7),  "60-70", AND(D99 &gt;= 0.5, D99 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>85</v>
+      </c>
+      <c r="B100" s="1">
+        <v>45291</v>
+      </c>
+      <c r="C100" t="s">
+        <v>29</v>
+      </c>
+      <c r="D100" s="2">
+        <v>0.55610000000000004</v>
+      </c>
+      <c r="E100" t="s">
+        <v>53</v>
+      </c>
+      <c r="F100" s="2">
+        <v>0.44390000000000002</v>
+      </c>
+      <c r="G100" t="s">
+        <v>78</v>
+      </c>
+      <c r="I100" t="str" cm="1">
+        <f t="array" ref="I100">_xlfn.IFS(D100 &gt;= 0.85, "85  &lt;", AND(D100 &gt;=0.8, D100 &lt; 0.85), "80-85", AND(D100 &gt;= 0.7, D100 &lt; 0.8), "70-80", AND(D100 &gt;= 0.6, D100 &lt; 0.7),  "60-70", AND(D100 &gt;= 0.5, D100 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>85</v>
+      </c>
+      <c r="B101" s="1">
+        <v>45291</v>
+      </c>
+      <c r="C101" t="s">
+        <v>40</v>
+      </c>
+      <c r="D101" s="2">
+        <v>0.5544</v>
+      </c>
+      <c r="E101" t="s">
+        <v>56</v>
+      </c>
+      <c r="F101" s="2">
+        <v>0.4456</v>
+      </c>
+      <c r="G101" t="s">
+        <v>41</v>
+      </c>
+      <c r="I101" t="str" cm="1">
+        <f t="array" ref="I101">_xlfn.IFS(D101 &gt;= 0.85, "85  &lt;", AND(D101 &gt;=0.8, D101 &lt; 0.85), "80-85", AND(D101 &gt;= 0.7, D101 &lt; 0.8), "70-80", AND(D101 &gt;= 0.6, D101 &lt; 0.7),  "60-70", AND(D101 &gt;= 0.5, D101 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>

--- a/GBM Lifetime Predictions.xlsx
+++ b/GBM Lifetime Predictions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21B8B71-8071-49D5-8D49-13505A39C364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725A888A-326F-4E9C-8183-C3CD115D0B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -816,7 +816,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -826,7 +826,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1605,7 +1604,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A609C84-6A20-4E13-867B-B610F7CD9750}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A609C84-6A20-4E13-867B-B610F7CD9750}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisPage" showAll="0">
@@ -1985,7 +1984,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2026,10 +2025,9 @@
       <c r="A4" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="7">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7"/>
+      <c r="B4">
+        <v>1</v>
+      </c>
       <c r="D4" s="6">
         <f>C4/B4</f>
         <v>0</v>
@@ -2043,10 +2041,9 @@
       <c r="A5" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="7">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7"/>
+      <c r="B5">
+        <v>1</v>
+      </c>
       <c r="D5" s="6">
         <f t="shared" ref="D5:D9" si="0">C5/B5</f>
         <v>0</v>
@@ -2060,10 +2057,10 @@
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6">
         <v>27</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6">
         <v>17</v>
       </c>
       <c r="D6" s="6">
@@ -2079,10 +2076,10 @@
       <c r="A7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7">
         <v>30</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7">
         <v>15</v>
       </c>
       <c r="D7" s="6">
@@ -2097,10 +2094,10 @@
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8">
         <v>59</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8">
         <v>32</v>
       </c>
       <c r="D8" s="6">
@@ -2138,8 +2135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GBM Lifetime Predictions.xlsx
+++ b/GBM Lifetime Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725A888A-326F-4E9C-8183-C3CD115D0B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFA4F17-295A-472D-BC05-F3F698DA2DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="88">
   <si>
     <t>Date</t>
   </si>
@@ -816,7 +816,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -826,6 +826,7 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -886,7 +887,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45291.357700694447" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="60" xr:uid="{827BC2B5-8CB2-43F7-9795-87FC66DF261C}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45292.409554398146" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="60" xr:uid="{827BC2B5-8CB2-43F7-9795-87FC66DF261C}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A42:I1000" sheet="Predictions"/>
   </cacheSource>
@@ -1498,7 +1499,7 @@
     <s v="San Jose Sharks"/>
     <n v="0.19969999999999999"/>
     <s v="Playing At:  Colorado Avalanche   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="2"/>
   </r>
   <r>
@@ -1509,7 +1510,7 @@
     <s v="Anaheim Ducks"/>
     <n v="0.22750000000000001"/>
     <s v="Playing At:  Anaheim Ducks   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="3"/>
   </r>
   <r>
@@ -1520,7 +1521,7 @@
     <s v="Chicago Blackhawks"/>
     <n v="0.31340000000000001"/>
     <s v="Playing At:  Dallas Stars   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="0"/>
   </r>
   <r>
@@ -1531,7 +1532,7 @@
     <s v="Detroit Red Wings"/>
     <n v="0.33479999999999999"/>
     <s v="Playing At:  Detroit Red Wings   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="0"/>
   </r>
   <r>
@@ -1542,7 +1543,7 @@
     <s v="New York Islanders"/>
     <n v="0.39660000000000001"/>
     <s v="Playing At:  Pittsburgh Penguins   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="0"/>
   </r>
   <r>
@@ -1553,7 +1554,7 @@
     <s v="Winnipeg Jets"/>
     <n v="0.40760000000000002"/>
     <s v="Playing At:  Minnesota Wild   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="1"/>
   </r>
   <r>
@@ -1564,7 +1565,7 @@
     <s v="Montreal Canadiens"/>
     <n v="0.43759999999999999"/>
     <s v="Playing At:  Tampa Bay Lightning   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="1"/>
   </r>
   <r>
@@ -1575,7 +1576,7 @@
     <s v="Buffalo Sabres"/>
     <n v="0.44390000000000002"/>
     <s v="Playing At:  Ottawa Senators   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="1"/>
   </r>
   <r>
@@ -1586,7 +1587,7 @@
     <s v="Philadelphia Flyers"/>
     <n v="0.4456"/>
     <s v="Playing At:  Calgary Flames   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="1"/>
   </r>
   <r>
@@ -1983,20 +1984,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>79</v>
       </c>
@@ -2004,7 +2005,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -2021,39 +2022,45 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>86</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
       <c r="D4" s="6">
         <f>C4/B4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <f>SUM(B4:B5)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
       <c r="D5" s="6">
         <f t="shared" ref="D5:D9" si="0">C5/B5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <f>SUM(C4:C5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -2061,18 +2068,18 @@
         <v>27</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D6" s="6">
         <f>C6/B6</f>
-        <v>0.62962962962962965</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="F6" s="6">
         <f>F5/F4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>45</v>
       </c>
@@ -2080,17 +2087,17 @@
         <v>30</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -2098,32 +2105,32 @@
         <v>59</v>
       </c>
       <c r="C8">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>0.5423728813559322</v>
+        <v>0.67796610169491522</v>
       </c>
       <c r="F8">
         <f>SUM(B6:B7)</f>
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D9" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F9">
         <f>SUM(C6:C7)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D10" s="5"/>
       <c r="F10" s="6">
         <f>F9/F8</f>
-        <v>0.56140350877192979</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
   </sheetData>
@@ -2133,26 +2140,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -2181,7 +2188,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -2211,7 +2218,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -2241,7 +2248,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -2271,7 +2278,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -2301,7 +2308,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -2331,7 +2338,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -2361,7 +2368,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -2391,7 +2398,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -2421,7 +2428,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>80</v>
       </c>
@@ -2451,7 +2458,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -2481,7 +2488,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -2511,7 +2518,7 @@
         <v>80-85</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>81</v>
       </c>
@@ -2541,7 +2548,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>81</v>
       </c>
@@ -2571,7 +2578,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -2601,7 +2608,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -2631,7 +2638,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>81</v>
       </c>
@@ -2661,7 +2668,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>81</v>
       </c>
@@ -2691,7 +2698,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -2721,7 +2728,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -2751,7 +2758,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -2781,7 +2788,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -2811,7 +2818,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -2841,7 +2848,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -2871,7 +2878,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -2901,7 +2908,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -2931,7 +2938,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -2961,7 +2968,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>81</v>
       </c>
@@ -2991,7 +2998,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -3021,7 +3028,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -3051,7 +3058,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -3081,7 +3088,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>81</v>
       </c>
@@ -3111,7 +3118,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -3141,7 +3148,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>81</v>
       </c>
@@ -3171,7 +3178,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -3201,7 +3208,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>81</v>
       </c>
@@ -3231,7 +3238,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -3261,7 +3268,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -3291,7 +3298,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -3321,7 +3328,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>81</v>
       </c>
@@ -3351,7 +3358,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -3381,7 +3388,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -3413,7 +3420,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -3443,7 +3450,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>82</v>
       </c>
@@ -3473,7 +3480,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>82</v>
       </c>
@@ -3503,7 +3510,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>82</v>
       </c>
@@ -3533,7 +3540,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>82</v>
       </c>
@@ -3563,7 +3570,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>82</v>
       </c>
@@ -3593,7 +3600,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>82</v>
       </c>
@@ -3623,7 +3630,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>82</v>
       </c>
@@ -3653,7 +3660,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>82</v>
       </c>
@@ -3683,7 +3690,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>82</v>
       </c>
@@ -3713,7 +3720,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>82</v>
       </c>
@@ -3743,7 +3750,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>82</v>
       </c>
@@ -3773,7 +3780,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>82</v>
       </c>
@@ -3803,7 +3810,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>82</v>
       </c>
@@ -3833,7 +3840,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>82</v>
       </c>
@@ -3863,7 +3870,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>82</v>
       </c>
@@ -3893,7 +3900,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>82</v>
       </c>
@@ -3923,7 +3930,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>82</v>
       </c>
@@ -3953,7 +3960,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>82</v>
       </c>
@@ -3983,7 +3990,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>82</v>
       </c>
@@ -4013,7 +4020,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>82</v>
       </c>
@@ -4043,7 +4050,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>82</v>
       </c>
@@ -4073,7 +4080,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -4103,7 +4110,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>82</v>
       </c>
@@ -4133,7 +4140,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>82</v>
       </c>
@@ -4163,7 +4170,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>82</v>
       </c>
@@ -4193,7 +4200,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -4223,7 +4230,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>82</v>
       </c>
@@ -4253,7 +4260,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -4283,7 +4290,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>82</v>
       </c>
@@ -4313,7 +4320,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>82</v>
       </c>
@@ -4343,7 +4350,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>82</v>
       </c>
@@ -4373,7 +4380,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>82</v>
       </c>
@@ -4403,7 +4410,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -4433,7 +4440,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>82</v>
       </c>
@@ -4463,7 +4470,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -4493,7 +4500,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -4523,7 +4530,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -4553,7 +4560,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -4583,7 +4590,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -4613,7 +4620,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -4643,7 +4650,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -4673,7 +4680,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -4703,7 +4710,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>82</v>
       </c>
@@ -4733,7 +4740,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>82</v>
       </c>
@@ -4763,7 +4770,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>82</v>
       </c>
@@ -4793,7 +4800,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>82</v>
       </c>
@@ -4823,7 +4830,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>82</v>
       </c>
@@ -4853,7 +4860,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>82</v>
       </c>
@@ -4883,7 +4890,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>82</v>
       </c>
@@ -4913,7 +4920,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>85</v>
       </c>
@@ -4934,13 +4941,16 @@
       </c>
       <c r="G93" t="s">
         <v>18</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
       </c>
       <c r="I93" t="str" cm="1">
         <f t="array" ref="I93">_xlfn.IFS(D93 &gt;= 0.85, "85  &lt;", AND(D93 &gt;=0.8, D93 &lt; 0.85), "80-85", AND(D93 &gt;= 0.7, D93 &lt; 0.8), "70-80", AND(D93 &gt;= 0.6, D93 &lt; 0.7),  "60-70", AND(D93 &gt;= 0.5, D93 &lt; 0.6), "50-60")</f>
         <v>80-85</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>85</v>
       </c>
@@ -4961,13 +4971,16 @@
       </c>
       <c r="G94" t="s">
         <v>71</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
       </c>
       <c r="I94" t="str" cm="1">
         <f t="array" ref="I94">_xlfn.IFS(D94 &gt;= 0.85, "85  &lt;", AND(D94 &gt;=0.8, D94 &lt; 0.85), "80-85", AND(D94 &gt;= 0.7, D94 &lt; 0.8), "70-80", AND(D94 &gt;= 0.6, D94 &lt; 0.7),  "60-70", AND(D94 &gt;= 0.5, D94 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>85</v>
       </c>
@@ -4988,13 +5001,16 @@
       </c>
       <c r="G95" t="s">
         <v>36</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
       </c>
       <c r="I95" t="str" cm="1">
         <f t="array" ref="I95">_xlfn.IFS(D95 &gt;= 0.85, "85  &lt;", AND(D95 &gt;=0.8, D95 &lt; 0.85), "80-85", AND(D95 &gt;= 0.7, D95 &lt; 0.8), "70-80", AND(D95 &gt;= 0.6, D95 &lt; 0.7),  "60-70", AND(D95 &gt;= 0.5, D95 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>85</v>
       </c>
@@ -5015,13 +5031,16 @@
       </c>
       <c r="G96" t="s">
         <v>38</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
       </c>
       <c r="I96" t="str" cm="1">
         <f t="array" ref="I96">_xlfn.IFS(D96 &gt;= 0.85, "85  &lt;", AND(D96 &gt;=0.8, D96 &lt; 0.85), "80-85", AND(D96 &gt;= 0.7, D96 &lt; 0.8), "70-80", AND(D96 &gt;= 0.6, D96 &lt; 0.7),  "60-70", AND(D96 &gt;= 0.5, D96 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>85</v>
       </c>
@@ -5042,13 +5061,16 @@
       </c>
       <c r="G97" t="s">
         <v>44</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
       </c>
       <c r="I97" t="str" cm="1">
         <f t="array" ref="I97">_xlfn.IFS(D97 &gt;= 0.85, "85  &lt;", AND(D97 &gt;=0.8, D97 &lt; 0.85), "80-85", AND(D97 &gt;= 0.7, D97 &lt; 0.8), "70-80", AND(D97 &gt;= 0.6, D97 &lt; 0.7),  "60-70", AND(D97 &gt;= 0.5, D97 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>85</v>
       </c>
@@ -5069,13 +5091,16 @@
       </c>
       <c r="G98" t="s">
         <v>69</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
       </c>
       <c r="I98" t="str" cm="1">
         <f t="array" ref="I98">_xlfn.IFS(D98 &gt;= 0.85, "85  &lt;", AND(D98 &gt;=0.8, D98 &lt; 0.85), "80-85", AND(D98 &gt;= 0.7, D98 &lt; 0.8), "70-80", AND(D98 &gt;= 0.6, D98 &lt; 0.7),  "60-70", AND(D98 &gt;= 0.5, D98 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>85</v>
       </c>
@@ -5096,13 +5121,16 @@
       </c>
       <c r="G99" t="s">
         <v>48</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
       </c>
       <c r="I99" t="str" cm="1">
         <f t="array" ref="I99">_xlfn.IFS(D99 &gt;= 0.85, "85  &lt;", AND(D99 &gt;=0.8, D99 &lt; 0.85), "80-85", AND(D99 &gt;= 0.7, D99 &lt; 0.8), "70-80", AND(D99 &gt;= 0.6, D99 &lt; 0.7),  "60-70", AND(D99 &gt;= 0.5, D99 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>85</v>
       </c>
@@ -5123,13 +5151,16 @@
       </c>
       <c r="G100" t="s">
         <v>78</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
       </c>
       <c r="I100" t="str" cm="1">
         <f t="array" ref="I100">_xlfn.IFS(D100 &gt;= 0.85, "85  &lt;", AND(D100 &gt;=0.8, D100 &lt; 0.85), "80-85", AND(D100 &gt;= 0.7, D100 &lt; 0.8), "70-80", AND(D100 &gt;= 0.6, D100 &lt; 0.7),  "60-70", AND(D100 &gt;= 0.5, D100 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>85</v>
       </c>
@@ -5151,8 +5182,38 @@
       <c r="G101" t="s">
         <v>41</v>
       </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
       <c r="I101" t="str" cm="1">
         <f t="array" ref="I101">_xlfn.IFS(D101 &gt;= 0.85, "85  &lt;", AND(D101 &gt;=0.8, D101 &lt; 0.85), "80-85", AND(D101 &gt;= 0.7, D101 &lt; 0.8), "70-80", AND(D101 &gt;= 0.6, D101 &lt; 0.7),  "60-70", AND(D101 &gt;= 0.5, D101 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>85</v>
+      </c>
+      <c r="B102" s="1">
+        <v>45292</v>
+      </c>
+      <c r="C102" t="s">
+        <v>28</v>
+      </c>
+      <c r="D102" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E102" t="s">
+        <v>35</v>
+      </c>
+      <c r="F102" s="7">
+        <v>0.43</v>
+      </c>
+      <c r="G102" t="s">
+        <v>84</v>
+      </c>
+      <c r="I102" t="str" cm="1">
+        <f t="array" ref="I102">_xlfn.IFS(D102 &gt;= 0.85, "85  &lt;", AND(D102 &gt;=0.8, D102 &lt; 0.85), "80-85", AND(D102 &gt;= 0.7, D102 &lt; 0.8), "70-80", AND(D102 &gt;= 0.6, D102 &lt; 0.7),  "60-70", AND(D102 &gt;= 0.5, D102 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>

--- a/GBM Lifetime Predictions.xlsx
+++ b/GBM Lifetime Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFA4F17-295A-472D-BC05-F3F698DA2DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152D9916-6CCD-4E7F-8F04-B0B391C7A086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="10" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="89">
   <si>
     <t>Date</t>
   </si>
@@ -323,6 +323,9 @@
   </si>
   <si>
     <t>70-80</t>
+  </si>
+  <si>
+    <t>Playing At:  Edmonton Oilers   Home</t>
   </si>
 </sst>
 </file>
@@ -816,7 +819,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -827,6 +830,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -887,7 +891,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45292.409554398146" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="60" xr:uid="{827BC2B5-8CB2-43F7-9795-87FC66DF261C}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45293.361632291664" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="61" xr:uid="{827BC2B5-8CB2-43F7-9795-87FC66DF261C}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A42:I1000" sheet="Predictions"/>
   </cacheSource>
@@ -900,7 +904,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-23T00:00:00" maxDate="2024-01-01T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-23T00:00:00" maxDate="2024-01-02T00:00:00"/>
     </cacheField>
     <cacheField name="Winner" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -940,7 +944,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="60">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="61">
   <r>
     <x v="0"/>
     <d v="2023-12-23T00:00:00"/>
@@ -1591,6 +1595,17 @@
     <x v="1"/>
   </r>
   <r>
+    <x v="1"/>
+    <d v="2024-01-01T00:00:00"/>
+    <s v="Vegas Golden Knights"/>
+    <n v="0.56999999999999995"/>
+    <s v="Seattle Kraken"/>
+    <n v="0.43"/>
+    <s v="Playing At:  Seattle Kraken   Home"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
     <x v="2"/>
     <m/>
     <m/>
@@ -1605,7 +1620,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A609C84-6A20-4E13-867B-B610F7CD9750}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A609C84-6A20-4E13-867B-B610F7CD9750}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisPage" showAll="0">
@@ -1985,19 +2000,19 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>79</v>
       </c>
@@ -2005,7 +2020,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -2022,14 +2037,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
         <v>1</v>
       </c>
       <c r="D4" s="6">
@@ -2041,14 +2056,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
         <v>1</v>
       </c>
       <c r="D5" s="6">
@@ -2060,14 +2075,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="8">
         <v>27</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="8">
         <v>20</v>
       </c>
       <c r="D6" s="6">
@@ -2079,44 +2094,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B7">
-        <v>30</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="8">
+        <v>31</v>
+      </c>
+      <c r="C7" s="8">
         <v>18</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.58064516129032262</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>59</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="8">
+        <v>60</v>
+      </c>
+      <c r="C8" s="8">
         <v>40</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>0.67796610169491522</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F8">
         <f>SUM(B6:B7)</f>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -2126,11 +2141,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" s="5"/>
       <c r="F10" s="6">
         <f>F9/F8</f>
-        <v>0.66666666666666663</v>
+        <v>0.65517241379310343</v>
       </c>
     </row>
   </sheetData>
@@ -2140,26 +2155,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J102"/>
+  <dimension ref="A1:J115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -2188,7 +2203,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -2218,7 +2233,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -2248,7 +2263,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -2278,7 +2293,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -2308,7 +2323,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -2338,7 +2353,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -2368,7 +2383,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -2398,7 +2413,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -2428,7 +2443,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>80</v>
       </c>
@@ -2458,7 +2473,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -2488,7 +2503,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -2518,7 +2533,7 @@
         <v>80-85</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>81</v>
       </c>
@@ -2548,7 +2563,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>81</v>
       </c>
@@ -2578,7 +2593,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -2608,7 +2623,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -2638,7 +2653,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>81</v>
       </c>
@@ -2668,7 +2683,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>81</v>
       </c>
@@ -2698,7 +2713,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -2728,7 +2743,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -2758,7 +2773,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -2788,7 +2803,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -2818,7 +2833,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -2848,7 +2863,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -2878,7 +2893,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -2908,7 +2923,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -2938,7 +2953,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -2968,7 +2983,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>81</v>
       </c>
@@ -2998,7 +3013,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -3028,7 +3043,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -3058,7 +3073,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -3088,7 +3103,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>81</v>
       </c>
@@ -3118,7 +3133,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -3148,7 +3163,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>81</v>
       </c>
@@ -3178,7 +3193,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -3208,7 +3223,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>81</v>
       </c>
@@ -3238,7 +3253,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -3268,7 +3283,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -3298,7 +3313,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -3328,7 +3343,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>81</v>
       </c>
@@ -3358,7 +3373,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -3388,7 +3403,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -3420,7 +3435,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -3450,7 +3465,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>82</v>
       </c>
@@ -3480,7 +3495,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>82</v>
       </c>
@@ -3510,7 +3525,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>82</v>
       </c>
@@ -3540,7 +3555,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>82</v>
       </c>
@@ -3570,7 +3585,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>82</v>
       </c>
@@ -3600,7 +3615,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>82</v>
       </c>
@@ -3630,7 +3645,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>82</v>
       </c>
@@ -3660,7 +3675,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>82</v>
       </c>
@@ -3690,7 +3705,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>82</v>
       </c>
@@ -3720,7 +3735,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>82</v>
       </c>
@@ -3750,7 +3765,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>82</v>
       </c>
@@ -3780,7 +3795,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>82</v>
       </c>
@@ -3810,7 +3825,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>82</v>
       </c>
@@ -3840,7 +3855,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>82</v>
       </c>
@@ -3870,7 +3885,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>82</v>
       </c>
@@ -3900,7 +3915,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>82</v>
       </c>
@@ -3930,7 +3945,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>82</v>
       </c>
@@ -3960,7 +3975,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>82</v>
       </c>
@@ -3990,7 +4005,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>82</v>
       </c>
@@ -4020,7 +4035,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>82</v>
       </c>
@@ -4050,7 +4065,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>82</v>
       </c>
@@ -4080,7 +4095,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -4110,7 +4125,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>82</v>
       </c>
@@ -4140,7 +4155,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>82</v>
       </c>
@@ -4170,7 +4185,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>82</v>
       </c>
@@ -4200,7 +4215,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -4230,7 +4245,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>82</v>
       </c>
@@ -4260,7 +4275,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -4290,7 +4305,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>82</v>
       </c>
@@ -4320,7 +4335,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>82</v>
       </c>
@@ -4350,7 +4365,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>82</v>
       </c>
@@ -4380,7 +4395,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>82</v>
       </c>
@@ -4410,7 +4425,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -4440,7 +4455,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>82</v>
       </c>
@@ -4470,7 +4485,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -4500,7 +4515,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -4530,7 +4545,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -4560,7 +4575,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -4590,7 +4605,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -4620,7 +4635,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -4650,7 +4665,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -4680,7 +4695,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -4710,7 +4725,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>82</v>
       </c>
@@ -4740,7 +4755,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>82</v>
       </c>
@@ -4770,7 +4785,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>82</v>
       </c>
@@ -4800,7 +4815,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>82</v>
       </c>
@@ -4830,7 +4845,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>82</v>
       </c>
@@ -4860,7 +4875,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>82</v>
       </c>
@@ -4890,7 +4905,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>82</v>
       </c>
@@ -4920,7 +4935,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>85</v>
       </c>
@@ -4950,7 +4965,7 @@
         <v>80-85</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>85</v>
       </c>
@@ -4980,7 +4995,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>85</v>
       </c>
@@ -5010,7 +5025,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>85</v>
       </c>
@@ -5040,7 +5055,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>85</v>
       </c>
@@ -5070,7 +5085,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>85</v>
       </c>
@@ -5100,7 +5115,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>85</v>
       </c>
@@ -5130,7 +5145,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>85</v>
       </c>
@@ -5160,7 +5175,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>85</v>
       </c>
@@ -5190,7 +5205,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>85</v>
       </c>
@@ -5212,8 +5227,362 @@
       <c r="G102" t="s">
         <v>84</v>
       </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
       <c r="I102" t="str" cm="1">
         <f t="array" ref="I102">_xlfn.IFS(D102 &gt;= 0.85, "85  &lt;", AND(D102 &gt;=0.8, D102 &lt; 0.85), "80-85", AND(D102 &gt;= 0.7, D102 &lt; 0.8), "70-80", AND(D102 &gt;= 0.6, D102 &lt; 0.7),  "60-70", AND(D102 &gt;= 0.5, D102 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>85</v>
+      </c>
+      <c r="B103" s="1">
+        <v>45293</v>
+      </c>
+      <c r="C103" t="s">
+        <v>49</v>
+      </c>
+      <c r="D103" s="2">
+        <v>0.74260000000000004</v>
+      </c>
+      <c r="E103" t="s">
+        <v>54</v>
+      </c>
+      <c r="F103" s="2">
+        <v>0.25740000000000002</v>
+      </c>
+      <c r="G103" t="s">
+        <v>72</v>
+      </c>
+      <c r="I103" t="str" cm="1">
+        <f t="array" ref="I103">_xlfn.IFS(D103 &gt;= 0.85, "85  &lt;", AND(D103 &gt;=0.8, D103 &lt; 0.85), "80-85", AND(D103 &gt;= 0.7, D103 &lt; 0.8), "70-80", AND(D103 &gt;= 0.6, D103 &lt; 0.7),  "60-70", AND(D103 &gt;= 0.5, D103 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>85</v>
+      </c>
+      <c r="B104" s="1">
+        <v>45293</v>
+      </c>
+      <c r="C104" t="s">
+        <v>34</v>
+      </c>
+      <c r="D104" s="2">
+        <v>0.71679999999999999</v>
+      </c>
+      <c r="E104" t="s">
+        <v>32</v>
+      </c>
+      <c r="F104" s="2">
+        <v>0.28320000000000001</v>
+      </c>
+      <c r="G104" t="s">
+        <v>36</v>
+      </c>
+      <c r="I104" t="str" cm="1">
+        <f t="array" ref="I104">_xlfn.IFS(D104 &gt;= 0.85, "85  &lt;", AND(D104 &gt;=0.8, D104 &lt; 0.85), "80-85", AND(D104 &gt;= 0.7, D104 &lt; 0.8), "70-80", AND(D104 &gt;= 0.6, D104 &lt; 0.7),  "60-70", AND(D104 &gt;= 0.5, D104 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>85</v>
+      </c>
+      <c r="B105" s="1">
+        <v>45293</v>
+      </c>
+      <c r="C105" t="s">
+        <v>43</v>
+      </c>
+      <c r="D105" s="2">
+        <v>0.71179999999999999</v>
+      </c>
+      <c r="E105" t="s">
+        <v>40</v>
+      </c>
+      <c r="F105" s="2">
+        <v>0.28820000000000001</v>
+      </c>
+      <c r="G105" t="s">
+        <v>69</v>
+      </c>
+      <c r="I105" t="str" cm="1">
+        <f t="array" ref="I105">_xlfn.IFS(D105 &gt;= 0.85, "85  &lt;", AND(D105 &gt;=0.8, D105 &lt; 0.85), "80-85", AND(D105 &gt;= 0.7, D105 &lt; 0.8), "70-80", AND(D105 &gt;= 0.6, D105 &lt; 0.7),  "60-70", AND(D105 &gt;= 0.5, D105 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>85</v>
+      </c>
+      <c r="B106" s="1">
+        <v>45293</v>
+      </c>
+      <c r="C106" t="s">
+        <v>37</v>
+      </c>
+      <c r="D106" s="2">
+        <v>0.70330000000000004</v>
+      </c>
+      <c r="E106" t="s">
+        <v>17</v>
+      </c>
+      <c r="F106" s="2">
+        <v>0.29670000000000002</v>
+      </c>
+      <c r="G106" t="s">
+        <v>52</v>
+      </c>
+      <c r="I106" t="str" cm="1">
+        <f t="array" ref="I106">_xlfn.IFS(D106 &gt;= 0.85, "85  &lt;", AND(D106 &gt;=0.8, D106 &lt; 0.85), "80-85", AND(D106 &gt;= 0.7, D106 &lt; 0.8), "70-80", AND(D106 &gt;= 0.6, D106 &lt; 0.7),  "60-70", AND(D106 &gt;= 0.5, D106 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>85</v>
+      </c>
+      <c r="B107" s="1">
+        <v>45293</v>
+      </c>
+      <c r="C107" t="s">
+        <v>62</v>
+      </c>
+      <c r="D107" s="2">
+        <v>0.69950000000000001</v>
+      </c>
+      <c r="E107" t="s">
+        <v>26</v>
+      </c>
+      <c r="F107" s="2">
+        <v>0.30049999999999999</v>
+      </c>
+      <c r="G107" t="s">
+        <v>63</v>
+      </c>
+      <c r="I107" t="str" cm="1">
+        <f t="array" ref="I107">_xlfn.IFS(D107 &gt;= 0.85, "85  &lt;", AND(D107 &gt;=0.8, D107 &lt; 0.85), "80-85", AND(D107 &gt;= 0.7, D107 &lt; 0.8), "70-80", AND(D107 &gt;= 0.6, D107 &lt; 0.7),  "60-70", AND(D107 &gt;= 0.5, D107 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>85</v>
+      </c>
+      <c r="B108" s="1">
+        <v>45293</v>
+      </c>
+      <c r="C108" t="s">
+        <v>31</v>
+      </c>
+      <c r="D108" s="2">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="E108" t="s">
+        <v>46</v>
+      </c>
+      <c r="F108" s="2">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="G108" t="s">
+        <v>33</v>
+      </c>
+      <c r="I108" t="str" cm="1">
+        <f t="array" ref="I108">_xlfn.IFS(D108 &gt;= 0.85, "85  &lt;", AND(D108 &gt;=0.8, D108 &lt; 0.85), "80-85", AND(D108 &gt;= 0.7, D108 &lt; 0.8), "70-80", AND(D108 &gt;= 0.6, D108 &lt; 0.7),  "60-70", AND(D108 &gt;= 0.5, D108 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>85</v>
+      </c>
+      <c r="B109" s="1">
+        <v>45293</v>
+      </c>
+      <c r="C109" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" s="2">
+        <v>0.63449999999999995</v>
+      </c>
+      <c r="E109" t="s">
+        <v>58</v>
+      </c>
+      <c r="F109" s="2">
+        <v>0.36549999999999999</v>
+      </c>
+      <c r="G109" t="s">
+        <v>18</v>
+      </c>
+      <c r="I109" t="str" cm="1">
+        <f t="array" ref="I109">_xlfn.IFS(D109 &gt;= 0.85, "85  &lt;", AND(D109 &gt;=0.8, D109 &lt; 0.85), "80-85", AND(D109 &gt;= 0.7, D109 &lt; 0.8), "70-80", AND(D109 &gt;= 0.6, D109 &lt; 0.7),  "60-70", AND(D109 &gt;= 0.5, D109 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>85</v>
+      </c>
+      <c r="B110" s="1">
+        <v>45293</v>
+      </c>
+      <c r="C110" t="s">
+        <v>42</v>
+      </c>
+      <c r="D110" s="2">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="E110" t="s">
+        <v>20</v>
+      </c>
+      <c r="F110" s="2">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="G110" t="s">
+        <v>44</v>
+      </c>
+      <c r="I110" t="str" cm="1">
+        <f t="array" ref="I110">_xlfn.IFS(D110 &gt;= 0.85, "85  &lt;", AND(D110 &gt;=0.8, D110 &lt; 0.85), "80-85", AND(D110 &gt;= 0.7, D110 &lt; 0.8), "70-80", AND(D110 &gt;= 0.6, D110 &lt; 0.7),  "60-70", AND(D110 &gt;= 0.5, D110 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>85</v>
+      </c>
+      <c r="B111" s="1">
+        <v>45293</v>
+      </c>
+      <c r="C111" t="s">
+        <v>57</v>
+      </c>
+      <c r="D111" s="2">
+        <v>0.61629999999999996</v>
+      </c>
+      <c r="E111" t="s">
+        <v>56</v>
+      </c>
+      <c r="F111" s="2">
+        <v>0.38369999999999999</v>
+      </c>
+      <c r="G111" t="s">
+        <v>88</v>
+      </c>
+      <c r="I111" t="str" cm="1">
+        <f t="array" ref="I111">_xlfn.IFS(D111 &gt;= 0.85, "85  &lt;", AND(D111 &gt;=0.8, D111 &lt; 0.85), "80-85", AND(D111 &gt;= 0.7, D111 &lt; 0.8), "70-80", AND(D111 &gt;= 0.6, D111 &lt; 0.7),  "60-70", AND(D111 &gt;= 0.5, D111 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>85</v>
+      </c>
+      <c r="B112" s="1">
+        <v>45293</v>
+      </c>
+      <c r="C112" t="s">
+        <v>25</v>
+      </c>
+      <c r="D112" s="2">
+        <v>0.56230000000000002</v>
+      </c>
+      <c r="E112" t="s">
+        <v>29</v>
+      </c>
+      <c r="F112" s="2">
+        <v>0.43769999999999998</v>
+      </c>
+      <c r="G112" t="s">
+        <v>76</v>
+      </c>
+      <c r="I112" t="str" cm="1">
+        <f t="array" ref="I112">_xlfn.IFS(D112 &gt;= 0.85, "85  &lt;", AND(D112 &gt;=0.8, D112 &lt; 0.85), "80-85", AND(D112 &gt;= 0.7, D112 &lt; 0.8), "70-80", AND(D112 &gt;= 0.6, D112 &lt; 0.7),  "60-70", AND(D112 &gt;= 0.5, D112 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>85</v>
+      </c>
+      <c r="B113" s="1">
+        <v>45293</v>
+      </c>
+      <c r="C113" t="s">
+        <v>51</v>
+      </c>
+      <c r="D113" s="2">
+        <v>0.53820000000000001</v>
+      </c>
+      <c r="E113" t="s">
+        <v>64</v>
+      </c>
+      <c r="F113" s="2">
+        <v>0.46179999999999999</v>
+      </c>
+      <c r="G113" t="s">
+        <v>67</v>
+      </c>
+      <c r="I113" t="str" cm="1">
+        <f t="array" ref="I113">_xlfn.IFS(D113 &gt;= 0.85, "85  &lt;", AND(D113 &gt;=0.8, D113 &lt; 0.85), "80-85", AND(D113 &gt;= 0.7, D113 &lt; 0.8), "70-80", AND(D113 &gt;= 0.6, D113 &lt; 0.7),  "60-70", AND(D113 &gt;= 0.5, D113 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>85</v>
+      </c>
+      <c r="B114" s="1">
+        <v>45293</v>
+      </c>
+      <c r="C114" t="s">
+        <v>19</v>
+      </c>
+      <c r="D114" s="2">
+        <v>0.52569999999999995</v>
+      </c>
+      <c r="E114" t="s">
+        <v>65</v>
+      </c>
+      <c r="F114" s="2">
+        <v>0.4743</v>
+      </c>
+      <c r="G114" t="s">
+        <v>74</v>
+      </c>
+      <c r="I114" t="str" cm="1">
+        <f t="array" ref="I114">_xlfn.IFS(D114 &gt;= 0.85, "85  &lt;", AND(D114 &gt;=0.8, D114 &lt; 0.85), "80-85", AND(D114 &gt;= 0.7, D114 &lt; 0.8), "70-80", AND(D114 &gt;= 0.6, D114 &lt; 0.7),  "60-70", AND(D114 &gt;= 0.5, D114 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>85</v>
+      </c>
+      <c r="B115" s="1">
+        <v>45293</v>
+      </c>
+      <c r="C115" t="s">
+        <v>39</v>
+      </c>
+      <c r="D115" s="2">
+        <v>0.50870000000000004</v>
+      </c>
+      <c r="E115" t="s">
+        <v>60</v>
+      </c>
+      <c r="F115" s="2">
+        <v>0.49130000000000001</v>
+      </c>
+      <c r="G115" t="s">
+        <v>61</v>
+      </c>
+      <c r="I115" t="str" cm="1">
+        <f t="array" ref="I115">_xlfn.IFS(D115 &gt;= 0.85, "85  &lt;", AND(D115 &gt;=0.8, D115 &lt; 0.85), "80-85", AND(D115 &gt;= 0.7, D115 &lt; 0.8), "70-80", AND(D115 &gt;= 0.6, D115 &lt; 0.7),  "60-70", AND(D115 &gt;= 0.5, D115 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>

--- a/GBM Lifetime Predictions.xlsx
+++ b/GBM Lifetime Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152D9916-6CCD-4E7F-8F04-B0B391C7A086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F9DD8F-93BD-491C-9806-2FA10F35577C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="89">
   <si>
     <t>Date</t>
   </si>
@@ -819,7 +819,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -830,7 +830,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -891,7 +890,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45293.361632291664" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="61" xr:uid="{827BC2B5-8CB2-43F7-9795-87FC66DF261C}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45294.371673148147" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="74" xr:uid="{827BC2B5-8CB2-43F7-9795-87FC66DF261C}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A42:I1000" sheet="Predictions"/>
   </cacheSource>
@@ -904,7 +903,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-23T00:00:00" maxDate="2024-01-02T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-23T00:00:00" maxDate="2024-01-03T00:00:00"/>
     </cacheField>
     <cacheField name="Winner" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -944,7 +943,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="61">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="74">
   <r>
     <x v="0"/>
     <d v="2023-12-23T00:00:00"/>
@@ -1606,6 +1605,149 @@
     <x v="1"/>
   </r>
   <r>
+    <x v="1"/>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <n v="0.74260000000000004"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="0.25740000000000002"/>
+    <s v="Playing At:  Columbus Blue Jackets   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <n v="0.71679999999999999"/>
+    <s v="Montreal Canadiens"/>
+    <n v="0.28320000000000001"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="Minnesota Wild"/>
+    <n v="0.71179999999999999"/>
+    <s v="Calgary Flames"/>
+    <n v="0.28820000000000001"/>
+    <s v="Playing At:  Minnesota Wild   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="Detroit Red Wings"/>
+    <n v="0.70330000000000004"/>
+    <s v="San Jose Sharks"/>
+    <n v="0.29670000000000002"/>
+    <s v="Playing At:  San Jose Sharks   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="Nashville Predators"/>
+    <n v="0.69950000000000001"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="0.30049999999999999"/>
+    <s v="Playing At:  Nashville Predators   Home"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <n v="0.65800000000000003"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="0.34200000000000003"/>
+    <s v="Playing At:  Winnipeg Jets   Home"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <n v="0.63449999999999995"/>
+    <s v="New York Islanders"/>
+    <n v="0.36549999999999999"/>
+    <s v="Playing At:  Colorado Avalanche   Home"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="0.63200000000000001"/>
+    <s v="Washington Capitals"/>
+    <n v="0.36799999999999999"/>
+    <s v="Playing At:  Pittsburgh Penguins   Home"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <n v="0.61629999999999996"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="0.38369999999999999"/>
+    <s v="Playing At:  Edmonton Oilers   Home"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="Vancouver Canucks"/>
+    <n v="0.56230000000000002"/>
+    <s v="Ottawa Senators"/>
+    <n v="0.43769999999999998"/>
+    <s v="Playing At:  Vancouver Canucks   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="Los Angeles Kings"/>
+    <n v="0.53820000000000001"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="0.46179999999999999"/>
+    <s v="Playing At:  Los Angeles Kings   Home"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="0.52569999999999995"/>
+    <s v="New York Rangers"/>
+    <n v="0.4743"/>
+    <s v="Playing At:  New York Rangers   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="Florida Panthers"/>
+    <n v="0.50870000000000004"/>
+    <s v="Arizona Coyotes"/>
+    <n v="0.49130000000000001"/>
+    <s v="Playing At:  Arizona Coyotes   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
     <x v="2"/>
     <m/>
     <m/>
@@ -1620,7 +1762,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A609C84-6A20-4E13-867B-B610F7CD9750}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A609C84-6A20-4E13-867B-B610F7CD9750}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisPage" showAll="0">
@@ -2000,19 +2142,19 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>79</v>
       </c>
@@ -2020,7 +2162,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -2037,14 +2179,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" s="6">
@@ -2053,99 +2195,99 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B5)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1</v>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" ref="D5:D9" si="0">C5/B5</f>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="F5">
         <f>SUM(C4:C5)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="8">
-        <v>27</v>
-      </c>
-      <c r="C6" s="8">
-        <v>20</v>
+      <c r="B6">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>24</v>
       </c>
       <c r="D6" s="6">
         <f>C6/B6</f>
-        <v>0.7407407407407407</v>
+        <v>0.75</v>
       </c>
       <c r="F6" s="6">
         <f>F5/F4</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="8">
-        <v>31</v>
-      </c>
-      <c r="C7" s="8">
-        <v>18</v>
+      <c r="B7">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>21</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>0.58064516129032262</v>
+        <v>0.6</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="8">
-        <v>60</v>
-      </c>
-      <c r="C8" s="8">
-        <v>40</v>
+      <c r="B8">
+        <v>73</v>
+      </c>
+      <c r="C8">
+        <v>49</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.67123287671232879</v>
       </c>
       <c r="F8">
         <f>SUM(B6:B7)</f>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D9" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F9">
         <f>SUM(C6:C7)</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D10" s="5"/>
       <c r="F10" s="6">
         <f>F9/F8</f>
-        <v>0.65517241379310343</v>
+        <v>0.67164179104477617</v>
       </c>
     </row>
   </sheetData>
@@ -2155,26 +2297,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J115"/>
+  <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -2203,7 +2345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -2233,7 +2375,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -2263,7 +2405,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -2293,7 +2435,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -2323,7 +2465,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -2353,7 +2495,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -2383,7 +2525,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -2413,7 +2555,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -2443,7 +2585,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>80</v>
       </c>
@@ -2473,7 +2615,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -2503,7 +2645,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -2533,7 +2675,7 @@
         <v>80-85</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>81</v>
       </c>
@@ -2563,7 +2705,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>81</v>
       </c>
@@ -2593,7 +2735,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -2623,7 +2765,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -2653,7 +2795,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>81</v>
       </c>
@@ -2683,7 +2825,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>81</v>
       </c>
@@ -2713,7 +2855,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -2743,7 +2885,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -2773,7 +2915,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -2803,7 +2945,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -2833,7 +2975,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -2863,7 +3005,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -2893,7 +3035,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -2923,7 +3065,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -2953,7 +3095,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -2983,7 +3125,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>81</v>
       </c>
@@ -3013,7 +3155,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -3043,7 +3185,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -3073,7 +3215,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -3103,7 +3245,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>81</v>
       </c>
@@ -3133,7 +3275,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -3163,7 +3305,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>81</v>
       </c>
@@ -3193,7 +3335,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -3223,7 +3365,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>81</v>
       </c>
@@ -3253,7 +3395,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -3283,7 +3425,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -3313,7 +3455,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -3343,7 +3485,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>81</v>
       </c>
@@ -3373,7 +3515,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -3403,7 +3545,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -3435,7 +3577,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -3465,7 +3607,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>82</v>
       </c>
@@ -3495,7 +3637,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>82</v>
       </c>
@@ -3525,7 +3667,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>82</v>
       </c>
@@ -3555,7 +3697,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>82</v>
       </c>
@@ -3585,7 +3727,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>82</v>
       </c>
@@ -3615,7 +3757,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>82</v>
       </c>
@@ -3645,7 +3787,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>82</v>
       </c>
@@ -3675,7 +3817,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>82</v>
       </c>
@@ -3705,7 +3847,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>82</v>
       </c>
@@ -3735,7 +3877,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>82</v>
       </c>
@@ -3765,7 +3907,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>82</v>
       </c>
@@ -3795,7 +3937,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>82</v>
       </c>
@@ -3825,7 +3967,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>82</v>
       </c>
@@ -3855,7 +3997,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>82</v>
       </c>
@@ -3885,7 +4027,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>82</v>
       </c>
@@ -3915,7 +4057,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>82</v>
       </c>
@@ -3945,7 +4087,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>82</v>
       </c>
@@ -3975,7 +4117,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>82</v>
       </c>
@@ -4005,7 +4147,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>82</v>
       </c>
@@ -4035,7 +4177,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>82</v>
       </c>
@@ -4065,7 +4207,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>82</v>
       </c>
@@ -4095,7 +4237,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -4125,7 +4267,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>82</v>
       </c>
@@ -4155,7 +4297,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>82</v>
       </c>
@@ -4185,7 +4327,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>82</v>
       </c>
@@ -4215,7 +4357,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -4245,7 +4387,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>82</v>
       </c>
@@ -4275,7 +4417,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -4305,7 +4447,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>82</v>
       </c>
@@ -4335,7 +4477,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>82</v>
       </c>
@@ -4365,7 +4507,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>82</v>
       </c>
@@ -4395,7 +4537,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>82</v>
       </c>
@@ -4425,7 +4567,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -4455,7 +4597,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>82</v>
       </c>
@@ -4485,7 +4627,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -4515,7 +4657,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -4545,7 +4687,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -4575,7 +4717,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -4605,7 +4747,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -4635,7 +4777,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -4665,7 +4807,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -4695,7 +4837,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -4725,7 +4867,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>82</v>
       </c>
@@ -4755,7 +4897,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>82</v>
       </c>
@@ -4785,7 +4927,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>82</v>
       </c>
@@ -4815,7 +4957,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>82</v>
       </c>
@@ -4845,7 +4987,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>82</v>
       </c>
@@ -4875,7 +5017,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>82</v>
       </c>
@@ -4905,7 +5047,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>82</v>
       </c>
@@ -4935,7 +5077,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>85</v>
       </c>
@@ -4965,7 +5107,7 @@
         <v>80-85</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>85</v>
       </c>
@@ -4995,7 +5137,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>85</v>
       </c>
@@ -5025,7 +5167,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>85</v>
       </c>
@@ -5055,7 +5197,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>85</v>
       </c>
@@ -5085,7 +5227,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>85</v>
       </c>
@@ -5115,7 +5257,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>85</v>
       </c>
@@ -5145,7 +5287,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>85</v>
       </c>
@@ -5175,7 +5317,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>85</v>
       </c>
@@ -5205,7 +5347,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>85</v>
       </c>
@@ -5235,7 +5377,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>85</v>
       </c>
@@ -5256,13 +5398,16 @@
       </c>
       <c r="G103" t="s">
         <v>72</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
       </c>
       <c r="I103" t="str" cm="1">
         <f t="array" ref="I103">_xlfn.IFS(D103 &gt;= 0.85, "85  &lt;", AND(D103 &gt;=0.8, D103 &lt; 0.85), "80-85", AND(D103 &gt;= 0.7, D103 &lt; 0.8), "70-80", AND(D103 &gt;= 0.6, D103 &lt; 0.7),  "60-70", AND(D103 &gt;= 0.5, D103 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>85</v>
       </c>
@@ -5283,13 +5428,16 @@
       </c>
       <c r="G104" t="s">
         <v>36</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
       </c>
       <c r="I104" t="str" cm="1">
         <f t="array" ref="I104">_xlfn.IFS(D104 &gt;= 0.85, "85  &lt;", AND(D104 &gt;=0.8, D104 &lt; 0.85), "80-85", AND(D104 &gt;= 0.7, D104 &lt; 0.8), "70-80", AND(D104 &gt;= 0.6, D104 &lt; 0.7),  "60-70", AND(D104 &gt;= 0.5, D104 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>85</v>
       </c>
@@ -5310,13 +5458,16 @@
       </c>
       <c r="G105" t="s">
         <v>69</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
       </c>
       <c r="I105" t="str" cm="1">
         <f t="array" ref="I105">_xlfn.IFS(D105 &gt;= 0.85, "85  &lt;", AND(D105 &gt;=0.8, D105 &lt; 0.85), "80-85", AND(D105 &gt;= 0.7, D105 &lt; 0.8), "70-80", AND(D105 &gt;= 0.6, D105 &lt; 0.7),  "60-70", AND(D105 &gt;= 0.5, D105 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>85</v>
       </c>
@@ -5337,13 +5488,16 @@
       </c>
       <c r="G106" t="s">
         <v>52</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
       </c>
       <c r="I106" t="str" cm="1">
         <f t="array" ref="I106">_xlfn.IFS(D106 &gt;= 0.85, "85  &lt;", AND(D106 &gt;=0.8, D106 &lt; 0.85), "80-85", AND(D106 &gt;= 0.7, D106 &lt; 0.8), "70-80", AND(D106 &gt;= 0.6, D106 &lt; 0.7),  "60-70", AND(D106 &gt;= 0.5, D106 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>85</v>
       </c>
@@ -5364,13 +5518,16 @@
       </c>
       <c r="G107" t="s">
         <v>63</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
       </c>
       <c r="I107" t="str" cm="1">
         <f t="array" ref="I107">_xlfn.IFS(D107 &gt;= 0.85, "85  &lt;", AND(D107 &gt;=0.8, D107 &lt; 0.85), "80-85", AND(D107 &gt;= 0.7, D107 &lt; 0.8), "70-80", AND(D107 &gt;= 0.6, D107 &lt; 0.7),  "60-70", AND(D107 &gt;= 0.5, D107 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>85</v>
       </c>
@@ -5391,13 +5548,16 @@
       </c>
       <c r="G108" t="s">
         <v>33</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
       </c>
       <c r="I108" t="str" cm="1">
         <f t="array" ref="I108">_xlfn.IFS(D108 &gt;= 0.85, "85  &lt;", AND(D108 &gt;=0.8, D108 &lt; 0.85), "80-85", AND(D108 &gt;= 0.7, D108 &lt; 0.8), "70-80", AND(D108 &gt;= 0.6, D108 &lt; 0.7),  "60-70", AND(D108 &gt;= 0.5, D108 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>85</v>
       </c>
@@ -5418,13 +5578,16 @@
       </c>
       <c r="G109" t="s">
         <v>18</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
       </c>
       <c r="I109" t="str" cm="1">
         <f t="array" ref="I109">_xlfn.IFS(D109 &gt;= 0.85, "85  &lt;", AND(D109 &gt;=0.8, D109 &lt; 0.85), "80-85", AND(D109 &gt;= 0.7, D109 &lt; 0.8), "70-80", AND(D109 &gt;= 0.6, D109 &lt; 0.7),  "60-70", AND(D109 &gt;= 0.5, D109 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>85</v>
       </c>
@@ -5445,13 +5608,16 @@
       </c>
       <c r="G110" t="s">
         <v>44</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
       </c>
       <c r="I110" t="str" cm="1">
         <f t="array" ref="I110">_xlfn.IFS(D110 &gt;= 0.85, "85  &lt;", AND(D110 &gt;=0.8, D110 &lt; 0.85), "80-85", AND(D110 &gt;= 0.7, D110 &lt; 0.8), "70-80", AND(D110 &gt;= 0.6, D110 &lt; 0.7),  "60-70", AND(D110 &gt;= 0.5, D110 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>85</v>
       </c>
@@ -5472,13 +5638,16 @@
       </c>
       <c r="G111" t="s">
         <v>88</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
       </c>
       <c r="I111" t="str" cm="1">
         <f t="array" ref="I111">_xlfn.IFS(D111 &gt;= 0.85, "85  &lt;", AND(D111 &gt;=0.8, D111 &lt; 0.85), "80-85", AND(D111 &gt;= 0.7, D111 &lt; 0.8), "70-80", AND(D111 &gt;= 0.6, D111 &lt; 0.7),  "60-70", AND(D111 &gt;= 0.5, D111 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>85</v>
       </c>
@@ -5499,13 +5668,16 @@
       </c>
       <c r="G112" t="s">
         <v>76</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
       </c>
       <c r="I112" t="str" cm="1">
         <f t="array" ref="I112">_xlfn.IFS(D112 &gt;= 0.85, "85  &lt;", AND(D112 &gt;=0.8, D112 &lt; 0.85), "80-85", AND(D112 &gt;= 0.7, D112 &lt; 0.8), "70-80", AND(D112 &gt;= 0.6, D112 &lt; 0.7),  "60-70", AND(D112 &gt;= 0.5, D112 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>85</v>
       </c>
@@ -5526,13 +5698,16 @@
       </c>
       <c r="G113" t="s">
         <v>67</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
       </c>
       <c r="I113" t="str" cm="1">
         <f t="array" ref="I113">_xlfn.IFS(D113 &gt;= 0.85, "85  &lt;", AND(D113 &gt;=0.8, D113 &lt; 0.85), "80-85", AND(D113 &gt;= 0.7, D113 &lt; 0.8), "70-80", AND(D113 &gt;= 0.6, D113 &lt; 0.7),  "60-70", AND(D113 &gt;= 0.5, D113 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>85</v>
       </c>
@@ -5553,13 +5728,16 @@
       </c>
       <c r="G114" t="s">
         <v>74</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
       </c>
       <c r="I114" t="str" cm="1">
         <f t="array" ref="I114">_xlfn.IFS(D114 &gt;= 0.85, "85  &lt;", AND(D114 &gt;=0.8, D114 &lt; 0.85), "80-85", AND(D114 &gt;= 0.7, D114 &lt; 0.8), "70-80", AND(D114 &gt;= 0.6, D114 &lt; 0.7),  "60-70", AND(D114 &gt;= 0.5, D114 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>85</v>
       </c>
@@ -5581,8 +5759,65 @@
       <c r="G115" t="s">
         <v>61</v>
       </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
       <c r="I115" t="str" cm="1">
         <f t="array" ref="I115">_xlfn.IFS(D115 &gt;= 0.85, "85  &lt;", AND(D115 &gt;=0.8, D115 &lt; 0.85), "80-85", AND(D115 &gt;= 0.7, D115 &lt; 0.8), "70-80", AND(D115 &gt;= 0.6, D115 &lt; 0.7),  "60-70", AND(D115 &gt;= 0.5, D115 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>85</v>
+      </c>
+      <c r="B116" s="1">
+        <v>45294</v>
+      </c>
+      <c r="C116" t="s">
+        <v>64</v>
+      </c>
+      <c r="D116" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="E116" t="s">
+        <v>23</v>
+      </c>
+      <c r="F116" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="G116" t="s">
+        <v>71</v>
+      </c>
+      <c r="I116" t="str" cm="1">
+        <f t="array" ref="I116">_xlfn.IFS(D116 &gt;= 0.85, "85  &lt;", AND(D116 &gt;=0.8, D116 &lt; 0.85), "80-85", AND(D116 &gt;= 0.7, D116 &lt; 0.8), "70-80", AND(D116 &gt;= 0.6, D116 &lt; 0.7),  "60-70", AND(D116 &gt;= 0.5, D116 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>85</v>
+      </c>
+      <c r="B117" s="1">
+        <v>45294</v>
+      </c>
+      <c r="C117" t="s">
+        <v>22</v>
+      </c>
+      <c r="D117" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E117" t="s">
+        <v>20</v>
+      </c>
+      <c r="F117" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="G117" t="s">
+        <v>68</v>
+      </c>
+      <c r="I117" t="str" cm="1">
+        <f t="array" ref="I117">_xlfn.IFS(D117 &gt;= 0.85, "85  &lt;", AND(D117 &gt;=0.8, D117 &lt; 0.85), "80-85", AND(D117 &gt;= 0.7, D117 &lt; 0.8), "70-80", AND(D117 &gt;= 0.6, D117 &lt; 0.7),  "60-70", AND(D117 &gt;= 0.5, D117 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>

--- a/GBM Lifetime Predictions.xlsx
+++ b/GBM Lifetime Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F9DD8F-93BD-491C-9806-2FA10F35577C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C50A153-F693-4538-BD19-ADFCA492BC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="90">
   <si>
     <t>Date</t>
   </si>
@@ -326,6 +326,9 @@
   </si>
   <si>
     <t>Playing At:  Edmonton Oilers   Home</t>
+  </si>
+  <si>
+    <t>Playing At:  Montreal Canadiens   Home</t>
   </si>
 </sst>
 </file>
@@ -890,7 +893,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45294.371673148147" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="74" xr:uid="{827BC2B5-8CB2-43F7-9795-87FC66DF261C}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45295.345928125003" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="76" xr:uid="{827BC2B5-8CB2-43F7-9795-87FC66DF261C}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A42:I1000" sheet="Predictions"/>
   </cacheSource>
@@ -903,7 +906,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-23T00:00:00" maxDate="2024-01-03T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-23T00:00:00" maxDate="2024-01-04T00:00:00"/>
     </cacheField>
     <cacheField name="Winner" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -943,7 +946,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="74">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="76">
   <r>
     <x v="0"/>
     <d v="2023-12-23T00:00:00"/>
@@ -1744,6 +1747,28 @@
     <s v="Arizona Coyotes"/>
     <n v="0.49130000000000001"/>
     <s v="Playing At:  Arizona Coyotes   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2024-01-03T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="0.75"/>
+    <s v="Anaheim Ducks"/>
+    <n v="0.25"/>
+    <s v="Playing At:  Anaheim Ducks   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2024-01-03T00:00:00"/>
+    <s v="New Jersey Devils"/>
+    <n v="0.57999999999999996"/>
+    <s v="Washington Capitals"/>
+    <n v="0.42"/>
+    <s v="Playing At:  Washington Capitals   Home"/>
     <n v="1"/>
     <x v="1"/>
   </r>
@@ -2141,8 +2166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2195,7 +2220,7 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B5)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -2203,18 +2228,18 @@
         <v>87</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" ref="D5:D9" si="0">C5/B5</f>
-        <v>0.6</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F5">
         <f>SUM(C4:C5)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -2233,7 +2258,7 @@
       </c>
       <c r="F6" s="6">
         <f>F5/F4</f>
-        <v>0.66666666666666663</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -2241,14 +2266,14 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.61111111111111116</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -2259,18 +2284,18 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>0.67123287671232879</v>
+        <v>0.68</v>
       </c>
       <c r="F8">
         <f>SUM(B6:B7)</f>
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -2280,14 +2305,14 @@
       </c>
       <c r="F9">
         <f>SUM(C6:C7)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D10" s="5"/>
       <c r="F10" s="6">
         <f>F9/F8</f>
-        <v>0.67164179104477617</v>
+        <v>0.67647058823529416</v>
       </c>
     </row>
   </sheetData>
@@ -2297,10 +2322,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J117"/>
+  <dimension ref="A1:J130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5789,6 +5814,9 @@
       <c r="G116" t="s">
         <v>71</v>
       </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
       <c r="I116" t="str" cm="1">
         <f t="array" ref="I116">_xlfn.IFS(D116 &gt;= 0.85, "85  &lt;", AND(D116 &gt;=0.8, D116 &lt; 0.85), "80-85", AND(D116 &gt;= 0.7, D116 &lt; 0.8), "70-80", AND(D116 &gt;= 0.6, D116 &lt; 0.7),  "60-70", AND(D116 &gt;= 0.5, D116 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
@@ -5816,8 +5844,362 @@
       <c r="G117" t="s">
         <v>68</v>
       </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
       <c r="I117" t="str" cm="1">
         <f t="array" ref="I117">_xlfn.IFS(D117 &gt;= 0.85, "85  &lt;", AND(D117 &gt;=0.8, D117 &lt; 0.85), "80-85", AND(D117 &gt;= 0.7, D117 &lt; 0.8), "70-80", AND(D117 &gt;= 0.6, D117 &lt; 0.7),  "60-70", AND(D117 &gt;= 0.5, D117 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>85</v>
+      </c>
+      <c r="B118" s="1">
+        <v>45295</v>
+      </c>
+      <c r="C118" t="s">
+        <v>49</v>
+      </c>
+      <c r="D118" s="2">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="E118" t="s">
+        <v>42</v>
+      </c>
+      <c r="F118" s="2">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="G118" t="s">
+        <v>50</v>
+      </c>
+      <c r="I118" t="str" cm="1">
+        <f t="array" ref="I118">_xlfn.IFS(D118 &gt;= 0.85, "85  &lt;", AND(D118 &gt;=0.8, D118 &lt; 0.85), "80-85", AND(D118 &gt;= 0.7, D118 &lt; 0.8), "70-80", AND(D118 &gt;= 0.6, D118 &lt; 0.7),  "60-70", AND(D118 &gt;= 0.5, D118 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>85</v>
+      </c>
+      <c r="B119" s="1">
+        <v>45295</v>
+      </c>
+      <c r="C119" t="s">
+        <v>51</v>
+      </c>
+      <c r="D119" s="2">
+        <v>0.74839999999999995</v>
+      </c>
+      <c r="E119" t="s">
+        <v>37</v>
+      </c>
+      <c r="F119" s="2">
+        <v>0.25159999999999999</v>
+      </c>
+      <c r="G119" t="s">
+        <v>67</v>
+      </c>
+      <c r="I119" t="str" cm="1">
+        <f t="array" ref="I119">_xlfn.IFS(D119 &gt;= 0.85, "85  &lt;", AND(D119 &gt;=0.8, D119 &lt; 0.85), "80-85", AND(D119 &gt;= 0.7, D119 &lt; 0.8), "70-80", AND(D119 &gt;= 0.6, D119 &lt; 0.7),  "60-70", AND(D119 &gt;= 0.5, D119 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>85</v>
+      </c>
+      <c r="B120" s="1">
+        <v>45295</v>
+      </c>
+      <c r="C120" t="s">
+        <v>43</v>
+      </c>
+      <c r="D120" s="2">
+        <v>0.70540000000000003</v>
+      </c>
+      <c r="E120" t="s">
+        <v>46</v>
+      </c>
+      <c r="F120" s="2">
+        <v>0.29459999999999997</v>
+      </c>
+      <c r="G120" t="s">
+        <v>69</v>
+      </c>
+      <c r="I120" t="str" cm="1">
+        <f t="array" ref="I120">_xlfn.IFS(D120 &gt;= 0.85, "85  &lt;", AND(D120 &gt;=0.8, D120 &lt; 0.85), "80-85", AND(D120 &gt;= 0.7, D120 &lt; 0.8), "70-80", AND(D120 &gt;= 0.6, D120 &lt; 0.7),  "60-70", AND(D120 &gt;= 0.5, D120 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>85</v>
+      </c>
+      <c r="B121" s="1">
+        <v>45295</v>
+      </c>
+      <c r="C121" t="s">
+        <v>31</v>
+      </c>
+      <c r="D121" s="2">
+        <v>0.68779999999999997</v>
+      </c>
+      <c r="E121" t="s">
+        <v>17</v>
+      </c>
+      <c r="F121" s="2">
+        <v>0.31219999999999998</v>
+      </c>
+      <c r="G121" t="s">
+        <v>52</v>
+      </c>
+      <c r="I121" t="str" cm="1">
+        <f t="array" ref="I121">_xlfn.IFS(D121 &gt;= 0.85, "85  &lt;", AND(D121 &gt;=0.8, D121 &lt; 0.85), "80-85", AND(D121 &gt;= 0.7, D121 &lt; 0.8), "70-80", AND(D121 &gt;= 0.6, D121 &lt; 0.7),  "60-70", AND(D121 &gt;= 0.5, D121 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>85</v>
+      </c>
+      <c r="B122" s="1">
+        <v>45295</v>
+      </c>
+      <c r="C122" t="s">
+        <v>65</v>
+      </c>
+      <c r="D122" s="2">
+        <v>0.67310000000000003</v>
+      </c>
+      <c r="E122" t="s">
+        <v>26</v>
+      </c>
+      <c r="F122" s="2">
+        <v>0.32690000000000002</v>
+      </c>
+      <c r="G122" t="s">
+        <v>74</v>
+      </c>
+      <c r="I122" t="str" cm="1">
+        <f t="array" ref="I122">_xlfn.IFS(D122 &gt;= 0.85, "85  &lt;", AND(D122 &gt;=0.8, D122 &lt; 0.85), "80-85", AND(D122 &gt;= 0.7, D122 &lt; 0.8), "70-80", AND(D122 &gt;= 0.6, D122 &lt; 0.7),  "60-70", AND(D122 &gt;= 0.5, D122 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>85</v>
+      </c>
+      <c r="B123" s="1">
+        <v>45295</v>
+      </c>
+      <c r="C123" t="s">
+        <v>56</v>
+      </c>
+      <c r="D123" s="2">
+        <v>0.63790000000000002</v>
+      </c>
+      <c r="E123" t="s">
+        <v>54</v>
+      </c>
+      <c r="F123" s="2">
+        <v>0.36209999999999998</v>
+      </c>
+      <c r="G123" t="s">
+        <v>73</v>
+      </c>
+      <c r="I123" t="str" cm="1">
+        <f t="array" ref="I123">_xlfn.IFS(D123 &gt;= 0.85, "85  &lt;", AND(D123 &gt;=0.8, D123 &lt; 0.85), "80-85", AND(D123 &gt;= 0.7, D123 &lt; 0.8), "70-80", AND(D123 &gt;= 0.6, D123 &lt; 0.7),  "60-70", AND(D123 &gt;= 0.5, D123 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>85</v>
+      </c>
+      <c r="B124" s="1">
+        <v>45295</v>
+      </c>
+      <c r="C124" t="s">
+        <v>53</v>
+      </c>
+      <c r="D124" s="2">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="E124" t="s">
+        <v>32</v>
+      </c>
+      <c r="F124" s="2">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="G124" t="s">
+        <v>89</v>
+      </c>
+      <c r="I124" t="str" cm="1">
+        <f t="array" ref="I124">_xlfn.IFS(D124 &gt;= 0.85, "85  &lt;", AND(D124 &gt;=0.8, D124 &lt; 0.85), "80-85", AND(D124 &gt;= 0.7, D124 &lt; 0.8), "70-80", AND(D124 &gt;= 0.6, D124 &lt; 0.7),  "60-70", AND(D124 &gt;= 0.5, D124 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>85</v>
+      </c>
+      <c r="B125" s="1">
+        <v>45295</v>
+      </c>
+      <c r="C125" t="s">
+        <v>62</v>
+      </c>
+      <c r="D125" s="2">
+        <v>0.60019999999999996</v>
+      </c>
+      <c r="E125" t="s">
+        <v>40</v>
+      </c>
+      <c r="F125" s="2">
+        <v>0.39979999999999999</v>
+      </c>
+      <c r="G125" t="s">
+        <v>63</v>
+      </c>
+      <c r="I125" t="str" cm="1">
+        <f t="array" ref="I125">_xlfn.IFS(D125 &gt;= 0.85, "85  &lt;", AND(D125 &gt;=0.8, D125 &lt; 0.85), "80-85", AND(D125 &gt;= 0.7, D125 &lt; 0.8), "70-80", AND(D125 &gt;= 0.6, D125 &lt; 0.7),  "60-70", AND(D125 &gt;= 0.5, D125 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>85</v>
+      </c>
+      <c r="B126" s="1">
+        <v>45295</v>
+      </c>
+      <c r="C126" t="s">
+        <v>28</v>
+      </c>
+      <c r="D126" s="2">
+        <v>0.58160000000000001</v>
+      </c>
+      <c r="E126" t="s">
+        <v>39</v>
+      </c>
+      <c r="F126" s="2">
+        <v>0.41839999999999999</v>
+      </c>
+      <c r="G126" t="s">
+        <v>30</v>
+      </c>
+      <c r="I126" t="str" cm="1">
+        <f t="array" ref="I126">_xlfn.IFS(D126 &gt;= 0.85, "85  &lt;", AND(D126 &gt;=0.8, D126 &lt; 0.85), "80-85", AND(D126 &gt;= 0.7, D126 &lt; 0.8), "70-80", AND(D126 &gt;= 0.6, D126 &lt; 0.7),  "60-70", AND(D126 &gt;= 0.5, D126 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>85</v>
+      </c>
+      <c r="B127" s="1">
+        <v>45295</v>
+      </c>
+      <c r="C127" t="s">
+        <v>58</v>
+      </c>
+      <c r="D127" s="2">
+        <v>0.56569999999999998</v>
+      </c>
+      <c r="E127" t="s">
+        <v>60</v>
+      </c>
+      <c r="F127" s="2">
+        <v>0.43430000000000002</v>
+      </c>
+      <c r="G127" t="s">
+        <v>61</v>
+      </c>
+      <c r="I127" t="str" cm="1">
+        <f t="array" ref="I127">_xlfn.IFS(D127 &gt;= 0.85, "85  &lt;", AND(D127 &gt;=0.8, D127 &lt; 0.85), "80-85", AND(D127 &gt;= 0.7, D127 &lt; 0.8), "70-80", AND(D127 &gt;= 0.6, D127 &lt; 0.7),  "60-70", AND(D127 &gt;= 0.5, D127 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>85</v>
+      </c>
+      <c r="B128" s="1">
+        <v>45295</v>
+      </c>
+      <c r="C128" t="s">
+        <v>34</v>
+      </c>
+      <c r="D128" s="2">
+        <v>0.55979999999999996</v>
+      </c>
+      <c r="E128" t="s">
+        <v>16</v>
+      </c>
+      <c r="F128" s="2">
+        <v>0.44019999999999998</v>
+      </c>
+      <c r="G128" t="s">
+        <v>36</v>
+      </c>
+      <c r="I128" t="str" cm="1">
+        <f t="array" ref="I128">_xlfn.IFS(D128 &gt;= 0.85, "85  &lt;", AND(D128 &gt;=0.8, D128 &lt; 0.85), "80-85", AND(D128 &gt;= 0.7, D128 &lt; 0.8), "70-80", AND(D128 &gt;= 0.6, D128 &lt; 0.7),  "60-70", AND(D128 &gt;= 0.5, D128 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>85</v>
+      </c>
+      <c r="B129" s="1">
+        <v>45295</v>
+      </c>
+      <c r="C129" t="s">
+        <v>35</v>
+      </c>
+      <c r="D129" s="2">
+        <v>0.50729999999999997</v>
+      </c>
+      <c r="E129" t="s">
+        <v>29</v>
+      </c>
+      <c r="F129" s="2">
+        <v>0.49270000000000003</v>
+      </c>
+      <c r="G129" t="s">
+        <v>84</v>
+      </c>
+      <c r="I129" t="str" cm="1">
+        <f t="array" ref="I129">_xlfn.IFS(D129 &gt;= 0.85, "85  &lt;", AND(D129 &gt;=0.8, D129 &lt; 0.85), "80-85", AND(D129 &gt;= 0.7, D129 &lt; 0.8), "70-80", AND(D129 &gt;= 0.6, D129 &lt; 0.7),  "60-70", AND(D129 &gt;= 0.5, D129 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>85</v>
+      </c>
+      <c r="B130" s="1">
+        <v>45295</v>
+      </c>
+      <c r="C130" t="s">
+        <v>47</v>
+      </c>
+      <c r="D130" s="2">
+        <v>0.504</v>
+      </c>
+      <c r="E130" t="s">
+        <v>25</v>
+      </c>
+      <c r="F130" s="2">
+        <v>0.496</v>
+      </c>
+      <c r="G130" t="s">
+        <v>77</v>
+      </c>
+      <c r="I130" t="str" cm="1">
+        <f t="array" ref="I130">_xlfn.IFS(D130 &gt;= 0.85, "85  &lt;", AND(D130 &gt;=0.8, D130 &lt; 0.85), "80-85", AND(D130 &gt;= 0.7, D130 &lt; 0.8), "70-80", AND(D130 &gt;= 0.6, D130 &lt; 0.7),  "60-70", AND(D130 &gt;= 0.5, D130 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>

--- a/GBM Lifetime Predictions.xlsx
+++ b/GBM Lifetime Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C50A153-F693-4538-BD19-ADFCA492BC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F96638A-05C1-43AD-92E8-69FFAEE61FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="4" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="90">
   <si>
     <t>Date</t>
   </si>
@@ -822,7 +822,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -833,6 +833,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -893,7 +894,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45295.345928125003" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="76" xr:uid="{827BC2B5-8CB2-43F7-9795-87FC66DF261C}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45296.341674189818" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="92" xr:uid="{827BC2B5-8CB2-43F7-9795-87FC66DF261C}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A42:I1000" sheet="Predictions"/>
   </cacheSource>
@@ -906,7 +907,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-23T00:00:00" maxDate="2024-01-04T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-23T00:00:00" maxDate="2024-01-06T00:00:00"/>
     </cacheField>
     <cacheField name="Winner" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -946,7 +947,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="76">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="92">
   <r>
     <x v="0"/>
     <d v="2023-12-23T00:00:00"/>
@@ -1770,6 +1771,182 @@
     <n v="0.42"/>
     <s v="Playing At:  Washington Capitals   Home"/>
     <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2024-01-04T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <n v="0.75600000000000001"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="0.24399999999999999"/>
+    <s v="Playing At:  Boston Bruins   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2024-01-04T00:00:00"/>
+    <s v="Los Angeles Kings"/>
+    <n v="0.74839999999999995"/>
+    <s v="Detroit Red Wings"/>
+    <n v="0.25159999999999999"/>
+    <s v="Playing At:  Los Angeles Kings   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2024-01-04T00:00:00"/>
+    <s v="Minnesota Wild"/>
+    <n v="0.70540000000000003"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="0.29459999999999997"/>
+    <s v="Playing At:  Minnesota Wild   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2024-01-04T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <n v="0.68779999999999997"/>
+    <s v="San Jose Sharks"/>
+    <n v="0.31219999999999998"/>
+    <s v="Playing At:  San Jose Sharks   Home"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2024-01-04T00:00:00"/>
+    <s v="New York Rangers"/>
+    <n v="0.67310000000000003"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="0.32690000000000002"/>
+    <s v="Playing At:  New York Rangers   Home"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2024-01-04T00:00:00"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="0.63790000000000002"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="0.36209999999999998"/>
+    <s v="Playing At:  Philadelphia Flyers   Home"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2024-01-04T00:00:00"/>
+    <s v="Buffalo Sabres"/>
+    <n v="0.63200000000000001"/>
+    <s v="Montreal Canadiens"/>
+    <n v="0.36799999999999999"/>
+    <s v="Playing At:  Montreal Canadiens   Home"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2024-01-04T00:00:00"/>
+    <s v="Nashville Predators"/>
+    <n v="0.60019999999999996"/>
+    <s v="Calgary Flames"/>
+    <n v="0.39979999999999999"/>
+    <s v="Playing At:  Nashville Predators   Home"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2024-01-04T00:00:00"/>
+    <s v="Vegas Golden Knights"/>
+    <n v="0.58160000000000001"/>
+    <s v="Florida Panthers"/>
+    <n v="0.41839999999999999"/>
+    <s v="Playing At:  Vegas Golden Knights   Home"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2024-01-04T00:00:00"/>
+    <s v="New York Islanders"/>
+    <n v="0.56569999999999998"/>
+    <s v="Arizona Coyotes"/>
+    <n v="0.43430000000000002"/>
+    <s v="Playing At:  Arizona Coyotes   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2024-01-04T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <n v="0.55979999999999996"/>
+    <s v="Colorado Avalanche"/>
+    <n v="0.44019999999999998"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2024-01-04T00:00:00"/>
+    <s v="Seattle Kraken"/>
+    <n v="0.50729999999999997"/>
+    <s v="Ottawa Senators"/>
+    <n v="0.49270000000000003"/>
+    <s v="Playing At:  Seattle Kraken   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2024-01-04T00:00:00"/>
+    <s v="St. Louis Blues"/>
+    <n v="0.504"/>
+    <s v="Vancouver Canucks"/>
+    <n v="0.496"/>
+    <s v="Playing At:  St. Louis Blues   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2024-01-05T00:00:00"/>
+    <s v="New Jersey Devils"/>
+    <n v="0.77200000000000002"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="0.22800000000000001"/>
+    <s v="Playing At:  New Jersey Devils   Home"/>
+    <m/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2024-01-05T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <n v="0.70499999999999996"/>
+    <s v="Anaheim Ducks"/>
+    <n v="0.29499999999999998"/>
+    <s v="Playing At:  Anaheim Ducks   Home"/>
+    <m/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2024-01-05T00:00:00"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="0.57899999999999996"/>
+    <s v="Washington Capitals"/>
+    <n v="0.42099999999999999"/>
+    <s v="Playing At:  Washington Capitals   Home"/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -1787,7 +1964,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A609C84-6A20-4E13-867B-B610F7CD9750}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A609C84-6A20-4E13-867B-B610F7CD9750}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisPage" showAll="0">
@@ -2166,8 +2343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2208,10 +2385,10 @@
       <c r="A4" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
         <v>1</v>
       </c>
       <c r="D4" s="6">
@@ -2220,22 +2397,22 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B5)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B5">
-        <v>6</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="8">
+        <v>11</v>
+      </c>
+      <c r="C5" s="8">
         <v>4</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" ref="D5:D9" si="0">C5/B5</f>
-        <v>0.66666666666666663</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="F5">
         <f>SUM(C4:C5)</f>
@@ -2246,34 +2423,34 @@
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>32</v>
-      </c>
-      <c r="C6">
-        <v>24</v>
+      <c r="B6" s="8">
+        <v>37</v>
+      </c>
+      <c r="C6" s="8">
+        <v>27</v>
       </c>
       <c r="D6" s="6">
         <f>C6/B6</f>
-        <v>0.75</v>
+        <v>0.72972972972972971</v>
       </c>
       <c r="F6" s="6">
         <f>F5/F4</f>
-        <v>0.7142857142857143</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B7">
-        <v>36</v>
-      </c>
-      <c r="C7">
-        <v>22</v>
+      <c r="B7" s="8">
+        <v>42</v>
+      </c>
+      <c r="C7" s="8">
+        <v>25</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>0.61111111111111116</v>
+        <v>0.59523809523809523</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -2283,19 +2460,19 @@
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>75</v>
-      </c>
-      <c r="C8">
-        <v>51</v>
+      <c r="B8" s="8">
+        <v>91</v>
+      </c>
+      <c r="C8" s="8">
+        <v>57</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>0.68</v>
+        <v>0.62637362637362637</v>
       </c>
       <c r="F8">
         <f>SUM(B6:B7)</f>
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -2305,14 +2482,14 @@
       </c>
       <c r="F9">
         <f>SUM(C6:C7)</f>
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D10" s="5"/>
       <c r="F10" s="6">
         <f>F9/F8</f>
-        <v>0.67647058823529416</v>
+        <v>0.65822784810126578</v>
       </c>
     </row>
   </sheetData>
@@ -2322,10 +2499,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J130"/>
+  <dimension ref="A1:J133"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A124" sqref="A124"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="G135" sqref="G135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5874,6 +6051,9 @@
       <c r="G118" t="s">
         <v>50</v>
       </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
       <c r="I118" t="str" cm="1">
         <f t="array" ref="I118">_xlfn.IFS(D118 &gt;= 0.85, "85  &lt;", AND(D118 &gt;=0.8, D118 &lt; 0.85), "80-85", AND(D118 &gt;= 0.7, D118 &lt; 0.8), "70-80", AND(D118 &gt;= 0.6, D118 &lt; 0.7),  "60-70", AND(D118 &gt;= 0.5, D118 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
@@ -5901,6 +6081,9 @@
       <c r="G119" t="s">
         <v>67</v>
       </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
       <c r="I119" t="str" cm="1">
         <f t="array" ref="I119">_xlfn.IFS(D119 &gt;= 0.85, "85  &lt;", AND(D119 &gt;=0.8, D119 &lt; 0.85), "80-85", AND(D119 &gt;= 0.7, D119 &lt; 0.8), "70-80", AND(D119 &gt;= 0.6, D119 &lt; 0.7),  "60-70", AND(D119 &gt;= 0.5, D119 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
@@ -5928,6 +6111,9 @@
       <c r="G120" t="s">
         <v>69</v>
       </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
       <c r="I120" t="str" cm="1">
         <f t="array" ref="I120">_xlfn.IFS(D120 &gt;= 0.85, "85  &lt;", AND(D120 &gt;=0.8, D120 &lt; 0.85), "80-85", AND(D120 &gt;= 0.7, D120 &lt; 0.8), "70-80", AND(D120 &gt;= 0.6, D120 &lt; 0.7),  "60-70", AND(D120 &gt;= 0.5, D120 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
@@ -5955,6 +6141,9 @@
       <c r="G121" t="s">
         <v>52</v>
       </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
       <c r="I121" t="str" cm="1">
         <f t="array" ref="I121">_xlfn.IFS(D121 &gt;= 0.85, "85  &lt;", AND(D121 &gt;=0.8, D121 &lt; 0.85), "80-85", AND(D121 &gt;= 0.7, D121 &lt; 0.8), "70-80", AND(D121 &gt;= 0.6, D121 &lt; 0.7),  "60-70", AND(D121 &gt;= 0.5, D121 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
@@ -5982,6 +6171,9 @@
       <c r="G122" t="s">
         <v>74</v>
       </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
       <c r="I122" t="str" cm="1">
         <f t="array" ref="I122">_xlfn.IFS(D122 &gt;= 0.85, "85  &lt;", AND(D122 &gt;=0.8, D122 &lt; 0.85), "80-85", AND(D122 &gt;= 0.7, D122 &lt; 0.8), "70-80", AND(D122 &gt;= 0.6, D122 &lt; 0.7),  "60-70", AND(D122 &gt;= 0.5, D122 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
@@ -6009,6 +6201,9 @@
       <c r="G123" t="s">
         <v>73</v>
       </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
       <c r="I123" t="str" cm="1">
         <f t="array" ref="I123">_xlfn.IFS(D123 &gt;= 0.85, "85  &lt;", AND(D123 &gt;=0.8, D123 &lt; 0.85), "80-85", AND(D123 &gt;= 0.7, D123 &lt; 0.8), "70-80", AND(D123 &gt;= 0.6, D123 &lt; 0.7),  "60-70", AND(D123 &gt;= 0.5, D123 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
@@ -6036,6 +6231,9 @@
       <c r="G124" t="s">
         <v>89</v>
       </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
       <c r="I124" t="str" cm="1">
         <f t="array" ref="I124">_xlfn.IFS(D124 &gt;= 0.85, "85  &lt;", AND(D124 &gt;=0.8, D124 &lt; 0.85), "80-85", AND(D124 &gt;= 0.7, D124 &lt; 0.8), "70-80", AND(D124 &gt;= 0.6, D124 &lt; 0.7),  "60-70", AND(D124 &gt;= 0.5, D124 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
@@ -6063,6 +6261,9 @@
       <c r="G125" t="s">
         <v>63</v>
       </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
       <c r="I125" t="str" cm="1">
         <f t="array" ref="I125">_xlfn.IFS(D125 &gt;= 0.85, "85  &lt;", AND(D125 &gt;=0.8, D125 &lt; 0.85), "80-85", AND(D125 &gt;= 0.7, D125 &lt; 0.8), "70-80", AND(D125 &gt;= 0.6, D125 &lt; 0.7),  "60-70", AND(D125 &gt;= 0.5, D125 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
@@ -6090,6 +6291,9 @@
       <c r="G126" t="s">
         <v>30</v>
       </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
       <c r="I126" t="str" cm="1">
         <f t="array" ref="I126">_xlfn.IFS(D126 &gt;= 0.85, "85  &lt;", AND(D126 &gt;=0.8, D126 &lt; 0.85), "80-85", AND(D126 &gt;= 0.7, D126 &lt; 0.8), "70-80", AND(D126 &gt;= 0.6, D126 &lt; 0.7),  "60-70", AND(D126 &gt;= 0.5, D126 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
@@ -6117,6 +6321,9 @@
       <c r="G127" t="s">
         <v>61</v>
       </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
       <c r="I127" t="str" cm="1">
         <f t="array" ref="I127">_xlfn.IFS(D127 &gt;= 0.85, "85  &lt;", AND(D127 &gt;=0.8, D127 &lt; 0.85), "80-85", AND(D127 &gt;= 0.7, D127 &lt; 0.8), "70-80", AND(D127 &gt;= 0.6, D127 &lt; 0.7),  "60-70", AND(D127 &gt;= 0.5, D127 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
@@ -6144,6 +6351,9 @@
       <c r="G128" t="s">
         <v>36</v>
       </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
       <c r="I128" t="str" cm="1">
         <f t="array" ref="I128">_xlfn.IFS(D128 &gt;= 0.85, "85  &lt;", AND(D128 &gt;=0.8, D128 &lt; 0.85), "80-85", AND(D128 &gt;= 0.7, D128 &lt; 0.8), "70-80", AND(D128 &gt;= 0.6, D128 &lt; 0.7),  "60-70", AND(D128 &gt;= 0.5, D128 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
@@ -6171,6 +6381,9 @@
       <c r="G129" t="s">
         <v>84</v>
       </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
       <c r="I129" t="str" cm="1">
         <f t="array" ref="I129">_xlfn.IFS(D129 &gt;= 0.85, "85  &lt;", AND(D129 &gt;=0.8, D129 &lt; 0.85), "80-85", AND(D129 &gt;= 0.7, D129 &lt; 0.8), "70-80", AND(D129 &gt;= 0.6, D129 &lt; 0.7),  "60-70", AND(D129 &gt;= 0.5, D129 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
@@ -6198,8 +6411,92 @@
       <c r="G130" t="s">
         <v>77</v>
       </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
       <c r="I130" t="str" cm="1">
         <f t="array" ref="I130">_xlfn.IFS(D130 &gt;= 0.85, "85  &lt;", AND(D130 &gt;=0.8, D130 &lt; 0.85), "80-85", AND(D130 &gt;= 0.7, D130 &lt; 0.8), "70-80", AND(D130 &gt;= 0.6, D130 &lt; 0.7),  "60-70", AND(D130 &gt;= 0.5, D130 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>85</v>
+      </c>
+      <c r="B131" s="1">
+        <v>45296</v>
+      </c>
+      <c r="C131" t="s">
+        <v>22</v>
+      </c>
+      <c r="D131" s="2">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="E131" t="s">
+        <v>26</v>
+      </c>
+      <c r="F131" s="2">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="G131" t="s">
+        <v>24</v>
+      </c>
+      <c r="I131" t="str" cm="1">
+        <f t="array" ref="I131">_xlfn.IFS(D131 &gt;= 0.85, "85  &lt;", AND(D131 &gt;=0.8, D131 &lt; 0.85), "80-85", AND(D131 &gt;= 0.7, D131 &lt; 0.8), "70-80", AND(D131 &gt;= 0.6, D131 &lt; 0.7),  "60-70", AND(D131 &gt;= 0.5, D131 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>85</v>
+      </c>
+      <c r="B132" s="1">
+        <v>45296</v>
+      </c>
+      <c r="C132" t="s">
+        <v>31</v>
+      </c>
+      <c r="D132" s="2">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="E132" t="s">
+        <v>23</v>
+      </c>
+      <c r="F132" s="2">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="G132" t="s">
+        <v>71</v>
+      </c>
+      <c r="I132" t="str" cm="1">
+        <f t="array" ref="I132">_xlfn.IFS(D132 &gt;= 0.85, "85  &lt;", AND(D132 &gt;=0.8, D132 &lt; 0.85), "80-85", AND(D132 &gt;= 0.7, D132 &lt; 0.8), "70-80", AND(D132 &gt;= 0.6, D132 &lt; 0.7),  "60-70", AND(D132 &gt;= 0.5, D132 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>85</v>
+      </c>
+      <c r="B133" s="1">
+        <v>45296</v>
+      </c>
+      <c r="C133" t="s">
+        <v>19</v>
+      </c>
+      <c r="D133" s="2">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E133" t="s">
+        <v>20</v>
+      </c>
+      <c r="F133" s="2">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="G133" t="s">
+        <v>68</v>
+      </c>
+      <c r="I133" t="str" cm="1">
+        <f t="array" ref="I133">_xlfn.IFS(D133 &gt;= 0.85, "85  &lt;", AND(D133 &gt;=0.8, D133 &lt; 0.85), "80-85", AND(D133 &gt;= 0.7, D133 &lt; 0.8), "70-80", AND(D133 &gt;= 0.6, D133 &lt; 0.7),  "60-70", AND(D133 &gt;= 0.5, D133 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>

--- a/GBM Lifetime Predictions.xlsx
+++ b/GBM Lifetime Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F96638A-05C1-43AD-92E8-69FFAEE61FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAF752C-8422-40C1-8290-E24383EEEF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="6" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="90">
   <si>
     <t>Date</t>
   </si>
@@ -894,7 +894,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45296.341674189818" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="92" xr:uid="{827BC2B5-8CB2-43F7-9795-87FC66DF261C}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45297.377448148145" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="104" xr:uid="{827BC2B5-8CB2-43F7-9795-87FC66DF261C}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A42:I1000" sheet="Predictions"/>
   </cacheSource>
@@ -907,19 +907,19 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-23T00:00:00" maxDate="2024-01-06T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-23T00:00:00" maxDate="2024-01-07T00:00:00"/>
     </cacheField>
     <cacheField name="Winner" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Winner Probability" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.50199000000000005" maxValue="0.80030000000000001"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.50199000000000005" maxValue="0.81279999999999997"/>
     </cacheField>
     <cacheField name="Loser" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Loser Probability" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.19969999999999999" maxValue="0.49801000000000001"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.18720000000000001" maxValue="0.49801000000000001"/>
     </cacheField>
     <cacheField name="Site" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -947,7 +947,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="92">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="104">
   <r>
     <x v="0"/>
     <d v="2023-12-23T00:00:00"/>
@@ -1924,7 +1924,7 @@
     <s v="Chicago Blackhawks"/>
     <n v="0.22800000000000001"/>
     <s v="Playing At:  New Jersey Devils   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="3"/>
   </r>
   <r>
@@ -1935,7 +1935,7 @@
     <s v="Anaheim Ducks"/>
     <n v="0.29499999999999998"/>
     <s v="Playing At:  Anaheim Ducks   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="3"/>
   </r>
   <r>
@@ -1946,6 +1946,138 @@
     <s v="Washington Capitals"/>
     <n v="0.42099999999999999"/>
     <s v="Playing At:  Washington Capitals   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2024-01-06T00:00:00"/>
+    <s v="New York Rangers"/>
+    <n v="0.81279999999999997"/>
+    <s v="Montreal Canadiens"/>
+    <n v="0.18720000000000001"/>
+    <s v="Playing At:  Montreal Canadiens   Home"/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2024-01-06T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="0.75800000000000001"/>
+    <s v="San Jose Sharks"/>
+    <n v="0.24199999999999999"/>
+    <s v="Playing At:  San Jose Sharks   Home"/>
+    <m/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2024-01-06T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <n v="0.71560000000000001"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="0.28439999999999999"/>
+    <s v="Playing At:  Boston Bruins   Home"/>
+    <m/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2024-01-06T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <n v="0.63849999999999996"/>
+    <s v="Nashville Predators"/>
+    <n v="0.36149999999999999"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2024-01-06T00:00:00"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="0.61099999999999999"/>
+    <s v="St. Louis Blues"/>
+    <n v="0.38900000000000001"/>
+    <s v="Playing At:  Carolina Hurricanes   Home"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2024-01-06T00:00:00"/>
+    <s v="Vegas Golden Knights"/>
+    <n v="0.57420000000000004"/>
+    <s v="New York Islanders"/>
+    <n v="0.42580000000000001"/>
+    <s v="Playing At:  Vegas Golden Knights   Home"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2024-01-06T00:00:00"/>
+    <s v="New Jersey Devils"/>
+    <n v="0.56889999999999996"/>
+    <s v="Vancouver Canucks"/>
+    <n v="0.43109999999999998"/>
+    <s v="Playing At:  New Jersey Devils   Home"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2024-01-06T00:00:00"/>
+    <s v="Minnesota Wild"/>
+    <n v="0.56610000000000005"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="0.43390000000000001"/>
+    <s v="Playing At:  Columbus Blue Jackets   Home"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2024-01-06T00:00:00"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="0.55959999999999999"/>
+    <s v="Calgary Flames"/>
+    <n v="0.44040000000000001"/>
+    <s v="Playing At:  Philadelphia Flyers   Home"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2024-01-06T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <n v="0.55840000000000001"/>
+    <s v="Ottawa Senators"/>
+    <n v="0.44159999999999999"/>
+    <s v="Playing At:  Edmonton Oilers   Home"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2024-01-06T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <n v="0.53139999999999998"/>
+    <s v="Florida Panthers"/>
+    <n v="0.46860000000000002"/>
+    <s v="Playing At:  Colorado Avalanche   Home"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2024-01-06T00:00:00"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="0.51649999999999996"/>
+    <s v="Buffalo Sabres"/>
+    <n v="0.48349999999999999"/>
+    <s v="Playing At:  Pittsburgh Penguins   Home"/>
     <m/>
     <x v="1"/>
   </r>
@@ -1964,7 +2096,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A609C84-6A20-4E13-867B-B610F7CD9750}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A609C84-6A20-4E13-867B-B610F7CD9750}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisPage" showAll="0">
@@ -2343,8 +2475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2386,18 +2518,18 @@
         <v>86</v>
       </c>
       <c r="B4" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="8">
         <v>1</v>
       </c>
       <c r="D4" s="6">
         <f>C4/B4</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F4">
         <f>SUM(B4:B5)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -2405,18 +2537,18 @@
         <v>87</v>
       </c>
       <c r="B5" s="8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" ref="D5:D9" si="0">C5/B5</f>
-        <v>0.36363636363636365</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="F5">
         <f>SUM(C4:C5)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -2424,18 +2556,18 @@
         <v>8</v>
       </c>
       <c r="B6" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C6" s="8">
         <v>27</v>
       </c>
       <c r="D6" s="6">
         <f>C6/B6</f>
-        <v>0.72972972972972971</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="F6" s="6">
         <f>F5/F4</f>
-        <v>0.41666666666666669</v>
+        <v>0.46666666666666667</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -2443,14 +2575,14 @@
         <v>45</v>
       </c>
       <c r="B7" s="8">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C7" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>0.59523809523809523</v>
+        <v>0.53061224489795922</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -2461,18 +2593,18 @@
         <v>10</v>
       </c>
       <c r="B8" s="8">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C8" s="8">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>0.62637362637362637</v>
+        <v>0.58252427184466016</v>
       </c>
       <c r="F8">
         <f>SUM(B6:B7)</f>
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -2482,14 +2614,14 @@
       </c>
       <c r="F9">
         <f>SUM(C6:C7)</f>
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D10" s="5"/>
       <c r="F10" s="6">
         <f>F9/F8</f>
-        <v>0.65822784810126578</v>
+        <v>0.60227272727272729</v>
       </c>
     </row>
   </sheetData>
@@ -2499,10 +2631,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J133"/>
+  <dimension ref="A1:J145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="G135" sqref="G135"/>
+    <sheetView topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="A134" sqref="A134:A145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6441,6 +6573,9 @@
       <c r="G131" t="s">
         <v>24</v>
       </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
       <c r="I131" t="str" cm="1">
         <f t="array" ref="I131">_xlfn.IFS(D131 &gt;= 0.85, "85  &lt;", AND(D131 &gt;=0.8, D131 &lt; 0.85), "80-85", AND(D131 &gt;= 0.7, D131 &lt; 0.8), "70-80", AND(D131 &gt;= 0.6, D131 &lt; 0.7),  "60-70", AND(D131 &gt;= 0.5, D131 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
@@ -6468,6 +6603,9 @@
       <c r="G132" t="s">
         <v>71</v>
       </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
       <c r="I132" t="str" cm="1">
         <f t="array" ref="I132">_xlfn.IFS(D132 &gt;= 0.85, "85  &lt;", AND(D132 &gt;=0.8, D132 &lt; 0.85), "80-85", AND(D132 &gt;= 0.7, D132 &lt; 0.8), "70-80", AND(D132 &gt;= 0.6, D132 &lt; 0.7),  "60-70", AND(D132 &gt;= 0.5, D132 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
@@ -6495,8 +6633,335 @@
       <c r="G133" t="s">
         <v>68</v>
       </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
       <c r="I133" t="str" cm="1">
         <f t="array" ref="I133">_xlfn.IFS(D133 &gt;= 0.85, "85  &lt;", AND(D133 &gt;=0.8, D133 &lt; 0.85), "80-85", AND(D133 &gt;= 0.7, D133 &lt; 0.8), "70-80", AND(D133 &gt;= 0.6, D133 &lt; 0.7),  "60-70", AND(D133 &gt;= 0.5, D133 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>85</v>
+      </c>
+      <c r="B134" s="1">
+        <v>45297</v>
+      </c>
+      <c r="C134" t="s">
+        <v>65</v>
+      </c>
+      <c r="D134" s="2">
+        <v>0.81279999999999997</v>
+      </c>
+      <c r="E134" t="s">
+        <v>32</v>
+      </c>
+      <c r="F134" s="2">
+        <v>0.18720000000000001</v>
+      </c>
+      <c r="G134" t="s">
+        <v>89</v>
+      </c>
+      <c r="I134" t="str" cm="1">
+        <f t="array" ref="I134">_xlfn.IFS(D134 &gt;= 0.85, "85  &lt;", AND(D134 &gt;=0.8, D134 &lt; 0.85), "80-85", AND(D134 &gt;= 0.7, D134 &lt; 0.8), "70-80", AND(D134 &gt;= 0.6, D134 &lt; 0.7),  "60-70", AND(D134 &gt;= 0.5, D134 &lt; 0.6), "50-60")</f>
+        <v>80-85</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>85</v>
+      </c>
+      <c r="B135" s="1">
+        <v>45297</v>
+      </c>
+      <c r="C135" t="s">
+        <v>64</v>
+      </c>
+      <c r="D135" s="2">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="E135" t="s">
+        <v>17</v>
+      </c>
+      <c r="F135" s="2">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="G135" t="s">
+        <v>52</v>
+      </c>
+      <c r="I135" t="str" cm="1">
+        <f t="array" ref="I135">_xlfn.IFS(D135 &gt;= 0.85, "85  &lt;", AND(D135 &gt;=0.8, D135 &lt; 0.85), "80-85", AND(D135 &gt;= 0.7, D135 &lt; 0.8), "70-80", AND(D135 &gt;= 0.6, D135 &lt; 0.7),  "60-70", AND(D135 &gt;= 0.5, D135 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>85</v>
+      </c>
+      <c r="B136" s="1">
+        <v>45297</v>
+      </c>
+      <c r="C136" t="s">
+        <v>49</v>
+      </c>
+      <c r="D136" s="2">
+        <v>0.71560000000000001</v>
+      </c>
+      <c r="E136" t="s">
+        <v>46</v>
+      </c>
+      <c r="F136" s="2">
+        <v>0.28439999999999999</v>
+      </c>
+      <c r="G136" t="s">
+        <v>50</v>
+      </c>
+      <c r="I136" t="str" cm="1">
+        <f t="array" ref="I136">_xlfn.IFS(D136 &gt;= 0.85, "85  &lt;", AND(D136 &gt;=0.8, D136 &lt; 0.85), "80-85", AND(D136 &gt;= 0.7, D136 &lt; 0.8), "70-80", AND(D136 &gt;= 0.6, D136 &lt; 0.7),  "60-70", AND(D136 &gt;= 0.5, D136 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>85</v>
+      </c>
+      <c r="B137" s="1">
+        <v>45297</v>
+      </c>
+      <c r="C137" t="s">
+        <v>34</v>
+      </c>
+      <c r="D137" s="2">
+        <v>0.63849999999999996</v>
+      </c>
+      <c r="E137" t="s">
+        <v>62</v>
+      </c>
+      <c r="F137" s="2">
+        <v>0.36149999999999999</v>
+      </c>
+      <c r="G137" t="s">
+        <v>36</v>
+      </c>
+      <c r="I137" t="str" cm="1">
+        <f t="array" ref="I137">_xlfn.IFS(D137 &gt;= 0.85, "85  &lt;", AND(D137 &gt;=0.8, D137 &lt; 0.85), "80-85", AND(D137 &gt;= 0.7, D137 &lt; 0.8), "70-80", AND(D137 &gt;= 0.6, D137 &lt; 0.7),  "60-70", AND(D137 &gt;= 0.5, D137 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>85</v>
+      </c>
+      <c r="B138" s="1">
+        <v>45297</v>
+      </c>
+      <c r="C138" t="s">
+        <v>19</v>
+      </c>
+      <c r="D138" s="2">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="E138" t="s">
+        <v>47</v>
+      </c>
+      <c r="F138" s="2">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="G138" t="s">
+        <v>21</v>
+      </c>
+      <c r="I138" t="str" cm="1">
+        <f t="array" ref="I138">_xlfn.IFS(D138 &gt;= 0.85, "85  &lt;", AND(D138 &gt;=0.8, D138 &lt; 0.85), "80-85", AND(D138 &gt;= 0.7, D138 &lt; 0.8), "70-80", AND(D138 &gt;= 0.6, D138 &lt; 0.7),  "60-70", AND(D138 &gt;= 0.5, D138 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>85</v>
+      </c>
+      <c r="B139" s="1">
+        <v>45297</v>
+      </c>
+      <c r="C139" t="s">
+        <v>28</v>
+      </c>
+      <c r="D139" s="2">
+        <v>0.57420000000000004</v>
+      </c>
+      <c r="E139" t="s">
+        <v>58</v>
+      </c>
+      <c r="F139" s="2">
+        <v>0.42580000000000001</v>
+      </c>
+      <c r="G139" t="s">
+        <v>30</v>
+      </c>
+      <c r="I139" t="str" cm="1">
+        <f t="array" ref="I139">_xlfn.IFS(D139 &gt;= 0.85, "85  &lt;", AND(D139 &gt;=0.8, D139 &lt; 0.85), "80-85", AND(D139 &gt;= 0.7, D139 &lt; 0.8), "70-80", AND(D139 &gt;= 0.6, D139 &lt; 0.7),  "60-70", AND(D139 &gt;= 0.5, D139 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>85</v>
+      </c>
+      <c r="B140" s="1">
+        <v>45297</v>
+      </c>
+      <c r="C140" t="s">
+        <v>22</v>
+      </c>
+      <c r="D140" s="2">
+        <v>0.56889999999999996</v>
+      </c>
+      <c r="E140" t="s">
+        <v>25</v>
+      </c>
+      <c r="F140" s="2">
+        <v>0.43109999999999998</v>
+      </c>
+      <c r="G140" t="s">
+        <v>24</v>
+      </c>
+      <c r="I140" t="str" cm="1">
+        <f t="array" ref="I140">_xlfn.IFS(D140 &gt;= 0.85, "85  &lt;", AND(D140 &gt;=0.8, D140 &lt; 0.85), "80-85", AND(D140 &gt;= 0.7, D140 &lt; 0.8), "70-80", AND(D140 &gt;= 0.6, D140 &lt; 0.7),  "60-70", AND(D140 &gt;= 0.5, D140 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>85</v>
+      </c>
+      <c r="B141" s="1">
+        <v>45297</v>
+      </c>
+      <c r="C141" t="s">
+        <v>43</v>
+      </c>
+      <c r="D141" s="2">
+        <v>0.56610000000000005</v>
+      </c>
+      <c r="E141" t="s">
+        <v>54</v>
+      </c>
+      <c r="F141" s="2">
+        <v>0.43390000000000001</v>
+      </c>
+      <c r="G141" t="s">
+        <v>72</v>
+      </c>
+      <c r="I141" t="str" cm="1">
+        <f t="array" ref="I141">_xlfn.IFS(D141 &gt;= 0.85, "85  &lt;", AND(D141 &gt;=0.8, D141 &lt; 0.85), "80-85", AND(D141 &gt;= 0.7, D141 &lt; 0.8), "70-80", AND(D141 &gt;= 0.6, D141 &lt; 0.7),  "60-70", AND(D141 &gt;= 0.5, D141 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>85</v>
+      </c>
+      <c r="B142" s="1">
+        <v>45297</v>
+      </c>
+      <c r="C142" t="s">
+        <v>56</v>
+      </c>
+      <c r="D142" s="2">
+        <v>0.55959999999999999</v>
+      </c>
+      <c r="E142" t="s">
+        <v>40</v>
+      </c>
+      <c r="F142" s="2">
+        <v>0.44040000000000001</v>
+      </c>
+      <c r="G142" t="s">
+        <v>73</v>
+      </c>
+      <c r="I142" t="str" cm="1">
+        <f t="array" ref="I142">_xlfn.IFS(D142 &gt;= 0.85, "85  &lt;", AND(D142 &gt;=0.8, D142 &lt; 0.85), "80-85", AND(D142 &gt;= 0.7, D142 &lt; 0.8), "70-80", AND(D142 &gt;= 0.6, D142 &lt; 0.7),  "60-70", AND(D142 &gt;= 0.5, D142 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>85</v>
+      </c>
+      <c r="B143" s="1">
+        <v>45297</v>
+      </c>
+      <c r="C143" t="s">
+        <v>57</v>
+      </c>
+      <c r="D143" s="2">
+        <v>0.55840000000000001</v>
+      </c>
+      <c r="E143" t="s">
+        <v>29</v>
+      </c>
+      <c r="F143" s="2">
+        <v>0.44159999999999999</v>
+      </c>
+      <c r="G143" t="s">
+        <v>88</v>
+      </c>
+      <c r="I143" t="str" cm="1">
+        <f t="array" ref="I143">_xlfn.IFS(D143 &gt;= 0.85, "85  &lt;", AND(D143 &gt;=0.8, D143 &lt; 0.85), "80-85", AND(D143 &gt;= 0.7, D143 &lt; 0.8), "70-80", AND(D143 &gt;= 0.6, D143 &lt; 0.7),  "60-70", AND(D143 &gt;= 0.5, D143 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>85</v>
+      </c>
+      <c r="B144" s="1">
+        <v>45297</v>
+      </c>
+      <c r="C144" t="s">
+        <v>16</v>
+      </c>
+      <c r="D144" s="2">
+        <v>0.53139999999999998</v>
+      </c>
+      <c r="E144" t="s">
+        <v>39</v>
+      </c>
+      <c r="F144" s="2">
+        <v>0.46860000000000002</v>
+      </c>
+      <c r="G144" t="s">
+        <v>18</v>
+      </c>
+      <c r="I144" t="str" cm="1">
+        <f t="array" ref="I144">_xlfn.IFS(D144 &gt;= 0.85, "85  &lt;", AND(D144 &gt;=0.8, D144 &lt; 0.85), "80-85", AND(D144 &gt;= 0.7, D144 &lt; 0.8), "70-80", AND(D144 &gt;= 0.6, D144 &lt; 0.7),  "60-70", AND(D144 &gt;= 0.5, D144 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>85</v>
+      </c>
+      <c r="B145" s="1">
+        <v>45297</v>
+      </c>
+      <c r="C145" t="s">
+        <v>42</v>
+      </c>
+      <c r="D145" s="2">
+        <v>0.51649999999999996</v>
+      </c>
+      <c r="E145" t="s">
+        <v>53</v>
+      </c>
+      <c r="F145" s="2">
+        <v>0.48349999999999999</v>
+      </c>
+      <c r="G145" t="s">
+        <v>44</v>
+      </c>
+      <c r="I145" t="str" cm="1">
+        <f t="array" ref="I145">_xlfn.IFS(D145 &gt;= 0.85, "85  &lt;", AND(D145 &gt;=0.8, D145 &lt; 0.85), "80-85", AND(D145 &gt;= 0.7, D145 &lt; 0.8), "70-80", AND(D145 &gt;= 0.6, D145 &lt; 0.7),  "60-70", AND(D145 &gt;= 0.5, D145 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>

--- a/GBM Lifetime Predictions.xlsx
+++ b/GBM Lifetime Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAF752C-8422-40C1-8290-E24383EEEF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CA4308-2AC2-4AFF-A837-9C8143AE84BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId3"/>
+    <pivotCache cacheId="8" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="91">
   <si>
     <t>Date</t>
   </si>
@@ -329,6 +329,9 @@
   </si>
   <si>
     <t>Playing At:  Montreal Canadiens   Home</t>
+  </si>
+  <si>
+    <t>GBM3</t>
   </si>
 </sst>
 </file>
@@ -894,20 +897,21 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45297.377448148145" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="104" xr:uid="{827BC2B5-8CB2-43F7-9795-87FC66DF261C}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45300.395853009257" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="122" xr:uid="{827BC2B5-8CB2-43F7-9795-87FC66DF261C}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A42:I1000" sheet="Predictions"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="Model Used" numFmtId="0">
-      <sharedItems containsBlank="1" count="3">
+      <sharedItems containsBlank="1" count="4">
         <s v="GBM1"/>
         <s v="GBM2"/>
+        <s v="GBM3"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-23T00:00:00" maxDate="2024-01-07T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-23T00:00:00" maxDate="2024-01-10T00:00:00"/>
     </cacheField>
     <cacheField name="Winner" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -947,7 +951,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="104">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="122">
   <r>
     <x v="0"/>
     <d v="2023-12-23T00:00:00"/>
@@ -1957,7 +1961,7 @@
     <s v="Montreal Canadiens"/>
     <n v="0.18720000000000001"/>
     <s v="Playing At:  Montreal Canadiens   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="2"/>
   </r>
   <r>
@@ -1968,7 +1972,7 @@
     <s v="San Jose Sharks"/>
     <n v="0.24199999999999999"/>
     <s v="Playing At:  San Jose Sharks   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="3"/>
   </r>
   <r>
@@ -1979,7 +1983,7 @@
     <s v="Tampa Bay Lightning"/>
     <n v="0.28439999999999999"/>
     <s v="Playing At:  Boston Bruins   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="3"/>
   </r>
   <r>
@@ -1990,7 +1994,7 @@
     <s v="Nashville Predators"/>
     <n v="0.36149999999999999"/>
     <s v="Playing At:  Dallas Stars   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="0"/>
   </r>
   <r>
@@ -2001,7 +2005,7 @@
     <s v="St. Louis Blues"/>
     <n v="0.38900000000000001"/>
     <s v="Playing At:  Carolina Hurricanes   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="0"/>
   </r>
   <r>
@@ -2012,7 +2016,7 @@
     <s v="New York Islanders"/>
     <n v="0.42580000000000001"/>
     <s v="Playing At:  Vegas Golden Knights   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="1"/>
   </r>
   <r>
@@ -2023,7 +2027,7 @@
     <s v="Vancouver Canucks"/>
     <n v="0.43109999999999998"/>
     <s v="Playing At:  New Jersey Devils   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="1"/>
   </r>
   <r>
@@ -2034,7 +2038,7 @@
     <s v="Columbus Blue Jackets"/>
     <n v="0.43390000000000001"/>
     <s v="Playing At:  Columbus Blue Jackets   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="1"/>
   </r>
   <r>
@@ -2045,7 +2049,7 @@
     <s v="Calgary Flames"/>
     <n v="0.44040000000000001"/>
     <s v="Playing At:  Philadelphia Flyers   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="1"/>
   </r>
   <r>
@@ -2056,7 +2060,7 @@
     <s v="Ottawa Senators"/>
     <n v="0.44159999999999999"/>
     <s v="Playing At:  Edmonton Oilers   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="1"/>
   </r>
   <r>
@@ -2067,7 +2071,7 @@
     <s v="Florida Panthers"/>
     <n v="0.46860000000000002"/>
     <s v="Playing At:  Colorado Avalanche   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="1"/>
   </r>
   <r>
@@ -2078,11 +2082,209 @@
     <s v="Buffalo Sabres"/>
     <n v="0.48349999999999999"/>
     <s v="Playing At:  Pittsburgh Penguins   Home"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-07T00:00:00"/>
+    <s v="Detroit Red Wings"/>
+    <n v="0.69399999999999995"/>
+    <s v="Anaheim Ducks"/>
+    <n v="0.30599999999999999"/>
+    <s v="Playing At:  Anaheim Ducks   Home"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-07T00:00:00"/>
+    <s v="Calgary Flames"/>
+    <n v="0.627"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="0.373"/>
+    <s v="Playing At:  Chicago Blackhawks   Home"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-07T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <n v="0.60499999999999998"/>
+    <s v="Arizona Coyotes"/>
+    <n v="0.39500000000000002"/>
+    <s v="Playing At:  Arizona Coyotes   Home"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-07T00:00:00"/>
+    <s v="Los Angeles Kings"/>
+    <n v="0.52200000000000002"/>
+    <s v="Washington Capitals"/>
+    <n v="0.47799999999999998"/>
+    <s v="Playing At:  Washington Capitals   Home"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-08T00:00:00"/>
+    <s v="New York Rangers"/>
+    <n v="0.61609999999999998"/>
+    <s v="Vancouver Canucks"/>
+    <n v="0.38390000000000002"/>
+    <s v="Playing At:  New York Rangers   Home"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-08T00:00:00"/>
+    <s v="Minnesota Wild"/>
+    <n v="0.54590000000000005"/>
+    <s v="Dallas Stars"/>
+    <n v="0.4541"/>
+    <s v="Playing At:  Minnesota Wild   Home"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-08T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <n v="0.50880000000000003"/>
+    <s v="Colorado Avalanche"/>
+    <n v="0.49120000000000003"/>
+    <s v="Playing At:  Colorado Avalanche   Home"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-08T00:00:00"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="0.50260000000000005"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="0.49740000000000001"/>
+    <s v="Playing At:  Philadelphia Flyers   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-09T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="0.76780000000000004"/>
+    <s v="San Jose Sharks"/>
+    <n v="0.23219999999999999"/>
+    <s v="Playing At:  Toronto Maple Leafs   Home"/>
     <m/>
-    <x v="1"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="2"/>
+    <d v="2024-01-09T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <n v="0.73509999999999998"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="0.26490000000000002"/>
+    <s v="Playing At:  Winnipeg Jets   Home"/>
+    <m/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-09T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <n v="0.68020000000000003"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="0.31979999999999997"/>
+    <s v="Playing At:  Chicago Blackhawks   Home"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-09T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <n v="0.64980000000000004"/>
+    <s v="Arizona Coyotes"/>
+    <n v="0.35020000000000001"/>
+    <s v="Playing At:  Arizona Coyotes   Home"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-09T00:00:00"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="0.63139999999999996"/>
+    <s v="Los Angeles Kings"/>
+    <n v="0.36859999999999998"/>
+    <s v="Playing At:  Tampa Bay Lightning   Home"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-09T00:00:00"/>
+    <s v="Nashville Predators"/>
+    <n v="0.5736"/>
+    <s v="Anaheim Ducks"/>
+    <n v="0.4264"/>
+    <s v="Playing At:  Nashville Predators   Home"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-09T00:00:00"/>
+    <s v="St. Louis Blues"/>
+    <n v="0.57020000000000004"/>
+    <s v="Florida Panthers"/>
+    <n v="0.42980000000000002"/>
+    <s v="Playing At:  St. Louis Blues   Home"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-09T00:00:00"/>
+    <s v="New York Islanders"/>
+    <n v="0.54469999999999996"/>
+    <s v="Vancouver Canucks"/>
+    <n v="0.45529999999999998"/>
+    <s v="Playing At:  New York Islanders   Home"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-09T00:00:00"/>
+    <s v="Calgary Flames"/>
+    <n v="0.52449999999999997"/>
+    <s v="Ottawa Senators"/>
+    <n v="0.47549999999999998"/>
+    <s v="Playing At:  Calgary Flames   Home"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-09T00:00:00"/>
+    <s v="Seattle Kraken"/>
+    <n v="0.51290000000000002"/>
+    <s v="Buffalo Sabres"/>
+    <n v="0.48709999999999998"/>
+    <s v="Playing At:  Buffalo Sabres   Home"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
     <m/>
     <m/>
     <m/>
@@ -2096,14 +2298,15 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A609C84-6A20-4E13-867B-B610F7CD9750}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A609C84-6A20-4E13-867B-B610F7CD9750}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisPage" showAll="0">
-      <items count="4">
+      <items count="5">
         <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
         <item x="2"/>
-        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2479,16 +2682,16 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>79</v>
       </c>
@@ -2496,7 +2699,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -2513,7 +2716,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>86</v>
       </c>
@@ -2529,99 +2732,99 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B5)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B5" s="8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" ref="D5:D9" si="0">C5/B5</f>
-        <v>0.46153846153846156</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="F5">
         <f>SUM(C4:C5)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="8">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C6" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6" s="6">
         <f>C6/B6</f>
-        <v>0.69230769230769229</v>
+        <v>0.63043478260869568</v>
       </c>
       <c r="F6" s="6">
         <f>F5/F4</f>
-        <v>0.46666666666666667</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.47058823529411764</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="8">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C7" s="8">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>0.53061224489795922</v>
+        <v>0.53448275862068961</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="8">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="C8" s="8">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>0.58252427184466016</v>
+        <v>0.56198347107438018</v>
       </c>
       <c r="F8">
         <f>SUM(B6:B7)</f>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F9">
         <f>SUM(C6:C7)</f>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" s="5"/>
       <c r="F10" s="6">
         <f>F9/F8</f>
-        <v>0.60227272727272729</v>
+        <v>0.57692307692307687</v>
       </c>
     </row>
   </sheetData>
@@ -2631,26 +2834,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J145"/>
+  <dimension ref="A1:J163"/>
   <sheetViews>
-    <sheetView topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="A134" sqref="A134:A145"/>
+    <sheetView topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="D170" sqref="D170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -2679,7 +2882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -2709,7 +2912,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -2739,7 +2942,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -2769,7 +2972,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -2799,7 +3002,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -2829,7 +3032,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -2859,7 +3062,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -2889,7 +3092,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -2919,7 +3122,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>80</v>
       </c>
@@ -2949,7 +3152,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -2979,7 +3182,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -3009,7 +3212,7 @@
         <v>80-85</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>81</v>
       </c>
@@ -3039,7 +3242,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>81</v>
       </c>
@@ -3069,7 +3272,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -3099,7 +3302,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -3129,7 +3332,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>81</v>
       </c>
@@ -3159,7 +3362,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>81</v>
       </c>
@@ -3189,7 +3392,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -3219,7 +3422,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -3249,7 +3452,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -3279,7 +3482,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -3309,7 +3512,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -3339,7 +3542,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -3369,7 +3572,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -3399,7 +3602,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -3429,7 +3632,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -3459,7 +3662,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>81</v>
       </c>
@@ -3489,7 +3692,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -3519,7 +3722,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -3549,7 +3752,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -3579,7 +3782,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>81</v>
       </c>
@@ -3609,7 +3812,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -3639,7 +3842,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>81</v>
       </c>
@@ -3669,7 +3872,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -3699,7 +3902,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>81</v>
       </c>
@@ -3729,7 +3932,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -3759,7 +3962,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -3789,7 +3992,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -3819,7 +4022,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>81</v>
       </c>
@@ -3849,7 +4052,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -3879,7 +4082,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -3911,7 +4114,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -3941,7 +4144,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>82</v>
       </c>
@@ -3971,7 +4174,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>82</v>
       </c>
@@ -4001,7 +4204,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>82</v>
       </c>
@@ -4031,7 +4234,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>82</v>
       </c>
@@ -4061,7 +4264,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>82</v>
       </c>
@@ -4091,7 +4294,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>82</v>
       </c>
@@ -4121,7 +4324,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>82</v>
       </c>
@@ -4151,7 +4354,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>82</v>
       </c>
@@ -4181,7 +4384,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>82</v>
       </c>
@@ -4211,7 +4414,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>82</v>
       </c>
@@ -4241,7 +4444,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>82</v>
       </c>
@@ -4271,7 +4474,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>82</v>
       </c>
@@ -4301,7 +4504,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>82</v>
       </c>
@@ -4331,7 +4534,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>82</v>
       </c>
@@ -4361,7 +4564,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>82</v>
       </c>
@@ -4391,7 +4594,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>82</v>
       </c>
@@ -4421,7 +4624,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>82</v>
       </c>
@@ -4451,7 +4654,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>82</v>
       </c>
@@ -4481,7 +4684,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>82</v>
       </c>
@@ -4511,7 +4714,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>82</v>
       </c>
@@ -4541,7 +4744,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>82</v>
       </c>
@@ -4571,7 +4774,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -4601,7 +4804,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>82</v>
       </c>
@@ -4631,7 +4834,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>82</v>
       </c>
@@ -4661,7 +4864,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>82</v>
       </c>
@@ -4691,7 +4894,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -4721,7 +4924,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>82</v>
       </c>
@@ -4751,7 +4954,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -4781,7 +4984,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>82</v>
       </c>
@@ -4811,7 +5014,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>82</v>
       </c>
@@ -4841,7 +5044,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>82</v>
       </c>
@@ -4871,7 +5074,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>82</v>
       </c>
@@ -4901,7 +5104,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -4931,7 +5134,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>82</v>
       </c>
@@ -4961,7 +5164,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -4991,7 +5194,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -5021,7 +5224,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -5051,7 +5254,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -5081,7 +5284,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -5111,7 +5314,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -5141,7 +5344,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -5171,7 +5374,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -5201,7 +5404,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>82</v>
       </c>
@@ -5231,7 +5434,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>82</v>
       </c>
@@ -5261,7 +5464,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>82</v>
       </c>
@@ -5291,7 +5494,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>82</v>
       </c>
@@ -5321,7 +5524,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>82</v>
       </c>
@@ -5351,7 +5554,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>82</v>
       </c>
@@ -5381,7 +5584,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>82</v>
       </c>
@@ -5411,7 +5614,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>85</v>
       </c>
@@ -5441,7 +5644,7 @@
         <v>80-85</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>85</v>
       </c>
@@ -5471,7 +5674,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>85</v>
       </c>
@@ -5501,7 +5704,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>85</v>
       </c>
@@ -5531,7 +5734,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>85</v>
       </c>
@@ -5561,7 +5764,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>85</v>
       </c>
@@ -5591,7 +5794,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>85</v>
       </c>
@@ -5621,7 +5824,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>85</v>
       </c>
@@ -5651,7 +5854,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>85</v>
       </c>
@@ -5681,7 +5884,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>85</v>
       </c>
@@ -5711,7 +5914,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>85</v>
       </c>
@@ -5741,7 +5944,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>85</v>
       </c>
@@ -5771,7 +5974,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>85</v>
       </c>
@@ -5801,7 +6004,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>85</v>
       </c>
@@ -5831,7 +6034,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>85</v>
       </c>
@@ -5861,7 +6064,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>85</v>
       </c>
@@ -5891,7 +6094,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>85</v>
       </c>
@@ -5921,7 +6124,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>85</v>
       </c>
@@ -5951,7 +6154,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>85</v>
       </c>
@@ -5981,7 +6184,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>85</v>
       </c>
@@ -6011,7 +6214,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>85</v>
       </c>
@@ -6041,7 +6244,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>85</v>
       </c>
@@ -6071,7 +6274,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>85</v>
       </c>
@@ -6101,7 +6304,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>85</v>
       </c>
@@ -6131,7 +6334,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>85</v>
       </c>
@@ -6161,7 +6364,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>85</v>
       </c>
@@ -6191,7 +6394,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>85</v>
       </c>
@@ -6221,7 +6424,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>85</v>
       </c>
@@ -6251,7 +6454,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>85</v>
       </c>
@@ -6281,7 +6484,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>85</v>
       </c>
@@ -6311,7 +6514,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>85</v>
       </c>
@@ -6341,7 +6544,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>85</v>
       </c>
@@ -6371,7 +6574,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>85</v>
       </c>
@@ -6401,7 +6604,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>85</v>
       </c>
@@ -6431,7 +6634,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>85</v>
       </c>
@@ -6461,7 +6664,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>85</v>
       </c>
@@ -6491,7 +6694,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>85</v>
       </c>
@@ -6521,7 +6724,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>85</v>
       </c>
@@ -6551,7 +6754,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>85</v>
       </c>
@@ -6581,7 +6784,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>85</v>
       </c>
@@ -6611,7 +6814,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>85</v>
       </c>
@@ -6641,7 +6844,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>85</v>
       </c>
@@ -6662,13 +6865,16 @@
       </c>
       <c r="G134" t="s">
         <v>89</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
       </c>
       <c r="I134" t="str" cm="1">
         <f t="array" ref="I134">_xlfn.IFS(D134 &gt;= 0.85, "85  &lt;", AND(D134 &gt;=0.8, D134 &lt; 0.85), "80-85", AND(D134 &gt;= 0.7, D134 &lt; 0.8), "70-80", AND(D134 &gt;= 0.6, D134 &lt; 0.7),  "60-70", AND(D134 &gt;= 0.5, D134 &lt; 0.6), "50-60")</f>
         <v>80-85</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>85</v>
       </c>
@@ -6689,13 +6895,16 @@
       </c>
       <c r="G135" t="s">
         <v>52</v>
+      </c>
+      <c r="H135">
+        <v>1</v>
       </c>
       <c r="I135" t="str" cm="1">
         <f t="array" ref="I135">_xlfn.IFS(D135 &gt;= 0.85, "85  &lt;", AND(D135 &gt;=0.8, D135 &lt; 0.85), "80-85", AND(D135 &gt;= 0.7, D135 &lt; 0.8), "70-80", AND(D135 &gt;= 0.6, D135 &lt; 0.7),  "60-70", AND(D135 &gt;= 0.5, D135 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>85</v>
       </c>
@@ -6716,13 +6925,16 @@
       </c>
       <c r="G136" t="s">
         <v>50</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
       </c>
       <c r="I136" t="str" cm="1">
         <f t="array" ref="I136">_xlfn.IFS(D136 &gt;= 0.85, "85  &lt;", AND(D136 &gt;=0.8, D136 &lt; 0.85), "80-85", AND(D136 &gt;= 0.7, D136 &lt; 0.8), "70-80", AND(D136 &gt;= 0.6, D136 &lt; 0.7),  "60-70", AND(D136 &gt;= 0.5, D136 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>85</v>
       </c>
@@ -6743,13 +6955,16 @@
       </c>
       <c r="G137" t="s">
         <v>36</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
       </c>
       <c r="I137" t="str" cm="1">
         <f t="array" ref="I137">_xlfn.IFS(D137 &gt;= 0.85, "85  &lt;", AND(D137 &gt;=0.8, D137 &lt; 0.85), "80-85", AND(D137 &gt;= 0.7, D137 &lt; 0.8), "70-80", AND(D137 &gt;= 0.6, D137 &lt; 0.7),  "60-70", AND(D137 &gt;= 0.5, D137 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>85</v>
       </c>
@@ -6770,13 +6985,16 @@
       </c>
       <c r="G138" t="s">
         <v>21</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
       </c>
       <c r="I138" t="str" cm="1">
         <f t="array" ref="I138">_xlfn.IFS(D138 &gt;= 0.85, "85  &lt;", AND(D138 &gt;=0.8, D138 &lt; 0.85), "80-85", AND(D138 &gt;= 0.7, D138 &lt; 0.8), "70-80", AND(D138 &gt;= 0.6, D138 &lt; 0.7),  "60-70", AND(D138 &gt;= 0.5, D138 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>85</v>
       </c>
@@ -6797,13 +7015,16 @@
       </c>
       <c r="G139" t="s">
         <v>30</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
       </c>
       <c r="I139" t="str" cm="1">
         <f t="array" ref="I139">_xlfn.IFS(D139 &gt;= 0.85, "85  &lt;", AND(D139 &gt;=0.8, D139 &lt; 0.85), "80-85", AND(D139 &gt;= 0.7, D139 &lt; 0.8), "70-80", AND(D139 &gt;= 0.6, D139 &lt; 0.7),  "60-70", AND(D139 &gt;= 0.5, D139 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>85</v>
       </c>
@@ -6824,13 +7045,16 @@
       </c>
       <c r="G140" t="s">
         <v>24</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
       </c>
       <c r="I140" t="str" cm="1">
         <f t="array" ref="I140">_xlfn.IFS(D140 &gt;= 0.85, "85  &lt;", AND(D140 &gt;=0.8, D140 &lt; 0.85), "80-85", AND(D140 &gt;= 0.7, D140 &lt; 0.8), "70-80", AND(D140 &gt;= 0.6, D140 &lt; 0.7),  "60-70", AND(D140 &gt;= 0.5, D140 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>85</v>
       </c>
@@ -6851,13 +7075,16 @@
       </c>
       <c r="G141" t="s">
         <v>72</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
       </c>
       <c r="I141" t="str" cm="1">
         <f t="array" ref="I141">_xlfn.IFS(D141 &gt;= 0.85, "85  &lt;", AND(D141 &gt;=0.8, D141 &lt; 0.85), "80-85", AND(D141 &gt;= 0.7, D141 &lt; 0.8), "70-80", AND(D141 &gt;= 0.6, D141 &lt; 0.7),  "60-70", AND(D141 &gt;= 0.5, D141 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>85</v>
       </c>
@@ -6878,13 +7105,16 @@
       </c>
       <c r="G142" t="s">
         <v>73</v>
+      </c>
+      <c r="H142">
+        <v>1</v>
       </c>
       <c r="I142" t="str" cm="1">
         <f t="array" ref="I142">_xlfn.IFS(D142 &gt;= 0.85, "85  &lt;", AND(D142 &gt;=0.8, D142 &lt; 0.85), "80-85", AND(D142 &gt;= 0.7, D142 &lt; 0.8), "70-80", AND(D142 &gt;= 0.6, D142 &lt; 0.7),  "60-70", AND(D142 &gt;= 0.5, D142 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>85</v>
       </c>
@@ -6905,13 +7135,16 @@
       </c>
       <c r="G143" t="s">
         <v>88</v>
+      </c>
+      <c r="H143">
+        <v>1</v>
       </c>
       <c r="I143" t="str" cm="1">
         <f t="array" ref="I143">_xlfn.IFS(D143 &gt;= 0.85, "85  &lt;", AND(D143 &gt;=0.8, D143 &lt; 0.85), "80-85", AND(D143 &gt;= 0.7, D143 &lt; 0.8), "70-80", AND(D143 &gt;= 0.6, D143 &lt; 0.7),  "60-70", AND(D143 &gt;= 0.5, D143 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>85</v>
       </c>
@@ -6932,13 +7165,16 @@
       </c>
       <c r="G144" t="s">
         <v>18</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
       </c>
       <c r="I144" t="str" cm="1">
         <f t="array" ref="I144">_xlfn.IFS(D144 &gt;= 0.85, "85  &lt;", AND(D144 &gt;=0.8, D144 &lt; 0.85), "80-85", AND(D144 &gt;= 0.7, D144 &lt; 0.8), "70-80", AND(D144 &gt;= 0.6, D144 &lt; 0.7),  "60-70", AND(D144 &gt;= 0.5, D144 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>85</v>
       </c>
@@ -6960,8 +7196,521 @@
       <c r="G145" t="s">
         <v>44</v>
       </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
       <c r="I145" t="str" cm="1">
         <f t="array" ref="I145">_xlfn.IFS(D145 &gt;= 0.85, "85  &lt;", AND(D145 &gt;=0.8, D145 &lt; 0.85), "80-85", AND(D145 &gt;= 0.7, D145 &lt; 0.8), "70-80", AND(D145 &gt;= 0.6, D145 &lt; 0.7),  "60-70", AND(D145 &gt;= 0.5, D145 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>90</v>
+      </c>
+      <c r="B146" s="1">
+        <v>45298</v>
+      </c>
+      <c r="C146" t="s">
+        <v>37</v>
+      </c>
+      <c r="D146" s="2">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="E146" t="s">
+        <v>23</v>
+      </c>
+      <c r="F146" s="2">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="G146" t="s">
+        <v>71</v>
+      </c>
+      <c r="H146">
+        <v>1</v>
+      </c>
+      <c r="I146" t="str" cm="1">
+        <f t="array" ref="I146">_xlfn.IFS(D146 &gt;= 0.85, "85  &lt;", AND(D146 &gt;=0.8, D146 &lt; 0.85), "80-85", AND(D146 &gt;= 0.7, D146 &lt; 0.8), "70-80", AND(D146 &gt;= 0.6, D146 &lt; 0.7),  "60-70", AND(D146 &gt;= 0.5, D146 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>90</v>
+      </c>
+      <c r="B147" s="1">
+        <v>45298</v>
+      </c>
+      <c r="C147" t="s">
+        <v>40</v>
+      </c>
+      <c r="D147" s="2">
+        <v>0.627</v>
+      </c>
+      <c r="E147" t="s">
+        <v>26</v>
+      </c>
+      <c r="F147" s="2">
+        <v>0.373</v>
+      </c>
+      <c r="G147" t="s">
+        <v>27</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147" t="str" cm="1">
+        <f t="array" ref="I147">_xlfn.IFS(D147 &gt;= 0.85, "85  &lt;", AND(D147 &gt;=0.8, D147 &lt; 0.85), "80-85", AND(D147 &gt;= 0.7, D147 &lt; 0.8), "70-80", AND(D147 &gt;= 0.6, D147 &lt; 0.7),  "60-70", AND(D147 &gt;= 0.5, D147 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>90</v>
+      </c>
+      <c r="B148" s="1">
+        <v>45298</v>
+      </c>
+      <c r="C148" t="s">
+        <v>31</v>
+      </c>
+      <c r="D148" s="2">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="E148" t="s">
+        <v>60</v>
+      </c>
+      <c r="F148" s="2">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="G148" t="s">
+        <v>61</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="I148" t="str" cm="1">
+        <f t="array" ref="I148">_xlfn.IFS(D148 &gt;= 0.85, "85  &lt;", AND(D148 &gt;=0.8, D148 &lt; 0.85), "80-85", AND(D148 &gt;= 0.7, D148 &lt; 0.8), "70-80", AND(D148 &gt;= 0.6, D148 &lt; 0.7),  "60-70", AND(D148 &gt;= 0.5, D148 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>90</v>
+      </c>
+      <c r="B149" s="1">
+        <v>45298</v>
+      </c>
+      <c r="C149" t="s">
+        <v>51</v>
+      </c>
+      <c r="D149" s="2">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="E149" t="s">
+        <v>20</v>
+      </c>
+      <c r="F149" s="2">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="G149" t="s">
+        <v>68</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149" t="str" cm="1">
+        <f t="array" ref="I149">_xlfn.IFS(D149 &gt;= 0.85, "85  &lt;", AND(D149 &gt;=0.8, D149 &lt; 0.85), "80-85", AND(D149 &gt;= 0.7, D149 &lt; 0.8), "70-80", AND(D149 &gt;= 0.6, D149 &lt; 0.7),  "60-70", AND(D149 &gt;= 0.5, D149 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>90</v>
+      </c>
+      <c r="B150" s="1">
+        <v>45299</v>
+      </c>
+      <c r="C150" t="s">
+        <v>65</v>
+      </c>
+      <c r="D150" s="2">
+        <v>0.61609999999999998</v>
+      </c>
+      <c r="E150" t="s">
+        <v>25</v>
+      </c>
+      <c r="F150" s="2">
+        <v>0.38390000000000002</v>
+      </c>
+      <c r="G150" t="s">
+        <v>74</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150" t="str" cm="1">
+        <f t="array" ref="I150">_xlfn.IFS(D150 &gt;= 0.85, "85  &lt;", AND(D150 &gt;=0.8, D150 &lt; 0.85), "80-85", AND(D150 &gt;= 0.7, D150 &lt; 0.8), "70-80", AND(D150 &gt;= 0.6, D150 &lt; 0.7),  "60-70", AND(D150 &gt;= 0.5, D150 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>90</v>
+      </c>
+      <c r="B151" s="1">
+        <v>45299</v>
+      </c>
+      <c r="C151" t="s">
+        <v>43</v>
+      </c>
+      <c r="D151" s="2">
+        <v>0.54590000000000005</v>
+      </c>
+      <c r="E151" t="s">
+        <v>34</v>
+      </c>
+      <c r="F151" s="2">
+        <v>0.4541</v>
+      </c>
+      <c r="G151" t="s">
+        <v>69</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151" t="str" cm="1">
+        <f t="array" ref="I151">_xlfn.IFS(D151 &gt;= 0.85, "85  &lt;", AND(D151 &gt;=0.8, D151 &lt; 0.85), "80-85", AND(D151 &gt;= 0.7, D151 &lt; 0.8), "70-80", AND(D151 &gt;= 0.6, D151 &lt; 0.7),  "60-70", AND(D151 &gt;= 0.5, D151 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>90</v>
+      </c>
+      <c r="B152" s="1">
+        <v>45299</v>
+      </c>
+      <c r="C152" t="s">
+        <v>49</v>
+      </c>
+      <c r="D152" s="2">
+        <v>0.50880000000000003</v>
+      </c>
+      <c r="E152" t="s">
+        <v>16</v>
+      </c>
+      <c r="F152" s="2">
+        <v>0.49120000000000003</v>
+      </c>
+      <c r="G152" t="s">
+        <v>18</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152" t="str" cm="1">
+        <f t="array" ref="I152">_xlfn.IFS(D152 &gt;= 0.85, "85  &lt;", AND(D152 &gt;=0.8, D152 &lt; 0.85), "80-85", AND(D152 &gt;= 0.7, D152 &lt; 0.8), "70-80", AND(D152 &gt;= 0.6, D152 &lt; 0.7),  "60-70", AND(D152 &gt;= 0.5, D152 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>90</v>
+      </c>
+      <c r="B153" s="1">
+        <v>45299</v>
+      </c>
+      <c r="C153" t="s">
+        <v>42</v>
+      </c>
+      <c r="D153" s="2">
+        <v>0.50260000000000005</v>
+      </c>
+      <c r="E153" t="s">
+        <v>56</v>
+      </c>
+      <c r="F153" s="2">
+        <v>0.49740000000000001</v>
+      </c>
+      <c r="G153" t="s">
+        <v>73</v>
+      </c>
+      <c r="H153">
+        <v>1</v>
+      </c>
+      <c r="I153" t="str" cm="1">
+        <f t="array" ref="I153">_xlfn.IFS(D153 &gt;= 0.85, "85  &lt;", AND(D153 &gt;=0.8, D153 &lt; 0.85), "80-85", AND(D153 &gt;= 0.7, D153 &lt; 0.8), "70-80", AND(D153 &gt;= 0.6, D153 &lt; 0.7),  "60-70", AND(D153 &gt;= 0.5, D153 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>90</v>
+      </c>
+      <c r="B154" s="1">
+        <v>45300</v>
+      </c>
+      <c r="C154" t="s">
+        <v>64</v>
+      </c>
+      <c r="D154" s="2">
+        <v>0.76780000000000004</v>
+      </c>
+      <c r="E154" t="s">
+        <v>17</v>
+      </c>
+      <c r="F154" s="2">
+        <v>0.23219999999999999</v>
+      </c>
+      <c r="G154" t="s">
+        <v>66</v>
+      </c>
+      <c r="I154" t="str" cm="1">
+        <f t="array" ref="I154">_xlfn.IFS(D154 &gt;= 0.85, "85  &lt;", AND(D154 &gt;=0.8, D154 &lt; 0.85), "80-85", AND(D154 &gt;= 0.7, D154 &lt; 0.8), "70-80", AND(D154 &gt;= 0.6, D154 &lt; 0.7),  "60-70", AND(D154 &gt;= 0.5, D154 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>90</v>
+      </c>
+      <c r="B155" s="1">
+        <v>45300</v>
+      </c>
+      <c r="C155" t="s">
+        <v>31</v>
+      </c>
+      <c r="D155" s="2">
+        <v>0.73509999999999998</v>
+      </c>
+      <c r="E155" t="s">
+        <v>54</v>
+      </c>
+      <c r="F155" s="2">
+        <v>0.26490000000000002</v>
+      </c>
+      <c r="G155" t="s">
+        <v>33</v>
+      </c>
+      <c r="I155" t="str" cm="1">
+        <f t="array" ref="I155">_xlfn.IFS(D155 &gt;= 0.85, "85  &lt;", AND(D155 &gt;=0.8, D155 &lt; 0.85), "80-85", AND(D155 &gt;= 0.7, D155 &lt; 0.8), "70-80", AND(D155 &gt;= 0.6, D155 &lt; 0.7),  "60-70", AND(D155 &gt;= 0.5, D155 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>90</v>
+      </c>
+      <c r="B156" s="1">
+        <v>45300</v>
+      </c>
+      <c r="C156" t="s">
+        <v>57</v>
+      </c>
+      <c r="D156" s="2">
+        <v>0.68020000000000003</v>
+      </c>
+      <c r="E156" t="s">
+        <v>26</v>
+      </c>
+      <c r="F156" s="2">
+        <v>0.31979999999999997</v>
+      </c>
+      <c r="G156" t="s">
+        <v>27</v>
+      </c>
+      <c r="I156" t="str" cm="1">
+        <f t="array" ref="I156">_xlfn.IFS(D156 &gt;= 0.85, "85  &lt;", AND(D156 &gt;=0.8, D156 &lt; 0.85), "80-85", AND(D156 &gt;= 0.7, D156 &lt; 0.8), "70-80", AND(D156 &gt;= 0.6, D156 &lt; 0.7),  "60-70", AND(D156 &gt;= 0.5, D156 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>90</v>
+      </c>
+      <c r="B157" s="1">
+        <v>45300</v>
+      </c>
+      <c r="C157" t="s">
+        <v>49</v>
+      </c>
+      <c r="D157" s="2">
+        <v>0.64980000000000004</v>
+      </c>
+      <c r="E157" t="s">
+        <v>60</v>
+      </c>
+      <c r="F157" s="2">
+        <v>0.35020000000000001</v>
+      </c>
+      <c r="G157" t="s">
+        <v>61</v>
+      </c>
+      <c r="I157" t="str" cm="1">
+        <f t="array" ref="I157">_xlfn.IFS(D157 &gt;= 0.85, "85  &lt;", AND(D157 &gt;=0.8, D157 &lt; 0.85), "80-85", AND(D157 &gt;= 0.7, D157 &lt; 0.8), "70-80", AND(D157 &gt;= 0.6, D157 &lt; 0.7),  "60-70", AND(D157 &gt;= 0.5, D157 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>90</v>
+      </c>
+      <c r="B158" s="1">
+        <v>45300</v>
+      </c>
+      <c r="C158" t="s">
+        <v>46</v>
+      </c>
+      <c r="D158" s="2">
+        <v>0.63139999999999996</v>
+      </c>
+      <c r="E158" t="s">
+        <v>51</v>
+      </c>
+      <c r="F158" s="2">
+        <v>0.36859999999999998</v>
+      </c>
+      <c r="G158" t="s">
+        <v>48</v>
+      </c>
+      <c r="I158" t="str" cm="1">
+        <f t="array" ref="I158">_xlfn.IFS(D158 &gt;= 0.85, "85  &lt;", AND(D158 &gt;=0.8, D158 &lt; 0.85), "80-85", AND(D158 &gt;= 0.7, D158 &lt; 0.8), "70-80", AND(D158 &gt;= 0.6, D158 &lt; 0.7),  "60-70", AND(D158 &gt;= 0.5, D158 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>90</v>
+      </c>
+      <c r="B159" s="1">
+        <v>45300</v>
+      </c>
+      <c r="C159" t="s">
+        <v>62</v>
+      </c>
+      <c r="D159" s="2">
+        <v>0.5736</v>
+      </c>
+      <c r="E159" t="s">
+        <v>23</v>
+      </c>
+      <c r="F159" s="2">
+        <v>0.4264</v>
+      </c>
+      <c r="G159" t="s">
+        <v>63</v>
+      </c>
+      <c r="I159" t="str" cm="1">
+        <f t="array" ref="I159">_xlfn.IFS(D159 &gt;= 0.85, "85  &lt;", AND(D159 &gt;=0.8, D159 &lt; 0.85), "80-85", AND(D159 &gt;= 0.7, D159 &lt; 0.8), "70-80", AND(D159 &gt;= 0.6, D159 &lt; 0.7),  "60-70", AND(D159 &gt;= 0.5, D159 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>90</v>
+      </c>
+      <c r="B160" s="1">
+        <v>45300</v>
+      </c>
+      <c r="C160" t="s">
+        <v>47</v>
+      </c>
+      <c r="D160" s="2">
+        <v>0.57020000000000004</v>
+      </c>
+      <c r="E160" t="s">
+        <v>39</v>
+      </c>
+      <c r="F160" s="2">
+        <v>0.42980000000000002</v>
+      </c>
+      <c r="G160" t="s">
+        <v>77</v>
+      </c>
+      <c r="I160" t="str" cm="1">
+        <f t="array" ref="I160">_xlfn.IFS(D160 &gt;= 0.85, "85  &lt;", AND(D160 &gt;=0.8, D160 &lt; 0.85), "80-85", AND(D160 &gt;= 0.7, D160 &lt; 0.8), "70-80", AND(D160 &gt;= 0.6, D160 &lt; 0.7),  "60-70", AND(D160 &gt;= 0.5, D160 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>90</v>
+      </c>
+      <c r="B161" s="1">
+        <v>45300</v>
+      </c>
+      <c r="C161" t="s">
+        <v>58</v>
+      </c>
+      <c r="D161" s="2">
+        <v>0.54469999999999996</v>
+      </c>
+      <c r="E161" t="s">
+        <v>25</v>
+      </c>
+      <c r="F161" s="2">
+        <v>0.45529999999999998</v>
+      </c>
+      <c r="G161" t="s">
+        <v>59</v>
+      </c>
+      <c r="I161" t="str" cm="1">
+        <f t="array" ref="I161">_xlfn.IFS(D161 &gt;= 0.85, "85  &lt;", AND(D161 &gt;=0.8, D161 &lt; 0.85), "80-85", AND(D161 &gt;= 0.7, D161 &lt; 0.8), "70-80", AND(D161 &gt;= 0.6, D161 &lt; 0.7),  "60-70", AND(D161 &gt;= 0.5, D161 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>90</v>
+      </c>
+      <c r="B162" s="1">
+        <v>45300</v>
+      </c>
+      <c r="C162" t="s">
+        <v>40</v>
+      </c>
+      <c r="D162" s="2">
+        <v>0.52449999999999997</v>
+      </c>
+      <c r="E162" t="s">
+        <v>29</v>
+      </c>
+      <c r="F162" s="2">
+        <v>0.47549999999999998</v>
+      </c>
+      <c r="G162" t="s">
+        <v>41</v>
+      </c>
+      <c r="I162" t="str" cm="1">
+        <f t="array" ref="I162">_xlfn.IFS(D162 &gt;= 0.85, "85  &lt;", AND(D162 &gt;=0.8, D162 &lt; 0.85), "80-85", AND(D162 &gt;= 0.7, D162 &lt; 0.8), "70-80", AND(D162 &gt;= 0.6, D162 &lt; 0.7),  "60-70", AND(D162 &gt;= 0.5, D162 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>90</v>
+      </c>
+      <c r="B163" s="1">
+        <v>45300</v>
+      </c>
+      <c r="C163" t="s">
+        <v>35</v>
+      </c>
+      <c r="D163" s="2">
+        <v>0.51290000000000002</v>
+      </c>
+      <c r="E163" t="s">
+        <v>53</v>
+      </c>
+      <c r="F163" s="2">
+        <v>0.48709999999999998</v>
+      </c>
+      <c r="G163" t="s">
+        <v>55</v>
+      </c>
+      <c r="I163" t="str" cm="1">
+        <f t="array" ref="I163">_xlfn.IFS(D163 &gt;= 0.85, "85  &lt;", AND(D163 &gt;=0.8, D163 &lt; 0.85), "80-85", AND(D163 &gt;= 0.7, D163 &lt; 0.8), "70-80", AND(D163 &gt;= 0.6, D163 &lt; 0.7),  "60-70", AND(D163 &gt;= 0.5, D163 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>

--- a/GBM Lifetime Predictions.xlsx
+++ b/GBM Lifetime Predictions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CA4308-2AC2-4AFF-A837-9C8143AE84BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F377005F-5574-4EFD-8EA6-7C83E3C3A13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId3"/>
+    <pivotCache cacheId="4" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="91">
   <si>
     <t>Date</t>
   </si>
@@ -897,7 +897,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45300.395853009257" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="122" xr:uid="{827BC2B5-8CB2-43F7-9795-87FC66DF261C}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45301.35156909722" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="125" xr:uid="{827BC2B5-8CB2-43F7-9795-87FC66DF261C}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A42:I1000" sheet="Predictions"/>
   </cacheSource>
@@ -911,7 +911,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-23T00:00:00" maxDate="2024-01-10T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-23T00:00:00" maxDate="2024-01-11T00:00:00"/>
     </cacheField>
     <cacheField name="Winner" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -951,7 +951,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="122">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="125">
   <r>
     <x v="0"/>
     <d v="2023-12-23T00:00:00"/>
@@ -2181,7 +2181,7 @@
     <s v="San Jose Sharks"/>
     <n v="0.23219999999999999"/>
     <s v="Playing At:  Toronto Maple Leafs   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="3"/>
   </r>
   <r>
@@ -2192,7 +2192,7 @@
     <s v="Columbus Blue Jackets"/>
     <n v="0.26490000000000002"/>
     <s v="Playing At:  Winnipeg Jets   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="3"/>
   </r>
   <r>
@@ -2203,7 +2203,7 @@
     <s v="Chicago Blackhawks"/>
     <n v="0.31979999999999997"/>
     <s v="Playing At:  Chicago Blackhawks   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="0"/>
   </r>
   <r>
@@ -2214,7 +2214,7 @@
     <s v="Arizona Coyotes"/>
     <n v="0.35020000000000001"/>
     <s v="Playing At:  Arizona Coyotes   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="0"/>
   </r>
   <r>
@@ -2225,7 +2225,7 @@
     <s v="Los Angeles Kings"/>
     <n v="0.36859999999999998"/>
     <s v="Playing At:  Tampa Bay Lightning   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="0"/>
   </r>
   <r>
@@ -2236,7 +2236,7 @@
     <s v="Anaheim Ducks"/>
     <n v="0.4264"/>
     <s v="Playing At:  Nashville Predators   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="1"/>
   </r>
   <r>
@@ -2247,7 +2247,7 @@
     <s v="Florida Panthers"/>
     <n v="0.42980000000000002"/>
     <s v="Playing At:  St. Louis Blues   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="1"/>
   </r>
   <r>
@@ -2258,7 +2258,7 @@
     <s v="Vancouver Canucks"/>
     <n v="0.45529999999999998"/>
     <s v="Playing At:  New York Islanders   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="1"/>
   </r>
   <r>
@@ -2269,7 +2269,7 @@
     <s v="Ottawa Senators"/>
     <n v="0.47549999999999998"/>
     <s v="Playing At:  Calgary Flames   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="1"/>
   </r>
   <r>
@@ -2280,7 +2280,40 @@
     <s v="Buffalo Sabres"/>
     <n v="0.48709999999999998"/>
     <s v="Playing At:  Buffalo Sabres   Home"/>
-    <m/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-10T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <n v="0.59799999999999998"/>
+    <s v="Minnesota Wild"/>
+    <n v="0.40200000000000002"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-10T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <n v="0.56799999999999995"/>
+    <s v="Vegas Golden Knights"/>
+    <n v="0.432"/>
+    <s v="Playing At:  Colorado Avalanche   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-10T00:00:00"/>
+    <s v="Montreal Canadiens"/>
+    <n v="0.52800000000000002"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="0.47199999999999998"/>
+    <s v="Playing At:  Philadelphia Flyers   Home"/>
+    <n v="1"/>
     <x v="1"/>
   </r>
   <r>
@@ -2298,7 +2331,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A609C84-6A20-4E13-867B-B610F7CD9750}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A609C84-6A20-4E13-867B-B610F7CD9750}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisPage" showAll="0">
@@ -2679,7 +2712,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2743,15 +2776,15 @@
         <v>15</v>
       </c>
       <c r="C5" s="8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" ref="D5:D9" si="0">C5/B5</f>
-        <v>0.46666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="F5">
         <f>SUM(C4:C5)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2762,15 +2795,15 @@
         <v>46</v>
       </c>
       <c r="C6" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6" s="6">
         <f>C6/B6</f>
-        <v>0.63043478260869568</v>
+        <v>0.67391304347826086</v>
       </c>
       <c r="F6" s="6">
         <f>F5/F4</f>
-        <v>0.47058823529411764</v>
+        <v>0.58823529411764708</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2778,14 +2811,14 @@
         <v>45</v>
       </c>
       <c r="B7" s="8">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C7" s="8">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>0.53448275862068961</v>
+        <v>0.5901639344262295</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -2796,18 +2829,18 @@
         <v>10</v>
       </c>
       <c r="B8" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C8" s="8">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>0.56198347107438018</v>
+        <v>0.62096774193548387</v>
       </c>
       <c r="F8">
         <f>SUM(B6:B7)</f>
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2817,14 +2850,14 @@
       </c>
       <c r="F9">
         <f>SUM(C6:C7)</f>
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" s="5"/>
       <c r="F10" s="6">
         <f>F9/F8</f>
-        <v>0.57692307692307687</v>
+        <v>0.62616822429906538</v>
       </c>
     </row>
   </sheetData>
@@ -2834,10 +2867,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J163"/>
+  <dimension ref="A1:J166"/>
   <sheetViews>
-    <sheetView topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="D170" sqref="D170"/>
+    <sheetView topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="H167" sqref="H167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7466,6 +7499,9 @@
       <c r="G154" t="s">
         <v>66</v>
       </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
       <c r="I154" t="str" cm="1">
         <f t="array" ref="I154">_xlfn.IFS(D154 &gt;= 0.85, "85  &lt;", AND(D154 &gt;=0.8, D154 &lt; 0.85), "80-85", AND(D154 &gt;= 0.7, D154 &lt; 0.8), "70-80", AND(D154 &gt;= 0.6, D154 &lt; 0.7),  "60-70", AND(D154 &gt;= 0.5, D154 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
@@ -7493,6 +7529,9 @@
       <c r="G155" t="s">
         <v>33</v>
       </c>
+      <c r="H155">
+        <v>1</v>
+      </c>
       <c r="I155" t="str" cm="1">
         <f t="array" ref="I155">_xlfn.IFS(D155 &gt;= 0.85, "85  &lt;", AND(D155 &gt;=0.8, D155 &lt; 0.85), "80-85", AND(D155 &gt;= 0.7, D155 &lt; 0.8), "70-80", AND(D155 &gt;= 0.6, D155 &lt; 0.7),  "60-70", AND(D155 &gt;= 0.5, D155 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
@@ -7520,6 +7559,9 @@
       <c r="G156" t="s">
         <v>27</v>
       </c>
+      <c r="H156">
+        <v>1</v>
+      </c>
       <c r="I156" t="str" cm="1">
         <f t="array" ref="I156">_xlfn.IFS(D156 &gt;= 0.85, "85  &lt;", AND(D156 &gt;=0.8, D156 &lt; 0.85), "80-85", AND(D156 &gt;= 0.7, D156 &lt; 0.8), "70-80", AND(D156 &gt;= 0.6, D156 &lt; 0.7),  "60-70", AND(D156 &gt;= 0.5, D156 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
@@ -7547,6 +7589,9 @@
       <c r="G157" t="s">
         <v>61</v>
       </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
       <c r="I157" t="str" cm="1">
         <f t="array" ref="I157">_xlfn.IFS(D157 &gt;= 0.85, "85  &lt;", AND(D157 &gt;=0.8, D157 &lt; 0.85), "80-85", AND(D157 &gt;= 0.7, D157 &lt; 0.8), "70-80", AND(D157 &gt;= 0.6, D157 &lt; 0.7),  "60-70", AND(D157 &gt;= 0.5, D157 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
@@ -7574,6 +7619,9 @@
       <c r="G158" t="s">
         <v>48</v>
       </c>
+      <c r="H158">
+        <v>1</v>
+      </c>
       <c r="I158" t="str" cm="1">
         <f t="array" ref="I158">_xlfn.IFS(D158 &gt;= 0.85, "85  &lt;", AND(D158 &gt;=0.8, D158 &lt; 0.85), "80-85", AND(D158 &gt;= 0.7, D158 &lt; 0.8), "70-80", AND(D158 &gt;= 0.6, D158 &lt; 0.7),  "60-70", AND(D158 &gt;= 0.5, D158 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
@@ -7601,6 +7649,9 @@
       <c r="G159" t="s">
         <v>63</v>
       </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
       <c r="I159" t="str" cm="1">
         <f t="array" ref="I159">_xlfn.IFS(D159 &gt;= 0.85, "85  &lt;", AND(D159 &gt;=0.8, D159 &lt; 0.85), "80-85", AND(D159 &gt;= 0.7, D159 &lt; 0.8), "70-80", AND(D159 &gt;= 0.6, D159 &lt; 0.7),  "60-70", AND(D159 &gt;= 0.5, D159 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
@@ -7628,6 +7679,9 @@
       <c r="G160" t="s">
         <v>77</v>
       </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
       <c r="I160" t="str" cm="1">
         <f t="array" ref="I160">_xlfn.IFS(D160 &gt;= 0.85, "85  &lt;", AND(D160 &gt;=0.8, D160 &lt; 0.85), "80-85", AND(D160 &gt;= 0.7, D160 &lt; 0.8), "70-80", AND(D160 &gt;= 0.6, D160 &lt; 0.7),  "60-70", AND(D160 &gt;= 0.5, D160 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
@@ -7655,6 +7709,9 @@
       <c r="G161" t="s">
         <v>59</v>
       </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
       <c r="I161" t="str" cm="1">
         <f t="array" ref="I161">_xlfn.IFS(D161 &gt;= 0.85, "85  &lt;", AND(D161 &gt;=0.8, D161 &lt; 0.85), "80-85", AND(D161 &gt;= 0.7, D161 &lt; 0.8), "70-80", AND(D161 &gt;= 0.6, D161 &lt; 0.7),  "60-70", AND(D161 &gt;= 0.5, D161 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
@@ -7682,6 +7739,9 @@
       <c r="G162" t="s">
         <v>41</v>
       </c>
+      <c r="H162">
+        <v>1</v>
+      </c>
       <c r="I162" t="str" cm="1">
         <f t="array" ref="I162">_xlfn.IFS(D162 &gt;= 0.85, "85  &lt;", AND(D162 &gt;=0.8, D162 &lt; 0.85), "80-85", AND(D162 &gt;= 0.7, D162 &lt; 0.8), "70-80", AND(D162 &gt;= 0.6, D162 &lt; 0.7),  "60-70", AND(D162 &gt;= 0.5, D162 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
@@ -7709,8 +7769,101 @@
       <c r="G163" t="s">
         <v>55</v>
       </c>
+      <c r="H163">
+        <v>1</v>
+      </c>
       <c r="I163" t="str" cm="1">
         <f t="array" ref="I163">_xlfn.IFS(D163 &gt;= 0.85, "85  &lt;", AND(D163 &gt;=0.8, D163 &lt; 0.85), "80-85", AND(D163 &gt;= 0.7, D163 &lt; 0.8), "70-80", AND(D163 &gt;= 0.6, D163 &lt; 0.7),  "60-70", AND(D163 &gt;= 0.5, D163 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>90</v>
+      </c>
+      <c r="B164" s="1">
+        <v>45301</v>
+      </c>
+      <c r="C164" t="s">
+        <v>34</v>
+      </c>
+      <c r="D164" s="2">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="E164" t="s">
+        <v>43</v>
+      </c>
+      <c r="F164" s="2">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="G164" t="s">
+        <v>36</v>
+      </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
+      <c r="I164" t="str" cm="1">
+        <f t="array" ref="I164">_xlfn.IFS(D164 &gt;= 0.85, "85  &lt;", AND(D164 &gt;=0.8, D164 &lt; 0.85), "80-85", AND(D164 &gt;= 0.7, D164 &lt; 0.8), "70-80", AND(D164 &gt;= 0.6, D164 &lt; 0.7),  "60-70", AND(D164 &gt;= 0.5, D164 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>90</v>
+      </c>
+      <c r="B165" s="1">
+        <v>45301</v>
+      </c>
+      <c r="C165" t="s">
+        <v>16</v>
+      </c>
+      <c r="D165" s="2">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="E165" t="s">
+        <v>28</v>
+      </c>
+      <c r="F165" s="2">
+        <v>0.432</v>
+      </c>
+      <c r="G165" t="s">
+        <v>18</v>
+      </c>
+      <c r="H165">
+        <v>1</v>
+      </c>
+      <c r="I165" t="str" cm="1">
+        <f t="array" ref="I165">_xlfn.IFS(D165 &gt;= 0.85, "85  &lt;", AND(D165 &gt;=0.8, D165 &lt; 0.85), "80-85", AND(D165 &gt;= 0.7, D165 &lt; 0.8), "70-80", AND(D165 &gt;= 0.6, D165 &lt; 0.7),  "60-70", AND(D165 &gt;= 0.5, D165 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>90</v>
+      </c>
+      <c r="B166" s="1">
+        <v>45301</v>
+      </c>
+      <c r="C166" t="s">
+        <v>32</v>
+      </c>
+      <c r="D166" s="2">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="E166" t="s">
+        <v>56</v>
+      </c>
+      <c r="F166" s="2">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="G166" t="s">
+        <v>73</v>
+      </c>
+      <c r="H166">
+        <v>1</v>
+      </c>
+      <c r="I166" t="str" cm="1">
+        <f t="array" ref="I166">_xlfn.IFS(D166 &gt;= 0.85, "85  &lt;", AND(D166 &gt;=0.8, D166 &lt; 0.85), "80-85", AND(D166 &gt;= 0.7, D166 &lt; 0.8), "70-80", AND(D166 &gt;= 0.6, D166 &lt; 0.7),  "60-70", AND(D166 &gt;= 0.5, D166 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>

--- a/GBM Lifetime Predictions.xlsx
+++ b/GBM Lifetime Predictions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F377005F-5574-4EFD-8EA6-7C83E3C3A13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822E3118-259B-451F-810E-9E1809DF5B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="5" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="91">
   <si>
     <t>Date</t>
   </si>
@@ -897,7 +897,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45301.35156909722" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="125" xr:uid="{827BC2B5-8CB2-43F7-9795-87FC66DF261C}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45302.294942824075" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="138" xr:uid="{827BC2B5-8CB2-43F7-9795-87FC66DF261C}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A42:I1000" sheet="Predictions"/>
   </cacheSource>
@@ -911,19 +911,19 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-23T00:00:00" maxDate="2024-01-11T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-23T00:00:00" maxDate="2024-01-12T00:00:00"/>
     </cacheField>
     <cacheField name="Winner" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Winner Probability" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.50199000000000005" maxValue="0.81279999999999997"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.50178" maxValue="0.81279999999999997"/>
     </cacheField>
     <cacheField name="Loser" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Loser Probability" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.18720000000000001" maxValue="0.49801000000000001"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.18720000000000001" maxValue="0.49822"/>
     </cacheField>
     <cacheField name="Site" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -951,7 +951,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="125">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="138">
   <r>
     <x v="0"/>
     <d v="2023-12-23T00:00:00"/>
@@ -2313,6 +2313,149 @@
     <s v="Philadelphia Flyers"/>
     <n v="0.47199999999999998"/>
     <s v="Playing At:  Philadelphia Flyers   Home"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-11T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <n v="0.68869999999999998"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="0.31130000000000002"/>
+    <s v="Playing At:  Winnipeg Jets   Home"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-11T00:00:00"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="0.61726000000000003"/>
+    <s v="New Jersey Devils"/>
+    <n v="0.38274000000000002"/>
+    <s v="Playing At:  Tampa Bay Lightning   Home"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-11T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <n v="0.61102999999999996"/>
+    <s v="Vegas Golden Knights"/>
+    <n v="0.38896999999999998"/>
+    <s v="Playing At:  Vegas Golden Knights   Home"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-11T00:00:00"/>
+    <s v="Florida Panthers"/>
+    <n v="0.58172000000000001"/>
+    <s v="Los Angeles Kings"/>
+    <n v="0.41827999999999999"/>
+    <s v="Playing At:  Florida Panthers   Home"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-11T00:00:00"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="0.56498999999999999"/>
+    <s v="Anaheim Ducks"/>
+    <n v="0.43501000000000001"/>
+    <s v="Playing At:  Carolina Hurricanes   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-11T00:00:00"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="0.55171000000000003"/>
+    <s v="Vancouver Canucks"/>
+    <n v="0.44829000000000002"/>
+    <s v="Playing At:  Pittsburgh Penguins   Home"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-11T00:00:00"/>
+    <s v="Montreal Canadiens"/>
+    <n v="0.54937000000000002"/>
+    <s v="San Jose Sharks"/>
+    <n v="0.45062999999999998"/>
+    <s v="Playing At:  Montreal Canadiens   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-11T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <n v="0.54208000000000001"/>
+    <s v="Detroit Red Wings"/>
+    <n v="0.45791999999999999"/>
+    <s v="Playing At:  Detroit Red Wings   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-11T00:00:00"/>
+    <s v="New York Rangers"/>
+    <n v="0.54166999999999998"/>
+    <s v="St. Louis Blues"/>
+    <n v="0.45833000000000002"/>
+    <s v="Playing At:  St. Louis Blues   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-11T00:00:00"/>
+    <s v="New York Islanders"/>
+    <n v="0.52952999999999995"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="0.47047"/>
+    <s v="Playing At:  New York Islanders   Home"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-11T00:00:00"/>
+    <s v="Seattle Kraken"/>
+    <n v="0.51832"/>
+    <s v="Washington Capitals"/>
+    <n v="0.48168"/>
+    <s v="Playing At:  Washington Capitals   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-11T00:00:00"/>
+    <s v="Calgary Flames"/>
+    <n v="0.50568999999999997"/>
+    <s v="Arizona Coyotes"/>
+    <n v="0.49431000000000003"/>
+    <s v="Playing At:  Arizona Coyotes   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-11T00:00:00"/>
+    <s v="Buffalo Sabres"/>
+    <n v="0.50178"/>
+    <s v="Ottawa Senators"/>
+    <n v="0.49822"/>
+    <s v="Playing At:  Buffalo Sabres   Home"/>
     <n v="1"/>
     <x v="1"/>
   </r>
@@ -2331,7 +2474,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A609C84-6A20-4E13-867B-B610F7CD9750}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A609C84-6A20-4E13-867B-B610F7CD9750}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisPage" showAll="0">
@@ -2712,19 +2855,19 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>79</v>
       </c>
@@ -2732,7 +2875,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -2749,7 +2892,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>86</v>
       </c>
@@ -2768,7 +2911,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>87</v>
       </c>
@@ -2787,77 +2930,77 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="8">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C6" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" s="6">
         <f>C6/B6</f>
-        <v>0.67391304347826086</v>
+        <v>0.65306122448979587</v>
       </c>
       <c r="F6" s="6">
         <f>F5/F4</f>
         <v>0.58823529411764708</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="8">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C7" s="8">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>0.5901639344262295</v>
+        <v>0.59154929577464788</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="8">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="C8" s="8">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>0.62096774193548387</v>
+        <v>0.61313868613138689</v>
       </c>
       <c r="F8">
         <f>SUM(B6:B7)</f>
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D9" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F9">
         <f>SUM(C6:C7)</f>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D10" s="5"/>
       <c r="F10" s="6">
         <f>F9/F8</f>
-        <v>0.62616822429906538</v>
+        <v>0.6166666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -2867,26 +3010,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J166"/>
+  <dimension ref="A1:J179"/>
   <sheetViews>
-    <sheetView topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="H167" sqref="H167"/>
+    <sheetView topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="H167" sqref="H167:H179"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -2915,7 +3058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -2945,7 +3088,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -2975,7 +3118,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -3005,7 +3148,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -3035,7 +3178,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -3065,7 +3208,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -3095,7 +3238,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -3125,7 +3268,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -3155,7 +3298,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>80</v>
       </c>
@@ -3185,7 +3328,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -3215,7 +3358,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -3245,7 +3388,7 @@
         <v>80-85</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>81</v>
       </c>
@@ -3275,7 +3418,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>81</v>
       </c>
@@ -3305,7 +3448,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -3335,7 +3478,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -3365,7 +3508,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>81</v>
       </c>
@@ -3395,7 +3538,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>81</v>
       </c>
@@ -3425,7 +3568,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -3455,7 +3598,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -3485,7 +3628,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -3515,7 +3658,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -3545,7 +3688,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -3575,7 +3718,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -3605,7 +3748,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -3635,7 +3778,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -3665,7 +3808,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -3695,7 +3838,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>81</v>
       </c>
@@ -3725,7 +3868,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -3755,7 +3898,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -3785,7 +3928,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -3815,7 +3958,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>81</v>
       </c>
@@ -3845,7 +3988,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -3875,7 +4018,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>81</v>
       </c>
@@ -3905,7 +4048,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -3935,7 +4078,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>81</v>
       </c>
@@ -3965,7 +4108,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -3995,7 +4138,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -4025,7 +4168,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -4055,7 +4198,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>81</v>
       </c>
@@ -4085,7 +4228,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -4115,7 +4258,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -4147,7 +4290,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -4177,7 +4320,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>82</v>
       </c>
@@ -4207,7 +4350,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>82</v>
       </c>
@@ -4237,7 +4380,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>82</v>
       </c>
@@ -4267,7 +4410,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>82</v>
       </c>
@@ -4297,7 +4440,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>82</v>
       </c>
@@ -4327,7 +4470,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>82</v>
       </c>
@@ -4357,7 +4500,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>82</v>
       </c>
@@ -4387,7 +4530,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>82</v>
       </c>
@@ -4417,7 +4560,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>82</v>
       </c>
@@ -4447,7 +4590,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>82</v>
       </c>
@@ -4477,7 +4620,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>82</v>
       </c>
@@ -4507,7 +4650,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>82</v>
       </c>
@@ -4537,7 +4680,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>82</v>
       </c>
@@ -4567,7 +4710,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>82</v>
       </c>
@@ -4597,7 +4740,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>82</v>
       </c>
@@ -4627,7 +4770,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>82</v>
       </c>
@@ -4657,7 +4800,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>82</v>
       </c>
@@ -4687,7 +4830,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>82</v>
       </c>
@@ -4717,7 +4860,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>82</v>
       </c>
@@ -4747,7 +4890,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>82</v>
       </c>
@@ -4777,7 +4920,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>82</v>
       </c>
@@ -4807,7 +4950,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -4837,7 +4980,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>82</v>
       </c>
@@ -4867,7 +5010,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>82</v>
       </c>
@@ -4897,7 +5040,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>82</v>
       </c>
@@ -4927,7 +5070,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -4957,7 +5100,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>82</v>
       </c>
@@ -4987,7 +5130,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -5017,7 +5160,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>82</v>
       </c>
@@ -5047,7 +5190,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>82</v>
       </c>
@@ -5077,7 +5220,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>82</v>
       </c>
@@ -5107,7 +5250,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>82</v>
       </c>
@@ -5137,7 +5280,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -5167,7 +5310,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>82</v>
       </c>
@@ -5197,7 +5340,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -5227,7 +5370,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -5257,7 +5400,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -5287,7 +5430,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -5317,7 +5460,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -5347,7 +5490,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -5377,7 +5520,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -5407,7 +5550,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -5437,7 +5580,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>82</v>
       </c>
@@ -5467,7 +5610,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>82</v>
       </c>
@@ -5497,7 +5640,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>82</v>
       </c>
@@ -5527,7 +5670,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>82</v>
       </c>
@@ -5557,7 +5700,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>82</v>
       </c>
@@ -5587,7 +5730,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>82</v>
       </c>
@@ -5617,7 +5760,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>82</v>
       </c>
@@ -5647,7 +5790,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>85</v>
       </c>
@@ -5677,7 +5820,7 @@
         <v>80-85</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>85</v>
       </c>
@@ -5707,7 +5850,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>85</v>
       </c>
@@ -5737,7 +5880,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>85</v>
       </c>
@@ -5767,7 +5910,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>85</v>
       </c>
@@ -5797,7 +5940,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>85</v>
       </c>
@@ -5827,7 +5970,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>85</v>
       </c>
@@ -5857,7 +6000,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>85</v>
       </c>
@@ -5887,7 +6030,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>85</v>
       </c>
@@ -5917,7 +6060,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>85</v>
       </c>
@@ -5947,7 +6090,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>85</v>
       </c>
@@ -5977,7 +6120,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>85</v>
       </c>
@@ -6007,7 +6150,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>85</v>
       </c>
@@ -6037,7 +6180,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>85</v>
       </c>
@@ -6067,7 +6210,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>85</v>
       </c>
@@ -6097,7 +6240,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>85</v>
       </c>
@@ -6127,7 +6270,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>85</v>
       </c>
@@ -6157,7 +6300,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>85</v>
       </c>
@@ -6187,7 +6330,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>85</v>
       </c>
@@ -6217,7 +6360,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>85</v>
       </c>
@@ -6247,7 +6390,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>85</v>
       </c>
@@ -6277,7 +6420,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>85</v>
       </c>
@@ -6307,7 +6450,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>85</v>
       </c>
@@ -6337,7 +6480,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>85</v>
       </c>
@@ -6367,7 +6510,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>85</v>
       </c>
@@ -6397,7 +6540,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>85</v>
       </c>
@@ -6427,7 +6570,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>85</v>
       </c>
@@ -6457,7 +6600,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>85</v>
       </c>
@@ -6487,7 +6630,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>85</v>
       </c>
@@ -6517,7 +6660,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>85</v>
       </c>
@@ -6547,7 +6690,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>85</v>
       </c>
@@ -6577,7 +6720,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>85</v>
       </c>
@@ -6607,7 +6750,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>85</v>
       </c>
@@ -6637,7 +6780,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>85</v>
       </c>
@@ -6667,7 +6810,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>85</v>
       </c>
@@ -6697,7 +6840,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>85</v>
       </c>
@@ -6727,7 +6870,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>85</v>
       </c>
@@ -6757,7 +6900,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>85</v>
       </c>
@@ -6787,7 +6930,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>85</v>
       </c>
@@ -6817,7 +6960,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>85</v>
       </c>
@@ -6847,7 +6990,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>85</v>
       </c>
@@ -6877,7 +7020,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>85</v>
       </c>
@@ -6907,7 +7050,7 @@
         <v>80-85</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>85</v>
       </c>
@@ -6937,7 +7080,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>85</v>
       </c>
@@ -6967,7 +7110,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>85</v>
       </c>
@@ -6997,7 +7140,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>85</v>
       </c>
@@ -7027,7 +7170,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>85</v>
       </c>
@@ -7057,7 +7200,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>85</v>
       </c>
@@ -7087,7 +7230,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>85</v>
       </c>
@@ -7117,7 +7260,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>85</v>
       </c>
@@ -7147,7 +7290,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>85</v>
       </c>
@@ -7177,7 +7320,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>85</v>
       </c>
@@ -7207,7 +7350,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>85</v>
       </c>
@@ -7237,7 +7380,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>90</v>
       </c>
@@ -7267,7 +7410,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>90</v>
       </c>
@@ -7297,7 +7440,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>90</v>
       </c>
@@ -7327,7 +7470,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>90</v>
       </c>
@@ -7357,7 +7500,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>90</v>
       </c>
@@ -7387,7 +7530,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>90</v>
       </c>
@@ -7417,7 +7560,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>90</v>
       </c>
@@ -7447,7 +7590,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>90</v>
       </c>
@@ -7477,7 +7620,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>90</v>
       </c>
@@ -7507,7 +7650,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>90</v>
       </c>
@@ -7537,7 +7680,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>90</v>
       </c>
@@ -7567,7 +7710,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>90</v>
       </c>
@@ -7597,7 +7740,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>90</v>
       </c>
@@ -7627,7 +7770,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>90</v>
       </c>
@@ -7657,7 +7800,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>90</v>
       </c>
@@ -7687,7 +7830,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>90</v>
       </c>
@@ -7717,7 +7860,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>90</v>
       </c>
@@ -7747,7 +7890,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>90</v>
       </c>
@@ -7777,7 +7920,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>90</v>
       </c>
@@ -7807,7 +7950,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>90</v>
       </c>
@@ -7837,7 +7980,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>90</v>
       </c>
@@ -7860,10 +8003,400 @@
         <v>73</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="str" cm="1">
         <f t="array" ref="I166">_xlfn.IFS(D166 &gt;= 0.85, "85  &lt;", AND(D166 &gt;=0.8, D166 &lt; 0.85), "80-85", AND(D166 &gt;= 0.7, D166 &lt; 0.8), "70-80", AND(D166 &gt;= 0.6, D166 &lt; 0.7),  "60-70", AND(D166 &gt;= 0.5, D166 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>90</v>
+      </c>
+      <c r="B167" s="1">
+        <v>45302</v>
+      </c>
+      <c r="C167" t="s">
+        <v>31</v>
+      </c>
+      <c r="D167" s="2">
+        <v>0.68869999999999998</v>
+      </c>
+      <c r="E167" t="s">
+        <v>26</v>
+      </c>
+      <c r="F167" s="2">
+        <v>0.31130000000000002</v>
+      </c>
+      <c r="G167" t="s">
+        <v>33</v>
+      </c>
+      <c r="H167">
+        <v>1</v>
+      </c>
+      <c r="I167" t="str" cm="1">
+        <f t="array" ref="I167">_xlfn.IFS(D167 &gt;= 0.85, "85  &lt;", AND(D167 &gt;=0.8, D167 &lt; 0.85), "80-85", AND(D167 &gt;= 0.7, D167 &lt; 0.8), "70-80", AND(D167 &gt;= 0.6, D167 &lt; 0.7),  "60-70", AND(D167 &gt;= 0.5, D167 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>90</v>
+      </c>
+      <c r="B168" s="1">
+        <v>45302</v>
+      </c>
+      <c r="C168" t="s">
+        <v>46</v>
+      </c>
+      <c r="D168" s="2">
+        <v>0.61726000000000003</v>
+      </c>
+      <c r="E168" t="s">
+        <v>22</v>
+      </c>
+      <c r="F168" s="2">
+        <v>0.38274000000000002</v>
+      </c>
+      <c r="G168" t="s">
+        <v>48</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168" t="str" cm="1">
+        <f t="array" ref="I168">_xlfn.IFS(D168 &gt;= 0.85, "85  &lt;", AND(D168 &gt;=0.8, D168 &lt; 0.85), "80-85", AND(D168 &gt;= 0.7, D168 &lt; 0.8), "70-80", AND(D168 &gt;= 0.6, D168 &lt; 0.7),  "60-70", AND(D168 &gt;= 0.5, D168 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>90</v>
+      </c>
+      <c r="B169" s="1">
+        <v>45302</v>
+      </c>
+      <c r="C169" t="s">
+        <v>49</v>
+      </c>
+      <c r="D169" s="2">
+        <v>0.61102999999999996</v>
+      </c>
+      <c r="E169" t="s">
+        <v>28</v>
+      </c>
+      <c r="F169" s="2">
+        <v>0.38896999999999998</v>
+      </c>
+      <c r="G169" t="s">
+        <v>30</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169" t="str" cm="1">
+        <f t="array" ref="I169">_xlfn.IFS(D169 &gt;= 0.85, "85  &lt;", AND(D169 &gt;=0.8, D169 &lt; 0.85), "80-85", AND(D169 &gt;= 0.7, D169 &lt; 0.8), "70-80", AND(D169 &gt;= 0.6, D169 &lt; 0.7),  "60-70", AND(D169 &gt;= 0.5, D169 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>90</v>
+      </c>
+      <c r="B170" s="1">
+        <v>45302</v>
+      </c>
+      <c r="C170" t="s">
+        <v>39</v>
+      </c>
+      <c r="D170" s="2">
+        <v>0.58172000000000001</v>
+      </c>
+      <c r="E170" t="s">
+        <v>51</v>
+      </c>
+      <c r="F170" s="2">
+        <v>0.41827999999999999</v>
+      </c>
+      <c r="G170" t="s">
+        <v>70</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170" t="str" cm="1">
+        <f t="array" ref="I170">_xlfn.IFS(D170 &gt;= 0.85, "85  &lt;", AND(D170 &gt;=0.8, D170 &lt; 0.85), "80-85", AND(D170 &gt;= 0.7, D170 &lt; 0.8), "70-80", AND(D170 &gt;= 0.6, D170 &lt; 0.7),  "60-70", AND(D170 &gt;= 0.5, D170 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>90</v>
+      </c>
+      <c r="B171" s="1">
+        <v>45302</v>
+      </c>
+      <c r="C171" t="s">
+        <v>19</v>
+      </c>
+      <c r="D171" s="2">
+        <v>0.56498999999999999</v>
+      </c>
+      <c r="E171" t="s">
+        <v>23</v>
+      </c>
+      <c r="F171" s="2">
+        <v>0.43501000000000001</v>
+      </c>
+      <c r="G171" t="s">
+        <v>21</v>
+      </c>
+      <c r="H171">
+        <v>1</v>
+      </c>
+      <c r="I171" t="str" cm="1">
+        <f t="array" ref="I171">_xlfn.IFS(D171 &gt;= 0.85, "85  &lt;", AND(D171 &gt;=0.8, D171 &lt; 0.85), "80-85", AND(D171 &gt;= 0.7, D171 &lt; 0.8), "70-80", AND(D171 &gt;= 0.6, D171 &lt; 0.7),  "60-70", AND(D171 &gt;= 0.5, D171 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>90</v>
+      </c>
+      <c r="B172" s="1">
+        <v>45302</v>
+      </c>
+      <c r="C172" t="s">
+        <v>42</v>
+      </c>
+      <c r="D172" s="2">
+        <v>0.55171000000000003</v>
+      </c>
+      <c r="E172" t="s">
+        <v>25</v>
+      </c>
+      <c r="F172" s="2">
+        <v>0.44829000000000002</v>
+      </c>
+      <c r="G172" t="s">
+        <v>44</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172" t="str" cm="1">
+        <f t="array" ref="I172">_xlfn.IFS(D172 &gt;= 0.85, "85  &lt;", AND(D172 &gt;=0.8, D172 &lt; 0.85), "80-85", AND(D172 &gt;= 0.7, D172 &lt; 0.8), "70-80", AND(D172 &gt;= 0.6, D172 &lt; 0.7),  "60-70", AND(D172 &gt;= 0.5, D172 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>90</v>
+      </c>
+      <c r="B173" s="1">
+        <v>45302</v>
+      </c>
+      <c r="C173" t="s">
+        <v>32</v>
+      </c>
+      <c r="D173" s="2">
+        <v>0.54937000000000002</v>
+      </c>
+      <c r="E173" t="s">
+        <v>17</v>
+      </c>
+      <c r="F173" s="2">
+        <v>0.45062999999999998</v>
+      </c>
+      <c r="G173" t="s">
+        <v>89</v>
+      </c>
+      <c r="H173">
+        <v>1</v>
+      </c>
+      <c r="I173" t="str" cm="1">
+        <f t="array" ref="I173">_xlfn.IFS(D173 &gt;= 0.85, "85  &lt;", AND(D173 &gt;=0.8, D173 &lt; 0.85), "80-85", AND(D173 &gt;= 0.7, D173 &lt; 0.8), "70-80", AND(D173 &gt;= 0.6, D173 &lt; 0.7),  "60-70", AND(D173 &gt;= 0.5, D173 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>90</v>
+      </c>
+      <c r="B174" s="1">
+        <v>45302</v>
+      </c>
+      <c r="C174" t="s">
+        <v>57</v>
+      </c>
+      <c r="D174" s="2">
+        <v>0.54208000000000001</v>
+      </c>
+      <c r="E174" t="s">
+        <v>37</v>
+      </c>
+      <c r="F174" s="2">
+        <v>0.45791999999999999</v>
+      </c>
+      <c r="G174" t="s">
+        <v>38</v>
+      </c>
+      <c r="H174">
+        <v>1</v>
+      </c>
+      <c r="I174" t="str" cm="1">
+        <f t="array" ref="I174">_xlfn.IFS(D174 &gt;= 0.85, "85  &lt;", AND(D174 &gt;=0.8, D174 &lt; 0.85), "80-85", AND(D174 &gt;= 0.7, D174 &lt; 0.8), "70-80", AND(D174 &gt;= 0.6, D174 &lt; 0.7),  "60-70", AND(D174 &gt;= 0.5, D174 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>90</v>
+      </c>
+      <c r="B175" s="1">
+        <v>45302</v>
+      </c>
+      <c r="C175" t="s">
+        <v>65</v>
+      </c>
+      <c r="D175" s="2">
+        <v>0.54166999999999998</v>
+      </c>
+      <c r="E175" t="s">
+        <v>47</v>
+      </c>
+      <c r="F175" s="2">
+        <v>0.45833000000000002</v>
+      </c>
+      <c r="G175" t="s">
+        <v>77</v>
+      </c>
+      <c r="H175">
+        <v>1</v>
+      </c>
+      <c r="I175" t="str" cm="1">
+        <f t="array" ref="I175">_xlfn.IFS(D175 &gt;= 0.85, "85  &lt;", AND(D175 &gt;=0.8, D175 &lt; 0.85), "80-85", AND(D175 &gt;= 0.7, D175 &lt; 0.8), "70-80", AND(D175 &gt;= 0.6, D175 &lt; 0.7),  "60-70", AND(D175 &gt;= 0.5, D175 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>90</v>
+      </c>
+      <c r="B176" s="1">
+        <v>45302</v>
+      </c>
+      <c r="C176" t="s">
+        <v>58</v>
+      </c>
+      <c r="D176" s="2">
+        <v>0.52952999999999995</v>
+      </c>
+      <c r="E176" t="s">
+        <v>64</v>
+      </c>
+      <c r="F176" s="2">
+        <v>0.47047</v>
+      </c>
+      <c r="G176" t="s">
+        <v>59</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176" t="str" cm="1">
+        <f t="array" ref="I176">_xlfn.IFS(D176 &gt;= 0.85, "85  &lt;", AND(D176 &gt;=0.8, D176 &lt; 0.85), "80-85", AND(D176 &gt;= 0.7, D176 &lt; 0.8), "70-80", AND(D176 &gt;= 0.6, D176 &lt; 0.7),  "60-70", AND(D176 &gt;= 0.5, D176 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>90</v>
+      </c>
+      <c r="B177" s="1">
+        <v>45302</v>
+      </c>
+      <c r="C177" t="s">
+        <v>35</v>
+      </c>
+      <c r="D177" s="2">
+        <v>0.51832</v>
+      </c>
+      <c r="E177" t="s">
+        <v>20</v>
+      </c>
+      <c r="F177" s="2">
+        <v>0.48168</v>
+      </c>
+      <c r="G177" t="s">
+        <v>68</v>
+      </c>
+      <c r="H177">
+        <v>1</v>
+      </c>
+      <c r="I177" t="str" cm="1">
+        <f t="array" ref="I177">_xlfn.IFS(D177 &gt;= 0.85, "85  &lt;", AND(D177 &gt;=0.8, D177 &lt; 0.85), "80-85", AND(D177 &gt;= 0.7, D177 &lt; 0.8), "70-80", AND(D177 &gt;= 0.6, D177 &lt; 0.7),  "60-70", AND(D177 &gt;= 0.5, D177 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>90</v>
+      </c>
+      <c r="B178" s="1">
+        <v>45302</v>
+      </c>
+      <c r="C178" t="s">
+        <v>40</v>
+      </c>
+      <c r="D178" s="2">
+        <v>0.50568999999999997</v>
+      </c>
+      <c r="E178" t="s">
+        <v>60</v>
+      </c>
+      <c r="F178" s="2">
+        <v>0.49431000000000003</v>
+      </c>
+      <c r="G178" t="s">
+        <v>61</v>
+      </c>
+      <c r="H178">
+        <v>1</v>
+      </c>
+      <c r="I178" t="str" cm="1">
+        <f t="array" ref="I178">_xlfn.IFS(D178 &gt;= 0.85, "85  &lt;", AND(D178 &gt;=0.8, D178 &lt; 0.85), "80-85", AND(D178 &gt;= 0.7, D178 &lt; 0.8), "70-80", AND(D178 &gt;= 0.6, D178 &lt; 0.7),  "60-70", AND(D178 &gt;= 0.5, D178 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>90</v>
+      </c>
+      <c r="B179" s="1">
+        <v>45302</v>
+      </c>
+      <c r="C179" t="s">
+        <v>53</v>
+      </c>
+      <c r="D179" s="2">
+        <v>0.50178</v>
+      </c>
+      <c r="E179" t="s">
+        <v>29</v>
+      </c>
+      <c r="F179" s="2">
+        <v>0.49822</v>
+      </c>
+      <c r="G179" t="s">
+        <v>55</v>
+      </c>
+      <c r="H179">
+        <v>1</v>
+      </c>
+      <c r="I179" t="str" cm="1">
+        <f t="array" ref="I179">_xlfn.IFS(D179 &gt;= 0.85, "85  &lt;", AND(D179 &gt;=0.8, D179 &lt; 0.85), "80-85", AND(D179 &gt;= 0.7, D179 &lt; 0.8), "70-80", AND(D179 &gt;= 0.6, D179 &lt; 0.7),  "60-70", AND(D179 &gt;= 0.5, D179 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>

--- a/GBM Lifetime Predictions.xlsx
+++ b/GBM Lifetime Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822E3118-259B-451F-810E-9E1809DF5B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2241B623-27D9-4566-AAC3-6D6E938D2798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="91">
   <si>
     <t>Date</t>
   </si>
@@ -897,7 +897,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45302.294942824075" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="138" xr:uid="{827BC2B5-8CB2-43F7-9795-87FC66DF261C}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45303.357807638888" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="140" xr:uid="{827BC2B5-8CB2-43F7-9795-87FC66DF261C}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A42:I1000" sheet="Predictions"/>
   </cacheSource>
@@ -911,7 +911,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-23T00:00:00" maxDate="2024-01-12T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-23T00:00:00" maxDate="2024-01-13T00:00:00"/>
     </cacheField>
     <cacheField name="Winner" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -951,7 +951,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="138">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="140">
   <r>
     <x v="0"/>
     <d v="2023-12-23T00:00:00"/>
@@ -2335,7 +2335,7 @@
     <s v="New Jersey Devils"/>
     <n v="0.38274000000000002"/>
     <s v="Playing At:  Tampa Bay Lightning   Home"/>
-    <n v="0"/>
+    <n v="1"/>
     <x v="0"/>
   </r>
   <r>
@@ -2357,7 +2357,7 @@
     <s v="Los Angeles Kings"/>
     <n v="0.41827999999999999"/>
     <s v="Playing At:  Florida Panthers   Home"/>
-    <n v="0"/>
+    <n v="1"/>
     <x v="1"/>
   </r>
   <r>
@@ -2390,7 +2390,7 @@
     <s v="San Jose Sharks"/>
     <n v="0.45062999999999998"/>
     <s v="Playing At:  Montreal Canadiens   Home"/>
-    <n v="1"/>
+    <n v="0"/>
     <x v="1"/>
   </r>
   <r>
@@ -2412,7 +2412,7 @@
     <s v="St. Louis Blues"/>
     <n v="0.45833000000000002"/>
     <s v="Playing At:  St. Louis Blues   Home"/>
-    <n v="1"/>
+    <n v="0"/>
     <x v="1"/>
   </r>
   <r>
@@ -2423,7 +2423,7 @@
     <s v="Toronto Maple Leafs"/>
     <n v="0.47047"/>
     <s v="Playing At:  New York Islanders   Home"/>
-    <n v="0"/>
+    <n v="1"/>
     <x v="1"/>
   </r>
   <r>
@@ -2445,7 +2445,7 @@
     <s v="Arizona Coyotes"/>
     <n v="0.49431000000000003"/>
     <s v="Playing At:  Arizona Coyotes   Home"/>
-    <n v="1"/>
+    <n v="0"/>
     <x v="1"/>
   </r>
   <r>
@@ -2456,6 +2456,28 @@
     <s v="Ottawa Senators"/>
     <n v="0.49822"/>
     <s v="Playing At:  Buffalo Sabres   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-12T00:00:00"/>
+    <s v="Minnesota Wild"/>
+    <n v="0.68"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="0.32"/>
+    <s v="Playing At:  Minnesota Wild   Home"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-12T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <n v="0.56000000000000005"/>
+    <s v="Nashville Predators"/>
+    <n v="0.44"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
     <n v="1"/>
     <x v="1"/>
   </r>
@@ -2855,19 +2877,19 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>79</v>
       </c>
@@ -2875,7 +2897,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -2892,7 +2914,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>86</v>
       </c>
@@ -2911,7 +2933,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>87</v>
       </c>
@@ -2930,77 +2952,77 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" s="8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" s="6">
         <f>C6/B6</f>
-        <v>0.65306122448979587</v>
+        <v>0.68</v>
       </c>
       <c r="F6" s="6">
         <f>F5/F4</f>
         <v>0.58823529411764708</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C7" s="8">
         <v>42</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>0.59154929577464788</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C8" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>0.61313868613138689</v>
+        <v>0.61870503597122306</v>
       </c>
       <c r="F8">
         <f>SUM(B6:B7)</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F9">
         <f>SUM(C6:C7)</f>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" s="5"/>
       <c r="F10" s="6">
         <f>F9/F8</f>
-        <v>0.6166666666666667</v>
+        <v>0.62295081967213117</v>
       </c>
     </row>
   </sheetData>
@@ -3010,26 +3032,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J179"/>
+  <dimension ref="A1:J181"/>
   <sheetViews>
     <sheetView topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="H167" sqref="H167:H179"/>
+      <selection activeCell="H182" sqref="H182"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -3058,7 +3080,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -3088,7 +3110,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -3118,7 +3140,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -3148,7 +3170,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -3178,7 +3200,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -3208,7 +3230,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -3238,7 +3260,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -3268,7 +3290,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -3298,7 +3320,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>80</v>
       </c>
@@ -3328,7 +3350,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -3358,7 +3380,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -3388,7 +3410,7 @@
         <v>80-85</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>81</v>
       </c>
@@ -3418,7 +3440,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>81</v>
       </c>
@@ -3448,7 +3470,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -3478,7 +3500,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -3508,7 +3530,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>81</v>
       </c>
@@ -3538,7 +3560,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>81</v>
       </c>
@@ -3568,7 +3590,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -3598,7 +3620,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -3628,7 +3650,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -3658,7 +3680,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -3688,7 +3710,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -3718,7 +3740,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -3748,7 +3770,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -3778,7 +3800,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -3808,7 +3830,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -3838,7 +3860,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>81</v>
       </c>
@@ -3868,7 +3890,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -3898,7 +3920,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -3928,7 +3950,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -3958,7 +3980,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>81</v>
       </c>
@@ -3988,7 +4010,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -4018,7 +4040,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>81</v>
       </c>
@@ -4048,7 +4070,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -4078,7 +4100,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>81</v>
       </c>
@@ -4108,7 +4130,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -4138,7 +4160,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -4168,7 +4190,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -4198,7 +4220,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>81</v>
       </c>
@@ -4228,7 +4250,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -4258,7 +4280,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -4290,7 +4312,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -4320,7 +4342,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>82</v>
       </c>
@@ -4350,7 +4372,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>82</v>
       </c>
@@ -4380,7 +4402,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>82</v>
       </c>
@@ -4410,7 +4432,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>82</v>
       </c>
@@ -4440,7 +4462,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>82</v>
       </c>
@@ -4470,7 +4492,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>82</v>
       </c>
@@ -4500,7 +4522,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>82</v>
       </c>
@@ -4530,7 +4552,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>82</v>
       </c>
@@ -4560,7 +4582,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>82</v>
       </c>
@@ -4590,7 +4612,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>82</v>
       </c>
@@ -4620,7 +4642,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>82</v>
       </c>
@@ -4650,7 +4672,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>82</v>
       </c>
@@ -4680,7 +4702,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>82</v>
       </c>
@@ -4710,7 +4732,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>82</v>
       </c>
@@ -4740,7 +4762,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>82</v>
       </c>
@@ -4770,7 +4792,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>82</v>
       </c>
@@ -4800,7 +4822,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>82</v>
       </c>
@@ -4830,7 +4852,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>82</v>
       </c>
@@ -4860,7 +4882,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>82</v>
       </c>
@@ -4890,7 +4912,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>82</v>
       </c>
@@ -4920,7 +4942,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>82</v>
       </c>
@@ -4950,7 +4972,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -4980,7 +5002,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>82</v>
       </c>
@@ -5010,7 +5032,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>82</v>
       </c>
@@ -5040,7 +5062,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>82</v>
       </c>
@@ -5070,7 +5092,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -5100,7 +5122,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>82</v>
       </c>
@@ -5130,7 +5152,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -5160,7 +5182,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>82</v>
       </c>
@@ -5190,7 +5212,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>82</v>
       </c>
@@ -5220,7 +5242,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>82</v>
       </c>
@@ -5250,7 +5272,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>82</v>
       </c>
@@ -5280,7 +5302,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -5310,7 +5332,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>82</v>
       </c>
@@ -5340,7 +5362,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -5370,7 +5392,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -5400,7 +5422,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -5430,7 +5452,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -5460,7 +5482,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -5490,7 +5512,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -5520,7 +5542,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -5550,7 +5572,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -5580,7 +5602,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>82</v>
       </c>
@@ -5610,7 +5632,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>82</v>
       </c>
@@ -5640,7 +5662,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>82</v>
       </c>
@@ -5670,7 +5692,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>82</v>
       </c>
@@ -5700,7 +5722,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>82</v>
       </c>
@@ -5730,7 +5752,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>82</v>
       </c>
@@ -5760,7 +5782,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>82</v>
       </c>
@@ -5790,7 +5812,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>85</v>
       </c>
@@ -5820,7 +5842,7 @@
         <v>80-85</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>85</v>
       </c>
@@ -5850,7 +5872,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>85</v>
       </c>
@@ -5880,7 +5902,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>85</v>
       </c>
@@ -5910,7 +5932,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>85</v>
       </c>
@@ -5940,7 +5962,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>85</v>
       </c>
@@ -5970,7 +5992,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>85</v>
       </c>
@@ -6000,7 +6022,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>85</v>
       </c>
@@ -6030,7 +6052,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>85</v>
       </c>
@@ -6060,7 +6082,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>85</v>
       </c>
@@ -6090,7 +6112,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>85</v>
       </c>
@@ -6120,7 +6142,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>85</v>
       </c>
@@ -6150,7 +6172,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>85</v>
       </c>
@@ -6180,7 +6202,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>85</v>
       </c>
@@ -6210,7 +6232,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>85</v>
       </c>
@@ -6240,7 +6262,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>85</v>
       </c>
@@ -6270,7 +6292,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>85</v>
       </c>
@@ -6300,7 +6322,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>85</v>
       </c>
@@ -6330,7 +6352,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>85</v>
       </c>
@@ -6360,7 +6382,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>85</v>
       </c>
@@ -6390,7 +6412,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>85</v>
       </c>
@@ -6420,7 +6442,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>85</v>
       </c>
@@ -6450,7 +6472,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>85</v>
       </c>
@@ -6480,7 +6502,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>85</v>
       </c>
@@ -6510,7 +6532,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>85</v>
       </c>
@@ -6540,7 +6562,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>85</v>
       </c>
@@ -6570,7 +6592,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>85</v>
       </c>
@@ -6600,7 +6622,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>85</v>
       </c>
@@ -6630,7 +6652,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>85</v>
       </c>
@@ -6660,7 +6682,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>85</v>
       </c>
@@ -6690,7 +6712,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>85</v>
       </c>
@@ -6720,7 +6742,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>85</v>
       </c>
@@ -6750,7 +6772,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>85</v>
       </c>
@@ -6780,7 +6802,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>85</v>
       </c>
@@ -6810,7 +6832,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>85</v>
       </c>
@@ -6840,7 +6862,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>85</v>
       </c>
@@ -6870,7 +6892,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>85</v>
       </c>
@@ -6900,7 +6922,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>85</v>
       </c>
@@ -6930,7 +6952,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>85</v>
       </c>
@@ -6960,7 +6982,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>85</v>
       </c>
@@ -6990,7 +7012,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>85</v>
       </c>
@@ -7020,7 +7042,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>85</v>
       </c>
@@ -7050,7 +7072,7 @@
         <v>80-85</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>85</v>
       </c>
@@ -7080,7 +7102,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>85</v>
       </c>
@@ -7110,7 +7132,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>85</v>
       </c>
@@ -7140,7 +7162,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>85</v>
       </c>
@@ -7170,7 +7192,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>85</v>
       </c>
@@ -7200,7 +7222,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>85</v>
       </c>
@@ -7230,7 +7252,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>85</v>
       </c>
@@ -7260,7 +7282,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>85</v>
       </c>
@@ -7290,7 +7312,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>85</v>
       </c>
@@ -7320,7 +7342,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>85</v>
       </c>
@@ -7350,7 +7372,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>85</v>
       </c>
@@ -7380,7 +7402,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>90</v>
       </c>
@@ -7410,7 +7432,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>90</v>
       </c>
@@ -7440,7 +7462,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>90</v>
       </c>
@@ -7470,7 +7492,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>90</v>
       </c>
@@ -7500,7 +7522,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>90</v>
       </c>
@@ -7530,7 +7552,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>90</v>
       </c>
@@ -7560,7 +7582,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>90</v>
       </c>
@@ -7590,7 +7612,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>90</v>
       </c>
@@ -7620,7 +7642,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>90</v>
       </c>
@@ -7650,7 +7672,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>90</v>
       </c>
@@ -7680,7 +7702,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>90</v>
       </c>
@@ -7710,7 +7732,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>90</v>
       </c>
@@ -7740,7 +7762,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>90</v>
       </c>
@@ -7770,7 +7792,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>90</v>
       </c>
@@ -7800,7 +7822,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>90</v>
       </c>
@@ -7830,7 +7852,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>90</v>
       </c>
@@ -7860,7 +7882,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>90</v>
       </c>
@@ -7890,7 +7912,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>90</v>
       </c>
@@ -7920,7 +7942,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>90</v>
       </c>
@@ -7950,7 +7972,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>90</v>
       </c>
@@ -7980,7 +8002,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>90</v>
       </c>
@@ -8010,7 +8032,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>90</v>
       </c>
@@ -8040,7 +8062,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>90</v>
       </c>
@@ -8063,14 +8085,14 @@
         <v>48</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I168" t="str" cm="1">
         <f t="array" ref="I168">_xlfn.IFS(D168 &gt;= 0.85, "85  &lt;", AND(D168 &gt;=0.8, D168 &lt; 0.85), "80-85", AND(D168 &gt;= 0.7, D168 &lt; 0.8), "70-80", AND(D168 &gt;= 0.6, D168 &lt; 0.7),  "60-70", AND(D168 &gt;= 0.5, D168 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>90</v>
       </c>
@@ -8100,7 +8122,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>90</v>
       </c>
@@ -8123,14 +8145,14 @@
         <v>70</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170" t="str" cm="1">
         <f t="array" ref="I170">_xlfn.IFS(D170 &gt;= 0.85, "85  &lt;", AND(D170 &gt;=0.8, D170 &lt; 0.85), "80-85", AND(D170 &gt;= 0.7, D170 &lt; 0.8), "70-80", AND(D170 &gt;= 0.6, D170 &lt; 0.7),  "60-70", AND(D170 &gt;= 0.5, D170 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>90</v>
       </c>
@@ -8160,7 +8182,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>90</v>
       </c>
@@ -8190,7 +8212,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>90</v>
       </c>
@@ -8213,14 +8235,14 @@
         <v>89</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="str" cm="1">
         <f t="array" ref="I173">_xlfn.IFS(D173 &gt;= 0.85, "85  &lt;", AND(D173 &gt;=0.8, D173 &lt; 0.85), "80-85", AND(D173 &gt;= 0.7, D173 &lt; 0.8), "70-80", AND(D173 &gt;= 0.6, D173 &lt; 0.7),  "60-70", AND(D173 &gt;= 0.5, D173 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>90</v>
       </c>
@@ -8250,7 +8272,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>90</v>
       </c>
@@ -8273,14 +8295,14 @@
         <v>77</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="str" cm="1">
         <f t="array" ref="I175">_xlfn.IFS(D175 &gt;= 0.85, "85  &lt;", AND(D175 &gt;=0.8, D175 &lt; 0.85), "80-85", AND(D175 &gt;= 0.7, D175 &lt; 0.8), "70-80", AND(D175 &gt;= 0.6, D175 &lt; 0.7),  "60-70", AND(D175 &gt;= 0.5, D175 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>90</v>
       </c>
@@ -8303,14 +8325,14 @@
         <v>59</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I176" t="str" cm="1">
         <f t="array" ref="I176">_xlfn.IFS(D176 &gt;= 0.85, "85  &lt;", AND(D176 &gt;=0.8, D176 &lt; 0.85), "80-85", AND(D176 &gt;= 0.7, D176 &lt; 0.8), "70-80", AND(D176 &gt;= 0.6, D176 &lt; 0.7),  "60-70", AND(D176 &gt;= 0.5, D176 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>90</v>
       </c>
@@ -8340,7 +8362,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>90</v>
       </c>
@@ -8363,14 +8385,14 @@
         <v>61</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="str" cm="1">
         <f t="array" ref="I178">_xlfn.IFS(D178 &gt;= 0.85, "85  &lt;", AND(D178 &gt;=0.8, D178 &lt; 0.85), "80-85", AND(D178 &gt;= 0.7, D178 &lt; 0.8), "70-80", AND(D178 &gt;= 0.6, D178 &lt; 0.7),  "60-70", AND(D178 &gt;= 0.5, D178 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>90</v>
       </c>
@@ -8397,6 +8419,66 @@
       </c>
       <c r="I179" t="str" cm="1">
         <f t="array" ref="I179">_xlfn.IFS(D179 &gt;= 0.85, "85  &lt;", AND(D179 &gt;=0.8, D179 &lt; 0.85), "80-85", AND(D179 &gt;= 0.7, D179 &lt; 0.8), "70-80", AND(D179 &gt;= 0.6, D179 &lt; 0.7),  "60-70", AND(D179 &gt;= 0.5, D179 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>90</v>
+      </c>
+      <c r="B180" s="1">
+        <v>45303</v>
+      </c>
+      <c r="C180" t="s">
+        <v>43</v>
+      </c>
+      <c r="D180" s="7">
+        <v>0.68</v>
+      </c>
+      <c r="E180" t="s">
+        <v>56</v>
+      </c>
+      <c r="F180" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="G180" t="s">
+        <v>69</v>
+      </c>
+      <c r="H180">
+        <v>1</v>
+      </c>
+      <c r="I180" t="str" cm="1">
+        <f t="array" ref="I180">_xlfn.IFS(D180 &gt;= 0.85, "85  &lt;", AND(D180 &gt;=0.8, D180 &lt; 0.85), "80-85", AND(D180 &gt;= 0.7, D180 &lt; 0.8), "70-80", AND(D180 &gt;= 0.6, D180 &lt; 0.7),  "60-70", AND(D180 &gt;= 0.5, D180 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>90</v>
+      </c>
+      <c r="B181" s="1">
+        <v>45303</v>
+      </c>
+      <c r="C181" t="s">
+        <v>34</v>
+      </c>
+      <c r="D181" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E181" t="s">
+        <v>62</v>
+      </c>
+      <c r="F181" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="G181" t="s">
+        <v>36</v>
+      </c>
+      <c r="H181">
+        <v>1</v>
+      </c>
+      <c r="I181" t="str" cm="1">
+        <f t="array" ref="I181">_xlfn.IFS(D181 &gt;= 0.85, "85  &lt;", AND(D181 &gt;=0.8, D181 &lt; 0.85), "80-85", AND(D181 &gt;= 0.7, D181 &lt; 0.8), "70-80", AND(D181 &gt;= 0.6, D181 &lt; 0.7),  "60-70", AND(D181 &gt;= 0.5, D181 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>

--- a/GBM Lifetime Predictions.xlsx
+++ b/GBM Lifetime Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2241B623-27D9-4566-AAC3-6D6E938D2798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B92C33-00FE-45BB-877C-F50D50BB3F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId3"/>
+    <pivotCache cacheId="11" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="91">
   <si>
     <t>Date</t>
   </si>
@@ -825,7 +825,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -836,7 +836,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -2496,7 +2495,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A609C84-6A20-4E13-867B-B610F7CD9750}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A609C84-6A20-4E13-867B-B610F7CD9750}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisPage" showAll="0">
@@ -2876,20 +2875,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>79</v>
       </c>
@@ -2897,7 +2896,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -2914,14 +2913,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" s="6">
@@ -2933,14 +2932,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5">
         <v>15</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5">
         <v>9</v>
       </c>
       <c r="D5" s="6">
@@ -2952,14 +2951,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6">
         <v>50</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6">
         <v>34</v>
       </c>
       <c r="D6" s="6">
@@ -2971,14 +2970,14 @@
         <v>0.58823529411764708</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7">
         <v>72</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7">
         <v>42</v>
       </c>
       <c r="D7" s="6">
@@ -2989,14 +2988,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8">
         <v>139</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8">
         <v>86</v>
       </c>
       <c r="D8" s="6">
@@ -3008,7 +3007,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D9" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -3018,7 +3017,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D10" s="5"/>
       <c r="F10" s="6">
         <f>F9/F8</f>
@@ -3032,26 +3031,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J181"/>
+  <dimension ref="A1:J197"/>
   <sheetViews>
-    <sheetView topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="H182" sqref="H182"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="H186" sqref="H186"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -3080,7 +3079,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -3110,7 +3109,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -3140,7 +3139,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -3170,7 +3169,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -3200,7 +3199,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -3230,7 +3229,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -3260,7 +3259,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -3290,7 +3289,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -3320,7 +3319,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>80</v>
       </c>
@@ -3350,7 +3349,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -3380,7 +3379,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -3410,7 +3409,7 @@
         <v>80-85</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>81</v>
       </c>
@@ -3440,7 +3439,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>81</v>
       </c>
@@ -3470,7 +3469,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -3500,7 +3499,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -3530,7 +3529,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>81</v>
       </c>
@@ -3560,7 +3559,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>81</v>
       </c>
@@ -3590,7 +3589,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -3620,7 +3619,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -3650,7 +3649,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -3680,7 +3679,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -3710,7 +3709,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -3740,7 +3739,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -3770,7 +3769,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -3800,7 +3799,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -3830,7 +3829,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -3860,7 +3859,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>81</v>
       </c>
@@ -3890,7 +3889,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -3920,7 +3919,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -3950,7 +3949,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -3980,7 +3979,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>81</v>
       </c>
@@ -4010,7 +4009,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -4040,7 +4039,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>81</v>
       </c>
@@ -4070,7 +4069,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -4100,7 +4099,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>81</v>
       </c>
@@ -4130,7 +4129,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -4160,7 +4159,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -4190,7 +4189,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -4220,7 +4219,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>81</v>
       </c>
@@ -4250,7 +4249,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -4280,7 +4279,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -4312,7 +4311,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -4342,7 +4341,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>82</v>
       </c>
@@ -4372,7 +4371,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>82</v>
       </c>
@@ -4402,7 +4401,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>82</v>
       </c>
@@ -4432,7 +4431,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>82</v>
       </c>
@@ -4462,7 +4461,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>82</v>
       </c>
@@ -4492,7 +4491,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>82</v>
       </c>
@@ -4522,7 +4521,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>82</v>
       </c>
@@ -4552,7 +4551,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>82</v>
       </c>
@@ -4582,7 +4581,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>82</v>
       </c>
@@ -4612,7 +4611,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>82</v>
       </c>
@@ -4642,7 +4641,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>82</v>
       </c>
@@ -4672,7 +4671,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>82</v>
       </c>
@@ -4702,7 +4701,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>82</v>
       </c>
@@ -4732,7 +4731,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>82</v>
       </c>
@@ -4762,7 +4761,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>82</v>
       </c>
@@ -4792,7 +4791,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>82</v>
       </c>
@@ -4822,7 +4821,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>82</v>
       </c>
@@ -4852,7 +4851,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>82</v>
       </c>
@@ -4882,7 +4881,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>82</v>
       </c>
@@ -4912,7 +4911,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>82</v>
       </c>
@@ -4942,7 +4941,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>82</v>
       </c>
@@ -4972,7 +4971,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -5002,7 +5001,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>82</v>
       </c>
@@ -5032,7 +5031,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>82</v>
       </c>
@@ -5062,7 +5061,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>82</v>
       </c>
@@ -5092,7 +5091,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -5122,7 +5121,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>82</v>
       </c>
@@ -5152,7 +5151,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -5182,7 +5181,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>82</v>
       </c>
@@ -5212,7 +5211,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>82</v>
       </c>
@@ -5242,7 +5241,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>82</v>
       </c>
@@ -5272,7 +5271,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>82</v>
       </c>
@@ -5302,7 +5301,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -5332,7 +5331,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>82</v>
       </c>
@@ -5362,7 +5361,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -5392,7 +5391,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -5422,7 +5421,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -5452,7 +5451,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -5482,7 +5481,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -5512,7 +5511,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -5542,7 +5541,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -5572,7 +5571,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -5602,7 +5601,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>82</v>
       </c>
@@ -5632,7 +5631,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>82</v>
       </c>
@@ -5662,7 +5661,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>82</v>
       </c>
@@ -5692,7 +5691,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>82</v>
       </c>
@@ -5722,7 +5721,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>82</v>
       </c>
@@ -5752,7 +5751,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>82</v>
       </c>
@@ -5782,7 +5781,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>82</v>
       </c>
@@ -5812,7 +5811,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>85</v>
       </c>
@@ -5842,7 +5841,7 @@
         <v>80-85</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>85</v>
       </c>
@@ -5872,7 +5871,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>85</v>
       </c>
@@ -5902,7 +5901,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>85</v>
       </c>
@@ -5932,7 +5931,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>85</v>
       </c>
@@ -5962,7 +5961,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>85</v>
       </c>
@@ -5992,7 +5991,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>85</v>
       </c>
@@ -6022,7 +6021,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>85</v>
       </c>
@@ -6052,7 +6051,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>85</v>
       </c>
@@ -6082,7 +6081,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>85</v>
       </c>
@@ -6112,7 +6111,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>85</v>
       </c>
@@ -6142,7 +6141,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>85</v>
       </c>
@@ -6172,7 +6171,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>85</v>
       </c>
@@ -6202,7 +6201,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>85</v>
       </c>
@@ -6232,7 +6231,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>85</v>
       </c>
@@ -6262,7 +6261,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>85</v>
       </c>
@@ -6292,7 +6291,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>85</v>
       </c>
@@ -6322,7 +6321,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>85</v>
       </c>
@@ -6352,7 +6351,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>85</v>
       </c>
@@ -6382,7 +6381,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>85</v>
       </c>
@@ -6412,7 +6411,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>85</v>
       </c>
@@ -6442,7 +6441,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>85</v>
       </c>
@@ -6472,7 +6471,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>85</v>
       </c>
@@ -6502,7 +6501,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>85</v>
       </c>
@@ -6532,7 +6531,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>85</v>
       </c>
@@ -6562,7 +6561,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>85</v>
       </c>
@@ -6592,7 +6591,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>85</v>
       </c>
@@ -6622,7 +6621,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>85</v>
       </c>
@@ -6652,7 +6651,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>85</v>
       </c>
@@ -6682,7 +6681,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>85</v>
       </c>
@@ -6712,7 +6711,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>85</v>
       </c>
@@ -6742,7 +6741,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>85</v>
       </c>
@@ -6772,7 +6771,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>85</v>
       </c>
@@ -6802,7 +6801,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>85</v>
       </c>
@@ -6832,7 +6831,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>85</v>
       </c>
@@ -6862,7 +6861,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>85</v>
       </c>
@@ -6892,7 +6891,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>85</v>
       </c>
@@ -6922,7 +6921,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>85</v>
       </c>
@@ -6952,7 +6951,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>85</v>
       </c>
@@ -6982,7 +6981,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>85</v>
       </c>
@@ -7012,7 +7011,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>85</v>
       </c>
@@ -7042,7 +7041,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>85</v>
       </c>
@@ -7072,7 +7071,7 @@
         <v>80-85</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>85</v>
       </c>
@@ -7102,7 +7101,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>85</v>
       </c>
@@ -7132,7 +7131,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>85</v>
       </c>
@@ -7162,7 +7161,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>85</v>
       </c>
@@ -7192,7 +7191,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>85</v>
       </c>
@@ -7222,7 +7221,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>85</v>
       </c>
@@ -7252,7 +7251,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>85</v>
       </c>
@@ -7282,7 +7281,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>85</v>
       </c>
@@ -7312,7 +7311,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>85</v>
       </c>
@@ -7342,7 +7341,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>85</v>
       </c>
@@ -7372,7 +7371,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>85</v>
       </c>
@@ -7402,7 +7401,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>90</v>
       </c>
@@ -7432,7 +7431,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>90</v>
       </c>
@@ -7462,7 +7461,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>90</v>
       </c>
@@ -7492,7 +7491,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>90</v>
       </c>
@@ -7522,7 +7521,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>90</v>
       </c>
@@ -7552,7 +7551,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>90</v>
       </c>
@@ -7582,7 +7581,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>90</v>
       </c>
@@ -7612,7 +7611,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>90</v>
       </c>
@@ -7642,7 +7641,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>90</v>
       </c>
@@ -7672,7 +7671,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>90</v>
       </c>
@@ -7702,7 +7701,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>90</v>
       </c>
@@ -7732,7 +7731,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>90</v>
       </c>
@@ -7762,7 +7761,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>90</v>
       </c>
@@ -7792,7 +7791,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>90</v>
       </c>
@@ -7822,7 +7821,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>90</v>
       </c>
@@ -7852,7 +7851,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>90</v>
       </c>
@@ -7882,7 +7881,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>90</v>
       </c>
@@ -7912,7 +7911,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>90</v>
       </c>
@@ -7942,7 +7941,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>90</v>
       </c>
@@ -7972,7 +7971,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>90</v>
       </c>
@@ -8002,7 +8001,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>90</v>
       </c>
@@ -8032,7 +8031,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>90</v>
       </c>
@@ -8062,7 +8061,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>90</v>
       </c>
@@ -8092,7 +8091,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>90</v>
       </c>
@@ -8122,7 +8121,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>90</v>
       </c>
@@ -8152,7 +8151,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>90</v>
       </c>
@@ -8182,7 +8181,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>90</v>
       </c>
@@ -8212,7 +8211,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>90</v>
       </c>
@@ -8242,7 +8241,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>90</v>
       </c>
@@ -8272,7 +8271,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>90</v>
       </c>
@@ -8302,7 +8301,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>90</v>
       </c>
@@ -8332,7 +8331,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>90</v>
       </c>
@@ -8362,7 +8361,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>90</v>
       </c>
@@ -8392,7 +8391,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>90</v>
       </c>
@@ -8422,7 +8421,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>90</v>
       </c>
@@ -8452,7 +8451,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>90</v>
       </c>
@@ -8479,6 +8478,444 @@
       </c>
       <c r="I181" t="str" cm="1">
         <f t="array" ref="I181">_xlfn.IFS(D181 &gt;= 0.85, "85  &lt;", AND(D181 &gt;=0.8, D181 &lt; 0.85), "80-85", AND(D181 &gt;= 0.7, D181 &lt; 0.8), "70-80", AND(D181 &gt;= 0.6, D181 &lt; 0.7),  "60-70", AND(D181 &gt;= 0.5, D181 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>90</v>
+      </c>
+      <c r="B182" s="1">
+        <v>45304</v>
+      </c>
+      <c r="C182" t="s">
+        <v>34</v>
+      </c>
+      <c r="D182" s="2">
+        <v>0.71050000000000002</v>
+      </c>
+      <c r="E182" t="s">
+        <v>26</v>
+      </c>
+      <c r="F182" s="2">
+        <v>0.28949999999999998</v>
+      </c>
+      <c r="G182" t="s">
+        <v>27</v>
+      </c>
+      <c r="I182" t="str" cm="1">
+        <f t="array" ref="I182">_xlfn.IFS(D182 &gt;= 0.85, "85  &lt;", AND(D182 &gt;=0.8, D182 &lt; 0.85), "80-85", AND(D182 &gt;= 0.7, D182 &lt; 0.8), "70-80", AND(D182 &gt;= 0.6, D182 &lt; 0.7),  "60-70", AND(D182 &gt;= 0.5, D182 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>90</v>
+      </c>
+      <c r="B183" s="1">
+        <v>45304</v>
+      </c>
+      <c r="C183" t="s">
+        <v>31</v>
+      </c>
+      <c r="D183" s="2">
+        <v>0.68025000000000002</v>
+      </c>
+      <c r="E183" t="s">
+        <v>56</v>
+      </c>
+      <c r="F183" s="2">
+        <v>0.31974999999999998</v>
+      </c>
+      <c r="G183" t="s">
+        <v>33</v>
+      </c>
+      <c r="I183" t="str" cm="1">
+        <f t="array" ref="I183">_xlfn.IFS(D183 &gt;= 0.85, "85  &lt;", AND(D183 &gt;=0.8, D183 &lt; 0.85), "80-85", AND(D183 &gt;= 0.7, D183 &lt; 0.8), "70-80", AND(D183 &gt;= 0.6, D183 &lt; 0.7),  "60-70", AND(D183 &gt;= 0.5, D183 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>90</v>
+      </c>
+      <c r="B184" s="1">
+        <v>45304</v>
+      </c>
+      <c r="C184" t="s">
+        <v>43</v>
+      </c>
+      <c r="D184" s="2">
+        <v>0.66685000000000005</v>
+      </c>
+      <c r="E184" t="s">
+        <v>60</v>
+      </c>
+      <c r="F184" s="2">
+        <v>0.33315</v>
+      </c>
+      <c r="G184" t="s">
+        <v>69</v>
+      </c>
+      <c r="I184" t="str" cm="1">
+        <f t="array" ref="I184">_xlfn.IFS(D184 &gt;= 0.85, "85  &lt;", AND(D184 &gt;=0.8, D184 &lt; 0.85), "80-85", AND(D184 &gt;= 0.7, D184 &lt; 0.8), "70-80", AND(D184 &gt;= 0.6, D184 &lt; 0.7),  "60-70", AND(D184 &gt;= 0.5, D184 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>90</v>
+      </c>
+      <c r="B185" s="1">
+        <v>45304</v>
+      </c>
+      <c r="C185" t="s">
+        <v>29</v>
+      </c>
+      <c r="D185" s="2">
+        <v>0.65991999999999995</v>
+      </c>
+      <c r="E185" t="s">
+        <v>17</v>
+      </c>
+      <c r="F185" s="2">
+        <v>0.34007999999999999</v>
+      </c>
+      <c r="G185" t="s">
+        <v>78</v>
+      </c>
+      <c r="H185">
+        <v>1</v>
+      </c>
+      <c r="I185" t="str" cm="1">
+        <f t="array" ref="I185">_xlfn.IFS(D185 &gt;= 0.85, "85  &lt;", AND(D185 &gt;=0.8, D185 &lt; 0.85), "80-85", AND(D185 &gt;= 0.7, D185 &lt; 0.8), "70-80", AND(D185 &gt;= 0.6, D185 &lt; 0.7),  "60-70", AND(D185 &gt;= 0.5, D185 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>90</v>
+      </c>
+      <c r="B186" s="1">
+        <v>45304</v>
+      </c>
+      <c r="C186" t="s">
+        <v>57</v>
+      </c>
+      <c r="D186" s="2">
+        <v>0.65354000000000001</v>
+      </c>
+      <c r="E186" t="s">
+        <v>32</v>
+      </c>
+      <c r="F186" s="2">
+        <v>0.34645999999999999</v>
+      </c>
+      <c r="G186" t="s">
+        <v>89</v>
+      </c>
+      <c r="I186" t="str" cm="1">
+        <f t="array" ref="I186">_xlfn.IFS(D186 &gt;= 0.85, "85  &lt;", AND(D186 &gt;=0.8, D186 &lt; 0.85), "80-85", AND(D186 &gt;= 0.7, D186 &lt; 0.8), "70-80", AND(D186 &gt;= 0.6, D186 &lt; 0.7),  "60-70", AND(D186 &gt;= 0.5, D186 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>90</v>
+      </c>
+      <c r="B187" s="1">
+        <v>45304</v>
+      </c>
+      <c r="C187" t="s">
+        <v>46</v>
+      </c>
+      <c r="D187" s="2">
+        <v>0.64807999999999999</v>
+      </c>
+      <c r="E187" t="s">
+        <v>23</v>
+      </c>
+      <c r="F187" s="2">
+        <v>0.35192000000000001</v>
+      </c>
+      <c r="G187" t="s">
+        <v>48</v>
+      </c>
+      <c r="I187" t="str" cm="1">
+        <f t="array" ref="I187">_xlfn.IFS(D187 &gt;= 0.85, "85  &lt;", AND(D187 &gt;=0.8, D187 &lt; 0.85), "80-85", AND(D187 &gt;= 0.7, D187 &lt; 0.8), "70-80", AND(D187 &gt;= 0.6, D187 &lt; 0.7),  "60-70", AND(D187 &gt;= 0.5, D187 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>90</v>
+      </c>
+      <c r="B188" s="1">
+        <v>45304</v>
+      </c>
+      <c r="C188" t="s">
+        <v>49</v>
+      </c>
+      <c r="D188" s="2">
+        <v>0.63958000000000004</v>
+      </c>
+      <c r="E188" t="s">
+        <v>47</v>
+      </c>
+      <c r="F188" s="2">
+        <v>0.36042000000000002</v>
+      </c>
+      <c r="G188" t="s">
+        <v>77</v>
+      </c>
+      <c r="I188" t="str" cm="1">
+        <f t="array" ref="I188">_xlfn.IFS(D188 &gt;= 0.85, "85  &lt;", AND(D188 &gt;=0.8, D188 &lt; 0.85), "80-85", AND(D188 &gt;= 0.7, D188 &lt; 0.8), "70-80", AND(D188 &gt;= 0.6, D188 &lt; 0.7),  "60-70", AND(D188 &gt;= 0.5, D188 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>90</v>
+      </c>
+      <c r="B189" s="1">
+        <v>45304</v>
+      </c>
+      <c r="C189" t="s">
+        <v>65</v>
+      </c>
+      <c r="D189" s="2">
+        <v>0.62178999999999995</v>
+      </c>
+      <c r="E189" t="s">
+        <v>20</v>
+      </c>
+      <c r="F189" s="2">
+        <v>0.37820999999999999</v>
+      </c>
+      <c r="G189" t="s">
+        <v>68</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189" t="str" cm="1">
+        <f t="array" ref="I189">_xlfn.IFS(D189 &gt;= 0.85, "85  &lt;", AND(D189 &gt;=0.8, D189 &lt; 0.85), "80-85", AND(D189 &gt;= 0.7, D189 &lt; 0.8), "70-80", AND(D189 &gt;= 0.6, D189 &lt; 0.7),  "60-70", AND(D189 &gt;= 0.5, D189 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>90</v>
+      </c>
+      <c r="B190" s="1">
+        <v>45304</v>
+      </c>
+      <c r="C190" t="s">
+        <v>28</v>
+      </c>
+      <c r="D190" s="2">
+        <v>0.62166999999999994</v>
+      </c>
+      <c r="E190" t="s">
+        <v>40</v>
+      </c>
+      <c r="F190" s="2">
+        <v>0.37833</v>
+      </c>
+      <c r="G190" t="s">
+        <v>30</v>
+      </c>
+      <c r="I190" t="str" cm="1">
+        <f t="array" ref="I190">_xlfn.IFS(D190 &gt;= 0.85, "85  &lt;", AND(D190 &gt;=0.8, D190 &lt; 0.85), "80-85", AND(D190 &gt;= 0.7, D190 &lt; 0.8), "70-80", AND(D190 &gt;= 0.6, D190 &lt; 0.7),  "60-70", AND(D190 &gt;= 0.5, D190 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>90</v>
+      </c>
+      <c r="B191" s="1">
+        <v>45304</v>
+      </c>
+      <c r="C191" t="s">
+        <v>39</v>
+      </c>
+      <c r="D191" s="2">
+        <v>0.60331999999999997</v>
+      </c>
+      <c r="E191" t="s">
+        <v>22</v>
+      </c>
+      <c r="F191" s="2">
+        <v>0.39667999999999998</v>
+      </c>
+      <c r="G191" t="s">
+        <v>70</v>
+      </c>
+      <c r="I191" t="str" cm="1">
+        <f t="array" ref="I191">_xlfn.IFS(D191 &gt;= 0.85, "85  &lt;", AND(D191 &gt;=0.8, D191 &lt; 0.85), "80-85", AND(D191 &gt;= 0.7, D191 &lt; 0.8), "70-80", AND(D191 &gt;= 0.6, D191 &lt; 0.7),  "60-70", AND(D191 &gt;= 0.5, D191 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>90</v>
+      </c>
+      <c r="B192" s="1">
+        <v>45304</v>
+      </c>
+      <c r="C192" t="s">
+        <v>35</v>
+      </c>
+      <c r="D192" s="2">
+        <v>0.58914999999999995</v>
+      </c>
+      <c r="E192" t="s">
+        <v>54</v>
+      </c>
+      <c r="F192" s="2">
+        <v>0.41084999999999999</v>
+      </c>
+      <c r="G192" t="s">
+        <v>72</v>
+      </c>
+      <c r="I192" t="str" cm="1">
+        <f t="array" ref="I192">_xlfn.IFS(D192 &gt;= 0.85, "85  &lt;", AND(D192 &gt;=0.8, D192 &lt; 0.85), "80-85", AND(D192 &gt;= 0.7, D192 &lt; 0.8), "70-80", AND(D192 &gt;= 0.6, D192 &lt; 0.7),  "60-70", AND(D192 &gt;= 0.5, D192 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>90</v>
+      </c>
+      <c r="B193" s="1">
+        <v>45304</v>
+      </c>
+      <c r="C193" t="s">
+        <v>64</v>
+      </c>
+      <c r="D193" s="2">
+        <v>0.56772</v>
+      </c>
+      <c r="E193" t="s">
+        <v>16</v>
+      </c>
+      <c r="F193" s="2">
+        <v>0.43228</v>
+      </c>
+      <c r="G193" t="s">
+        <v>66</v>
+      </c>
+      <c r="I193" t="str" cm="1">
+        <f t="array" ref="I193">_xlfn.IFS(D193 &gt;= 0.85, "85  &lt;", AND(D193 &gt;=0.8, D193 &lt; 0.85), "80-85", AND(D193 &gt;= 0.7, D193 &lt; 0.8), "70-80", AND(D193 &gt;= 0.6, D193 &lt; 0.7),  "60-70", AND(D193 &gt;= 0.5, D193 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>90</v>
+      </c>
+      <c r="B194" s="1">
+        <v>45304</v>
+      </c>
+      <c r="C194" t="s">
+        <v>51</v>
+      </c>
+      <c r="D194" s="2">
+        <v>0.53869999999999996</v>
+      </c>
+      <c r="E194" t="s">
+        <v>37</v>
+      </c>
+      <c r="F194" s="2">
+        <v>0.46129999999999999</v>
+      </c>
+      <c r="G194" t="s">
+        <v>38</v>
+      </c>
+      <c r="I194" t="str" cm="1">
+        <f t="array" ref="I194">_xlfn.IFS(D194 &gt;= 0.85, "85  &lt;", AND(D194 &gt;=0.8, D194 &lt; 0.85), "80-85", AND(D194 &gt;= 0.7, D194 &lt; 0.8), "70-80", AND(D194 &gt;= 0.6, D194 &lt; 0.7),  "60-70", AND(D194 &gt;= 0.5, D194 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>90</v>
+      </c>
+      <c r="B195" s="1">
+        <v>45304</v>
+      </c>
+      <c r="C195" t="s">
+        <v>19</v>
+      </c>
+      <c r="D195" s="2">
+        <v>0.53376000000000001</v>
+      </c>
+      <c r="E195" t="s">
+        <v>42</v>
+      </c>
+      <c r="F195" s="2">
+        <v>0.46623999999999999</v>
+      </c>
+      <c r="G195" t="s">
+        <v>21</v>
+      </c>
+      <c r="I195" t="str" cm="1">
+        <f t="array" ref="I195">_xlfn.IFS(D195 &gt;= 0.85, "85  &lt;", AND(D195 &gt;=0.8, D195 &lt; 0.85), "80-85", AND(D195 &gt;= 0.7, D195 &lt; 0.8), "70-80", AND(D195 &gt;= 0.6, D195 &lt; 0.7),  "60-70", AND(D195 &gt;= 0.5, D195 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>90</v>
+      </c>
+      <c r="B196" s="1">
+        <v>45304</v>
+      </c>
+      <c r="C196" t="s">
+        <v>62</v>
+      </c>
+      <c r="D196" s="2">
+        <v>0.53120999999999996</v>
+      </c>
+      <c r="E196" t="s">
+        <v>58</v>
+      </c>
+      <c r="F196" s="2">
+        <v>0.46878999999999998</v>
+      </c>
+      <c r="G196" t="s">
+        <v>63</v>
+      </c>
+      <c r="I196" t="str" cm="1">
+        <f t="array" ref="I196">_xlfn.IFS(D196 &gt;= 0.85, "85  &lt;", AND(D196 &gt;=0.8, D196 &lt; 0.85), "80-85", AND(D196 &gt;= 0.7, D196 &lt; 0.8), "70-80", AND(D196 &gt;= 0.6, D196 &lt; 0.7),  "60-70", AND(D196 &gt;= 0.5, D196 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>90</v>
+      </c>
+      <c r="B197" s="1">
+        <v>45304</v>
+      </c>
+      <c r="C197" t="s">
+        <v>25</v>
+      </c>
+      <c r="D197" s="2">
+        <v>0.53029000000000004</v>
+      </c>
+      <c r="E197" t="s">
+        <v>53</v>
+      </c>
+      <c r="F197" s="2">
+        <v>0.46971000000000002</v>
+      </c>
+      <c r="G197" t="s">
+        <v>55</v>
+      </c>
+      <c r="I197" t="str" cm="1">
+        <f t="array" ref="I197">_xlfn.IFS(D197 &gt;= 0.85, "85  &lt;", AND(D197 &gt;=0.8, D197 &lt; 0.85), "80-85", AND(D197 &gt;= 0.7, D197 &lt; 0.8), "70-80", AND(D197 &gt;= 0.6, D197 &lt; 0.7),  "60-70", AND(D197 &gt;= 0.5, D197 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>

--- a/GBM Lifetime Predictions.xlsx
+++ b/GBM Lifetime Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B92C33-00FE-45BB-877C-F50D50BB3F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED076D61-9B8C-472E-9766-3AC99678982A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId3"/>
+    <pivotCache cacheId="5" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="92">
   <si>
     <t>Date</t>
   </si>
@@ -332,6 +332,9 @@
   </si>
   <si>
     <t>GBM3</t>
+  </si>
+  <si>
+    <t>GBM4</t>
   </si>
 </sst>
 </file>
@@ -825,7 +828,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -836,6 +839,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -896,21 +900,22 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45303.357807638888" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="140" xr:uid="{827BC2B5-8CB2-43F7-9795-87FC66DF261C}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45305.463858796298" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="158" xr:uid="{827BC2B5-8CB2-43F7-9795-87FC66DF261C}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A42:I1000" sheet="Predictions"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="Model Used" numFmtId="0">
-      <sharedItems containsBlank="1" count="4">
+      <sharedItems containsBlank="1" count="5">
         <s v="GBM1"/>
         <s v="GBM2"/>
         <s v="GBM3"/>
+        <s v="GBM4"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-23T00:00:00" maxDate="2024-01-13T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-23T00:00:00" maxDate="2024-01-15T00:00:00"/>
     </cacheField>
     <cacheField name="Winner" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -950,7 +955,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="140">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="158">
   <r>
     <x v="0"/>
     <d v="2023-12-23T00:00:00"/>
@@ -2481,7 +2486,205 @@
     <x v="1"/>
   </r>
   <r>
+    <x v="2"/>
+    <d v="2024-01-13T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <n v="0.71050000000000002"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="0.28949999999999998"/>
+    <s v="Playing At:  Chicago Blackhawks   Home"/>
+    <n v="1"/>
     <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-13T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <n v="0.68025000000000002"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="0.31974999999999998"/>
+    <s v="Playing At:  Winnipeg Jets   Home"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-13T00:00:00"/>
+    <s v="Minnesota Wild"/>
+    <n v="0.66685000000000005"/>
+    <s v="Arizona Coyotes"/>
+    <n v="0.33315"/>
+    <s v="Playing At:  Minnesota Wild   Home"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-13T00:00:00"/>
+    <s v="Ottawa Senators"/>
+    <n v="0.65991999999999995"/>
+    <s v="San Jose Sharks"/>
+    <n v="0.34007999999999999"/>
+    <s v="Playing At:  Ottawa Senators   Home"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-13T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <n v="0.65354000000000001"/>
+    <s v="Montreal Canadiens"/>
+    <n v="0.34645999999999999"/>
+    <s v="Playing At:  Montreal Canadiens   Home"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-13T00:00:00"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="0.64807999999999999"/>
+    <s v="Anaheim Ducks"/>
+    <n v="0.35192000000000001"/>
+    <s v="Playing At:  Tampa Bay Lightning   Home"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-13T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <n v="0.63958000000000004"/>
+    <s v="St. Louis Blues"/>
+    <n v="0.36042000000000002"/>
+    <s v="Playing At:  St. Louis Blues   Home"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-13T00:00:00"/>
+    <s v="New York Rangers"/>
+    <n v="0.62178999999999995"/>
+    <s v="Washington Capitals"/>
+    <n v="0.37820999999999999"/>
+    <s v="Playing At:  Washington Capitals   Home"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-13T00:00:00"/>
+    <s v="Vegas Golden Knights"/>
+    <n v="0.62166999999999994"/>
+    <s v="Calgary Flames"/>
+    <n v="0.37833"/>
+    <s v="Playing At:  Vegas Golden Knights   Home"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-13T00:00:00"/>
+    <s v="Florida Panthers"/>
+    <n v="0.60331999999999997"/>
+    <s v="New Jersey Devils"/>
+    <n v="0.39667999999999998"/>
+    <s v="Playing At:  Florida Panthers   Home"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-13T00:00:00"/>
+    <s v="Seattle Kraken"/>
+    <n v="0.58914999999999995"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="0.41084999999999999"/>
+    <s v="Playing At:  Columbus Blue Jackets   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-13T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="0.56772"/>
+    <s v="Colorado Avalanche"/>
+    <n v="0.43228"/>
+    <s v="Playing At:  Toronto Maple Leafs   Home"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-13T00:00:00"/>
+    <s v="Los Angeles Kings"/>
+    <n v="0.53869999999999996"/>
+    <s v="Detroit Red Wings"/>
+    <n v="0.46129999999999999"/>
+    <s v="Playing At:  Detroit Red Wings   Home"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-13T00:00:00"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="0.53376000000000001"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="0.46623999999999999"/>
+    <s v="Playing At:  Carolina Hurricanes   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-13T00:00:00"/>
+    <s v="Nashville Predators"/>
+    <n v="0.53120999999999996"/>
+    <s v="New York Islanders"/>
+    <n v="0.46878999999999998"/>
+    <s v="Playing At:  Nashville Predators   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-01-13T00:00:00"/>
+    <s v="Vancouver Canucks"/>
+    <n v="0.53029000000000004"/>
+    <s v="Buffalo Sabres"/>
+    <n v="0.46971000000000002"/>
+    <s v="Playing At:  Buffalo Sabres   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2024-01-14T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="0.61599999999999999"/>
+    <s v="Detroit Red Wings"/>
+    <n v="0.38400000000000001"/>
+    <s v="Playing At:  Toronto Maple Leafs   Home"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2024-01-14T00:00:00"/>
+    <s v="New York Rangers"/>
+    <n v="0.60199999999999998"/>
+    <s v="Washington Capitals"/>
+    <n v="0.39800000000000002"/>
+    <s v="Playing At:  New York Rangers   Home"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
     <m/>
     <m/>
     <m/>
@@ -2495,15 +2698,16 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A609C84-6A20-4E13-867B-B610F7CD9750}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A609C84-6A20-4E13-867B-B610F7CD9750}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisPage" showAll="0">
-      <items count="5">
+      <items count="6">
         <item x="0"/>
-        <item x="3"/>
+        <item x="4"/>
         <item x="1"/>
         <item x="2"/>
+        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2875,15 +3079,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
@@ -2917,10 +3121,10 @@
       <c r="A4" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="8">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="8">
         <v>1</v>
       </c>
       <c r="D4" s="6">
@@ -2929,60 +3133,60 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B5)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B5">
-        <v>15</v>
-      </c>
-      <c r="C5">
-        <v>9</v>
+      <c r="B5" s="8">
+        <v>16</v>
+      </c>
+      <c r="C5" s="8">
+        <v>10</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" ref="D5:D9" si="0">C5/B5</f>
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="F5">
         <f>SUM(C4:C5)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>50</v>
-      </c>
-      <c r="C6">
-        <v>34</v>
+      <c r="B6" s="8">
+        <v>61</v>
+      </c>
+      <c r="C6" s="8">
+        <v>40</v>
       </c>
       <c r="D6" s="6">
         <f>C6/B6</f>
-        <v>0.68</v>
+        <v>0.65573770491803274</v>
       </c>
       <c r="F6" s="6">
         <f>F5/F4</f>
-        <v>0.58823529411764708</v>
+        <v>0.61111111111111116</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B7">
-        <v>72</v>
-      </c>
-      <c r="C7">
-        <v>42</v>
+      <c r="B7" s="8">
+        <v>78</v>
+      </c>
+      <c r="C7" s="8">
+        <v>46</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>0.58333333333333337</v>
+        <v>0.58974358974358976</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -2992,19 +3196,19 @@
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>139</v>
-      </c>
-      <c r="C8">
-        <v>86</v>
+      <c r="B8" s="8">
+        <v>157</v>
+      </c>
+      <c r="C8" s="8">
+        <v>97</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>0.61870503597122306</v>
+        <v>0.61783439490445857</v>
       </c>
       <c r="F8">
         <f>SUM(B6:B7)</f>
-        <v>122</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -3014,14 +3218,14 @@
       </c>
       <c r="F9">
         <f>SUM(C6:C7)</f>
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D10" s="5"/>
       <c r="F10" s="6">
         <f>F9/F8</f>
-        <v>0.62295081967213117</v>
+        <v>0.61870503597122306</v>
       </c>
     </row>
   </sheetData>
@@ -3031,10 +3235,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J197"/>
+  <dimension ref="A1:J199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="H186" sqref="H186"/>
+    <sheetView topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="H200" sqref="H200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8503,6 +8707,9 @@
       <c r="G182" t="s">
         <v>27</v>
       </c>
+      <c r="H182">
+        <v>1</v>
+      </c>
       <c r="I182" t="str" cm="1">
         <f t="array" ref="I182">_xlfn.IFS(D182 &gt;= 0.85, "85  &lt;", AND(D182 &gt;=0.8, D182 &lt; 0.85), "80-85", AND(D182 &gt;= 0.7, D182 &lt; 0.8), "70-80", AND(D182 &gt;= 0.6, D182 &lt; 0.7),  "60-70", AND(D182 &gt;= 0.5, D182 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
@@ -8530,6 +8737,9 @@
       <c r="G183" t="s">
         <v>33</v>
       </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
       <c r="I183" t="str" cm="1">
         <f t="array" ref="I183">_xlfn.IFS(D183 &gt;= 0.85, "85  &lt;", AND(D183 &gt;=0.8, D183 &lt; 0.85), "80-85", AND(D183 &gt;= 0.7, D183 &lt; 0.8), "70-80", AND(D183 &gt;= 0.6, D183 &lt; 0.7),  "60-70", AND(D183 &gt;= 0.5, D183 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
@@ -8557,6 +8767,9 @@
       <c r="G184" t="s">
         <v>69</v>
       </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
       <c r="I184" t="str" cm="1">
         <f t="array" ref="I184">_xlfn.IFS(D184 &gt;= 0.85, "85  &lt;", AND(D184 &gt;=0.8, D184 &lt; 0.85), "80-85", AND(D184 &gt;= 0.7, D184 &lt; 0.8), "70-80", AND(D184 &gt;= 0.6, D184 &lt; 0.7),  "60-70", AND(D184 &gt;= 0.5, D184 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
@@ -8614,6 +8827,9 @@
       <c r="G186" t="s">
         <v>89</v>
       </c>
+      <c r="H186">
+        <v>1</v>
+      </c>
       <c r="I186" t="str" cm="1">
         <f t="array" ref="I186">_xlfn.IFS(D186 &gt;= 0.85, "85  &lt;", AND(D186 &gt;=0.8, D186 &lt; 0.85), "80-85", AND(D186 &gt;= 0.7, D186 &lt; 0.8), "70-80", AND(D186 &gt;= 0.6, D186 &lt; 0.7),  "60-70", AND(D186 &gt;= 0.5, D186 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
@@ -8641,6 +8857,9 @@
       <c r="G187" t="s">
         <v>48</v>
       </c>
+      <c r="H187">
+        <v>1</v>
+      </c>
       <c r="I187" t="str" cm="1">
         <f t="array" ref="I187">_xlfn.IFS(D187 &gt;= 0.85, "85  &lt;", AND(D187 &gt;=0.8, D187 &lt; 0.85), "80-85", AND(D187 &gt;= 0.7, D187 &lt; 0.8), "70-80", AND(D187 &gt;= 0.6, D187 &lt; 0.7),  "60-70", AND(D187 &gt;= 0.5, D187 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
@@ -8668,6 +8887,9 @@
       <c r="G188" t="s">
         <v>77</v>
       </c>
+      <c r="H188">
+        <v>1</v>
+      </c>
       <c r="I188" t="str" cm="1">
         <f t="array" ref="I188">_xlfn.IFS(D188 &gt;= 0.85, "85  &lt;", AND(D188 &gt;=0.8, D188 &lt; 0.85), "80-85", AND(D188 &gt;= 0.7, D188 &lt; 0.8), "70-80", AND(D188 &gt;= 0.6, D188 &lt; 0.7),  "60-70", AND(D188 &gt;= 0.5, D188 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
@@ -8725,6 +8947,9 @@
       <c r="G190" t="s">
         <v>30</v>
       </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
       <c r="I190" t="str" cm="1">
         <f t="array" ref="I190">_xlfn.IFS(D190 &gt;= 0.85, "85  &lt;", AND(D190 &gt;=0.8, D190 &lt; 0.85), "80-85", AND(D190 &gt;= 0.7, D190 &lt; 0.8), "70-80", AND(D190 &gt;= 0.6, D190 &lt; 0.7),  "60-70", AND(D190 &gt;= 0.5, D190 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
@@ -8752,6 +8977,9 @@
       <c r="G191" t="s">
         <v>70</v>
       </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
       <c r="I191" t="str" cm="1">
         <f t="array" ref="I191">_xlfn.IFS(D191 &gt;= 0.85, "85  &lt;", AND(D191 &gt;=0.8, D191 &lt; 0.85), "80-85", AND(D191 &gt;= 0.7, D191 &lt; 0.8), "70-80", AND(D191 &gt;= 0.6, D191 &lt; 0.7),  "60-70", AND(D191 &gt;= 0.5, D191 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
@@ -8779,6 +9007,9 @@
       <c r="G192" t="s">
         <v>72</v>
       </c>
+      <c r="H192">
+        <v>1</v>
+      </c>
       <c r="I192" t="str" cm="1">
         <f t="array" ref="I192">_xlfn.IFS(D192 &gt;= 0.85, "85  &lt;", AND(D192 &gt;=0.8, D192 &lt; 0.85), "80-85", AND(D192 &gt;= 0.7, D192 &lt; 0.8), "70-80", AND(D192 &gt;= 0.6, D192 &lt; 0.7),  "60-70", AND(D192 &gt;= 0.5, D192 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
@@ -8806,6 +9037,9 @@
       <c r="G193" t="s">
         <v>66</v>
       </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
       <c r="I193" t="str" cm="1">
         <f t="array" ref="I193">_xlfn.IFS(D193 &gt;= 0.85, "85  &lt;", AND(D193 &gt;=0.8, D193 &lt; 0.85), "80-85", AND(D193 &gt;= 0.7, D193 &lt; 0.8), "70-80", AND(D193 &gt;= 0.6, D193 &lt; 0.7),  "60-70", AND(D193 &gt;= 0.5, D193 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
@@ -8833,6 +9067,9 @@
       <c r="G194" t="s">
         <v>38</v>
       </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
       <c r="I194" t="str" cm="1">
         <f t="array" ref="I194">_xlfn.IFS(D194 &gt;= 0.85, "85  &lt;", AND(D194 &gt;=0.8, D194 &lt; 0.85), "80-85", AND(D194 &gt;= 0.7, D194 &lt; 0.8), "70-80", AND(D194 &gt;= 0.6, D194 &lt; 0.7),  "60-70", AND(D194 &gt;= 0.5, D194 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
@@ -8860,6 +9097,9 @@
       <c r="G195" t="s">
         <v>21</v>
       </c>
+      <c r="H195">
+        <v>1</v>
+      </c>
       <c r="I195" t="str" cm="1">
         <f t="array" ref="I195">_xlfn.IFS(D195 &gt;= 0.85, "85  &lt;", AND(D195 &gt;=0.8, D195 &lt; 0.85), "80-85", AND(D195 &gt;= 0.7, D195 &lt; 0.8), "70-80", AND(D195 &gt;= 0.6, D195 &lt; 0.7),  "60-70", AND(D195 &gt;= 0.5, D195 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
@@ -8887,6 +9127,9 @@
       <c r="G196" t="s">
         <v>63</v>
       </c>
+      <c r="H196">
+        <v>1</v>
+      </c>
       <c r="I196" t="str" cm="1">
         <f t="array" ref="I196">_xlfn.IFS(D196 &gt;= 0.85, "85  &lt;", AND(D196 &gt;=0.8, D196 &lt; 0.85), "80-85", AND(D196 &gt;= 0.7, D196 &lt; 0.8), "70-80", AND(D196 &gt;= 0.6, D196 &lt; 0.7),  "60-70", AND(D196 &gt;= 0.5, D196 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
@@ -8914,9 +9157,72 @@
       <c r="G197" t="s">
         <v>55</v>
       </c>
+      <c r="H197">
+        <v>1</v>
+      </c>
       <c r="I197" t="str" cm="1">
         <f t="array" ref="I197">_xlfn.IFS(D197 &gt;= 0.85, "85  &lt;", AND(D197 &gt;=0.8, D197 &lt; 0.85), "80-85", AND(D197 &gt;= 0.7, D197 &lt; 0.8), "70-80", AND(D197 &gt;= 0.6, D197 &lt; 0.7),  "60-70", AND(D197 &gt;= 0.5, D197 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>91</v>
+      </c>
+      <c r="B198" s="1">
+        <v>45305</v>
+      </c>
+      <c r="C198" t="s">
+        <v>64</v>
+      </c>
+      <c r="D198" s="2">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="E198" t="s">
+        <v>37</v>
+      </c>
+      <c r="F198" s="2">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="G198" t="s">
+        <v>66</v>
+      </c>
+      <c r="H198">
+        <v>1</v>
+      </c>
+      <c r="I198" t="str" cm="1">
+        <f t="array" ref="I198">_xlfn.IFS(D198 &gt;= 0.85, "85  &lt;", AND(D198 &gt;=0.8, D198 &lt; 0.85), "80-85", AND(D198 &gt;= 0.7, D198 &lt; 0.8), "70-80", AND(D198 &gt;= 0.6, D198 &lt; 0.7),  "60-70", AND(D198 &gt;= 0.5, D198 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>91</v>
+      </c>
+      <c r="B199" s="1">
+        <v>45305</v>
+      </c>
+      <c r="C199" t="s">
+        <v>65</v>
+      </c>
+      <c r="D199" s="2">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="E199" t="s">
+        <v>20</v>
+      </c>
+      <c r="F199" s="2">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="G199" t="s">
+        <v>74</v>
+      </c>
+      <c r="H199">
+        <v>1</v>
+      </c>
+      <c r="I199" t="str" cm="1">
+        <f t="array" ref="I199">_xlfn.IFS(D199 &gt;= 0.85, "85  &lt;", AND(D199 &gt;=0.8, D199 &lt; 0.85), "80-85", AND(D199 &gt;= 0.7, D199 &lt; 0.8), "70-80", AND(D199 &gt;= 0.6, D199 &lt; 0.7),  "60-70", AND(D199 &gt;= 0.5, D199 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
       </c>
     </row>
   </sheetData>

--- a/GBM Lifetime Predictions.xlsx
+++ b/GBM Lifetime Predictions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED076D61-9B8C-472E-9766-3AC99678982A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103C9CF6-72A6-4E75-84C5-B27F57DD8742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="92">
   <si>
     <t>Date</t>
   </si>
@@ -900,7 +900,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45305.463858796298" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="158" xr:uid="{827BC2B5-8CB2-43F7-9795-87FC66DF261C}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45306.951812384257" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="168" xr:uid="{827BC2B5-8CB2-43F7-9795-87FC66DF261C}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A42:I1000" sheet="Predictions"/>
   </cacheSource>
@@ -915,7 +915,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-23T00:00:00" maxDate="2024-01-15T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-23T00:00:00" maxDate="2024-01-16T00:00:00"/>
     </cacheField>
     <cacheField name="Winner" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -955,7 +955,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="158">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="168">
   <r>
     <x v="0"/>
     <d v="2023-12-23T00:00:00"/>
@@ -2669,7 +2669,7 @@
     <s v="Detroit Red Wings"/>
     <n v="0.38400000000000001"/>
     <s v="Playing At:  Toronto Maple Leafs   Home"/>
-    <n v="1"/>
+    <n v="0"/>
     <x v="0"/>
   </r>
   <r>
@@ -2682,6 +2682,116 @@
     <s v="Playing At:  New York Rangers   Home"/>
     <n v="1"/>
     <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2024-01-15T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <n v="0.73819999999999997"/>
+    <s v="Montreal Canadiens"/>
+    <n v="0.26179999999999998"/>
+    <s v="Playing At:  Montreal Canadiens   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2024-01-15T00:00:00"/>
+    <s v="Florida Panthers"/>
+    <n v="0.63070000000000004"/>
+    <s v="Anaheim Ducks"/>
+    <n v="0.36930000000000002"/>
+    <s v="Playing At:  Florida Panthers   Home"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2024-01-15T00:00:00"/>
+    <s v="Buffalo Sabres"/>
+    <n v="0.59809999999999997"/>
+    <s v="San Jose Sharks"/>
+    <n v="0.40189999999999998"/>
+    <s v="Playing At:  Buffalo Sabres   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2024-01-15T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <n v="0.58169999999999999"/>
+    <s v="New Jersey Devils"/>
+    <n v="0.41830000000000001"/>
+    <s v="Playing At:  Boston Bruins   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2024-01-15T00:00:00"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="0.57820000000000005"/>
+    <s v="Los Angeles Kings"/>
+    <n v="0.42180000000000001"/>
+    <s v="Playing At:  Carolina Hurricanes   Home"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2024-01-15T00:00:00"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="0.56599999999999995"/>
+    <s v="Seattle Kraken"/>
+    <n v="0.434"/>
+    <s v="Playing At:  Pittsburgh Penguins   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2024-01-15T00:00:00"/>
+    <s v="Vegas Golden Knights"/>
+    <n v="0.55249999999999999"/>
+    <s v="Nashville Predators"/>
+    <n v="0.44750000000000001"/>
+    <s v="Playing At:  Vegas Golden Knights   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2024-01-15T00:00:00"/>
+    <s v="St. Louis Blues"/>
+    <n v="0.55010000000000003"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="0.44990000000000002"/>
+    <s v="Playing At:  St. Louis Blues   Home"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2024-01-15T00:00:00"/>
+    <s v="Minnesota Wild"/>
+    <n v="0.54690000000000005"/>
+    <s v="New York Islanders"/>
+    <n v="0.4531"/>
+    <s v="Playing At:  Minnesota Wild   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2024-01-15T00:00:00"/>
+    <s v="Vancouver Canucks"/>
+    <n v="0.5393"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="0.4607"/>
+    <s v="Playing At:  Columbus Blue Jackets   Home"/>
+    <n v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="4"/>
@@ -3080,7 +3190,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3133,7 +3243,7 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B5)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -3141,14 +3251,14 @@
         <v>87</v>
       </c>
       <c r="B5" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="8">
         <v>10</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" ref="D5:D9" si="0">C5/B5</f>
-        <v>0.625</v>
+        <v>0.58823529411764708</v>
       </c>
       <c r="F5">
         <f>SUM(C4:C5)</f>
@@ -3160,18 +3270,18 @@
         <v>8</v>
       </c>
       <c r="B6" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="6">
         <f>C6/B6</f>
-        <v>0.65573770491803274</v>
+        <v>0.62903225806451613</v>
       </c>
       <c r="F6" s="6">
         <f>F5/F4</f>
-        <v>0.61111111111111116</v>
+        <v>0.57894736842105265</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -3179,14 +3289,14 @@
         <v>45</v>
       </c>
       <c r="B7" s="8">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C7" s="8">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>0.58974358974358976</v>
+        <v>0.59302325581395354</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -3197,18 +3307,18 @@
         <v>10</v>
       </c>
       <c r="B8" s="8">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C8" s="8">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>0.61783439490445857</v>
+        <v>0.60479041916167664</v>
       </c>
       <c r="F8">
         <f>SUM(B6:B7)</f>
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -3218,14 +3328,14 @@
       </c>
       <c r="F9">
         <f>SUM(C6:C7)</f>
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D10" s="5"/>
       <c r="F10" s="6">
         <f>F9/F8</f>
-        <v>0.61870503597122306</v>
+        <v>0.60810810810810811</v>
       </c>
     </row>
   </sheetData>
@@ -3235,10 +3345,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J199"/>
+  <dimension ref="A1:J209"/>
   <sheetViews>
-    <sheetView topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="H200" sqref="H200"/>
+    <sheetView topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="H200" sqref="H200:H209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9188,7 +9298,7 @@
         <v>66</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="str" cm="1">
         <f t="array" ref="I198">_xlfn.IFS(D198 &gt;= 0.85, "85  &lt;", AND(D198 &gt;=0.8, D198 &lt; 0.85), "80-85", AND(D198 &gt;= 0.7, D198 &lt; 0.8), "70-80", AND(D198 &gt;= 0.6, D198 &lt; 0.7),  "60-70", AND(D198 &gt;= 0.5, D198 &lt; 0.6), "50-60")</f>
@@ -9223,6 +9333,306 @@
       <c r="I199" t="str" cm="1">
         <f t="array" ref="I199">_xlfn.IFS(D199 &gt;= 0.85, "85  &lt;", AND(D199 &gt;=0.8, D199 &lt; 0.85), "80-85", AND(D199 &gt;= 0.7, D199 &lt; 0.8), "70-80", AND(D199 &gt;= 0.6, D199 &lt; 0.7),  "60-70", AND(D199 &gt;= 0.5, D199 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>91</v>
+      </c>
+      <c r="B200" s="1">
+        <v>45306</v>
+      </c>
+      <c r="C200" t="s">
+        <v>16</v>
+      </c>
+      <c r="D200" s="2">
+        <v>0.73819999999999997</v>
+      </c>
+      <c r="E200" t="s">
+        <v>32</v>
+      </c>
+      <c r="F200" s="2">
+        <v>0.26179999999999998</v>
+      </c>
+      <c r="G200" t="s">
+        <v>89</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200" t="str" cm="1">
+        <f t="array" ref="I200">_xlfn.IFS(D200 &gt;= 0.85, "85  &lt;", AND(D200 &gt;=0.8, D200 &lt; 0.85), "80-85", AND(D200 &gt;= 0.7, D200 &lt; 0.8), "70-80", AND(D200 &gt;= 0.6, D200 &lt; 0.7),  "60-70", AND(D200 &gt;= 0.5, D200 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>91</v>
+      </c>
+      <c r="B201" s="1">
+        <v>45306</v>
+      </c>
+      <c r="C201" t="s">
+        <v>39</v>
+      </c>
+      <c r="D201" s="2">
+        <v>0.63070000000000004</v>
+      </c>
+      <c r="E201" t="s">
+        <v>23</v>
+      </c>
+      <c r="F201" s="2">
+        <v>0.36930000000000002</v>
+      </c>
+      <c r="G201" t="s">
+        <v>70</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201" t="str" cm="1">
+        <f t="array" ref="I201">_xlfn.IFS(D201 &gt;= 0.85, "85  &lt;", AND(D201 &gt;=0.8, D201 &lt; 0.85), "80-85", AND(D201 &gt;= 0.7, D201 &lt; 0.8), "70-80", AND(D201 &gt;= 0.6, D201 &lt; 0.7),  "60-70", AND(D201 &gt;= 0.5, D201 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>91</v>
+      </c>
+      <c r="B202" s="1">
+        <v>45306</v>
+      </c>
+      <c r="C202" t="s">
+        <v>53</v>
+      </c>
+      <c r="D202" s="2">
+        <v>0.59809999999999997</v>
+      </c>
+      <c r="E202" t="s">
+        <v>17</v>
+      </c>
+      <c r="F202" s="2">
+        <v>0.40189999999999998</v>
+      </c>
+      <c r="G202" t="s">
+        <v>55</v>
+      </c>
+      <c r="H202">
+        <v>1</v>
+      </c>
+      <c r="I202" t="str" cm="1">
+        <f t="array" ref="I202">_xlfn.IFS(D202 &gt;= 0.85, "85  &lt;", AND(D202 &gt;=0.8, D202 &lt; 0.85), "80-85", AND(D202 &gt;= 0.7, D202 &lt; 0.8), "70-80", AND(D202 &gt;= 0.6, D202 &lt; 0.7),  "60-70", AND(D202 &gt;= 0.5, D202 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>91</v>
+      </c>
+      <c r="B203" s="1">
+        <v>45306</v>
+      </c>
+      <c r="C203" t="s">
+        <v>49</v>
+      </c>
+      <c r="D203" s="2">
+        <v>0.58169999999999999</v>
+      </c>
+      <c r="E203" t="s">
+        <v>22</v>
+      </c>
+      <c r="F203" s="2">
+        <v>0.41830000000000001</v>
+      </c>
+      <c r="G203" t="s">
+        <v>50</v>
+      </c>
+      <c r="H203">
+        <v>1</v>
+      </c>
+      <c r="I203" t="str" cm="1">
+        <f t="array" ref="I203">_xlfn.IFS(D203 &gt;= 0.85, "85  &lt;", AND(D203 &gt;=0.8, D203 &lt; 0.85), "80-85", AND(D203 &gt;= 0.7, D203 &lt; 0.8), "70-80", AND(D203 &gt;= 0.6, D203 &lt; 0.7),  "60-70", AND(D203 &gt;= 0.5, D203 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>91</v>
+      </c>
+      <c r="B204" s="1">
+        <v>45306</v>
+      </c>
+      <c r="C204" t="s">
+        <v>19</v>
+      </c>
+      <c r="D204" s="2">
+        <v>0.57820000000000005</v>
+      </c>
+      <c r="E204" t="s">
+        <v>51</v>
+      </c>
+      <c r="F204" s="2">
+        <v>0.42180000000000001</v>
+      </c>
+      <c r="G204" t="s">
+        <v>21</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204" t="str" cm="1">
+        <f t="array" ref="I204">_xlfn.IFS(D204 &gt;= 0.85, "85  &lt;", AND(D204 &gt;=0.8, D204 &lt; 0.85), "80-85", AND(D204 &gt;= 0.7, D204 &lt; 0.8), "70-80", AND(D204 &gt;= 0.6, D204 &lt; 0.7),  "60-70", AND(D204 &gt;= 0.5, D204 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>91</v>
+      </c>
+      <c r="B205" s="1">
+        <v>45306</v>
+      </c>
+      <c r="C205" t="s">
+        <v>42</v>
+      </c>
+      <c r="D205" s="2">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="E205" t="s">
+        <v>35</v>
+      </c>
+      <c r="F205" s="2">
+        <v>0.434</v>
+      </c>
+      <c r="G205" t="s">
+        <v>44</v>
+      </c>
+      <c r="H205">
+        <v>1</v>
+      </c>
+      <c r="I205" t="str" cm="1">
+        <f t="array" ref="I205">_xlfn.IFS(D205 &gt;= 0.85, "85  &lt;", AND(D205 &gt;=0.8, D205 &lt; 0.85), "80-85", AND(D205 &gt;= 0.7, D205 &lt; 0.8), "70-80", AND(D205 &gt;= 0.6, D205 &lt; 0.7),  "60-70", AND(D205 &gt;= 0.5, D205 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>91</v>
+      </c>
+      <c r="B206" s="1">
+        <v>45306</v>
+      </c>
+      <c r="C206" t="s">
+        <v>28</v>
+      </c>
+      <c r="D206" s="2">
+        <v>0.55249999999999999</v>
+      </c>
+      <c r="E206" t="s">
+        <v>62</v>
+      </c>
+      <c r="F206" s="2">
+        <v>0.44750000000000001</v>
+      </c>
+      <c r="G206" t="s">
+        <v>30</v>
+      </c>
+      <c r="H206">
+        <v>1</v>
+      </c>
+      <c r="I206" t="str" cm="1">
+        <f t="array" ref="I206">_xlfn.IFS(D206 &gt;= 0.85, "85  &lt;", AND(D206 &gt;=0.8, D206 &lt; 0.85), "80-85", AND(D206 &gt;= 0.7, D206 &lt; 0.8), "70-80", AND(D206 &gt;= 0.6, D206 &lt; 0.7),  "60-70", AND(D206 &gt;= 0.5, D206 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>91</v>
+      </c>
+      <c r="B207" s="1">
+        <v>45306</v>
+      </c>
+      <c r="C207" t="s">
+        <v>47</v>
+      </c>
+      <c r="D207" s="2">
+        <v>0.55010000000000003</v>
+      </c>
+      <c r="E207" t="s">
+        <v>56</v>
+      </c>
+      <c r="F207" s="2">
+        <v>0.44990000000000002</v>
+      </c>
+      <c r="G207" t="s">
+        <v>77</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+      <c r="I207" t="str" cm="1">
+        <f t="array" ref="I207">_xlfn.IFS(D207 &gt;= 0.85, "85  &lt;", AND(D207 &gt;=0.8, D207 &lt; 0.85), "80-85", AND(D207 &gt;= 0.7, D207 &lt; 0.8), "70-80", AND(D207 &gt;= 0.6, D207 &lt; 0.7),  "60-70", AND(D207 &gt;= 0.5, D207 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>91</v>
+      </c>
+      <c r="B208" s="1">
+        <v>45306</v>
+      </c>
+      <c r="C208" t="s">
+        <v>43</v>
+      </c>
+      <c r="D208" s="2">
+        <v>0.54690000000000005</v>
+      </c>
+      <c r="E208" t="s">
+        <v>58</v>
+      </c>
+      <c r="F208" s="2">
+        <v>0.4531</v>
+      </c>
+      <c r="G208" t="s">
+        <v>69</v>
+      </c>
+      <c r="H208">
+        <v>1</v>
+      </c>
+      <c r="I208" t="str" cm="1">
+        <f t="array" ref="I208">_xlfn.IFS(D208 &gt;= 0.85, "85  &lt;", AND(D208 &gt;=0.8, D208 &lt; 0.85), "80-85", AND(D208 &gt;= 0.7, D208 &lt; 0.8), "70-80", AND(D208 &gt;= 0.6, D208 &lt; 0.7),  "60-70", AND(D208 &gt;= 0.5, D208 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>91</v>
+      </c>
+      <c r="B209" s="1">
+        <v>45306</v>
+      </c>
+      <c r="C209" t="s">
+        <v>25</v>
+      </c>
+      <c r="D209" s="2">
+        <v>0.5393</v>
+      </c>
+      <c r="E209" t="s">
+        <v>54</v>
+      </c>
+      <c r="F209" s="2">
+        <v>0.4607</v>
+      </c>
+      <c r="G209" t="s">
+        <v>72</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209" t="str" cm="1">
+        <f t="array" ref="I209">_xlfn.IFS(D209 &gt;= 0.85, "85  &lt;", AND(D209 &gt;=0.8, D209 &lt; 0.85), "80-85", AND(D209 &gt;= 0.7, D209 &lt; 0.8), "70-80", AND(D209 &gt;= 0.6, D209 &lt; 0.7),  "60-70", AND(D209 &gt;= 0.5, D209 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
       </c>
     </row>
   </sheetData>

--- a/GBM Lifetime Predictions.xlsx
+++ b/GBM Lifetime Predictions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103C9CF6-72A6-4E75-84C5-B27F57DD8742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E7145C-3DE5-47D0-BFCF-522FF29B60D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="92">
   <si>
     <t>Date</t>
   </si>
@@ -900,7 +900,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45306.951812384257" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="168" xr:uid="{827BC2B5-8CB2-43F7-9795-87FC66DF261C}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45307.347406018518" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="176" xr:uid="{827BC2B5-8CB2-43F7-9795-87FC66DF261C}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A42:I1000" sheet="Predictions"/>
   </cacheSource>
@@ -915,7 +915,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-23T00:00:00" maxDate="2024-01-16T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-23T00:00:00" maxDate="2024-01-17T00:00:00"/>
     </cacheField>
     <cacheField name="Winner" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -955,7 +955,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="168">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="176">
   <r>
     <x v="0"/>
     <d v="2023-12-23T00:00:00"/>
@@ -2791,6 +2791,94 @@
     <n v="0.4607"/>
     <s v="Playing At:  Columbus Blue Jackets   Home"/>
     <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2024-01-16T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <n v="0.61719999999999997"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="0.38279999999999997"/>
+    <s v="Playing At:  Edmonton Oilers   Home"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2024-01-16T00:00:00"/>
+    <s v="New York Rangers"/>
+    <n v="0.61480000000000001"/>
+    <s v="Seattle Kraken"/>
+    <n v="0.38519999999999999"/>
+    <s v="Playing At:  New York Rangers   Home"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2024-01-16T00:00:00"/>
+    <s v="Anaheim Ducks"/>
+    <n v="0.59909999999999997"/>
+    <s v="Washington Capitals"/>
+    <n v="0.40089999999999998"/>
+    <s v="Playing At:  Washington Capitals   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2024-01-16T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <n v="0.58740000000000003"/>
+    <s v="Ottawa Senators"/>
+    <n v="0.41260000000000002"/>
+    <s v="Playing At:  Ottawa Senators   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2024-01-16T00:00:00"/>
+    <s v="Calgary Flames"/>
+    <n v="0.58040000000000003"/>
+    <s v="Arizona Coyotes"/>
+    <n v="0.41959999999999997"/>
+    <s v="Playing At:  Calgary Flames   Home"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2024-01-16T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <n v="0.57040000000000002"/>
+    <s v="Los Angeles Kings"/>
+    <n v="0.42959999999999998"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2024-01-16T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <n v="0.56069999999999998"/>
+    <s v="New York Islanders"/>
+    <n v="0.43930000000000002"/>
+    <s v="Playing At:  Winnipeg Jets   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2024-01-16T00:00:00"/>
+    <s v="San Jose Sharks"/>
+    <n v="0.50839999999999996"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="0.49159999999999998"/>
+    <s v="Playing At:  Chicago Blackhawks   Home"/>
+    <n v="1"/>
     <x v="1"/>
   </r>
   <r>
@@ -3190,7 +3278,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3270,14 +3358,14 @@
         <v>8</v>
       </c>
       <c r="B6" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C6" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" s="6">
         <f>C6/B6</f>
-        <v>0.62903225806451613</v>
+        <v>0.625</v>
       </c>
       <c r="F6" s="6">
         <f>F5/F4</f>
@@ -3289,14 +3377,14 @@
         <v>45</v>
       </c>
       <c r="B7" s="8">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C7" s="8">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>0.59302325581395354</v>
+        <v>0.60869565217391308</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -3307,18 +3395,18 @@
         <v>10</v>
       </c>
       <c r="B8" s="8">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C8" s="8">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>0.60479041916167664</v>
+        <v>0.61142857142857143</v>
       </c>
       <c r="F8">
         <f>SUM(B6:B7)</f>
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -3328,14 +3416,14 @@
       </c>
       <c r="F9">
         <f>SUM(C6:C7)</f>
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D10" s="5"/>
       <c r="F10" s="6">
         <f>F9/F8</f>
-        <v>0.60810810810810811</v>
+        <v>0.61538461538461542</v>
       </c>
     </row>
   </sheetData>
@@ -3345,10 +3433,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J209"/>
+  <dimension ref="A1:J217"/>
   <sheetViews>
-    <sheetView topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="H200" sqref="H200:H209"/>
+    <sheetView topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="H218" sqref="H218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9632,6 +9720,246 @@
       </c>
       <c r="I209" t="str" cm="1">
         <f t="array" ref="I209">_xlfn.IFS(D209 &gt;= 0.85, "85  &lt;", AND(D209 &gt;=0.8, D209 &lt; 0.85), "80-85", AND(D209 &gt;= 0.7, D209 &lt; 0.8), "70-80", AND(D209 &gt;= 0.6, D209 &lt; 0.7),  "60-70", AND(D209 &gt;= 0.5, D209 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>91</v>
+      </c>
+      <c r="B210" s="1">
+        <v>45307</v>
+      </c>
+      <c r="C210" t="s">
+        <v>57</v>
+      </c>
+      <c r="D210" s="2">
+        <v>0.61719999999999997</v>
+      </c>
+      <c r="E210" t="s">
+        <v>64</v>
+      </c>
+      <c r="F210" s="2">
+        <v>0.38279999999999997</v>
+      </c>
+      <c r="G210" t="s">
+        <v>88</v>
+      </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+      <c r="I210" t="str" cm="1">
+        <f t="array" ref="I210">_xlfn.IFS(D210 &gt;= 0.85, "85  &lt;", AND(D210 &gt;=0.8, D210 &lt; 0.85), "80-85", AND(D210 &gt;= 0.7, D210 &lt; 0.8), "70-80", AND(D210 &gt;= 0.6, D210 &lt; 0.7),  "60-70", AND(D210 &gt;= 0.5, D210 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>91</v>
+      </c>
+      <c r="B211" s="1">
+        <v>45307</v>
+      </c>
+      <c r="C211" t="s">
+        <v>65</v>
+      </c>
+      <c r="D211" s="2">
+        <v>0.61480000000000001</v>
+      </c>
+      <c r="E211" t="s">
+        <v>35</v>
+      </c>
+      <c r="F211" s="2">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="G211" t="s">
+        <v>74</v>
+      </c>
+      <c r="H211">
+        <v>1</v>
+      </c>
+      <c r="I211" t="str" cm="1">
+        <f t="array" ref="I211">_xlfn.IFS(D211 &gt;= 0.85, "85  &lt;", AND(D211 &gt;=0.8, D211 &lt; 0.85), "80-85", AND(D211 &gt;= 0.7, D211 &lt; 0.8), "70-80", AND(D211 &gt;= 0.6, D211 &lt; 0.7),  "60-70", AND(D211 &gt;= 0.5, D211 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>91</v>
+      </c>
+      <c r="B212" s="1">
+        <v>45307</v>
+      </c>
+      <c r="C212" t="s">
+        <v>23</v>
+      </c>
+      <c r="D212" s="2">
+        <v>0.59909999999999997</v>
+      </c>
+      <c r="E212" t="s">
+        <v>20</v>
+      </c>
+      <c r="F212" s="2">
+        <v>0.40089999999999998</v>
+      </c>
+      <c r="G212" t="s">
+        <v>68</v>
+      </c>
+      <c r="H212">
+        <v>1</v>
+      </c>
+      <c r="I212" t="str" cm="1">
+        <f t="array" ref="I212">_xlfn.IFS(D212 &gt;= 0.85, "85  &lt;", AND(D212 &gt;=0.8, D212 &lt; 0.85), "80-85", AND(D212 &gt;= 0.7, D212 &lt; 0.8), "70-80", AND(D212 &gt;= 0.6, D212 &lt; 0.7),  "60-70", AND(D212 &gt;= 0.5, D212 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>91</v>
+      </c>
+      <c r="B213" s="1">
+        <v>45307</v>
+      </c>
+      <c r="C213" t="s">
+        <v>16</v>
+      </c>
+      <c r="D213" s="2">
+        <v>0.58740000000000003</v>
+      </c>
+      <c r="E213" t="s">
+        <v>29</v>
+      </c>
+      <c r="F213" s="2">
+        <v>0.41260000000000002</v>
+      </c>
+      <c r="G213" t="s">
+        <v>78</v>
+      </c>
+      <c r="H213">
+        <v>1</v>
+      </c>
+      <c r="I213" t="str" cm="1">
+        <f t="array" ref="I213">_xlfn.IFS(D213 &gt;= 0.85, "85  &lt;", AND(D213 &gt;=0.8, D213 &lt; 0.85), "80-85", AND(D213 &gt;= 0.7, D213 &lt; 0.8), "70-80", AND(D213 &gt;= 0.6, D213 &lt; 0.7),  "60-70", AND(D213 &gt;= 0.5, D213 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>91</v>
+      </c>
+      <c r="B214" s="1">
+        <v>45307</v>
+      </c>
+      <c r="C214" t="s">
+        <v>40</v>
+      </c>
+      <c r="D214" s="2">
+        <v>0.58040000000000003</v>
+      </c>
+      <c r="E214" t="s">
+        <v>60</v>
+      </c>
+      <c r="F214" s="2">
+        <v>0.41959999999999997</v>
+      </c>
+      <c r="G214" t="s">
+        <v>41</v>
+      </c>
+      <c r="H214">
+        <v>0</v>
+      </c>
+      <c r="I214" t="str" cm="1">
+        <f t="array" ref="I214">_xlfn.IFS(D214 &gt;= 0.85, "85  &lt;", AND(D214 &gt;=0.8, D214 &lt; 0.85), "80-85", AND(D214 &gt;= 0.7, D214 &lt; 0.8), "70-80", AND(D214 &gt;= 0.6, D214 &lt; 0.7),  "60-70", AND(D214 &gt;= 0.5, D214 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>91</v>
+      </c>
+      <c r="B215" s="1">
+        <v>45307</v>
+      </c>
+      <c r="C215" t="s">
+        <v>34</v>
+      </c>
+      <c r="D215" s="2">
+        <v>0.57040000000000002</v>
+      </c>
+      <c r="E215" t="s">
+        <v>51</v>
+      </c>
+      <c r="F215" s="2">
+        <v>0.42959999999999998</v>
+      </c>
+      <c r="G215" t="s">
+        <v>36</v>
+      </c>
+      <c r="H215">
+        <v>1</v>
+      </c>
+      <c r="I215" t="str" cm="1">
+        <f t="array" ref="I215">_xlfn.IFS(D215 &gt;= 0.85, "85  &lt;", AND(D215 &gt;=0.8, D215 &lt; 0.85), "80-85", AND(D215 &gt;= 0.7, D215 &lt; 0.8), "70-80", AND(D215 &gt;= 0.6, D215 &lt; 0.7),  "60-70", AND(D215 &gt;= 0.5, D215 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>91</v>
+      </c>
+      <c r="B216" s="1">
+        <v>45307</v>
+      </c>
+      <c r="C216" t="s">
+        <v>31</v>
+      </c>
+      <c r="D216" s="2">
+        <v>0.56069999999999998</v>
+      </c>
+      <c r="E216" t="s">
+        <v>58</v>
+      </c>
+      <c r="F216" s="2">
+        <v>0.43930000000000002</v>
+      </c>
+      <c r="G216" t="s">
+        <v>33</v>
+      </c>
+      <c r="H216">
+        <v>1</v>
+      </c>
+      <c r="I216" t="str" cm="1">
+        <f t="array" ref="I216">_xlfn.IFS(D216 &gt;= 0.85, "85  &lt;", AND(D216 &gt;=0.8, D216 &lt; 0.85), "80-85", AND(D216 &gt;= 0.7, D216 &lt; 0.8), "70-80", AND(D216 &gt;= 0.6, D216 &lt; 0.7),  "60-70", AND(D216 &gt;= 0.5, D216 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>91</v>
+      </c>
+      <c r="B217" s="1">
+        <v>45307</v>
+      </c>
+      <c r="C217" t="s">
+        <v>17</v>
+      </c>
+      <c r="D217" s="2">
+        <v>0.50839999999999996</v>
+      </c>
+      <c r="E217" t="s">
+        <v>26</v>
+      </c>
+      <c r="F217" s="2">
+        <v>0.49159999999999998</v>
+      </c>
+      <c r="G217" t="s">
+        <v>27</v>
+      </c>
+      <c r="H217">
+        <v>1</v>
+      </c>
+      <c r="I217" t="str" cm="1">
+        <f t="array" ref="I217">_xlfn.IFS(D217 &gt;= 0.85, "85  &lt;", AND(D217 &gt;=0.8, D217 &lt; 0.85), "80-85", AND(D217 &gt;= 0.7, D217 &lt; 0.8), "70-80", AND(D217 &gt;= 0.6, D217 &lt; 0.7),  "60-70", AND(D217 &gt;= 0.5, D217 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>

--- a/GBM Lifetime Predictions.xlsx
+++ b/GBM Lifetime Predictions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E7145C-3DE5-47D0-BFCF-522FF29B60D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875475E8-D2A8-46F9-8A9B-F1A17EF4D87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="92">
   <si>
     <t>Date</t>
   </si>
@@ -900,7 +900,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45307.347406018518" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="176" xr:uid="{827BC2B5-8CB2-43F7-9795-87FC66DF261C}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45308.326136342592" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="179" xr:uid="{827BC2B5-8CB2-43F7-9795-87FC66DF261C}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A42:I1000" sheet="Predictions"/>
   </cacheSource>
@@ -915,7 +915,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-23T00:00:00" maxDate="2024-01-17T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-23T00:00:00" maxDate="2024-01-18T00:00:00"/>
     </cacheField>
     <cacheField name="Winner" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -955,7 +955,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="176">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="179">
   <r>
     <x v="0"/>
     <d v="2023-12-23T00:00:00"/>
@@ -2801,7 +2801,7 @@
     <s v="Toronto Maple Leafs"/>
     <n v="0.38279999999999997"/>
     <s v="Playing At:  Edmonton Oilers   Home"/>
-    <n v="0"/>
+    <n v="1"/>
     <x v="0"/>
   </r>
   <r>
@@ -2823,7 +2823,7 @@
     <s v="Washington Capitals"/>
     <n v="0.40089999999999998"/>
     <s v="Playing At:  Washington Capitals   Home"/>
-    <n v="1"/>
+    <n v="0"/>
     <x v="1"/>
   </r>
   <r>
@@ -2845,7 +2845,7 @@
     <s v="Arizona Coyotes"/>
     <n v="0.41959999999999997"/>
     <s v="Playing At:  Calgary Flames   Home"/>
-    <n v="0"/>
+    <n v="1"/>
     <x v="1"/>
   </r>
   <r>
@@ -2878,6 +2878,39 @@
     <s v="Chicago Blackhawks"/>
     <n v="0.49159999999999998"/>
     <s v="Playing At:  Chicago Blackhawks   Home"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2024-01-17T00:00:00"/>
+    <s v="Buffalo Sabres"/>
+    <n v="0.64570000000000005"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="0.3543"/>
+    <s v="Playing At:  Buffalo Sabres   Home"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2024-01-17T00:00:00"/>
+    <s v="Florida Panthers"/>
+    <n v="0.64290000000000003"/>
+    <s v="Detroit Red Wings"/>
+    <n v="0.35709999999999997"/>
+    <s v="Playing At:  Florida Panthers   Home"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2024-01-17T00:00:00"/>
+    <s v="New Jersey Devils"/>
+    <n v="0.57310000000000005"/>
+    <s v="Montreal Canadiens"/>
+    <n v="0.4269"/>
+    <s v="Playing At:  New Jersey Devils   Home"/>
     <n v="1"/>
     <x v="1"/>
   </r>
@@ -3278,7 +3311,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3358,14 +3391,14 @@
         <v>8</v>
       </c>
       <c r="B6" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C6" s="8">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D6" s="6">
         <f>C6/B6</f>
-        <v>0.625</v>
+        <v>0.65151515151515149</v>
       </c>
       <c r="F6" s="6">
         <f>F5/F4</f>
@@ -3377,14 +3410,14 @@
         <v>45</v>
       </c>
       <c r="B7" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C7" s="8">
         <v>56</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>0.60869565217391308</v>
+        <v>0.60215053763440862</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -3395,18 +3428,18 @@
         <v>10</v>
       </c>
       <c r="B8" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C8" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>0.61142857142857143</v>
+        <v>0.6179775280898876</v>
       </c>
       <c r="F8">
         <f>SUM(B6:B7)</f>
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -3416,14 +3449,14 @@
       </c>
       <c r="F9">
         <f>SUM(C6:C7)</f>
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D10" s="5"/>
       <c r="F10" s="6">
         <f>F9/F8</f>
-        <v>0.61538461538461542</v>
+        <v>0.62264150943396224</v>
       </c>
     </row>
   </sheetData>
@@ -3433,10 +3466,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J217"/>
+  <dimension ref="A1:J220"/>
   <sheetViews>
-    <sheetView topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="H218" sqref="H218"/>
+    <sheetView topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="H221" sqref="H221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9746,7 +9779,7 @@
         <v>88</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I210" t="str" cm="1">
         <f t="array" ref="I210">_xlfn.IFS(D210 &gt;= 0.85, "85  &lt;", AND(D210 &gt;=0.8, D210 &lt; 0.85), "80-85", AND(D210 &gt;= 0.7, D210 &lt; 0.8), "70-80", AND(D210 &gt;= 0.6, D210 &lt; 0.7),  "60-70", AND(D210 &gt;= 0.5, D210 &lt; 0.6), "50-60")</f>
@@ -9806,7 +9839,7 @@
         <v>68</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="str" cm="1">
         <f t="array" ref="I212">_xlfn.IFS(D212 &gt;= 0.85, "85  &lt;", AND(D212 &gt;=0.8, D212 &lt; 0.85), "80-85", AND(D212 &gt;= 0.7, D212 &lt; 0.8), "70-80", AND(D212 &gt;= 0.6, D212 &lt; 0.7),  "60-70", AND(D212 &gt;= 0.5, D212 &lt; 0.6), "50-60")</f>
@@ -9866,7 +9899,7 @@
         <v>41</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I214" t="str" cm="1">
         <f t="array" ref="I214">_xlfn.IFS(D214 &gt;= 0.85, "85  &lt;", AND(D214 &gt;=0.8, D214 &lt; 0.85), "80-85", AND(D214 &gt;= 0.7, D214 &lt; 0.8), "70-80", AND(D214 &gt;= 0.6, D214 &lt; 0.7),  "60-70", AND(D214 &gt;= 0.5, D214 &lt; 0.6), "50-60")</f>
@@ -9956,10 +9989,100 @@
         <v>27</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="str" cm="1">
         <f t="array" ref="I217">_xlfn.IFS(D217 &gt;= 0.85, "85  &lt;", AND(D217 &gt;=0.8, D217 &lt; 0.85), "80-85", AND(D217 &gt;= 0.7, D217 &lt; 0.8), "70-80", AND(D217 &gt;= 0.6, D217 &lt; 0.7),  "60-70", AND(D217 &gt;= 0.5, D217 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>91</v>
+      </c>
+      <c r="B218" s="1">
+        <v>45308</v>
+      </c>
+      <c r="C218" t="s">
+        <v>53</v>
+      </c>
+      <c r="D218" s="2">
+        <v>0.64570000000000005</v>
+      </c>
+      <c r="E218" t="s">
+        <v>26</v>
+      </c>
+      <c r="F218" s="2">
+        <v>0.3543</v>
+      </c>
+      <c r="G218" t="s">
+        <v>55</v>
+      </c>
+      <c r="H218">
+        <v>1</v>
+      </c>
+      <c r="I218" t="str" cm="1">
+        <f t="array" ref="I218">_xlfn.IFS(D218 &gt;= 0.85, "85  &lt;", AND(D218 &gt;=0.8, D218 &lt; 0.85), "80-85", AND(D218 &gt;= 0.7, D218 &lt; 0.8), "70-80", AND(D218 &gt;= 0.6, D218 &lt; 0.7),  "60-70", AND(D218 &gt;= 0.5, D218 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>91</v>
+      </c>
+      <c r="B219" s="1">
+        <v>45308</v>
+      </c>
+      <c r="C219" t="s">
+        <v>39</v>
+      </c>
+      <c r="D219" s="2">
+        <v>0.64290000000000003</v>
+      </c>
+      <c r="E219" t="s">
+        <v>37</v>
+      </c>
+      <c r="F219" s="2">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="G219" t="s">
+        <v>70</v>
+      </c>
+      <c r="H219">
+        <v>1</v>
+      </c>
+      <c r="I219" t="str" cm="1">
+        <f t="array" ref="I219">_xlfn.IFS(D219 &gt;= 0.85, "85  &lt;", AND(D219 &gt;=0.8, D219 &lt; 0.85), "80-85", AND(D219 &gt;= 0.7, D219 &lt; 0.8), "70-80", AND(D219 &gt;= 0.6, D219 &lt; 0.7),  "60-70", AND(D219 &gt;= 0.5, D219 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>91</v>
+      </c>
+      <c r="B220" s="1">
+        <v>45308</v>
+      </c>
+      <c r="C220" t="s">
+        <v>22</v>
+      </c>
+      <c r="D220" s="2">
+        <v>0.57310000000000005</v>
+      </c>
+      <c r="E220" t="s">
+        <v>32</v>
+      </c>
+      <c r="F220" s="2">
+        <v>0.4269</v>
+      </c>
+      <c r="G220" t="s">
+        <v>24</v>
+      </c>
+      <c r="H220">
+        <v>1</v>
+      </c>
+      <c r="I220" t="str" cm="1">
+        <f t="array" ref="I220">_xlfn.IFS(D220 &gt;= 0.85, "85  &lt;", AND(D220 &gt;=0.8, D220 &lt; 0.85), "80-85", AND(D220 &gt;= 0.7, D220 &lt; 0.8), "70-80", AND(D220 &gt;= 0.6, D220 &lt; 0.7),  "60-70", AND(D220 &gt;= 0.5, D220 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>

--- a/GBM Lifetime Predictions.xlsx
+++ b/GBM Lifetime Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875475E8-D2A8-46F9-8A9B-F1A17EF4D87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4588841D-DD84-4489-A462-AAD505824496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="92">
   <si>
     <t>Date</t>
   </si>
@@ -900,9 +900,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45308.326136342592" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="179" xr:uid="{827BC2B5-8CB2-43F7-9795-87FC66DF261C}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45309.462472106483" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="189" xr:uid="{827BC2B5-8CB2-43F7-9795-87FC66DF261C}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A42:I1000" sheet="Predictions"/>
+    <worksheetSource ref="A42:I999" sheet="Predictions"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="Model Used" numFmtId="0">
@@ -915,7 +915,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-23T00:00:00" maxDate="2024-01-18T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-23T00:00:00" maxDate="2024-01-19T00:00:00"/>
     </cacheField>
     <cacheField name="Winner" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -955,7 +955,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="179">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="189">
   <r>
     <x v="0"/>
     <d v="2023-12-23T00:00:00"/>
@@ -2884,23 +2884,12 @@
   <r>
     <x v="3"/>
     <d v="2024-01-17T00:00:00"/>
-    <s v="Buffalo Sabres"/>
-    <n v="0.64570000000000005"/>
-    <s v="Chicago Blackhawks"/>
-    <n v="0.3543"/>
-    <s v="Playing At:  Buffalo Sabres   Home"/>
-    <n v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <d v="2024-01-17T00:00:00"/>
     <s v="Florida Panthers"/>
     <n v="0.64290000000000003"/>
     <s v="Detroit Red Wings"/>
     <n v="0.35709999999999997"/>
     <s v="Playing At:  Florida Panthers   Home"/>
-    <n v="1"/>
+    <n v="0"/>
     <x v="0"/>
   </r>
   <r>
@@ -2911,7 +2900,128 @@
     <s v="Montreal Canadiens"/>
     <n v="0.4269"/>
     <s v="Playing At:  New Jersey Devils   Home"/>
-    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2024-01-18T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <n v="0.69510000000000005"/>
+    <s v="Seattle Kraken"/>
+    <n v="0.3049"/>
+    <s v="Playing At:  Edmonton Oilers   Home"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2024-01-18T00:00:00"/>
+    <s v="Buffalo Sabres"/>
+    <n v="0.64570000000000005"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="0.3543"/>
+    <s v="Playing At:  Buffalo Sabres   Home"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2024-01-18T00:00:00"/>
+    <s v="Ottawa Senators"/>
+    <n v="0.59319999999999995"/>
+    <s v="Montreal Canadiens"/>
+    <n v="0.40679999999999999"/>
+    <s v="Playing At:  Ottawa Senators   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2024-01-18T00:00:00"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="0.59109999999999996"/>
+    <s v="Minnesota Wild"/>
+    <n v="0.40889999999999999"/>
+    <s v="Playing At:  Tampa Bay Lightning   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2024-01-18T00:00:00"/>
+    <s v="Vegas Golden Knights"/>
+    <n v="0.58689999999999998"/>
+    <s v="New York Rangers"/>
+    <n v="0.41310000000000002"/>
+    <s v="Playing At:  Vegas Golden Knights   Home"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2024-01-18T00:00:00"/>
+    <s v="Vancouver Canucks"/>
+    <n v="0.57740000000000002"/>
+    <s v="Arizona Coyotes"/>
+    <n v="0.42259999999999998"/>
+    <s v="Playing At:  Vancouver Canucks   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2024-01-18T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <n v="0.56930000000000003"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="0.43070000000000003"/>
+    <s v="Playing At:  Philadelphia Flyers   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2024-01-18T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <n v="0.56610000000000005"/>
+    <s v="Colorado Avalanche"/>
+    <n v="0.43390000000000001"/>
+    <s v="Playing At:  Boston Bruins   Home"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2024-01-18T00:00:00"/>
+    <s v="St. Louis Blues"/>
+    <n v="0.54710000000000003"/>
+    <s v="Washington Capitals"/>
+    <n v="0.45290000000000002"/>
+    <s v="Playing At:  Washington Capitals   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2024-01-18T00:00:00"/>
+    <s v="Los Angeles Kings"/>
+    <n v="0.53690000000000004"/>
+    <s v="Nashville Predators"/>
+    <n v="0.46310000000000001"/>
+    <s v="Playing At:  Los Angeles Kings   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2024-01-18T00:00:00"/>
+    <s v="Calgary Flames"/>
+    <n v="0.50739999999999996"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="0.49259999999999998"/>
+    <s v="Playing At:  Calgary Flames   Home"/>
+    <n v="0"/>
     <x v="1"/>
   </r>
   <r>
@@ -3311,19 +3421,19 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>79</v>
       </c>
@@ -3331,7 +3441,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -3348,7 +3458,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>86</v>
       </c>
@@ -3367,7 +3477,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>87</v>
       </c>
@@ -3386,77 +3496,77 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C6" s="8">
         <v>43</v>
       </c>
       <c r="D6" s="6">
         <f>C6/B6</f>
-        <v>0.65151515151515149</v>
+        <v>0.64179104477611937</v>
       </c>
       <c r="F6" s="6">
         <f>F5/F4</f>
         <v>0.57894736842105265</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="8">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C7" s="8">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>0.60215053763440862</v>
+        <v>0.59803921568627449</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="8">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C8" s="8">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>0.6179775280898876</v>
+        <v>0.61170212765957444</v>
       </c>
       <c r="F8">
         <f>SUM(B6:B7)</f>
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F9">
         <f>SUM(C6:C7)</f>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" s="5"/>
       <c r="F10" s="6">
         <f>F9/F8</f>
-        <v>0.62264150943396224</v>
+        <v>0.61538461538461542</v>
       </c>
     </row>
   </sheetData>
@@ -3466,26 +3576,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J220"/>
+  <dimension ref="A1:J230"/>
   <sheetViews>
-    <sheetView topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="H221" sqref="H221"/>
+    <sheetView topLeftCell="A206" workbookViewId="0">
+      <selection activeCell="A218" sqref="A218:A230"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -3514,7 +3624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -3544,7 +3654,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -3574,7 +3684,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -3604,7 +3714,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -3634,7 +3744,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -3664,7 +3774,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -3694,7 +3804,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -3724,7 +3834,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -3754,7 +3864,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>80</v>
       </c>
@@ -3784,7 +3894,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -3814,7 +3924,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -3844,7 +3954,7 @@
         <v>80-85</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>81</v>
       </c>
@@ -3874,7 +3984,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>81</v>
       </c>
@@ -3904,7 +4014,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -3934,7 +4044,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -3964,7 +4074,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>81</v>
       </c>
@@ -3994,7 +4104,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>81</v>
       </c>
@@ -4024,7 +4134,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -4054,7 +4164,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -4084,7 +4194,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -4114,7 +4224,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -4144,7 +4254,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -4174,7 +4284,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -4204,7 +4314,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -4234,7 +4344,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -4264,7 +4374,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -4294,7 +4404,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>81</v>
       </c>
@@ -4324,7 +4434,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -4354,7 +4464,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -4384,7 +4494,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -4414,7 +4524,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>81</v>
       </c>
@@ -4444,7 +4554,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -4474,7 +4584,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>81</v>
       </c>
@@ -4504,7 +4614,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -4534,7 +4644,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>81</v>
       </c>
@@ -4564,7 +4674,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -4594,7 +4704,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -4624,7 +4734,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -4654,7 +4764,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>81</v>
       </c>
@@ -4684,7 +4794,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -4714,7 +4824,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -4746,7 +4856,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -4776,7 +4886,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>82</v>
       </c>
@@ -4806,7 +4916,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>82</v>
       </c>
@@ -4836,7 +4946,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>82</v>
       </c>
@@ -4866,7 +4976,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>82</v>
       </c>
@@ -4896,7 +5006,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>82</v>
       </c>
@@ -4926,7 +5036,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>82</v>
       </c>
@@ -4956,7 +5066,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>82</v>
       </c>
@@ -4986,7 +5096,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>82</v>
       </c>
@@ -5016,7 +5126,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>82</v>
       </c>
@@ -5046,7 +5156,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>82</v>
       </c>
@@ -5076,7 +5186,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>82</v>
       </c>
@@ -5106,7 +5216,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>82</v>
       </c>
@@ -5136,7 +5246,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>82</v>
       </c>
@@ -5166,7 +5276,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>82</v>
       </c>
@@ -5196,7 +5306,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>82</v>
       </c>
@@ -5226,7 +5336,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>82</v>
       </c>
@@ -5256,7 +5366,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>82</v>
       </c>
@@ -5286,7 +5396,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>82</v>
       </c>
@@ -5316,7 +5426,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>82</v>
       </c>
@@ -5346,7 +5456,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>82</v>
       </c>
@@ -5376,7 +5486,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>82</v>
       </c>
@@ -5406,7 +5516,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -5436,7 +5546,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>82</v>
       </c>
@@ -5466,7 +5576,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>82</v>
       </c>
@@ -5496,7 +5606,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>82</v>
       </c>
@@ -5526,7 +5636,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -5556,7 +5666,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>82</v>
       </c>
@@ -5586,7 +5696,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -5616,7 +5726,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>82</v>
       </c>
@@ -5646,7 +5756,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>82</v>
       </c>
@@ -5676,7 +5786,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>82</v>
       </c>
@@ -5706,7 +5816,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>82</v>
       </c>
@@ -5736,7 +5846,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -5766,7 +5876,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>82</v>
       </c>
@@ -5796,7 +5906,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -5826,7 +5936,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -5856,7 +5966,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -5886,7 +5996,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -5916,7 +6026,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -5946,7 +6056,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -5976,7 +6086,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -6006,7 +6116,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -6036,7 +6146,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>82</v>
       </c>
@@ -6066,7 +6176,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>82</v>
       </c>
@@ -6096,7 +6206,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>82</v>
       </c>
@@ -6126,7 +6236,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>82</v>
       </c>
@@ -6156,7 +6266,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>82</v>
       </c>
@@ -6186,7 +6296,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>82</v>
       </c>
@@ -6216,7 +6326,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>82</v>
       </c>
@@ -6246,7 +6356,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>85</v>
       </c>
@@ -6276,7 +6386,7 @@
         <v>80-85</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>85</v>
       </c>
@@ -6306,7 +6416,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>85</v>
       </c>
@@ -6336,7 +6446,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>85</v>
       </c>
@@ -6366,7 +6476,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>85</v>
       </c>
@@ -6396,7 +6506,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>85</v>
       </c>
@@ -6426,7 +6536,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>85</v>
       </c>
@@ -6456,7 +6566,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>85</v>
       </c>
@@ -6486,7 +6596,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>85</v>
       </c>
@@ -6516,7 +6626,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>85</v>
       </c>
@@ -6546,7 +6656,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>85</v>
       </c>
@@ -6576,7 +6686,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>85</v>
       </c>
@@ -6606,7 +6716,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>85</v>
       </c>
@@ -6636,7 +6746,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>85</v>
       </c>
@@ -6666,7 +6776,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>85</v>
       </c>
@@ -6696,7 +6806,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>85</v>
       </c>
@@ -6726,7 +6836,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>85</v>
       </c>
@@ -6756,7 +6866,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>85</v>
       </c>
@@ -6786,7 +6896,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>85</v>
       </c>
@@ -6816,7 +6926,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>85</v>
       </c>
@@ -6846,7 +6956,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>85</v>
       </c>
@@ -6876,7 +6986,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>85</v>
       </c>
@@ -6906,7 +7016,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>85</v>
       </c>
@@ -6936,7 +7046,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>85</v>
       </c>
@@ -6966,7 +7076,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>85</v>
       </c>
@@ -6996,7 +7106,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>85</v>
       </c>
@@ -7026,7 +7136,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>85</v>
       </c>
@@ -7056,7 +7166,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>85</v>
       </c>
@@ -7086,7 +7196,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>85</v>
       </c>
@@ -7116,7 +7226,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>85</v>
       </c>
@@ -7146,7 +7256,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>85</v>
       </c>
@@ -7176,7 +7286,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>85</v>
       </c>
@@ -7206,7 +7316,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>85</v>
       </c>
@@ -7236,7 +7346,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>85</v>
       </c>
@@ -7266,7 +7376,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>85</v>
       </c>
@@ -7296,7 +7406,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>85</v>
       </c>
@@ -7326,7 +7436,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>85</v>
       </c>
@@ -7356,7 +7466,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>85</v>
       </c>
@@ -7386,7 +7496,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>85</v>
       </c>
@@ -7416,7 +7526,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>85</v>
       </c>
@@ -7446,7 +7556,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>85</v>
       </c>
@@ -7476,7 +7586,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>85</v>
       </c>
@@ -7506,7 +7616,7 @@
         <v>80-85</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>85</v>
       </c>
@@ -7536,7 +7646,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>85</v>
       </c>
@@ -7566,7 +7676,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>85</v>
       </c>
@@ -7596,7 +7706,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>85</v>
       </c>
@@ -7626,7 +7736,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>85</v>
       </c>
@@ -7656,7 +7766,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>85</v>
       </c>
@@ -7686,7 +7796,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>85</v>
       </c>
@@ -7716,7 +7826,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>85</v>
       </c>
@@ -7746,7 +7856,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>85</v>
       </c>
@@ -7776,7 +7886,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>85</v>
       </c>
@@ -7806,7 +7916,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>85</v>
       </c>
@@ -7836,7 +7946,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>90</v>
       </c>
@@ -7866,7 +7976,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>90</v>
       </c>
@@ -7896,7 +8006,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>90</v>
       </c>
@@ -7926,7 +8036,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>90</v>
       </c>
@@ -7956,7 +8066,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>90</v>
       </c>
@@ -7986,7 +8096,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>90</v>
       </c>
@@ -8016,7 +8126,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>90</v>
       </c>
@@ -8046,7 +8156,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>90</v>
       </c>
@@ -8076,7 +8186,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>90</v>
       </c>
@@ -8106,7 +8216,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>90</v>
       </c>
@@ -8136,7 +8246,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>90</v>
       </c>
@@ -8166,7 +8276,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>90</v>
       </c>
@@ -8196,7 +8306,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>90</v>
       </c>
@@ -8226,7 +8336,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>90</v>
       </c>
@@ -8256,7 +8366,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>90</v>
       </c>
@@ -8286,7 +8396,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>90</v>
       </c>
@@ -8316,7 +8426,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>90</v>
       </c>
@@ -8346,7 +8456,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>90</v>
       </c>
@@ -8376,7 +8486,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>90</v>
       </c>
@@ -8406,7 +8516,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>90</v>
       </c>
@@ -8436,7 +8546,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>90</v>
       </c>
@@ -8466,7 +8576,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>90</v>
       </c>
@@ -8496,7 +8606,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>90</v>
       </c>
@@ -8526,7 +8636,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>90</v>
       </c>
@@ -8556,7 +8666,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>90</v>
       </c>
@@ -8586,7 +8696,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>90</v>
       </c>
@@ -8616,7 +8726,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>90</v>
       </c>
@@ -8646,7 +8756,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>90</v>
       </c>
@@ -8676,7 +8786,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>90</v>
       </c>
@@ -8706,7 +8816,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>90</v>
       </c>
@@ -8736,7 +8846,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>90</v>
       </c>
@@ -8766,7 +8876,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>90</v>
       </c>
@@ -8796,7 +8906,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>90</v>
       </c>
@@ -8826,7 +8936,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>90</v>
       </c>
@@ -8856,7 +8966,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>90</v>
       </c>
@@ -8886,7 +8996,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>90</v>
       </c>
@@ -8916,7 +9026,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>90</v>
       </c>
@@ -8946,7 +9056,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>90</v>
       </c>
@@ -8976,7 +9086,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>90</v>
       </c>
@@ -9006,7 +9116,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>90</v>
       </c>
@@ -9036,7 +9146,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>90</v>
       </c>
@@ -9066,7 +9176,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>90</v>
       </c>
@@ -9096,7 +9206,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>90</v>
       </c>
@@ -9126,7 +9236,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>90</v>
       </c>
@@ -9156,7 +9266,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>90</v>
       </c>
@@ -9186,7 +9296,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>90</v>
       </c>
@@ -9216,7 +9326,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>90</v>
       </c>
@@ -9246,7 +9356,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>90</v>
       </c>
@@ -9276,7 +9386,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>90</v>
       </c>
@@ -9306,7 +9416,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>90</v>
       </c>
@@ -9336,7 +9446,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>90</v>
       </c>
@@ -9366,7 +9476,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>90</v>
       </c>
@@ -9396,7 +9506,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>91</v>
       </c>
@@ -9426,7 +9536,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>91</v>
       </c>
@@ -9456,7 +9566,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>91</v>
       </c>
@@ -9486,7 +9596,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>91</v>
       </c>
@@ -9516,7 +9626,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>91</v>
       </c>
@@ -9546,7 +9656,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>91</v>
       </c>
@@ -9576,7 +9686,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>91</v>
       </c>
@@ -9606,7 +9716,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>91</v>
       </c>
@@ -9636,7 +9746,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>91</v>
       </c>
@@ -9666,7 +9776,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>91</v>
       </c>
@@ -9696,7 +9806,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>91</v>
       </c>
@@ -9726,7 +9836,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>91</v>
       </c>
@@ -9756,7 +9866,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>91</v>
       </c>
@@ -9786,7 +9896,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>91</v>
       </c>
@@ -9816,7 +9926,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>91</v>
       </c>
@@ -9846,7 +9956,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>91</v>
       </c>
@@ -9876,7 +9986,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>91</v>
       </c>
@@ -9906,7 +10016,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>91</v>
       </c>
@@ -9936,7 +10046,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>91</v>
       </c>
@@ -9966,7 +10076,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>91</v>
       </c>
@@ -9996,7 +10106,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>91</v>
       </c>
@@ -10004,29 +10114,29 @@
         <v>45308</v>
       </c>
       <c r="C218" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D218" s="2">
-        <v>0.64570000000000005</v>
+        <v>0.64290000000000003</v>
       </c>
       <c r="E218" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F218" s="2">
-        <v>0.3543</v>
+        <v>0.35709999999999997</v>
       </c>
       <c r="G218" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="str" cm="1">
         <f t="array" ref="I218">_xlfn.IFS(D218 &gt;= 0.85, "85  &lt;", AND(D218 &gt;=0.8, D218 &lt; 0.85), "80-85", AND(D218 &gt;= 0.7, D218 &lt; 0.8), "70-80", AND(D218 &gt;= 0.6, D218 &lt; 0.7),  "60-70", AND(D218 &gt;= 0.5, D218 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>91</v>
       </c>
@@ -10034,55 +10144,355 @@
         <v>45308</v>
       </c>
       <c r="C219" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D219" s="2">
-        <v>0.64290000000000003</v>
+        <v>0.57310000000000005</v>
       </c>
       <c r="E219" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F219" s="2">
-        <v>0.35709999999999997</v>
+        <v>0.4269</v>
       </c>
       <c r="G219" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="str" cm="1">
         <f t="array" ref="I219">_xlfn.IFS(D219 &gt;= 0.85, "85  &lt;", AND(D219 &gt;=0.8, D219 &lt; 0.85), "80-85", AND(D219 &gt;= 0.7, D219 &lt; 0.8), "70-80", AND(D219 &gt;= 0.6, D219 &lt; 0.7),  "60-70", AND(D219 &gt;= 0.5, D219 &lt; 0.6), "50-60")</f>
-        <v>60-70</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>91</v>
       </c>
       <c r="B220" s="1">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="C220" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D220" s="2">
-        <v>0.57310000000000005</v>
+        <v>0.69510000000000005</v>
       </c>
       <c r="E220" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F220" s="2">
-        <v>0.4269</v>
+        <v>0.3049</v>
       </c>
       <c r="G220" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="H220">
         <v>1</v>
       </c>
       <c r="I220" t="str" cm="1">
         <f t="array" ref="I220">_xlfn.IFS(D220 &gt;= 0.85, "85  &lt;", AND(D220 &gt;=0.8, D220 &lt; 0.85), "80-85", AND(D220 &gt;= 0.7, D220 &lt; 0.8), "70-80", AND(D220 &gt;= 0.6, D220 &lt; 0.7),  "60-70", AND(D220 &gt;= 0.5, D220 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>91</v>
+      </c>
+      <c r="B221" s="1">
+        <v>45309</v>
+      </c>
+      <c r="C221" t="s">
+        <v>53</v>
+      </c>
+      <c r="D221" s="2">
+        <v>0.64570000000000005</v>
+      </c>
+      <c r="E221" t="s">
+        <v>26</v>
+      </c>
+      <c r="F221" s="2">
+        <v>0.3543</v>
+      </c>
+      <c r="G221" t="s">
+        <v>55</v>
+      </c>
+      <c r="H221">
+        <v>1</v>
+      </c>
+      <c r="I221" t="str" cm="1">
+        <f t="array" ref="I221">_xlfn.IFS(D221 &gt;= 0.85, "85  &lt;", AND(D221 &gt;=0.8, D221 &lt; 0.85), "80-85", AND(D221 &gt;= 0.7, D221 &lt; 0.8), "70-80", AND(D221 &gt;= 0.6, D221 &lt; 0.7),  "60-70", AND(D221 &gt;= 0.5, D221 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>91</v>
+      </c>
+      <c r="B222" s="1">
+        <v>45309</v>
+      </c>
+      <c r="C222" t="s">
+        <v>29</v>
+      </c>
+      <c r="D222" s="2">
+        <v>0.59319999999999995</v>
+      </c>
+      <c r="E222" t="s">
+        <v>32</v>
+      </c>
+      <c r="F222" s="2">
+        <v>0.40679999999999999</v>
+      </c>
+      <c r="G222" t="s">
+        <v>78</v>
+      </c>
+      <c r="H222">
+        <v>1</v>
+      </c>
+      <c r="I222" t="str" cm="1">
+        <f t="array" ref="I222">_xlfn.IFS(D222 &gt;= 0.85, "85  &lt;", AND(D222 &gt;=0.8, D222 &lt; 0.85), "80-85", AND(D222 &gt;= 0.7, D222 &lt; 0.8), "70-80", AND(D222 &gt;= 0.6, D222 &lt; 0.7),  "60-70", AND(D222 &gt;= 0.5, D222 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>91</v>
+      </c>
+      <c r="B223" s="1">
+        <v>45309</v>
+      </c>
+      <c r="C223" t="s">
+        <v>46</v>
+      </c>
+      <c r="D223" s="2">
+        <v>0.59109999999999996</v>
+      </c>
+      <c r="E223" t="s">
+        <v>43</v>
+      </c>
+      <c r="F223" s="2">
+        <v>0.40889999999999999</v>
+      </c>
+      <c r="G223" t="s">
+        <v>48</v>
+      </c>
+      <c r="H223">
+        <v>1</v>
+      </c>
+      <c r="I223" t="str" cm="1">
+        <f t="array" ref="I223">_xlfn.IFS(D223 &gt;= 0.85, "85  &lt;", AND(D223 &gt;=0.8, D223 &lt; 0.85), "80-85", AND(D223 &gt;= 0.7, D223 &lt; 0.8), "70-80", AND(D223 &gt;= 0.6, D223 &lt; 0.7),  "60-70", AND(D223 &gt;= 0.5, D223 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>91</v>
+      </c>
+      <c r="B224" s="1">
+        <v>45309</v>
+      </c>
+      <c r="C224" t="s">
+        <v>28</v>
+      </c>
+      <c r="D224" s="2">
+        <v>0.58689999999999998</v>
+      </c>
+      <c r="E224" t="s">
+        <v>65</v>
+      </c>
+      <c r="F224" s="2">
+        <v>0.41310000000000002</v>
+      </c>
+      <c r="G224" t="s">
+        <v>30</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224" t="str" cm="1">
+        <f t="array" ref="I224">_xlfn.IFS(D224 &gt;= 0.85, "85  &lt;", AND(D224 &gt;=0.8, D224 &lt; 0.85), "80-85", AND(D224 &gt;= 0.7, D224 &lt; 0.8), "70-80", AND(D224 &gt;= 0.6, D224 &lt; 0.7),  "60-70", AND(D224 &gt;= 0.5, D224 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>91</v>
+      </c>
+      <c r="B225" s="1">
+        <v>45309</v>
+      </c>
+      <c r="C225" t="s">
+        <v>25</v>
+      </c>
+      <c r="D225" s="2">
+        <v>0.57740000000000002</v>
+      </c>
+      <c r="E225" t="s">
+        <v>60</v>
+      </c>
+      <c r="F225" s="2">
+        <v>0.42259999999999998</v>
+      </c>
+      <c r="G225" t="s">
+        <v>76</v>
+      </c>
+      <c r="H225">
+        <v>1</v>
+      </c>
+      <c r="I225" t="str" cm="1">
+        <f t="array" ref="I225">_xlfn.IFS(D225 &gt;= 0.85, "85  &lt;", AND(D225 &gt;=0.8, D225 &lt; 0.85), "80-85", AND(D225 &gt;= 0.7, D225 &lt; 0.8), "70-80", AND(D225 &gt;= 0.6, D225 &lt; 0.7),  "60-70", AND(D225 &gt;= 0.5, D225 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>91</v>
+      </c>
+      <c r="B226" s="1">
+        <v>45309</v>
+      </c>
+      <c r="C226" t="s">
+        <v>34</v>
+      </c>
+      <c r="D226" s="2">
+        <v>0.56930000000000003</v>
+      </c>
+      <c r="E226" t="s">
+        <v>56</v>
+      </c>
+      <c r="F226" s="2">
+        <v>0.43070000000000003</v>
+      </c>
+      <c r="G226" t="s">
+        <v>73</v>
+      </c>
+      <c r="H226">
+        <v>1</v>
+      </c>
+      <c r="I226" t="str" cm="1">
+        <f t="array" ref="I226">_xlfn.IFS(D226 &gt;= 0.85, "85  &lt;", AND(D226 &gt;=0.8, D226 &lt; 0.85), "80-85", AND(D226 &gt;= 0.7, D226 &lt; 0.8), "70-80", AND(D226 &gt;= 0.6, D226 &lt; 0.7),  "60-70", AND(D226 &gt;= 0.5, D226 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>91</v>
+      </c>
+      <c r="B227" s="1">
+        <v>45309</v>
+      </c>
+      <c r="C227" t="s">
+        <v>49</v>
+      </c>
+      <c r="D227" s="2">
+        <v>0.56610000000000005</v>
+      </c>
+      <c r="E227" t="s">
+        <v>16</v>
+      </c>
+      <c r="F227" s="2">
+        <v>0.43390000000000001</v>
+      </c>
+      <c r="G227" t="s">
+        <v>50</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227" t="str" cm="1">
+        <f t="array" ref="I227">_xlfn.IFS(D227 &gt;= 0.85, "85  &lt;", AND(D227 &gt;=0.8, D227 &lt; 0.85), "80-85", AND(D227 &gt;= 0.7, D227 &lt; 0.8), "70-80", AND(D227 &gt;= 0.6, D227 &lt; 0.7),  "60-70", AND(D227 &gt;= 0.5, D227 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>91</v>
+      </c>
+      <c r="B228" s="1">
+        <v>45309</v>
+      </c>
+      <c r="C228" t="s">
+        <v>47</v>
+      </c>
+      <c r="D228" s="2">
+        <v>0.54710000000000003</v>
+      </c>
+      <c r="E228" t="s">
+        <v>20</v>
+      </c>
+      <c r="F228" s="2">
+        <v>0.45290000000000002</v>
+      </c>
+      <c r="G228" t="s">
+        <v>68</v>
+      </c>
+      <c r="H228">
+        <v>1</v>
+      </c>
+      <c r="I228" t="str" cm="1">
+        <f t="array" ref="I228">_xlfn.IFS(D228 &gt;= 0.85, "85  &lt;", AND(D228 &gt;=0.8, D228 &lt; 0.85), "80-85", AND(D228 &gt;= 0.7, D228 &lt; 0.8), "70-80", AND(D228 &gt;= 0.6, D228 &lt; 0.7),  "60-70", AND(D228 &gt;= 0.5, D228 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>91</v>
+      </c>
+      <c r="B229" s="1">
+        <v>45309</v>
+      </c>
+      <c r="C229" t="s">
+        <v>51</v>
+      </c>
+      <c r="D229" s="2">
+        <v>0.53690000000000004</v>
+      </c>
+      <c r="E229" t="s">
+        <v>62</v>
+      </c>
+      <c r="F229" s="2">
+        <v>0.46310000000000001</v>
+      </c>
+      <c r="G229" t="s">
+        <v>67</v>
+      </c>
+      <c r="H229">
+        <v>1</v>
+      </c>
+      <c r="I229" t="str" cm="1">
+        <f t="array" ref="I229">_xlfn.IFS(D229 &gt;= 0.85, "85  &lt;", AND(D229 &gt;=0.8, D229 &lt; 0.85), "80-85", AND(D229 &gt;= 0.7, D229 &lt; 0.8), "70-80", AND(D229 &gt;= 0.6, D229 &lt; 0.7),  "60-70", AND(D229 &gt;= 0.5, D229 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>91</v>
+      </c>
+      <c r="B230" s="1">
+        <v>45309</v>
+      </c>
+      <c r="C230" t="s">
+        <v>40</v>
+      </c>
+      <c r="D230" s="2">
+        <v>0.50739999999999996</v>
+      </c>
+      <c r="E230" t="s">
+        <v>64</v>
+      </c>
+      <c r="F230" s="2">
+        <v>0.49259999999999998</v>
+      </c>
+      <c r="G230" t="s">
+        <v>41</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230" t="str" cm="1">
+        <f t="array" ref="I230">_xlfn.IFS(D230 &gt;= 0.85, "85  &lt;", AND(D230 &gt;=0.8, D230 &lt; 0.85), "80-85", AND(D230 &gt;= 0.7, D230 &lt; 0.8), "70-80", AND(D230 &gt;= 0.6, D230 &lt; 0.7),  "60-70", AND(D230 &gt;= 0.5, D230 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>

--- a/GBM Lifetime Predictions.xlsx
+++ b/GBM Lifetime Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4588841D-DD84-4489-A462-AAD505824496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1C5AC9-D41F-47FE-8545-C62505260849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId3"/>
+    <pivotCache cacheId="10" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="92">
   <si>
     <t>Date</t>
   </si>
@@ -900,7 +900,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45309.462472106483" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="189" xr:uid="{827BC2B5-8CB2-43F7-9795-87FC66DF261C}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45310.37549027778" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="193" xr:uid="{827BC2B5-8CB2-43F7-9795-87FC66DF261C}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A42:I999" sheet="Predictions"/>
   </cacheSource>
@@ -915,7 +915,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-23T00:00:00" maxDate="2024-01-19T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-23T00:00:00" maxDate="2024-01-20T00:00:00"/>
     </cacheField>
     <cacheField name="Winner" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -955,7 +955,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="189">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="193">
   <r>
     <x v="0"/>
     <d v="2023-12-23T00:00:00"/>
@@ -2955,7 +2955,7 @@
     <s v="New York Rangers"/>
     <n v="0.41310000000000002"/>
     <s v="Playing At:  Vegas Golden Knights   Home"/>
-    <n v="0"/>
+    <n v="1"/>
     <x v="1"/>
   </r>
   <r>
@@ -2977,7 +2977,7 @@
     <s v="Philadelphia Flyers"/>
     <n v="0.43070000000000003"/>
     <s v="Playing At:  Philadelphia Flyers   Home"/>
-    <n v="1"/>
+    <n v="0"/>
     <x v="1"/>
   </r>
   <r>
@@ -2988,7 +2988,7 @@
     <s v="Colorado Avalanche"/>
     <n v="0.43390000000000001"/>
     <s v="Playing At:  Boston Bruins   Home"/>
-    <n v="0"/>
+    <n v="1"/>
     <x v="1"/>
   </r>
   <r>
@@ -2999,7 +2999,7 @@
     <s v="Washington Capitals"/>
     <n v="0.45290000000000002"/>
     <s v="Playing At:  Washington Capitals   Home"/>
-    <n v="1"/>
+    <n v="0"/>
     <x v="1"/>
   </r>
   <r>
@@ -3010,7 +3010,7 @@
     <s v="Nashville Predators"/>
     <n v="0.46310000000000001"/>
     <s v="Playing At:  Los Angeles Kings   Home"/>
-    <n v="1"/>
+    <n v="0"/>
     <x v="1"/>
   </r>
   <r>
@@ -3023,6 +3023,50 @@
     <s v="Playing At:  Calgary Flames   Home"/>
     <n v="0"/>
     <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2024-01-19T00:00:00"/>
+    <s v="New York Islanders"/>
+    <n v="0.6583"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="0.3417"/>
+    <s v="Playing At:  Chicago Blackhawks   Home"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2024-01-19T00:00:00"/>
+    <s v="Florida Panthers"/>
+    <n v="0.64880000000000004"/>
+    <s v="Minnesota Wild"/>
+    <n v="0.35120000000000001"/>
+    <s v="Playing At:  Florida Panthers   Home"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2024-01-19T00:00:00"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="0.64600000000000002"/>
+    <s v="Detroit Red Wings"/>
+    <n v="0.35399999999999998"/>
+    <s v="Playing At:  Carolina Hurricanes   Home"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2024-01-19T00:00:00"/>
+    <s v="New Jersey Devils"/>
+    <n v="0.60119999999999996"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="0.39879999999999999"/>
+    <s v="Playing At:  Columbus Blue Jackets   Home"/>
+    <n v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="4"/>
@@ -3039,7 +3083,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A609C84-6A20-4E13-867B-B610F7CD9750}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A609C84-6A20-4E13-867B-B610F7CD9750}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisPage" showAll="0">
@@ -3421,19 +3465,19 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>79</v>
       </c>
@@ -3441,7 +3485,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -3458,7 +3502,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>86</v>
       </c>
@@ -3477,7 +3521,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>87</v>
       </c>
@@ -3496,26 +3540,26 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="8">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C6" s="8">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D6" s="6">
         <f>C6/B6</f>
-        <v>0.64179104477611937</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="F6" s="6">
         <f>F5/F4</f>
         <v>0.57894736842105265</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>45</v>
       </c>
@@ -3523,50 +3567,50 @@
         <v>102</v>
       </c>
       <c r="C7" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>0.59803921568627449</v>
+        <v>0.58823529411764708</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="8">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C8" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>0.61170212765957444</v>
+        <v>0.61458333333333337</v>
       </c>
       <c r="F8">
         <f>SUM(B6:B7)</f>
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D9" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F9">
         <f>SUM(C6:C7)</f>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D10" s="5"/>
       <c r="F10" s="6">
         <f>F9/F8</f>
-        <v>0.61538461538461542</v>
+        <v>0.61849710982658956</v>
       </c>
     </row>
   </sheetData>
@@ -3576,26 +3620,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J230"/>
+  <dimension ref="A1:J234"/>
   <sheetViews>
-    <sheetView topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="A218" sqref="A218:A230"/>
+    <sheetView topLeftCell="A218" workbookViewId="0">
+      <selection activeCell="H235" sqref="H235"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -3624,7 +3668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -3654,7 +3698,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -3684,7 +3728,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -3714,7 +3758,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -3744,7 +3788,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -3774,7 +3818,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -3804,7 +3848,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -3834,7 +3878,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -3864,7 +3908,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>80</v>
       </c>
@@ -3894,7 +3938,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -3924,7 +3968,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -3954,7 +3998,7 @@
         <v>80-85</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>81</v>
       </c>
@@ -3984,7 +4028,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>81</v>
       </c>
@@ -4014,7 +4058,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -4044,7 +4088,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -4074,7 +4118,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>81</v>
       </c>
@@ -4104,7 +4148,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>81</v>
       </c>
@@ -4134,7 +4178,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -4164,7 +4208,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -4194,7 +4238,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -4224,7 +4268,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -4254,7 +4298,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -4284,7 +4328,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -4314,7 +4358,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -4344,7 +4388,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -4374,7 +4418,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -4404,7 +4448,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>81</v>
       </c>
@@ -4434,7 +4478,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -4464,7 +4508,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -4494,7 +4538,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -4524,7 +4568,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>81</v>
       </c>
@@ -4554,7 +4598,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -4584,7 +4628,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>81</v>
       </c>
@@ -4614,7 +4658,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -4644,7 +4688,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>81</v>
       </c>
@@ -4674,7 +4718,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -4704,7 +4748,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -4734,7 +4778,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -4764,7 +4808,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>81</v>
       </c>
@@ -4794,7 +4838,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -4824,7 +4868,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -4856,7 +4900,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -4886,7 +4930,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>82</v>
       </c>
@@ -4916,7 +4960,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>82</v>
       </c>
@@ -4946,7 +4990,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>82</v>
       </c>
@@ -4976,7 +5020,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>82</v>
       </c>
@@ -5006,7 +5050,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>82</v>
       </c>
@@ -5036,7 +5080,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>82</v>
       </c>
@@ -5066,7 +5110,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>82</v>
       </c>
@@ -5096,7 +5140,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>82</v>
       </c>
@@ -5126,7 +5170,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>82</v>
       </c>
@@ -5156,7 +5200,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>82</v>
       </c>
@@ -5186,7 +5230,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>82</v>
       </c>
@@ -5216,7 +5260,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>82</v>
       </c>
@@ -5246,7 +5290,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>82</v>
       </c>
@@ -5276,7 +5320,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>82</v>
       </c>
@@ -5306,7 +5350,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>82</v>
       </c>
@@ -5336,7 +5380,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>82</v>
       </c>
@@ -5366,7 +5410,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>82</v>
       </c>
@@ -5396,7 +5440,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>82</v>
       </c>
@@ -5426,7 +5470,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>82</v>
       </c>
@@ -5456,7 +5500,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>82</v>
       </c>
@@ -5486,7 +5530,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>82</v>
       </c>
@@ -5516,7 +5560,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -5546,7 +5590,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>82</v>
       </c>
@@ -5576,7 +5620,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>82</v>
       </c>
@@ -5606,7 +5650,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>82</v>
       </c>
@@ -5636,7 +5680,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -5666,7 +5710,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>82</v>
       </c>
@@ -5696,7 +5740,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -5726,7 +5770,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>82</v>
       </c>
@@ -5756,7 +5800,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>82</v>
       </c>
@@ -5786,7 +5830,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>82</v>
       </c>
@@ -5816,7 +5860,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>82</v>
       </c>
@@ -5846,7 +5890,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -5876,7 +5920,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>82</v>
       </c>
@@ -5906,7 +5950,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -5936,7 +5980,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -5966,7 +6010,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -5996,7 +6040,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -6026,7 +6070,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -6056,7 +6100,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -6086,7 +6130,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -6116,7 +6160,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -6146,7 +6190,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>82</v>
       </c>
@@ -6176,7 +6220,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>82</v>
       </c>
@@ -6206,7 +6250,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>82</v>
       </c>
@@ -6236,7 +6280,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>82</v>
       </c>
@@ -6266,7 +6310,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>82</v>
       </c>
@@ -6296,7 +6340,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>82</v>
       </c>
@@ -6326,7 +6370,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>82</v>
       </c>
@@ -6356,7 +6400,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>85</v>
       </c>
@@ -6386,7 +6430,7 @@
         <v>80-85</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>85</v>
       </c>
@@ -6416,7 +6460,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>85</v>
       </c>
@@ -6446,7 +6490,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>85</v>
       </c>
@@ -6476,7 +6520,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>85</v>
       </c>
@@ -6506,7 +6550,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>85</v>
       </c>
@@ -6536,7 +6580,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>85</v>
       </c>
@@ -6566,7 +6610,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>85</v>
       </c>
@@ -6596,7 +6640,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>85</v>
       </c>
@@ -6626,7 +6670,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>85</v>
       </c>
@@ -6656,7 +6700,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>85</v>
       </c>
@@ -6686,7 +6730,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>85</v>
       </c>
@@ -6716,7 +6760,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>85</v>
       </c>
@@ -6746,7 +6790,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>85</v>
       </c>
@@ -6776,7 +6820,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>85</v>
       </c>
@@ -6806,7 +6850,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>85</v>
       </c>
@@ -6836,7 +6880,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>85</v>
       </c>
@@ -6866,7 +6910,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>85</v>
       </c>
@@ -6896,7 +6940,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>85</v>
       </c>
@@ -6926,7 +6970,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>85</v>
       </c>
@@ -6956,7 +7000,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>85</v>
       </c>
@@ -6986,7 +7030,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>85</v>
       </c>
@@ -7016,7 +7060,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>85</v>
       </c>
@@ -7046,7 +7090,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>85</v>
       </c>
@@ -7076,7 +7120,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>85</v>
       </c>
@@ -7106,7 +7150,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>85</v>
       </c>
@@ -7136,7 +7180,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>85</v>
       </c>
@@ -7166,7 +7210,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>85</v>
       </c>
@@ -7196,7 +7240,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>85</v>
       </c>
@@ -7226,7 +7270,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>85</v>
       </c>
@@ -7256,7 +7300,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>85</v>
       </c>
@@ -7286,7 +7330,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>85</v>
       </c>
@@ -7316,7 +7360,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>85</v>
       </c>
@@ -7346,7 +7390,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>85</v>
       </c>
@@ -7376,7 +7420,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>85</v>
       </c>
@@ -7406,7 +7450,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>85</v>
       </c>
@@ -7436,7 +7480,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>85</v>
       </c>
@@ -7466,7 +7510,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>85</v>
       </c>
@@ -7496,7 +7540,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>85</v>
       </c>
@@ -7526,7 +7570,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>85</v>
       </c>
@@ -7556,7 +7600,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>85</v>
       </c>
@@ -7586,7 +7630,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>85</v>
       </c>
@@ -7616,7 +7660,7 @@
         <v>80-85</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>85</v>
       </c>
@@ -7646,7 +7690,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>85</v>
       </c>
@@ -7676,7 +7720,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>85</v>
       </c>
@@ -7706,7 +7750,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>85</v>
       </c>
@@ -7736,7 +7780,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>85</v>
       </c>
@@ -7766,7 +7810,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>85</v>
       </c>
@@ -7796,7 +7840,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>85</v>
       </c>
@@ -7826,7 +7870,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>85</v>
       </c>
@@ -7856,7 +7900,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>85</v>
       </c>
@@ -7886,7 +7930,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>85</v>
       </c>
@@ -7916,7 +7960,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>85</v>
       </c>
@@ -7946,7 +7990,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>90</v>
       </c>
@@ -7976,7 +8020,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>90</v>
       </c>
@@ -8006,7 +8050,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>90</v>
       </c>
@@ -8036,7 +8080,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>90</v>
       </c>
@@ -8066,7 +8110,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>90</v>
       </c>
@@ -8096,7 +8140,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>90</v>
       </c>
@@ -8126,7 +8170,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>90</v>
       </c>
@@ -8156,7 +8200,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>90</v>
       </c>
@@ -8186,7 +8230,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>90</v>
       </c>
@@ -8216,7 +8260,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>90</v>
       </c>
@@ -8246,7 +8290,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>90</v>
       </c>
@@ -8276,7 +8320,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>90</v>
       </c>
@@ -8306,7 +8350,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>90</v>
       </c>
@@ -8336,7 +8380,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>90</v>
       </c>
@@ -8366,7 +8410,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>90</v>
       </c>
@@ -8396,7 +8440,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>90</v>
       </c>
@@ -8426,7 +8470,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>90</v>
       </c>
@@ -8456,7 +8500,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>90</v>
       </c>
@@ -8486,7 +8530,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>90</v>
       </c>
@@ -8516,7 +8560,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>90</v>
       </c>
@@ -8546,7 +8590,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>90</v>
       </c>
@@ -8576,7 +8620,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>90</v>
       </c>
@@ -8606,7 +8650,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>90</v>
       </c>
@@ -8636,7 +8680,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>90</v>
       </c>
@@ -8666,7 +8710,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>90</v>
       </c>
@@ -8696,7 +8740,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>90</v>
       </c>
@@ -8726,7 +8770,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>90</v>
       </c>
@@ -8756,7 +8800,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>90</v>
       </c>
@@ -8786,7 +8830,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>90</v>
       </c>
@@ -8816,7 +8860,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>90</v>
       </c>
@@ -8846,7 +8890,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>90</v>
       </c>
@@ -8876,7 +8920,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>90</v>
       </c>
@@ -8906,7 +8950,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>90</v>
       </c>
@@ -8936,7 +8980,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>90</v>
       </c>
@@ -8966,7 +9010,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>90</v>
       </c>
@@ -8996,7 +9040,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>90</v>
       </c>
@@ -9026,7 +9070,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>90</v>
       </c>
@@ -9056,7 +9100,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>90</v>
       </c>
@@ -9086,7 +9130,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>90</v>
       </c>
@@ -9116,7 +9160,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>90</v>
       </c>
@@ -9146,7 +9190,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>90</v>
       </c>
@@ -9176,7 +9220,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>90</v>
       </c>
@@ -9206,7 +9250,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>90</v>
       </c>
@@ -9236,7 +9280,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>90</v>
       </c>
@@ -9266,7 +9310,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>90</v>
       </c>
@@ -9296,7 +9340,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>90</v>
       </c>
@@ -9326,7 +9370,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>90</v>
       </c>
@@ -9356,7 +9400,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>90</v>
       </c>
@@ -9386,7 +9430,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>90</v>
       </c>
@@ -9416,7 +9460,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>90</v>
       </c>
@@ -9446,7 +9490,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>90</v>
       </c>
@@ -9476,7 +9520,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>90</v>
       </c>
@@ -9506,7 +9550,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>91</v>
       </c>
@@ -9536,7 +9580,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>91</v>
       </c>
@@ -9566,7 +9610,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>91</v>
       </c>
@@ -9596,7 +9640,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>91</v>
       </c>
@@ -9626,7 +9670,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>91</v>
       </c>
@@ -9656,7 +9700,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>91</v>
       </c>
@@ -9686,7 +9730,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>91</v>
       </c>
@@ -9716,7 +9760,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>91</v>
       </c>
@@ -9746,7 +9790,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>91</v>
       </c>
@@ -9776,7 +9820,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>91</v>
       </c>
@@ -9806,7 +9850,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>91</v>
       </c>
@@ -9836,7 +9880,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>91</v>
       </c>
@@ -9866,7 +9910,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>91</v>
       </c>
@@ -9896,7 +9940,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>91</v>
       </c>
@@ -9926,7 +9970,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>91</v>
       </c>
@@ -9956,7 +10000,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>91</v>
       </c>
@@ -9986,7 +10030,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>91</v>
       </c>
@@ -10016,7 +10060,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>91</v>
       </c>
@@ -10046,7 +10090,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>91</v>
       </c>
@@ -10076,7 +10120,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>91</v>
       </c>
@@ -10106,7 +10150,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>91</v>
       </c>
@@ -10136,7 +10180,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>91</v>
       </c>
@@ -10166,7 +10210,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>91</v>
       </c>
@@ -10196,7 +10240,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>91</v>
       </c>
@@ -10226,7 +10270,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>91</v>
       </c>
@@ -10256,7 +10300,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>91</v>
       </c>
@@ -10286,7 +10330,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>91</v>
       </c>
@@ -10309,14 +10353,14 @@
         <v>30</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I224" t="str" cm="1">
         <f t="array" ref="I224">_xlfn.IFS(D224 &gt;= 0.85, "85  &lt;", AND(D224 &gt;=0.8, D224 &lt; 0.85), "80-85", AND(D224 &gt;= 0.7, D224 &lt; 0.8), "70-80", AND(D224 &gt;= 0.6, D224 &lt; 0.7),  "60-70", AND(D224 &gt;= 0.5, D224 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>91</v>
       </c>
@@ -10346,7 +10390,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>91</v>
       </c>
@@ -10369,14 +10413,14 @@
         <v>73</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="str" cm="1">
         <f t="array" ref="I226">_xlfn.IFS(D226 &gt;= 0.85, "85  &lt;", AND(D226 &gt;=0.8, D226 &lt; 0.85), "80-85", AND(D226 &gt;= 0.7, D226 &lt; 0.8), "70-80", AND(D226 &gt;= 0.6, D226 &lt; 0.7),  "60-70", AND(D226 &gt;= 0.5, D226 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>91</v>
       </c>
@@ -10399,14 +10443,14 @@
         <v>50</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I227" t="str" cm="1">
         <f t="array" ref="I227">_xlfn.IFS(D227 &gt;= 0.85, "85  &lt;", AND(D227 &gt;=0.8, D227 &lt; 0.85), "80-85", AND(D227 &gt;= 0.7, D227 &lt; 0.8), "70-80", AND(D227 &gt;= 0.6, D227 &lt; 0.7),  "60-70", AND(D227 &gt;= 0.5, D227 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>91</v>
       </c>
@@ -10429,14 +10473,14 @@
         <v>68</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="str" cm="1">
         <f t="array" ref="I228">_xlfn.IFS(D228 &gt;= 0.85, "85  &lt;", AND(D228 &gt;=0.8, D228 &lt; 0.85), "80-85", AND(D228 &gt;= 0.7, D228 &lt; 0.8), "70-80", AND(D228 &gt;= 0.6, D228 &lt; 0.7),  "60-70", AND(D228 &gt;= 0.5, D228 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>91</v>
       </c>
@@ -10459,14 +10503,14 @@
         <v>67</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="str" cm="1">
         <f t="array" ref="I229">_xlfn.IFS(D229 &gt;= 0.85, "85  &lt;", AND(D229 &gt;=0.8, D229 &lt; 0.85), "80-85", AND(D229 &gt;= 0.7, D229 &lt; 0.8), "70-80", AND(D229 &gt;= 0.6, D229 &lt; 0.7),  "60-70", AND(D229 &gt;= 0.5, D229 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>91</v>
       </c>
@@ -10494,6 +10538,126 @@
       <c r="I230" t="str" cm="1">
         <f t="array" ref="I230">_xlfn.IFS(D230 &gt;= 0.85, "85  &lt;", AND(D230 &gt;=0.8, D230 &lt; 0.85), "80-85", AND(D230 &gt;= 0.7, D230 &lt; 0.8), "70-80", AND(D230 &gt;= 0.6, D230 &lt; 0.7),  "60-70", AND(D230 &gt;= 0.5, D230 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>91</v>
+      </c>
+      <c r="B231" s="1">
+        <v>45310</v>
+      </c>
+      <c r="C231" t="s">
+        <v>58</v>
+      </c>
+      <c r="D231" s="2">
+        <v>0.6583</v>
+      </c>
+      <c r="E231" t="s">
+        <v>26</v>
+      </c>
+      <c r="F231" s="2">
+        <v>0.3417</v>
+      </c>
+      <c r="G231" t="s">
+        <v>27</v>
+      </c>
+      <c r="H231">
+        <v>1</v>
+      </c>
+      <c r="I231" t="str" cm="1">
+        <f t="array" ref="I231">_xlfn.IFS(D231 &gt;= 0.85, "85  &lt;", AND(D231 &gt;=0.8, D231 &lt; 0.85), "80-85", AND(D231 &gt;= 0.7, D231 &lt; 0.8), "70-80", AND(D231 &gt;= 0.6, D231 &lt; 0.7),  "60-70", AND(D231 &gt;= 0.5, D231 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>91</v>
+      </c>
+      <c r="B232" s="1">
+        <v>45310</v>
+      </c>
+      <c r="C232" t="s">
+        <v>39</v>
+      </c>
+      <c r="D232" s="2">
+        <v>0.64880000000000004</v>
+      </c>
+      <c r="E232" t="s">
+        <v>43</v>
+      </c>
+      <c r="F232" s="2">
+        <v>0.35120000000000001</v>
+      </c>
+      <c r="G232" t="s">
+        <v>70</v>
+      </c>
+      <c r="H232">
+        <v>1</v>
+      </c>
+      <c r="I232" t="str" cm="1">
+        <f t="array" ref="I232">_xlfn.IFS(D232 &gt;= 0.85, "85  &lt;", AND(D232 &gt;=0.8, D232 &lt; 0.85), "80-85", AND(D232 &gt;= 0.7, D232 &lt; 0.8), "70-80", AND(D232 &gt;= 0.6, D232 &lt; 0.7),  "60-70", AND(D232 &gt;= 0.5, D232 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>91</v>
+      </c>
+      <c r="B233" s="1">
+        <v>45310</v>
+      </c>
+      <c r="C233" t="s">
+        <v>19</v>
+      </c>
+      <c r="D233" s="2">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="E233" t="s">
+        <v>37</v>
+      </c>
+      <c r="F233" s="2">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="G233" t="s">
+        <v>21</v>
+      </c>
+      <c r="H233">
+        <v>1</v>
+      </c>
+      <c r="I233" t="str" cm="1">
+        <f t="array" ref="I233">_xlfn.IFS(D233 &gt;= 0.85, "85  &lt;", AND(D233 &gt;=0.8, D233 &lt; 0.85), "80-85", AND(D233 &gt;= 0.7, D233 &lt; 0.8), "70-80", AND(D233 &gt;= 0.6, D233 &lt; 0.7),  "60-70", AND(D233 &gt;= 0.5, D233 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>91</v>
+      </c>
+      <c r="B234" s="1">
+        <v>45310</v>
+      </c>
+      <c r="C234" t="s">
+        <v>22</v>
+      </c>
+      <c r="D234" s="2">
+        <v>0.60119999999999996</v>
+      </c>
+      <c r="E234" t="s">
+        <v>54</v>
+      </c>
+      <c r="F234" s="2">
+        <v>0.39879999999999999</v>
+      </c>
+      <c r="G234" t="s">
+        <v>72</v>
+      </c>
+      <c r="H234">
+        <v>1</v>
+      </c>
+      <c r="I234" t="str" cm="1">
+        <f t="array" ref="I234">_xlfn.IFS(D234 &gt;= 0.85, "85  &lt;", AND(D234 &gt;=0.8, D234 &lt; 0.85), "80-85", AND(D234 &gt;= 0.7, D234 &lt; 0.8), "70-80", AND(D234 &gt;= 0.6, D234 &lt; 0.7),  "60-70", AND(D234 &gt;= 0.5, D234 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
       </c>
     </row>
   </sheetData>
